--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="843">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2836,6 +2836,17 @@
   </si>
   <si>
     <t>扬州市花芍药中的金带围非常出名，人们说此花一开城中当有宰相出现，民间流传着“四相簪花”的故事，簪花亭的名称由此而来。</t>
+  </si>
+  <si>
+    <t>苏州市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴江区</t>
+  </si>
+  <si>
+    <t>同里古镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3317,12 +3328,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I398"/>
+  <dimension ref="A1:I399"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G398" sqref="G398"/>
+      <selection pane="bottomLeft" activeCell="I399" sqref="I399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13226,6 +13237,20 @@
         <v>839</v>
       </c>
     </row>
+    <row r="399" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B399" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="C399" s="16" t="s">
+        <v>841</v>
+      </c>
+      <c r="E399" s="16" t="s">
+        <v>842</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="870">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2847,6 +2847,88 @@
   <si>
     <t>同里古镇</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同里是江南六大古镇之一，建于宋代，至今已有千年历史。据清嘉庆《同里志》记载，从宋元明代起，同里已经是吴中重镇。由于它与外界只通船只，所以很少遭受兵乱灾害，便成为了富绅豪商避乱安居的理想之地。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退思园</t>
+  </si>
+  <si>
+    <t>陈去病故居</t>
+  </si>
+  <si>
+    <t>崇本堂（婚俗馆）</t>
+  </si>
+  <si>
+    <t>耕乐堂</t>
+  </si>
+  <si>
+    <t>嘉荫堂</t>
+  </si>
+  <si>
+    <t>罗星洲</t>
+  </si>
+  <si>
+    <t>明清街</t>
+  </si>
+  <si>
+    <t>南园茶社</t>
+  </si>
+  <si>
+    <t>松石悟园</t>
+  </si>
+  <si>
+    <t>王绍鏊纪念馆</t>
+  </si>
+  <si>
+    <t>影视基地</t>
+  </si>
+  <si>
+    <t>珍珠塔景园</t>
+  </si>
+  <si>
+    <t>走三桥</t>
+  </si>
+  <si>
+    <t>退思园建于清光绪十一年，园主叫任兰生，是同里人。</t>
+  </si>
+  <si>
+    <t>陈去病是中国诗人，同里镇人。早年要求变法维新，后来参加同盟会，是南社创始人之一。</t>
+  </si>
+  <si>
+    <t>这里是崇本堂，原来是一户米商家，主人叫钱幼琴，是同里人，后来改建成展馆，叫江南水乡婚俗馆。</t>
+  </si>
+  <si>
+    <t>同里镇上的这座耕乐堂，是前宅后园，典型的明清宅第风格，由明代处士朱祥所建。朱祥，字廷瑞，号耕乐，堂名就是取自朱祥的号。</t>
+  </si>
+  <si>
+    <t>嘉荫堂始建于民国初，仿明代建筑，高大宽敞。因为宅主叫柳炳南，所以也称柳宅。</t>
+  </si>
+  <si>
+    <t>罗星洲是一块集佛教、道教、儒教三教合一的这样一个地方，位于同里镇的东面，是浮现在湖面上的一个小岛，须乘小船前往，凭同里景点票免费乘坐，数分钟就抵达小岛。在船上可欣赏到同里湖烟波浩渺、鱼帆点点的水乡景色。</t>
+  </si>
+  <si>
+    <t>明清街是古镇重要的商业街之一。1996年开辟建的这条明清街，街长160多米，为明清建筑风格。</t>
+  </si>
+  <si>
+    <t>南园茶社原来名字叫“福安茶社”，建于清末初期，是一间四开间的门面，全部是传统的砖木结构，清代风格的木雕装饰，上下两层，别有一番风味。</t>
+  </si>
+  <si>
+    <t>松石悟园简称悟园，是同里镇比较有名的松屏石展馆（松屏石就是形成于约二亿多年前的松石，属变质岩），这里陈列着一千二百多块松屏石板画精品。</t>
+  </si>
+  <si>
+    <t>王绍鏊1888年出生于同里镇，是中国民主促进会的主要创始人之一，同时也是著名的社会活动家、同里历代名人名士中较为杰出的代表。</t>
+  </si>
+  <si>
+    <t>中国同里影视摄制基地，简称影视基地，这个地方总是会有很多人来拍照，中间这块标志性建筑像一个广角镜头。</t>
+  </si>
+  <si>
+    <t>珍珠塔景园为后来重建，原先这边有一户人家，姓陈，陈家的陈王道是南京监察御史，相当于现在的中纪委主任这样一个职位，民间故事《珍珠塔》就是源自陈王道的家事。</t>
+  </si>
+  <si>
+    <t>三桥是指太平桥、吉利桥和长庆桥，三桥挨得近，正好呈“品”字型，站三桥这块，能看见沿河青石驳岸、河中船来船去，有独特的风景可赏。那走三桥说的是同里的一种风俗。</t>
   </si>
 </sst>
 </file>
@@ -3328,12 +3410,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I399"/>
+  <dimension ref="A1:I412"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I399" sqref="I399"/>
+      <selection pane="bottomLeft" activeCell="G411" sqref="G411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13241,14 +13323,320 @@
       <c r="A399" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B399" s="16" t="s">
+      <c r="B399" s="15" t="s">
         <v>840</v>
       </c>
-      <c r="C399" s="16" t="s">
+      <c r="C399" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="E399" s="16" t="s">
+      <c r="D399" s="15"/>
+      <c r="E399" s="15" t="s">
         <v>842</v>
+      </c>
+      <c r="F399" s="15"/>
+      <c r="G399" s="15"/>
+      <c r="H399" s="15"/>
+      <c r="I399" s="15" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B400" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C400" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D400" s="15"/>
+      <c r="E400" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F400" s="15" t="s">
+        <v>844</v>
+      </c>
+      <c r="G400" s="15"/>
+      <c r="H400" s="15"/>
+      <c r="I400" s="15" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B401" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C401" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D401" s="15"/>
+      <c r="E401" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F401" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="G401" s="15"/>
+      <c r="H401" s="15"/>
+      <c r="I401" s="15" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B402" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C402" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D402" s="15"/>
+      <c r="E402" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F402" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="G402" s="15"/>
+      <c r="H402" s="15"/>
+      <c r="I402" s="15" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B403" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C403" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D403" s="15"/>
+      <c r="E403" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F403" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="G403" s="15"/>
+      <c r="H403" s="15"/>
+      <c r="I403" s="15" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B404" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C404" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D404" s="15"/>
+      <c r="E404" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F404" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="G404" s="15"/>
+      <c r="H404" s="15"/>
+      <c r="I404" s="15" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B405" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C405" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D405" s="15"/>
+      <c r="E405" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F405" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="G405" s="15"/>
+      <c r="H405" s="15"/>
+      <c r="I405" s="15" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B406" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C406" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D406" s="15"/>
+      <c r="E406" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F406" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="G406" s="15"/>
+      <c r="H406" s="15"/>
+      <c r="I406" s="15" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B407" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C407" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D407" s="15"/>
+      <c r="E407" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F407" s="15" t="s">
+        <v>851</v>
+      </c>
+      <c r="G407" s="15"/>
+      <c r="H407" s="15"/>
+      <c r="I407" s="15" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B408" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C408" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D408" s="15"/>
+      <c r="E408" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F408" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="G408" s="15"/>
+      <c r="H408" s="15"/>
+      <c r="I408" s="15" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B409" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C409" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D409" s="15"/>
+      <c r="E409" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F409" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="G409" s="15"/>
+      <c r="H409" s="15"/>
+      <c r="I409" s="15" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B410" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C410" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D410" s="15"/>
+      <c r="E410" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F410" s="15" t="s">
+        <v>854</v>
+      </c>
+      <c r="G410" s="15"/>
+      <c r="H410" s="15"/>
+      <c r="I410" s="15" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B411" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C411" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D411" s="15"/>
+      <c r="E411" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F411" s="15" t="s">
+        <v>855</v>
+      </c>
+      <c r="G411" s="15"/>
+      <c r="H411" s="15"/>
+      <c r="I411" s="15" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B412" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C412" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D412" s="15"/>
+      <c r="E412" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F412" s="15" t="s">
+        <v>856</v>
+      </c>
+      <c r="G412" s="15"/>
+      <c r="H412" s="15"/>
+      <c r="I412" s="15" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="870">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2836,6 +2836,99 @@
   </si>
   <si>
     <t>扬州市花芍药中的金带围非常出名，人们说此花一开城中当有宰相出现，民间流传着“四相簪花”的故事，簪花亭的名称由此而来。</t>
+  </si>
+  <si>
+    <t>苏州市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴江区</t>
+  </si>
+  <si>
+    <t>同里古镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同里是江南六大古镇之一，建于宋代，至今已有千年历史。据清嘉庆《同里志》记载，从宋元明代起，同里已经是吴中重镇。由于它与外界只通船只，所以很少遭受兵乱灾害，便成为了富绅豪商避乱安居的理想之地。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退思园</t>
+  </si>
+  <si>
+    <t>陈去病故居</t>
+  </si>
+  <si>
+    <t>崇本堂（婚俗馆）</t>
+  </si>
+  <si>
+    <t>耕乐堂</t>
+  </si>
+  <si>
+    <t>嘉荫堂</t>
+  </si>
+  <si>
+    <t>罗星洲</t>
+  </si>
+  <si>
+    <t>明清街</t>
+  </si>
+  <si>
+    <t>南园茶社</t>
+  </si>
+  <si>
+    <t>松石悟园</t>
+  </si>
+  <si>
+    <t>王绍鏊纪念馆</t>
+  </si>
+  <si>
+    <t>影视基地</t>
+  </si>
+  <si>
+    <t>珍珠塔景园</t>
+  </si>
+  <si>
+    <t>走三桥</t>
+  </si>
+  <si>
+    <t>退思园建于清光绪十一年，园主叫任兰生，是同里人。</t>
+  </si>
+  <si>
+    <t>陈去病是中国诗人，同里镇人。早年要求变法维新，后来参加同盟会，是南社创始人之一。</t>
+  </si>
+  <si>
+    <t>这里是崇本堂，原来是一户米商家，主人叫钱幼琴，是同里人，后来改建成展馆，叫江南水乡婚俗馆。</t>
+  </si>
+  <si>
+    <t>同里镇上的这座耕乐堂，是前宅后园，典型的明清宅第风格，由明代处士朱祥所建。朱祥，字廷瑞，号耕乐，堂名就是取自朱祥的号。</t>
+  </si>
+  <si>
+    <t>嘉荫堂始建于民国初，仿明代建筑，高大宽敞。因为宅主叫柳炳南，所以也称柳宅。</t>
+  </si>
+  <si>
+    <t>罗星洲是一块集佛教、道教、儒教三教合一的这样一个地方，位于同里镇的东面，是浮现在湖面上的一个小岛，须乘小船前往，凭同里景点票免费乘坐，数分钟就抵达小岛。在船上可欣赏到同里湖烟波浩渺、鱼帆点点的水乡景色。</t>
+  </si>
+  <si>
+    <t>明清街是古镇重要的商业街之一。1996年开辟建的这条明清街，街长160多米，为明清建筑风格。</t>
+  </si>
+  <si>
+    <t>南园茶社原来名字叫“福安茶社”，建于清末初期，是一间四开间的门面，全部是传统的砖木结构，清代风格的木雕装饰，上下两层，别有一番风味。</t>
+  </si>
+  <si>
+    <t>松石悟园简称悟园，是同里镇比较有名的松屏石展馆（松屏石就是形成于约二亿多年前的松石，属变质岩），这里陈列着一千二百多块松屏石板画精品。</t>
+  </si>
+  <si>
+    <t>王绍鏊1888年出生于同里镇，是中国民主促进会的主要创始人之一，同时也是著名的社会活动家、同里历代名人名士中较为杰出的代表。</t>
+  </si>
+  <si>
+    <t>中国同里影视摄制基地，简称影视基地，这个地方总是会有很多人来拍照，中间这块标志性建筑像一个广角镜头。</t>
+  </si>
+  <si>
+    <t>珍珠塔景园为后来重建，原先这边有一户人家，姓陈，陈家的陈王道是南京监察御史，相当于现在的中纪委主任这样一个职位，民间故事《珍珠塔》就是源自陈王道的家事。</t>
+  </si>
+  <si>
+    <t>三桥是指太平桥、吉利桥和长庆桥，三桥挨得近，正好呈“品”字型，站三桥这块，能看见沿河青石驳岸、河中船来船去，有独特的风景可赏。那走三桥说的是同里的一种风俗。</t>
   </si>
 </sst>
 </file>
@@ -3317,12 +3410,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I398"/>
+  <dimension ref="A1:I412"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G398" sqref="G398"/>
+      <selection pane="bottomLeft" activeCell="G411" sqref="G411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13226,6 +13319,326 @@
         <v>839</v>
       </c>
     </row>
+    <row r="399" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B399" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C399" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D399" s="15"/>
+      <c r="E399" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F399" s="15"/>
+      <c r="G399" s="15"/>
+      <c r="H399" s="15"/>
+      <c r="I399" s="15" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B400" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C400" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D400" s="15"/>
+      <c r="E400" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F400" s="15" t="s">
+        <v>844</v>
+      </c>
+      <c r="G400" s="15"/>
+      <c r="H400" s="15"/>
+      <c r="I400" s="15" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B401" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C401" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D401" s="15"/>
+      <c r="E401" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F401" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="G401" s="15"/>
+      <c r="H401" s="15"/>
+      <c r="I401" s="15" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B402" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C402" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D402" s="15"/>
+      <c r="E402" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F402" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="G402" s="15"/>
+      <c r="H402" s="15"/>
+      <c r="I402" s="15" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B403" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C403" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D403" s="15"/>
+      <c r="E403" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F403" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="G403" s="15"/>
+      <c r="H403" s="15"/>
+      <c r="I403" s="15" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B404" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C404" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D404" s="15"/>
+      <c r="E404" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F404" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="G404" s="15"/>
+      <c r="H404" s="15"/>
+      <c r="I404" s="15" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B405" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C405" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D405" s="15"/>
+      <c r="E405" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F405" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="G405" s="15"/>
+      <c r="H405" s="15"/>
+      <c r="I405" s="15" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B406" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C406" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D406" s="15"/>
+      <c r="E406" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F406" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="G406" s="15"/>
+      <c r="H406" s="15"/>
+      <c r="I406" s="15" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B407" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C407" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D407" s="15"/>
+      <c r="E407" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F407" s="15" t="s">
+        <v>851</v>
+      </c>
+      <c r="G407" s="15"/>
+      <c r="H407" s="15"/>
+      <c r="I407" s="15" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B408" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C408" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D408" s="15"/>
+      <c r="E408" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F408" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="G408" s="15"/>
+      <c r="H408" s="15"/>
+      <c r="I408" s="15" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B409" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C409" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D409" s="15"/>
+      <c r="E409" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F409" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="G409" s="15"/>
+      <c r="H409" s="15"/>
+      <c r="I409" s="15" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B410" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C410" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D410" s="15"/>
+      <c r="E410" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F410" s="15" t="s">
+        <v>854</v>
+      </c>
+      <c r="G410" s="15"/>
+      <c r="H410" s="15"/>
+      <c r="I410" s="15" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B411" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C411" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D411" s="15"/>
+      <c r="E411" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F411" s="15" t="s">
+        <v>855</v>
+      </c>
+      <c r="G411" s="15"/>
+      <c r="H411" s="15"/>
+      <c r="I411" s="15" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B412" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C412" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="D412" s="15"/>
+      <c r="E412" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="F412" s="15" t="s">
+        <v>856</v>
+      </c>
+      <c r="G412" s="15"/>
+      <c r="H412" s="15"/>
+      <c r="I412" s="15" t="s">
+        <v>869</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="950">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3236,6 +3236,18 @@
   </si>
   <si>
     <t>迪诺水镇以现代高科技为基础建设的多媒体音乐主题景观喷泉，是世界音乐喷泉最先进技术的代表。所有的音乐喷泉全部采用电脑控制，把水、音乐、灯光有机地结合在一起，带给你音乐声响、视觉形象、色彩变换三位一体的艺术享受。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜堰市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溱湖国家湿地公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自2003年开园以来，溱湖风景区严格遵循“生态优先、全面保护、突出重点、合理利用、持续发展”的原则，立足自身优势和特点，坚持走湿地保护与可持续发展协调共进的道路，先后投资近10亿元，大力实施了科普宣教中心、喜鹊湖度假村新扩建、湿地精品园、湿地体验园、探险乐园、军体乐园、农事乐园、麋鹿观赏园等景点设施建设；开展了湿地恢复、水环境治理等生态恢复工程，累计恢复湿地近万亩，栽植各类耐湿树木450多万株、水生植物130多万株，恢复本土绿地近30万平方米；随着溱湖生态环境的改善，溱湖已日渐成为各种鸟类和野生动物栖息的天堂，据初步观察和统计，现在每年都有30多种近10万只候鸟在溱湖栖息，“万鸟云集，千鹭飞起”已经成为溱湖的一大景观特色。经过开发和利用，如今的溱湖湿地公园已形成以溱湖为主体的溱潼会船水文化景区，以中国溱湖湿地科普馆、科普长廊为主体的湿地科普教育区，以麋鹿故乡园、水禽园、鳄鱼馆为主体的湿地动物区，以湿地体验园、湿地精品园为主体的湿地生态展示区。溱湖湿地公园建成以来，先后获得国家AAAA级旅游景区、国家级水利风景区、国家级湿地公园试点、全国林业产业突出贡献奖、全国科普教育基地、全球湿地宣传教育基地、长江湿地保护与管理先进集体、江苏省自驾游基地、江苏省生态文明教育基地、江苏省文化产业示范基地等荣誉称号。4月22日，国家林业局湿地保护中心组织湿地专家组对江苏溱湖湿地公园进行了系统考察，听取了溱湖湿地公园及地方政府、行业主管部门的工作汇报，与社区及公园工作人员交流，审阅了相关文本资料，经认真评估，专家组一致同意通过该公园建设验收，使溱湖湿地公园成为全国第一家通过国家林业局验收的国家湿地公园。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3669,12 +3681,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I450"/>
+  <dimension ref="A1:I451"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H414" sqref="H414"/>
+      <selection pane="bottomLeft" activeCell="I452" sqref="I452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14205,6 +14217,20 @@
         <v>946</v>
       </c>
     </row>
+    <row r="451" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="I451" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="962">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3248,6 +3248,56 @@
   </si>
   <si>
     <t>自2003年开园以来，溱湖风景区严格遵循“生态优先、全面保护、突出重点、合理利用、持续发展”的原则，立足自身优势和特点，坚持走湿地保护与可持续发展协调共进的道路，先后投资近10亿元，大力实施了科普宣教中心、喜鹊湖度假村新扩建、湿地精品园、湿地体验园、探险乐园、军体乐园、农事乐园、麋鹿观赏园等景点设施建设；开展了湿地恢复、水环境治理等生态恢复工程，累计恢复湿地近万亩，栽植各类耐湿树木450多万株、水生植物130多万株，恢复本土绿地近30万平方米；随着溱湖生态环境的改善，溱湖已日渐成为各种鸟类和野生动物栖息的天堂，据初步观察和统计，现在每年都有30多种近10万只候鸟在溱湖栖息，“万鸟云集，千鹭飞起”已经成为溱湖的一大景观特色。经过开发和利用，如今的溱湖湿地公园已形成以溱湖为主体的溱潼会船水文化景区，以中国溱湖湿地科普馆、科普长廊为主体的湿地科普教育区，以麋鹿故乡园、水禽园、鳄鱼馆为主体的湿地动物区，以湿地体验园、湿地精品园为主体的湿地生态展示区。溱湖湿地公园建成以来，先后获得国家AAAA级旅游景区、国家级水利风景区、国家级湿地公园试点、全国林业产业突出贡献奖、全国科普教育基地、全球湿地宣传教育基地、长江湿地保护与管理先进集体、江苏省自驾游基地、江苏省生态文明教育基地、江苏省文化产业示范基地等荣誉称号。4月22日，国家林业局湿地保护中心组织湿地专家组对江苏溱湖湿地公园进行了系统考察，听取了溱湖湿地公园及地方政府、行业主管部门的工作汇报，与社区及公园工作人员交流，审阅了相关文本资料，经认真评估，专家组一致同意通过该公园建设验收，使溱湖湿地公园成为全国第一家通过国家林业局验收的国家湿地公园。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业园区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡湖景区，全国唯一商务旅游特质的国家AAAAA级旅游景区，“国家商务旅游示范区”的集中展示区。景区总面积11.5平方公里(其中水域面积7.4平方公里)，按照“园区即景区、商务即旅游”的城市
+商务旅游功能布局，以金鸡湖为中心，投资89.53亿元，精心打造了五大功能区：文化会展区、时尚购物区、休闲美食区、城市观光区、中央水景区。八大景观带来绮丽的感官之旅，六大商旅体验提供高端时尚品鉴，为商务人士、游客、市民提供丰富的定制化旅游产品。
+从观光旅游到商务旅游，金鸡湖景区正以全新思维诠释现代商务旅游魅力，打造国际商务旅游目的地，向海内外游客展现二十一世纪的苏州“人间新天堂”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡湖景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李公堤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李公堤是苏州金鸡湖中唯一的一条湖中长堤，全长2200米，是由I期、II期、III期、IV期组成，建筑面积近二十万平方米的现代苏州首席滨水休闲娱乐区，整体风格典雅精致，宛如金鸡湖中一颗璀璨明珠的她不仅拥有众多的旅游资源，还集成了苏州最发达的餐饮和酒吧娱乐街区，目前已成为苏州滨水景观休闲行业的新地标和苏州市区首家“中国特色商业街”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩天轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩天轮位于金鸡湖东畔，包括120米的摩天轮及配套游乐设施的游乐公园，而摩天轮则是湖东的一个制高点，吸引人们眼球的同时更为湖东带来超高的人气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆融雕塑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆融的意思就是和谐湖岸上的圆融雕塑既是苏州工业园区的标志，也是国际合作的象征。湖滨新天地是园区的时尚地标，早晨和黄昏，总有不同国籍、不同肤色、不同年纪的人在这里流连忘返，让我们感觉世界就走在园区的湖滨大道上。如果说传统苏州的元素是小桥、流水、人家，那么现代苏州工业园区的元素就是湖水、雕塑、广场。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光码头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光码头由园区商旅倾力巨献，引进多家国际机构，如苏州翰尔酒店、瑞芙臣、欧菲丽酒吧等。致力于打造以“夜天堂”为核心理念的苏州月光经济产业模式，通过高级会所、量贩KTV、异国风情餐饮、时尚酒吧等业态的有机组合，将成为以休闲、娱乐、主题餐饮为特色的苏州园区环金鸡湖商圈的又一大亮点。建筑及景观均由美国优联加建筑设计事务所设计。月光码头的设计充分利用基地的景观和滨水优势，总共17栋楼，最高的是4层，最低的2层创造出了优美精致的景观建筑，加之国际一流的泛光照明技术，令其在夜色中充满了绚丽迷离的神秘色彩。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3681,12 +3731,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I451"/>
+  <dimension ref="A1:I456"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I452" sqref="I452"/>
+      <selection pane="bottomLeft" activeCell="F457" sqref="F457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14231,6 +14281,103 @@
         <v>949</v>
       </c>
     </row>
+    <row r="452" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="I452" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="I453" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="I454" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="I455" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="I456" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="968">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3298,6 +3298,30 @@
   </si>
   <si>
     <t>月光码头由园区商旅倾力巨献，引进多家国际机构，如苏州翰尔酒店、瑞芙臣、欧菲丽酒吧等。致力于打造以“夜天堂”为核心理念的苏州月光经济产业模式，通过高级会所、量贩KTV、异国风情餐饮、时尚酒吧等业态的有机组合，将成为以休闲、娱乐、主题餐饮为特色的苏州园区环金鸡湖商圈的又一大亮点。建筑及景观均由美国优联加建筑设计事务所设计。月光码头的设计充分利用基地的景观和滨水优势，总共17栋楼，最高的是4层，最低的2层创造出了优美精致的景观建筑，加之国际一流的泛光照明技术，令其在夜色中充满了绚丽迷离的神秘色彩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化会展区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡湖景区的国际会展区以苏州文化艺术中心和苏州国际博览中心为核心，区内集合大型剧院、豪华影城、演艺餐厅、7000个国际标准展位等众多国际一流会展配置设施。其中前者已成为中国电影“金鸡奖”永久性评审基地；后者则成为长三角地区重要的进出口贸易窗口、经济技术合作平台、商务活动和时尚生活的展示中心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际博览中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州国际博览中心地处苏州工业园区CBD核心区域，是集展览、会议、节庆、商贸、餐饮、休闲于一体的大型会展综合体。拥有齐全的功能与合理的布局，可承接国际、国内大型展览、会议及活动，是苏州唯一一家具备国际会展业三大行业组织——全球展览协会（UFI）、国际展览与项目协会（IAEE）、国际独立组展商协会（SISO）正式会员资格的国内展览场馆。 作为苏州市会展业的主要平台，苏州国际博览中心拥有一支全面、高效的会展服务队伍，积累了丰富的国内国际大型展会活动的服务经验，能提供专业、优质、国际 化、人性化的展览会务服务，包括住宿、餐饮、旅游、购物、交通、票务等在内的一站式展会活动配套服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化艺术中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州文化艺术中心——湖上珍珠折射文化之光苏州文化艺术中心地处金鸡湖文化水廊，临水而筑，于2007年10月正式成立，是苏州标志性的文化高地、多元化的艺术殿堂、国际化的交流平台、也是百姓的精神家园。文化艺术中心集剧院、影城、艺术、展览、文化、休闲、购物等功能于一体，承载着苏州市外观最美、体量最大、功能最全、设备最好的美誉。其中，大剧院是“亚洲太平洋地区剧院表演艺术中心联盟”成员；苏艺影城票房一直傲居苏州影院票房之冠，是中国“金鸡奖”永久评奖基地，也是苏州首家国家挂牌“五星级影院”。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3731,12 +3755,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I456"/>
+  <dimension ref="A1:I461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F457" sqref="F457"/>
+      <selection pane="bottomLeft" activeCell="H456" sqref="H456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14299,82 +14323,106 @@
       </c>
     </row>
     <row r="453" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="2" t="s">
+      <c r="F453" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="I453" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G454" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="I454" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G455" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="I455" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B458" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="C453" s="2" t="s">
+      <c r="C458" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="E453" s="2" t="s">
+      <c r="E458" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="F453" s="2" t="s">
+      <c r="F458" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="I453" s="2" t="s">
+      <c r="I458" s="2" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="2" t="s">
+    <row r="459" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B454" s="2" t="s">
+      <c r="B459" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="C454" s="2" t="s">
+      <c r="C459" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="E454" s="2" t="s">
+      <c r="E459" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="F454" s="2" t="s">
+      <c r="F459" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="I454" s="2" t="s">
+      <c r="I459" s="2" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="2" t="s">
+    <row r="460" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="B460" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="C455" s="2" t="s">
+      <c r="C460" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="E455" s="2" t="s">
+      <c r="E460" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="F455" s="2" t="s">
+      <c r="F460" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="I455" s="2" t="s">
+      <c r="I460" s="2" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="2" t="s">
+    <row r="461" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B461" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="C456" s="2" t="s">
+      <c r="C461" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="E456" s="2" t="s">
+      <c r="E461" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="F456" s="2" t="s">
+      <c r="F461" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="I456" s="2" t="s">
+      <c r="I461" s="2" t="s">
         <v>961</v>
       </c>
     </row>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1009">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3322,6 +3322,170 @@
   </si>
   <si>
     <t>苏州文化艺术中心——湖上珍珠折射文化之光苏州文化艺术中心地处金鸡湖文化水廊，临水而筑，于2007年10月正式成立，是苏州标志性的文化高地、多元化的艺术殿堂、国际化的交流平台、也是百姓的精神家园。文化艺术中心集剧院、影城、艺术、展览、文化、休闲、购物等功能于一体，承载着苏州市外观最美、体量最大、功能最全、设备最好的美誉。其中，大剧院是“亚洲太平洋地区剧院表演艺术中心联盟”成员；苏艺影城票房一直傲居苏州影院票房之冠，是中国“金鸡奖”永久评奖基地，也是苏州首家国家挂牌“五星级影院”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴塞当代艺术馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴塞当代美术馆由国内一流的文化艺术机构——上海巴塞艺术中心投资建设，是苏州工业园区唯一的当代艺术展馆。苏州巴塞当代美术馆的开办将以其成熟的艺术与商业合作发展的操作模式，在苏推出一批重量级艺术展品及艺术家，通过开办各类大型艺术展会，极大地推动苏州当代艺术的发展。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国基金博物馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国基金博物馆是苏州首家金融性博物馆。博物馆呈现了一场基金展览“盛宴”，展览包括股权投资基金、共同基金 、对冲基金和专题展览。对于社会公众普及基金知识，传递金融理念，诠释金融创新将起到积极的推动作用。2011年，中国基金博物馆的落成入选苏州十大金融事件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷戴维森摩托车馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个世纪以来，哈雷戴维森一直是自由大道、原始动力和美好时光的代名词。哈雷戴维森苏州店是一幢白色的建筑，总建筑面积近700平方米，分为整车区、精品区、以及哈雷车主会活动区。场馆极具现代感，有着哈雷独特的精神特质。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某某城3D互动体验馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某某城是坐落于金鸡湖畔李公堤四期的大型视错觉互动体验馆，整个场馆达三千平方米，环境宜人。馆内设有颠倒空间、勇者激光、幻境迷宫、万花世界、术士之屋、音律森林等多种大型游乐区，此外馆内还设有精彩好玩的魔幻画廊，让您仿若置身玄妙世界，流连忘返。“某某城”致力于打造大型视错觉互动体验空间，为您带来一场视错觉的盛宴，颠覆您的感觉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚建萍刺绣馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当代苏绣艺术的领军人物姚建萍，是国家级非物质文化遗产代表性传承人。长期从事刺绣艺术的教学、研究与创作工作。现任中国文联委员、江苏省民间文艺家协会副主席。作为姚建萍精品刺绣艺术的展览展示和对外艺术交流窗口的艺术馆分设精品展览区及艺术品销售区，满足顾客对刺绣艺术参观、鉴赏、购物、刺绣艺术交流等多方位的需求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明·美术馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该馆位于江苏苏州工业园区李公堤四期文化创意街区，建筑面积约1000平方米，由一、二楼两个展厅和三楼多功能厅构成，是一座展示国内外粉画艺术家作品、进行粉画学术研讨以及粉画艺术培训的专题类美术馆。不同于寻常美术馆纯粹的展览空间，明·美术馆独树一帜，在一楼展厅开辟了“咖啡空间”，营造休闲美术时光。为艺术家与爱好者，以及艺术家彼此之间提供了轻松的交流空间，让创作的灵感可以在此自由“吸氧”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南三雕艺术馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡云娣江南三雕艺术馆为国家高级工艺美术史蔡云娣的雕刻艺术作品展馆。建筑采用古典园林及现代风格相结合的收发，融合江南石雕、砖雕、木雕三雕艺术的精髓，充分体现苏州园林艺术的主流思想，让人轻松愉悦的享受环境及观赏艺术作品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本间高尔夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本间（HONMA）高尔夫诞生于1959年，距今已有50多年历史。 HONMA在高尔夫球具行业中有着尊贵的地位，以优质的运动性能与豪华的外观而闻名于世，发展至今，HONMA坚持纯手工打造，以精工细作为本，每一名工艺师都不断传承前辈的精湛手艺与创造力，特有的高技术含量制造与研发赋予球杆极精确的运动性能，是全球顶级高尔夫品牌之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张辛稼美术馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张辛稼是著名吴门画派大师，苏州国画院首任院长、新吴门画派的代表人物，声闻吴中。张辛稼的国画及书法取吴门四家之长，早就一代宗师之美名。张辛稼艺术馆是一座装修典雅、功能齐全、设施先进并集明清家具、苏作和田玉器、核雕及工艺品、吴门画派画作展示与一体的近现代综合艺术馆。该馆共四层，建筑面积达2000多平方米。艺术馆的开设将承担起继承和发扬吴门画派文化的使命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOK+绘本馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book+绘本馆面向的群体主要是1到6岁的孩子，这里的绘本主要来自日本、美国、英国、荷兰等国家。绘本馆里有一个独立空间的“小剧场”，这也是孩子们读书俱乐部的“据点”。馆内还针对不同年龄段的孩子经常开展不同的活动，比如读书会、烘焙课。店主希望通过这个场所，为孩子的童年时光增添一笔一划的乐趣，激发和培养孩子无限的想象力与创造力，帮助他们健康成长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时尚购物区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆融时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆融时代广场位于苏州金鸡湖东岸，是集购物、餐饮、休闲、娱乐、商务、文化、旅游等诸多功能为一体的苏州首家高品质城市级“商业综合体”及一站式消费的复合型商业地产项目。4000多个地下车位、6个地铁出口、水上巴士、空中连廊、水雾广场、主题景观、时尚夜景……圆融时代广场已成为苏州市域新CBD繁华的商业中心和华东地区最具影响力和商业价值的品牌街区。圆融时代广场创造了苏州多项“第一性”和“唯一性”，包括51万方苏州最大规模的“城市综合体”，17万方中国最大的单体百货——久光百货、500米长世界第一LED天幕……圆融时代广场以前瞻的视野创新苏州商业格局，引领苏州新时尚生活方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新光天地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新光天地是苏州现代园林式百货公司，整体的建筑和景观设计，无论室内、室外，都在考虑和人的互动， 建立起景物和人的生动对话，随着季节的更移，不同的景观又会产生不同的情致，而苏州特有的文化意境和园林艺术，更是一直贯穿缭绕在整个的设计里。项目总建筑面积约162,900平方米，营业面积约88,000平方米。写字楼面积约22,700平方米，并规划地下四层、地上二十二层(商场至七层)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诚品书店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州诚品书店是台湾诚品书店在大陆的第一家分店。位于苏州工业园区金鸡湖东畔，毗邻洲际酒店，是集结文化、表演、艺术、商业、观光以及人才培育，具有跨界综效性的创意平台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久光百货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州久光百货是利福国际集团有限公司继上海久光后第二家于国内兴建的，也是目前苏州最大型的百货店。其尽享地利优势，座落于高消费尊贵地段，交通便捷。苏州久光百货与时代广场以空中廊桥贯通，毗连工业园区心脏地带——金鸡湖畔及周边沿湖排列林荫大道的国际博览中心，并设有水上巴士码头、艺廊、咖啡座、餐厅住宅及各式酒店，既有都市色彩，又显古城幽雅。百货店内不仅有优质的服务，更有如游乐中心及大型超市等相关配套，集美食佳肴、美容时尚、家居用品及休闲娱乐于一身，带领苏州时尚消费新潮流，满足顾客一站式购物和休闲需求，带给消费者崭新的购物享受。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休闲美食区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风情美食区以“中国特色商业街”——李公堤风情商业水街为主体，国内唯一商务旅游示范区，历久弥新的老字号、风靡全球的经典美食以及极限酷炫的个性酒吧联手奉献，让夜晚的精彩目不暇接，让生活的欢乐永无休止。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风致酒吧街区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风致酒吧街区位于李公堤Ⅱ期水巷邻里，以欧陆风尚建筑和中式新古典道桥亭台的巧妙结合，打造出了姑苏城的现代水天堂。酒吧街集中了乱世佳人、好乐迪等国际国内知名酒吧娱乐品牌，成为苏州夜生活的策源地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市观光区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矗立在金鸡湖畔的“圆融雕塑”，是新加坡著名雕塑家孙宇立先生的作品。该雕塑由两个动态扭转的圆紧密相叠而成，外圆内方，是一张象征中新友谊的国家名片，旨在表达传统与现代、科技与人文的互融与共生，蕴含着中国与新加坡双方的密切合作、相辅相成、相互交融,是金鸡湖景区代表性雕塑，此外金鸡湖景区内还有许多造型迥异值得观赏的雕塑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡湖高尔夫俱乐部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡湖国际高尔夫俱乐部位于苏州工业园区，球场是由世界高坛传奇泰斗，“黑骑士”加里皮亚（GaryPlayer）签名设计27洞锦标级高尔夫球场，全部27洞均配备了GPS卫星定位系统，为会员打球提供现代化的技术便利。球会呈现出森林、湿地、丘陵三种风格各异的球场风景，世界唯一将三种地貌融合在一起的高尔夫球场，拥有一个亚洲独有的珍藏Gary Player职业生涯辉煌荣耀的红酒雪茄吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央水景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要欣赏金鸡湖美景，中央水景区拥有水、陆、空三大优势。泛舟水上，金鸡湖波光粼粼、和风拂面，桃花岛近在咫尺。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡湖游艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡湖游艇俱乐部拥有豪华快艇、摩托艇，以及滑板、帆船、水上自行车、水上降落伞等众多的娱乐项目。当前重要推出的特色项目包括游艇驾驶，水上巴士和环湖夜景游。在金鸡湖游艇上，既能领略水乡风情，又能感受园区的蓬勃大气，姑苏水城的“古韵今风”一览无遗。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3755,12 +3919,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I461"/>
+  <dimension ref="A1:I480"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H456" sqref="H456"/>
+      <selection pane="bottomLeft" activeCell="H479" sqref="H479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14323,6 +14487,18 @@
       </c>
     </row>
     <row r="453" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>953</v>
+      </c>
       <c r="F453" s="2" t="s">
         <v>962</v>
       </c>
@@ -14331,6 +14507,21 @@
       </c>
     </row>
     <row r="454" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>962</v>
+      </c>
       <c r="G454" s="2" t="s">
         <v>964</v>
       </c>
@@ -14339,11 +14530,72 @@
       </c>
     </row>
     <row r="455" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>962</v>
+      </c>
       <c r="G455" s="2" t="s">
         <v>966</v>
       </c>
       <c r="I455" s="2" t="s">
         <v>967</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G456" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="I456" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G457" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="I457" s="2" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="458" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14351,7 +14603,7 @@
         <v>496</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>950</v>
+        <v>840</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>951</v>
@@ -14360,10 +14612,13 @@
         <v>953</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>954</v>
+        <v>962</v>
+      </c>
+      <c r="G458" s="2" t="s">
+        <v>972</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>955</v>
+        <v>973</v>
       </c>
     </row>
     <row r="459" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14371,7 +14626,7 @@
         <v>496</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>950</v>
+        <v>840</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>951</v>
@@ -14380,10 +14635,13 @@
         <v>953</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>956</v>
+        <v>962</v>
+      </c>
+      <c r="G459" s="2" t="s">
+        <v>974</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>957</v>
+        <v>975</v>
       </c>
     </row>
     <row r="460" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14391,7 +14649,7 @@
         <v>496</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>950</v>
+        <v>840</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>951</v>
@@ -14400,10 +14658,13 @@
         <v>953</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>958</v>
+        <v>962</v>
+      </c>
+      <c r="G460" s="2" t="s">
+        <v>976</v>
       </c>
       <c r="I460" s="2" t="s">
-        <v>959</v>
+        <v>977</v>
       </c>
     </row>
     <row r="461" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14411,7 +14672,7 @@
         <v>496</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>950</v>
+        <v>840</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>951</v>
@@ -14420,9 +14681,428 @@
         <v>953</v>
       </c>
       <c r="F461" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G461" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="I461" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E462" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G462" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="I462" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G463" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="I463" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G464" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="I464" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G465" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="I465" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="G467" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="I467" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="G468" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="I468" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="G469" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="I469" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="G470" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="I470" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="G471" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="I471" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E472" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="I472" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="G473" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="I473" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I474" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G475" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I475" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F476" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I476" s="2" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F477" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G477" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="I477" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F478" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G478" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I478" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E479" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="I479" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F480" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="I461" s="2" t="s">
+      <c r="I480" s="2" t="s">
         <v>961</v>
       </c>
     </row>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="1023">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3486,6 +3486,54 @@
   </si>
   <si>
     <t>金鸡湖游艇俱乐部拥有豪华快艇、摩托艇，以及滑板、帆船、水上自行车、水上降落伞等众多的娱乐项目。当前重要推出的特色项目包括游艇驾驶，水上巴士和环湖夜景游。在金鸡湖游艇上，既能领略水乡风情，又能感受园区的蓬勃大气，姑苏水城的“古韵今风”一览无遗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通市濠河风景区位于国家历史文化名城南通的中心，是国内保存最为完整的古护城河之一，史载后周显德五年（公元958年）“筑城即有河”，全长10公里，水面1040亩，最宽处215米，最窄处仅10米。整个濠河曲曲折折，迂回激荡，呈倒置的葫芦形状环抱老城区，形成了“水抱城、城拥水，城水一体”的独特风格，素有“江城翡翠项链”之称。 
+濠河风景名胜区是汇自然景观与人文景观于一身的环城敞开式国家AAAAA级旅游景区。1993年被江苏省政府批准为省级风景名胜区，1995年被江苏省政府列为江苏省第一批历名文化保护区，1998年被命名为省级文明风景区，2002年荣获江苏省人居环境奖，2005年荣获“中国人居环境范例奖”，2012年被评定为国家AAAAA级旅游景区。 
+2015年10月，国家旅游局暗访检查，江苏省南通市濠河景区主要是安全隐患突出，游船及多处登船处没有安全提示；环境卫生差，卫生死角较多；厕所设施设备损坏严重等问题。对景区给予严重警告，并公开通报，给予6个月时间整改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北极阁</t>
+  </si>
+  <si>
+    <t>北极阁建于宋政和三年（1113年），是古通州城北城门遗址，也是南通古城至今留存的唯一遗迹。登上北极阁，面朝西北濠河，此处为濠河最宽阔之处。因濠河水通江海，河水常年流动，因而北濠河面即便在无风之日，也可见波光粼粼，登上北极阁，居高而下，俯视北濠河，在阳光的照耀下，便如万片金鳞闪动。</t>
+  </si>
+  <si>
+    <t>别业双辉</t>
+  </si>
+  <si>
+    <t>当年张謇兄弟心怀“实业救国、教育兴国”的宏伟理想，举家返乡，于濠河南北两岸建立家园，建成了濠南别业和城南别业。两座别业建筑风格各异，城南别业成“H”型布局；濠南别业采用“山”字形布局并参照了慈禧行宫畅观楼的图样改良设计。两座别业隔河相望，恰如一兄一弟，相互照应。濠南别业和城南别业是南通现存保护最完好的两幢大型别墅。</t>
+  </si>
+  <si>
+    <t>濠河</t>
+  </si>
+  <si>
+    <t>南通市濠河风景区位于国家历史文化名城南通的中心，是国内保存最为完整的古护城河之一，史载后周显德五年（公元958年）“筑城即有河”，全长10公里，水面1040亩，最宽处215米，最窄处仅10米。整个濠河曲曲折折，迂回激荡，呈倒置的葫芦形状环抱老城区，形成了“水抱城、城拥水，城水一体”的独特风格，素有“江城翡翠项链”之称。</t>
+  </si>
+  <si>
+    <t>南通博物苑</t>
+  </si>
+  <si>
+    <t>南通博物苑为近代中国第一座由中国人独立创办的公共博物馆，由著名清末状元，中国近代实业家、政治家、教育家张謇创办于清光绪三十年十二月九日（1905年1月14日），馆址位于原通州城内东南，今江苏省南通市崇川区濠南路19号，东、北临濠河，西邻南通市图书馆，南邻原南通医学院（今南通大学启秀校区）。</t>
+  </si>
+  <si>
+    <t>天宁寺</t>
+  </si>
+  <si>
+    <t>晨光中，千年古寺慢慢苏醒，钟声响起，浑厚悠扬。天宁寺是南通最古老的建筑，始建于唐代，初名报恩光孝禅寺，寺内光孝塔，有“未有城，先有塔，前人就塔建城”之说。宋代，原天宁寺迁并于此，改名为天宁报恩光孝禅寺。明代改名为天宁寺。</t>
+  </si>
+  <si>
+    <t>濠河风景区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3919,12 +3967,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I480"/>
+  <dimension ref="A1:I486"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H479" sqref="H479"/>
+      <selection pane="bottomLeft" activeCell="E481" sqref="E481:E486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15106,6 +15154,123 @@
         <v>961</v>
       </c>
     </row>
+    <row r="481" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E481" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I481" s="2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E482" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F482" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I482" s="2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E483" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F483" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I483" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I484" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I485" s="2" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E486" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F486" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I486" s="2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="1169">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3535,6 +3535,458 @@
   <si>
     <t>濠河风景区</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇江市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山·焦山·北固山旅游景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇江市金山焦山北固山国家风景名胜区（简称“三山”景区）是国家“5A”级景区，位于镇江市区北部，地处长江与镇江主城区交汇处，总面积44.76平安公里。其核心景区为“三山一湖”，即：金山、焦山、北固山和金山湖，景区内还包括西津渡、云台山、伯先公园、博物馆、铁瓮城等名胜古迹。“三山”景区力争通过三年努力，把景区打造成大江风貌与历史文化相互交融的全国著名滨江风景名胜区和旅游产业聚集区，为“十二五”末实现全市千亿级文化旅游产业提供重要支撑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇江市金山风景区位于镇江市区西北，海拔43.7米，占地面积40余公顷，金山寺始于东晋，距今已有1600多年历史。主要由江天禅寺、金山景区、百花洲景区、镜天园、一泉景区五部分。金山是“三山”国家重点风景名胜区，首批国家AAAA级风景旅游区、国家重点风景名胜区、省市两级文明风景区示范点、江苏省十佳旅游景区。
+金山，晋代因其孤立江心，名为“泽心”，东晋淝水一战，囚氐入于此，遂改称“氐浮”，或曰“氐父”、“获符”等；又因其形若碧玉浮水，南北朝时，而有“浮玉”美名；宋以前又曾叫“紫金山”，真宗时改为“龙游山”，历史上还一度叫过“妙高峰”和“伏牛”、“青螺”、“金鳌”等，而宋代《九域志》云，唐代高僧裴头陀在此修复寺庙时，每天在山间披荆斩棘，开山种田，偶或挖出黄金数镒（一镒为二十两），交给润州刺史李德裕，李则将此事禀报皇帝，皇帝令将黄金交给裴头陀作修复寺庙之用，并赐名“金山”。金山原是江心岛屿，“万川东注，一岛中立”，被称为“江心一朵芙蓉”，清道光年间始与南岸相连，于是“骑驴上金山”曾盛行一时。金山寺始建于东晋，原名泽心寺，清初曾名江天禅寺，唐以来通称金山寺。寺庙依山而建，殿宇楼阁、丹辉碧映，山寺浑然一体，故有“金山寺裹山”之说。金山寺早在唐代就驰名中外，白娘子水漫金山等民间故事和神话传说，千古流传，家喻户晓。宋朝沈括的“楼台两岸水相连，江南江北镜里天”的诗句，就是对当年金山的写照。金山飞岩穹轴，云天四垂，宛若俊鹘摩空，凫雁浮江，巨鳌出海，吞吐万象，雄峙百川，有非世间境界，明《一统志》赞之为“胜概天下第一”。后由于沧桑变迁，长江易道，至同治年间（1861－1875年），这个“千载江心寺”才开始与南岸陆地相连，水上风光变为陆上胜境，“打马上金山”曾盛行一时，成为当时游览者的一种美妙的享受。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白龙洞</t>
+  </si>
+  <si>
+    <t>藏经楼</t>
+  </si>
+  <si>
+    <t>慈寿塔</t>
+  </si>
+  <si>
+    <t>慈舟纪念堂</t>
+  </si>
+  <si>
+    <t>法海洞</t>
+  </si>
+  <si>
+    <t>芙蓉楼</t>
+  </si>
+  <si>
+    <t>郭璞墓</t>
+  </si>
+  <si>
+    <t>江天禅寺</t>
+  </si>
+  <si>
+    <t>江天一览</t>
+  </si>
+  <si>
+    <t>金山文化博览园</t>
+  </si>
+  <si>
+    <t>金山文化广场</t>
+  </si>
+  <si>
+    <t>镜天园</t>
+  </si>
+  <si>
+    <t>楞伽台</t>
+  </si>
+  <si>
+    <t>妙高台</t>
+  </si>
+  <si>
+    <t>七峰亭</t>
+  </si>
+  <si>
+    <t>天下第一泉</t>
+  </si>
+  <si>
+    <t>文宗阁</t>
+  </si>
+  <si>
+    <t>御码头</t>
+  </si>
+  <si>
+    <t>白龙洞在金山西北山脚下玉带桥旁，相传唐朝武则天的侄孙灵坦来到金山，在这洞里打坐参禅，白蟒就避走了，毒气也没有了。</t>
+  </si>
+  <si>
+    <t>有一个地方，我们最初关注它的时候，可能是在金庸、梁羽生等武侠作者笔下的武林世界里，那个地方经常隐藏着某本秘籍，甚至藏着侠客与恩怨情仇。这个地方就是，藏经楼。</t>
+  </si>
+  <si>
+    <t>慈寿塔创建于一千四百余年前的齐梁，塔高三十米，唐宋有双塔，宋朝叫“荐慈塔”、“荐寿塔”，1472年，日本画家游金山，曾绘《大唐扬子江心金山龙游禅寺之图》，上面就是南北相向的两座宝塔。后来双塔毁于火，倒坍后，明代重建一塔，取名慈寿塔。</t>
+  </si>
+  <si>
+    <t>慈舟法师是镇江金山江天禅寺的方丈，佛教称其为“金山堂上传临济正宗第四十七世沙门慈舟大和尚”。</t>
+  </si>
+  <si>
+    <t>天王殿向后便是大雄宝殿了。历来寺庙多损于火灾，原大雄宝殿属于明代建筑，1948年毁于火灾，共烧毁二百六十多间亭、台、楼、阁、房屋等。1985年重建，1990年落成。据金山寺的方丈回忆，金山寺大雄宝殿内佛像巨大，金色普照，香火通宵达旦，最兴旺时寺庙里拥有数以千计的僧侣。</t>
+  </si>
+  <si>
+    <t>法海洞又名裴公洞，在慈寿塔西下侧的悬崖上，相传是金山寺开山祖师法海和尚来到金山时住的地方。现洞口横额“古法海洞”，洞中有一尊法海塑像。</t>
+  </si>
+  <si>
+    <t>与金山寺遥遥相对的这座小岛属于自然风景区了，像小小水上公园，在此散步和春游的孩童都不少，有点儿讲头的芙蓉楼算一个，镇江历史上的名楼，始建于东晋，三面临水。唐代大诗人王昌龄就曾在古代“芙蓉楼”写下了著名的《芙蓉楼送辛渐》。</t>
+  </si>
+  <si>
+    <t>金山寺西边，塔影湖畔，有一组天然错综的奇石，古称石排山，又称云根岛。岛上葬有东晋著名文学家、训诂学家郭璞的遗物，俗称郭璞墓。</t>
+  </si>
+  <si>
+    <t>江天禅寺就是金山寺，清代康熙乾隆南巡驻金山行宫，题字作诗，赠送藏经珍品，并把金山寺改为了江天禅寺。全胜时期金山寺有和尚三千多人，僧侣数以万计，也出了很多高僧，比如法海。这里的法海可不是传说故事或影视作品中的法海，法海确有此人，而且是一位佛教的真实历史人物，唐朝的得道高僧。</t>
+  </si>
+  <si>
+    <t>金山的后山有座石码头，因康熙皇帝游金山时在此登岸而得名“御码头”。</t>
+  </si>
+  <si>
+    <t>该博览园由序厅、一厅、二厅、三厅、四厅和五厅这六个既各自独立又前后贯通的六大展厅组成。</t>
+  </si>
+  <si>
+    <t>江天禅寺大门口对面，有一块占地面积很广的金山文化广场 ，为后来新建，穿过“三福”桥就到了，“三福”桥就是三座并排的石桥，分别叫“福寿桥”、“福慧桥”和“福德桥”，与江天禅寺大雄宝殿的三座大门相对应。</t>
+  </si>
+  <si>
+    <t>镜天园以“书茶·禅境”为主题，营造参禅悟道的氛围。禅境是直指心性本体，只要明心见性，即可成就佛境，禅境实质上就是心境。禅宗历来就有通过练习书法这种抽象艺术来顿悟的传统，古人认为“晓书”则是“通其意”，是一种禅宗式的顿悟，所以晓书坪广场上有“禅”字样的绿化，以水为墨，以地为纸，修习书法，领悟禅意。</t>
+  </si>
+  <si>
+    <t>“楞伽”是印度语，意为“不可住”，或说是大海中远不可达、高不可攀的一座大山。楞伽台在金山东南，傍山而建，台顶有两间宽敞的休息厅，陈列着许多古代红木家俱、名人书画，厅外有走廊、平台。平台中央有座玲珑的四面方亭，因亭内曾放置过苏东坡遗留下来的雪浪石而取名为“雪浪亭”。据说是苏东坡晚年受老朋友佛印和尚相托在此写《楞伽佛经》，故又称书经楼。</t>
+  </si>
+  <si>
+    <t>“妙高”是梵语“须弥”的意译，佛教认为须弥山是释迦牟尼佛生活和教化的婆娑世界的中心，我国佛教界将寺院所在地的高山取名秒高峰，都是寓意佛经中的理想世界须弥山，那妙高台就是“天境中的一处平台”了，除去这些，妙高台有一个实用性的俗名，叫晒经台，顾名思义就是该地方向阳干燥，可以晾晒佛经。</t>
+  </si>
+  <si>
+    <t>七峰亭在金山西侧的金鳌岭上，古代因有七座小山突起，名七峰岭，后削山建亭，故以七峰亭而名。</t>
+  </si>
+  <si>
+    <t>天王殿是佛教寺院内的第一重殿，殿内正中供奉着弥勒塑像，左右供奉着四大天王塑像，背面供奉韦驮天尊塑像，因此得名。</t>
+  </si>
+  <si>
+    <t>“天下第一泉”又名“中泠泉”，原在扬子江心，是万里长江中独一无二的泉眼。唐代名士刘伯刍品尝了全国各地沏茶的水质后，将水分为七等，中泠泉为第一等，因此被誉为“天下第一泉”。</t>
+  </si>
+  <si>
+    <t>在金山寺东侧的湖中小岛上，是曾经气象万千的皇家藏书楼——文宗阁。</t>
+  </si>
+  <si>
+    <t>自从梁武帝下诏在金山办佛教最大盛典并亲自参与后，金山寺名声大旺，在历代统治者心中的位置自然不一样了。</t>
+  </si>
+  <si>
+    <t>焦山</t>
+  </si>
+  <si>
+    <t>焦山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦山，国家重点风景名胜区，国家5A级旅游区，位于中国历史文化名城镇江的东北面，是万里长江中唯一一座四面环水可供游人观光探幽的岛屿，犹如中流砥柱，满山苍翠，宛若碧玉浮江。 
+山不在高，有仙则灵。焦山的神仙就是东汉隐士焦光。东汉末年，焦光隐居在此，汉献帝曾三次下诏书请他出山做官，但他不愿和腐败朝庭同流合污，拒不应召，他在山上采药、炼丹，治病救人，后人为了纪念他，改樵山为焦山。
+“焦山有座寺，藏在山凹里，不见形势，谓之山裹寺。”这是施耐庵在《水浒》中对焦山定慧寺景观特点的描述。定慧寺原名普济禅寺，是江南最早的寺庙之一，清朝康熙皇帝南巡经过焦山时，亲自题写了寺名匾额。
+与一些名山大川相比，焦山并不显得高大突出，但她有其独特之处，那就是闻名遐迩的江南第一大碑林—焦山碑林，气势磅礴的摩崖石刻和碑刻艺术，使焦山成为蜚声海内外的书法之山。焦山碑刻，篆、隶、真、草、行诸体皆备，风格迥异，或苍古峭拔，纵逸奇深，或严整舒朗，浑然厚重，真可谓汇千年古刻之隽美，融百家书法之精神。有“碑中之王”、“大字之祖”之称的旷世奇碑——“瘗鹤铭”，就出自焦山，北有《石门铭》，南有《瘗鹤铭》，焦山碑林与西安碑林一南一北，各领风骚，有人说西安碑林是雄浑的黄河文化的象征，而焦山碑林则是清奇的长江文化的凝结。她所拥有的更多的是人文个性的张扬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《瘗鹤铭》碑坠江处</t>
+  </si>
+  <si>
+    <t>百寿亭</t>
+  </si>
+  <si>
+    <t>板桥书屋</t>
+  </si>
+  <si>
+    <t>碑林</t>
+  </si>
+  <si>
+    <t>别峰庵</t>
+  </si>
+  <si>
+    <t>定慧寺</t>
+  </si>
+  <si>
+    <t>古炮台</t>
+  </si>
+  <si>
+    <t>观澜阁</t>
+  </si>
+  <si>
+    <t>桂苑</t>
+  </si>
+  <si>
+    <t>鹤园</t>
+  </si>
+  <si>
+    <t>茗山纪念堂</t>
+  </si>
+  <si>
+    <t>摩崖石刻</t>
+  </si>
+  <si>
+    <t>乾隆行宫</t>
+  </si>
+  <si>
+    <t>三诏洞</t>
+  </si>
+  <si>
+    <t>松廖山</t>
+  </si>
+  <si>
+    <t>万佛塔</t>
+  </si>
+  <si>
+    <t>吸江楼</t>
+  </si>
+  <si>
+    <t>壮观亭</t>
+  </si>
+  <si>
+    <t>《瘗鹤铭》原刻在镇江焦山西麓石壁上，中唐以后始有著录。自宋代《瘗鹤铭》残石被发现以来，历代书法家均给予其高度评价，且至今未有定论，成为千古之谜。</t>
+  </si>
+  <si>
+    <t>百寿亭是一座用砖砌成的方形凉亭，周围有墙，墙头与亭檐之间用瓦镶成一排古寿字图案。</t>
+  </si>
+  <si>
+    <t>郑板桥，名燮，江苏省兴化县人，乾隆年间进士。他擅画兰竹，书法以隶、楷、行三体相融。他的字、画、诗，世称“三绝”。</t>
+  </si>
+  <si>
+    <t>碑林是北宋初年润州太守钱子高所建的，是江南的第一大碑林。</t>
+  </si>
+  <si>
+    <t>在焦山双峰之阴的别岭上，翠竹环抱之中，有一座别致的方形四合院，称“别峰庵”。</t>
+  </si>
+  <si>
+    <t>定慧寺在佛教寺庙中有着悠久的历史。唐代，玄奘法师的弟子法宝曾来此创建大雄宝殿。</t>
+  </si>
+  <si>
+    <t>炮台建于1840年鸦片战争时期，当时清政府为了加强长江的防务，决定筹建焦山炮台，与汝山、象山、江都都天庙等处炮台成犄角之势。</t>
+  </si>
+  <si>
+    <t>这座两层楼阁是乾隆下江南时的行宫，是一座精致小巧的古雅庭院。</t>
+  </si>
+  <si>
+    <t>桂苑的万株桂花,再加上散落在山上、景区内的道路边、庭院里的桂花树，秋天的焦山香气扑鼻。</t>
+  </si>
+  <si>
+    <t>鹤园中有16座造型各异的石桥，都是采用的镇江城区内现在已经不存在的古桥的名字命名的。</t>
+  </si>
+  <si>
+    <t>焦山，是“镇江三山”（另两个是金山和北固山）名胜之一，一向以山水天成，古朴幽雅闻名于世。</t>
+  </si>
+  <si>
+    <t>茗山纪念堂是为了纪念我国佛教的爱国高僧茗山法师的。</t>
+  </si>
+  <si>
+    <t>在焦山西麓沿江一带。全为陡岩峭壁，有浮玉、栈道、观音、瘗鹤铭等岩，其间有千百年来历代名人的诗人题刻。</t>
+  </si>
+  <si>
+    <t>盆景是大自然景物的缩影，是集园林栽培、文学、绘画等艺术，互相结合，溶为一体的综合性造型艺术。</t>
+  </si>
+  <si>
+    <t>这座焦山行宫是在乾隆二十六年的时候建成的，焦山行宫是乾隆皇帝南巡时下榻最多的地方。</t>
+  </si>
+  <si>
+    <t>清顺治十年（1653），和尚兴上将焦公像移置三诏洞中。</t>
+  </si>
+  <si>
+    <t>松廖山是古代时候长江入海的门户，就是出入口，也称为海门。</t>
+  </si>
+  <si>
+    <t>万佛塔位于焦山的顶峰，它是一座明清式具有江南风格的仿古塔，前后大门两侧的墙上还嵌有“海不扬波”和“中流砥柱”八个苍劲有力的石刻大字。</t>
+  </si>
+  <si>
+    <t>吸江楼，原名“吸江亭”，因亭内四面有木雕佛像，人们又称它为“四面佛亭”。楼上的“江山胜概”横匾系沈秉成嫡孙、当代著名书法家沈迈士于90高龄时所书。</t>
+  </si>
+  <si>
+    <t>过三诏洞，沿石级而上，半山腰有一座六角亭，便是建于明朝天顺年间的壮观亭。</t>
+  </si>
+  <si>
+    <t>北固山</t>
+  </si>
+  <si>
+    <t>北固山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北固山位于江苏镇江，由于北临长江，形势险固，故名北固，高约58米，长约200米。山壁陡峭，形势险固，南朝梁武帝曾题书”天下第一江山”来赞其形胜。甘露寺，雄居山巅，建于东吴甘露年间，有许多有关三国时代吴国的传说和遗迹。游人至此，不由要以刘备招亲的故事为线索去寻找有关胜迹和传说。北固山与金山、焦山成犄角之势，三山鼎立，在控楚负吴方面北固山更显出雄壮险要。明代郡守为了抗倭守城，将前峰与中峰凿断。
+北固山由前峰 、中峰和后峰三部分组成，主峰即后峰，是风景最佳处。前峰原为东吴古宫殿遗址，现已辟为镇江烈士陵园；中峰上原有气象楼，现改为国画馆；后峰为北固山主峰，北临扬子江（长江），三面悬崖，地势险峻，山上到处都是树木，名胜古迹多在其上。素以“天下第一江山”闻名于世。后峰是北固山的主峰，背临长江，枕于水上，峭壁如削，是风景最佳的地方。登上山顶，东看焦山，西望金山，隔江相望，扬州平山堂清晰可见，确使人感到“金焦两山小，吴楚一江分。”过去曾有一名人作打油诗一首：“长江好似砚池波，提起金焦当墨磨，铁塔一支堪作笔，青天够写几行多”，以此赞美北固山的壮丽景色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿倍仲麻吕诗碑</t>
+  </si>
+  <si>
+    <t>北固楼</t>
+  </si>
+  <si>
+    <t>长廊</t>
+  </si>
+  <si>
+    <t>东吴古道</t>
+  </si>
+  <si>
+    <t>多景楼</t>
+  </si>
+  <si>
+    <t>凤凰池</t>
+  </si>
+  <si>
+    <t>甘露流芳石匾</t>
+  </si>
+  <si>
+    <t>古甘露禅寺</t>
+  </si>
+  <si>
+    <t>狠石</t>
+  </si>
+  <si>
+    <t>宏开鹫岭石刻</t>
+  </si>
+  <si>
+    <t>祭江亭</t>
+  </si>
+  <si>
+    <t>凌虚亭</t>
+  </si>
+  <si>
+    <t>溜马涧</t>
+  </si>
+  <si>
+    <t>鲁肃墓</t>
+  </si>
+  <si>
+    <t>彭公祠</t>
+  </si>
+  <si>
+    <t>清晖亭</t>
+  </si>
+  <si>
+    <t>是处可游</t>
+  </si>
+  <si>
+    <t>数帆亭</t>
+  </si>
+  <si>
+    <t>太史慈墓</t>
+  </si>
+  <si>
+    <t>天下第一江山石刻</t>
+  </si>
+  <si>
+    <t>铁塔</t>
+  </si>
+  <si>
+    <t>头头是道亭</t>
+  </si>
+  <si>
+    <t>王宗培烈士墓</t>
+  </si>
+  <si>
+    <t>吴云楚水</t>
+  </si>
+  <si>
+    <t>杨公祠</t>
+  </si>
+  <si>
+    <t>友谊树</t>
+  </si>
+  <si>
+    <t>中山纪念林</t>
+  </si>
+  <si>
+    <t>朱文公柌</t>
+  </si>
+  <si>
+    <t>铁塔向西，有《望月望乡》诗碑，碑上诗文系日本使臣阿倍仲麻吕（汉名晁衡）所作。</t>
+  </si>
+  <si>
+    <t>北固楼，又称北固亭，坐落于镇江北固山。六朝时，梁武帝萧衍登临此山，即曾挥笔题下“天下第一江”。</t>
+  </si>
+  <si>
+    <t>北固山，镇江三山名胜之一，远眺北固，横枕大江，石壁嵯峨，山势险固，因此得名北固山。三国时“甘露寺刘备招亲”的故事就发生在北固山。以险峻著称的北固山，因三国故事而名扬千古。山上亭台楼阁、山石涧道，无不与三国时期孙刘联姻等历史传说有关，成为游人寻访三国遗迹的向往之地。</t>
+  </si>
+  <si>
+    <t>据说在刘备来甘露寺的当天，孙权暗中派贾华率领300名刀斧手埋伏在甘露寺长廊的两侧，暗中刺杀刘备。</t>
+  </si>
+  <si>
+    <t>这里曾经是东吴政权的中心，这座耸立在悬崖绝壁之巅的古城墙，东西长有200多米。</t>
+  </si>
+  <si>
+    <t>在甘露寺的背后，有一座画梁飞檐楼阁，名叫“多景楼”。古名“北固楼”，又称“春秋楼”、“相婿楼”、“梳妆楼”。是古代“万里长江三大名楼”之一，与洞庭湖畔的“岳阳楼”、武汉市的“黄鹤楼”齐名。</t>
+  </si>
+  <si>
+    <t>池上高立洁白如玉的凤凰雕塑，池旁假山丛丛，花卉环绕。</t>
+  </si>
+  <si>
+    <t>石帆楼遗址上“甘露流芳”四个大字苍劲有力，壬戌夏重立，欧阳清立书。</t>
+  </si>
+  <si>
+    <t>甘露寺始建于东吴甘露年间（265—266年） ，故名“甘露寺”。寺额为张飞的亲笔。他为了纪念镇江曾作过东吴都城，使人们永远不会忘记三国鼎立的史实。</t>
+  </si>
+  <si>
+    <t>多景楼下山向西，有块形似伏羊，大小与真羊相仿，无角的石头，左侧腹部刻有“狠石”二字，狠石又名“石羊”。</t>
+  </si>
+  <si>
+    <t>宏开鹫岭这四个字的意思是：大修甘露寺。</t>
+  </si>
+  <si>
+    <t>穿过甘露寺，向西，有一座石柱方亭，就是祭江亭，古称北固亭，还有凌云亭、摩云亭、临江亭、江山第一亭、天下第一亭等名称。</t>
+  </si>
+  <si>
+    <t>清静虚无的得到境界为“凝虚”，所以这座亭子取名为“凝虚亭”。</t>
+  </si>
+  <si>
+    <t>溜马涧位于北固山后峰后测的峭壁上，两面云崖夹峙，中通一线小径，地形非常险峻，又名“走马涧”、“跑马坡”。</t>
+  </si>
+  <si>
+    <t>墓前有一亭，亭中有碑，碑上有鲁肃刻像与鲁肃生平事迹。</t>
+  </si>
+  <si>
+    <t>建造这座祠堂是为了纪念清朝的两江总督——彭玉麟。</t>
+  </si>
+  <si>
+    <t>这里原来是甘露寺的山门，也就是原先的天王殿。</t>
+  </si>
+  <si>
+    <t>试剑石，又名恨石，石为两块，高的一块约 1.5米，矮的一块减半，中间都有裂缝，平整如削，石上“试剑石”3字清晰可辨。</t>
+  </si>
+  <si>
+    <t>“是处可游”包括“天井”和“通幽”两个景点。</t>
+  </si>
+  <si>
+    <t>数帆亭位于半山腰，可供人们在登顶前稍作休息。</t>
+  </si>
+  <si>
+    <t>太史慈之墓的石台之下有一石雕，为龙子霸下背碑，碑是是太史慈刻像。</t>
+  </si>
+  <si>
+    <t>这块长方形条石上刻着雄浑有力的“天下第一江山”六个大字，气魄非凡。</t>
+  </si>
+  <si>
+    <t>铁塔又名“卫公塔”，是北固山的重要文物。它是我国仅存的六座铁塔之一，也是江苏省境内惟一的铁塔，为省级文物保护单位。</t>
+  </si>
+  <si>
+    <t>现在的这座亭子是2012年新翻修，只有两面有门。</t>
+  </si>
+  <si>
+    <t>王宗培死后，镇江为王宗培在北固山建造了一座墓碑，来纪念这位爱国文人。</t>
+  </si>
+  <si>
+    <t>吴，指的是现在的江浙一带；楚，指的是现在的湖北。</t>
+  </si>
+  <si>
+    <t>杨公祠挂的是一幅刘备甘露寺招亲的画像。</t>
+  </si>
+  <si>
+    <t>这两颗友谊树，是为了纪念中国镇江和美国坦佩斯市结为友好城市所种的。</t>
+  </si>
+  <si>
+    <t>这座长方形的御碑亭是清朝的光绪帝所写。</t>
+  </si>
+  <si>
+    <t>龙脊两旁有一片树林名为“中山纪念林”，是1930年中山先生逝世五周年时命名的，一直留存至今。</t>
+  </si>
+  <si>
+    <t>这座门楼，就是民国时期为了纪念朱熹建的，门楼上写有“朱文公祠”四个大字。</t>
   </si>
 </sst>
 </file>
@@ -3967,12 +4419,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I486"/>
+  <dimension ref="A1:I561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E481" sqref="E481:E486"/>
+      <selection pane="bottomLeft" activeCell="I561" sqref="I561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15271,6 +15723,1491 @@
         <v>1021</v>
       </c>
     </row>
+    <row r="487" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E487" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I487" s="2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I488" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E489" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G489" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I489" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E490" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G490" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I490" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G491" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I491" s="2" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E492" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G492" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I492" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G493" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I493" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E494" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G494" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I494" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E495" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G495" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I495" s="2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E496" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G496" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I496" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E497" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G497" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I497" s="2" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E498" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G498" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I498" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E499" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G499" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I499" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E500" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G500" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I500" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E501" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F501" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G501" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I501" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G502" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I502" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E503" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F503" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G503" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I503" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E504" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F504" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G504" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I504" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E505" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F505" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G505" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I505" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E506" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G506" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I506" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G507" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I507" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G508" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I508" s="2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E509" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I509" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G510" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I510" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E511" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G511" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I511" s="2" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G512" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I512" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E513" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G513" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I513" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G514" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I514" s="2" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G515" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I515" s="2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G516" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I516" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G517" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I517" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E518" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G518" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I518" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G519" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I519" s="2" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E520" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G520" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I520" s="2" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E521" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G521" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I521" s="2" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E522" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G522" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I522" s="2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E523" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G523" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I523" s="2" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G524" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I524" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E525" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G525" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I525" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G526" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I526" s="2" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E527" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G527" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I527" s="2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E528" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G528" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I528" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E529" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G529" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I529" s="2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E530" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I530" s="2" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E531" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G531" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I531" s="2" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E532" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G532" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I532" s="2" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G533" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I533" s="2" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E534" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G534" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I534" s="2" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E535" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G535" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I535" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E536" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G536" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I536" s="2" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E537" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G537" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I537" s="2" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E538" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G538" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I538" s="2" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G539" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I539" s="2" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G540" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I540" s="2" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E541" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G541" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I541" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G542" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I542" s="2" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G543" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I543" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G544" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I544" s="2" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G545" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I545" s="2" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G546" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I546" s="2" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G547" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I547" s="2" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G548" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I548" s="2" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G549" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I549" s="2" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G550" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I550" s="2" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G551" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I551" s="2" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G552" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I552" s="2" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G553" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I553" s="2" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E554" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G554" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I554" s="2" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E555" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G555" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I555" s="2" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E556" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G556" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I556" s="2" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E557" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G557" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I557" s="2" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E558" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G558" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I558" s="2" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E559" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G559" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I559" s="2" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E560" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G560" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I560" s="2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E561" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G561" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I561" s="2" t="s">
+        <v>1168</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="1254">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3987,6 +3987,346 @@
   </si>
   <si>
     <t>这座门楼，就是民国时期为了纪念朱熹建的，门楼上写有“朱文公祠”四个大字。</t>
+  </si>
+  <si>
+    <t>鼋头渚</t>
+  </si>
+  <si>
+    <t>无锡市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来无锡必游太湖，游太湖必游鼋头渚。鼋头渚的风光是山清水秀，浑然天成，为太湖风景的精华所在，故有“太湖第一名胜”之称。当代大诗人郭沫若的“太湖佳绝处，毕竟在鼋头”的诗句赞誉，更使鼋头渚风韵流扬境内海外。</t>
+  </si>
+  <si>
+    <t>长春花漪</t>
+  </si>
+  <si>
+    <t>大觉湾</t>
+  </si>
+  <si>
+    <t>范蠡堂</t>
+  </si>
+  <si>
+    <t>会仙桥</t>
+  </si>
+  <si>
+    <t>江南兰苑</t>
+  </si>
+  <si>
+    <t>灵霄宫</t>
+  </si>
+  <si>
+    <t>鹿顶迎晖</t>
+  </si>
+  <si>
+    <t>聂耳亭</t>
+  </si>
+  <si>
+    <t>藕花深处</t>
+  </si>
+  <si>
+    <t>天都仙府</t>
+  </si>
+  <si>
+    <t>樱花谷</t>
+  </si>
+  <si>
+    <t>鼋渚春涛</t>
+  </si>
+  <si>
+    <t>鼋渚灯塔</t>
+  </si>
+  <si>
+    <t>月老祠</t>
+  </si>
+  <si>
+    <t>震泽神鼋</t>
+  </si>
+  <si>
+    <t>长春桥是园主在1936年仿照北京颐和园昆明湖上的玉带桥所建的。桥名长春，为纪念园主60大寿而建，取其长葆青春之意。</t>
+  </si>
+  <si>
+    <t>大觉湾景区汇集了我国主要石窟艺术的精华，被称为“仙窟荟萃”之地。</t>
+  </si>
+  <si>
+    <t>范蠡（公元前536年—公元前448年），字少伯，华夏族，春秋时期楚国宛地三户（今河南淅川县滔河乡）人。春秋末著名的政治家、军事家、经济学家和道家学者。范蠡堂歇山顶，三明两暗。正中须弥座上有泥塑彩绘的范蠡，神态自若。两壁粉墙上，四帧线条古拙的青铜色影壁浮雕《泛舟》、《养鱼》、《制陶》、《经商》，描绘了范蠡功成身退后的传奇故事。</t>
+  </si>
+  <si>
+    <t>两端桥面分别有两副对联告诉我们：“过此桥是玉虚境，到彼岸非本来我，道是非天非地路，果真亦仙亦凡桥”。意思说此桥是凡仙相会之处，过桥后就将渐入仙境。</t>
+  </si>
+  <si>
+    <t>灵霄宫，又名凌霄殿、凌霄宝殿、玉皇宫等，多属于道教宫观，也有民间庙堂；是供奉玉皇大帝（或称“天帝”）的，宫观庙堂。</t>
+  </si>
+  <si>
+    <t>聂耳（1912－1935），原名聂守信，字子义（亦作紫艺），中国音乐家，中华人民共和国国歌《义勇军进行曲》的作曲者。他创作了数十首革命歌曲，他的一系列作品影响中国音乐几十年。</t>
+  </si>
+  <si>
+    <t>藕花深处是鼋头渚最幽静的地方，现在我们看见的“藕花深处”额是1981年由田原书写的，亭子东面的小桥是文革时建造的。</t>
+  </si>
+  <si>
+    <t>在仙府的大门外，有两尊石雕的吉祥神兽——两角的“天禄”和独角的“麒麟”，在墙壁上有两副浮雕是汉代的门神“神荼(音伸舒)”和“郁垒(音律)”他们是兄弟俩。而大门内，则是秦琼、尉迟恭这两位唐代的门神。</t>
+  </si>
+  <si>
+    <t>作为“世界三大赏樱胜地”之一，无锡鼋头渚樱花谷内有3万多株樱花树，樱花节期间，樱花如云似霞、满树烂漫，春风轻拂、落樱飞舞，美不胜收。</t>
+  </si>
+  <si>
+    <t>这座灯塔是作导航之用的。1982年，进行了彻底翻新，底部和中心进行加固，四周覆以金山石，高度从原来的12.6米加高为13.1米，饰以粉红色、紫酱色，显得更为雅致。</t>
+  </si>
+  <si>
+    <t>月下老人以红绳相系男女，确定男女姻缘，体现了唐朝人对爱情与婚姻“前世注定今生缘”的认知态度。对于从前那种结婚一定要讲求门当户对的观念来说，月老的婚姻观念显然有了很大的进步。</t>
+  </si>
+  <si>
+    <t>鼋门楼</t>
+  </si>
+  <si>
+    <t>在充山脚下，呈牌楼状，上盖桔黄色琉璃瓦，建于1986年。由此前行3.5公里直通老门楼。入园有高架电动列车代步，全程3800米，越五里湖水面，穿鹿顶山隧道，直通老门楼。老门楼位于犊山村，建于1972年，飞甍重檐，琉璃瓦顶，正面有“鼋头渚”三个鎏金大字；背面书“山辉川媚”。入门左侧为“太湖别墅”门楼，穿月洞门、循齐眉路可登七十二峰山馆；顺大路向前，走过300米的杜鹃坡，有通往太湖仙岛的轮渡码头，此处露出太湖一片水域，被中犊山、小箕山（锦园）、大箕山诸峰环抱。湖水广阔处，可见若沉若浮形如大龟的三山。湖堤上风光明媚，著名旅美画家杨令，1935年回国时，为鼋头渚写下“翠微嶂”三字，勒于湖堤山岩上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“太湖佳绝处”牌坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原为“横云山庄”门楼，始建于1931年，结构古典，北式风格，斗拱连接，琉璃顶、飞檐翘角。1975年根据郭沫若诗句并集其手迹制额。上书“太湖佳绝处”是郭沫若老先生的手迹。牌坊右侧，有砖彻拱门，正反面有砖刻“利涉”、“问津”。来鼋头渚，都要乘渡船到此，渡船在此停泊，故称“利涉”。渡船将游人送到这里，不知“桃花源”在何处，就得“问津”。进牌坊，立以照壁，饰以凤穿牡丹。壁后临水而筑“涵万轩”水榭，轩内悬挂“湖山罨画”一额，系乾隆手笔。1929年，无锡民族工商业者荣宗敬，在那里建造了“锦园”。牌坊后面有一照壁，壁间饰以“凤穿牡丹”的图案，凤凰和牡丹寓意吉祥。整个照壁挡住了院中景色，起到了欲扬先抑的效果。1934年，园主得之于北京地安门外烟袋斜街，据说还是圆明园中故物。牌坊结构古雅、斗拱相连，湖水被周围的山林、岛屿所环抱。北面有中犊山岛，现在是太湖疗养院所在地；对面就是大、小箕山，山上树木苍翠，景色优美。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澄澜堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云阁和戊辰亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从澄澜堂旁，沿山坡拾级而上，有阆风亭、飞云阁、秋叶涧、憩亭、戊辰亭等一组随山起伏的小品建筑，可从各种不同的角度领略太湖风光。阆风亭，立于悬崖石排上，建于1931年。亭呈圆形，根据“玄圃阆风，仙子遨游之地”命名。有曲径通飞云阁，阁建于1931年，重檐飞角，其下层为“长生未央馆”。秋叶涧是山路中段一条林荫深邃的涧峡，涧上有黄石架成峡门，安徽葛家屏篆刻石上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憩亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方形，原额“云阶”。1980年由上海任政书额。1981年移来《湖山歌》碑石一方，系明隆庆丁卯（1567）年71岁的无锡书画家王问所书。山崖上还有他的“天开峭壁”、“鼋头一勺”、“劈下泰华”刻石。戊辰亭，建于戊辰（1928）年而得名。原两层，1972年拓建成三层，琉璃顶。登楼静眺，湖光山色，尽得其妙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建于号称“巨鼋之脊”的南犊山顶端。重檐八角，黄顶朱柱，如一金色明珠镶嵌在翠峦深处。1953年，园林部门在这里建亭，工程曾一度停止。1953年，刘伯承登上山顶，看到这只尚未结顶的亭子，风趣地把它起名为“无上光明”，并建议把亭建好。后亭子建成，一直无名，想起往事，便函请刘伯承题字。1957年，他挥毫大书“光明亭”三字，署上7月1日，表达了老一辈革命家的风范。1958年，郭沫若吟诗一首：
+信步上鼋头，龟丘水面浮，
+四围腾黛浪，万顷泛金沤；
+范蠡祠犹在，女夷风正遒，
+光明无上处，帆影与归舟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广福寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广福寺，在戊辰亭上坡，峭壁绝岩间有山路可通。路旁有泉名“一勺”，是以“有源之水聚而为一勺，散而为三万六千顷”而命名。峭壁顶端，就是广福寺。1924年，杨翰西将一勺泉上山地一亩多，捐赠给量如和尚。量如原系军人，脱下戎装，削发为僧。他将后山的广福寺（又名峭岩寺）迁到这里。原庙虽小，却建于萧梁。广福寺建成于1925年，寺名含“广土众民同登福地洞天”之意，寺立于幽谷绿树丛中，有深山古寺之风。寺前古朴山门，三拱圈，两旁立钟鼓楼，中有砖刻“广福寺”，尉天池书。头幢天王殿，塑四大金刚、弥勒佛。中间天井，两厢供观音、地藏。大殿塑释迦牟尼、迦叶、阿傩，1979年，由惠山泥人研究所重塑，颇具惠山泥人风格。殿上“大圆满觉”匾为赵朴初所书。寺后有蔡缄三的“退庐”和僧房“华严精舍”。已增设“文物陈列室”、“玉佛殿”和“三圣阁”。内藏驼鸟蛋、古画《百鸟图》，以及明末隐士杨紫渊的铁鞭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶朱阁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广福寺西是陶朱阁，重檐飞角，1925年由无锡商界人士集资建成，奉祀范蠡。当年范蠡弃官，经太湖泛舟去齐，止定陶，经商致富，被奉为商贾之祖。阁中有《范蠡西施泛舟太湖图》。1980年，林散之为之重书匾额。这里面对太湖，透过林隙，似可窥觅范蠡之踪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万浪桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万浪桥，在广福寺东山坡下，沿湖有一处天然水湾，芦苇丛生，有渔舟停泊其间。山坡上岩壁悬崖，松柏成林。三十年代，围以曲堤，中建拱桥，淡泊宁静。每当东南风大作，卷起万千巨浪，涛声如吼，从远处滚滚而来，拍打湖堤，水溅珠飞，恰如漫天雪花纷扬，因而得“万浪桥”之名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍鹰渚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于万浪桥南侧，是著名的太湖“湖东十二渚”之一。山渚形如鹰首伸入湖中，两侧群山如鹰展开的双翼。渚上有卷雪亭，四角攒尖，朱栏翠环，远眺湖光山色，可与鼋头渚媲美。1984年，渚头立巨石，高2.20米，宽1.20米，石上刻周而复所书的“苍鹰渚”三字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖山真意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在鹿顶山下的挹秀桥南。这里原为1931年无锡民族工商业者郑明山建造的“郑园”，所占山地百亩，内有岩洞、石峰、假山、轩亭、小桥等。1983年改建成“湖山真意”一景。在面对挹秀桥处，有一仿佛古松形成的门楼，摩崖上为姬鹏飞所书“湖山真意”。由此拾级登山，山脊上松柏森列，小亭翼然，题额“点红”。同点红亭相对，紧贴石壁，建成半亭，名“隐胜”。穿亭而入，就是郑园原有的山洞，长达数十米。过此境界豁然开朗。临湖有两层碧琉璃瓦、歇山顶的“天远楼”，轩昂宏丽，飞阁流丹，点缀在太湖美景之中。天远楼，取意于文徵明的“天远洪涛翻日月”诗句，倚栏望，两侧山峦错落，中间湖水溶溶，湖中岛屿纵横，景色变幻无穷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挹秀桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在充山和鹿顶山之间，凌空架一桥接通。桥洞拱圈形，像雄关耸峙在深谷中。桥上接连建三只亭子，顶端碧琉璃瓦。由此穿林登山，前有陈仲言所建的小屋三楹，名“雪影山房”，后有涧池名为“甘泉”，旁有百年茶梅。上坡有新辟的照影池，建有四子轩、浮望亭等纪念西施的建筑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏花亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在盘山公路的停车坪上，六角雕花，飞檐攒尖，金山石铺就的石级穿亭而过，通旱桥曲折上山。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呦呦亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取《诗经·小雅》“呦呦鹿鸣，食野之苹；鼓我琴瑟，以待嘉宾”。亭呈长方形歇山顶。两旁各立两个漏窗。透过漏窗，六匹仙鹿雕像，悠然立于石间。在群鹿雕塑下面石潭之畔，巨石壁立，正面刻有元末以孝行著称的无锡隐士华幼武《登鹿顶山》诗一首：
+雨洗春泥软，山高客兴孤。
+振衣临绝顶，拊掌望平湖。
+尘雾遥连楚，烟光直过吴。
+乾坤万里阔，不泣阮生途。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准望亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原为水准测点，是鹿顶山的最高处。为金山石构小亭，六角。金沤亭，四方琉璃顶，是根据郭沫若诗“万顷泛金沤”之句命名。其旁碑刻，正面为刘海粟书写的“鹿顶迎晖”四个大字；背镌《鹿顶迎晖建设记》。其下有环碧楼，供游人品茗，有“静观”一额。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金沤亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下通范蠡堂。堂歇山顶，三明两暗。正中须弥座上有泥塑彩绘的范蠡，神态自若。两壁粉墙上，四帧线条古拙的青铜色影壁浮雕《泛舟》、《养鱼》、《制陶》、《经商》，描绘了范蠡功成身退后的传奇故事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充山隐秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于鹿顶山东南山麓，原陈家花园所在地。陈家花园，又名若圃，是无锡民族工商业者陈仲言兴建于1928年，建国后设苗圃。1983年，利用这里11公顷山地，建“充山隐秀”一景，内设春花、夏荫、秋色、冬景四个小区。如从公园大门顺大路迤逦而行，转入幽谷，便是春花区。这里利用山涧，形成“翠湖”。水旁有人工堆积的土山，高低错落，广植桃、李、杏、梅、玉兰、杜鹃、月季等花卉，缀以杨柳、香樟、翠竹。春季花开，一派浓郁的春色。在翠湖水面上，架小桥两座，直桥名“跨绿”，曲桥为“俯青”。翠湖南横跨一桥亭，八柱，歇山顶，名“荇青”，有“鱼拨荇花游”之意。临水建有二层楼，青瓦粉墙，名“醉芳楼”。楼旁水边又有方亭，名“蓼风”。在满植翠竹的土山上，建有六角竹亭，仿制的竹柱，似可以假乱真，故名“个亭”。“个”为半个竹字，形如竹叶，颇具趣味。山坡上有古典建筑群——杏花楼，共五幢，设旅游饭店。西有菖蒲园，面积1公顷，水沼植菖蒲200个品种约2万株，花开绚丽多姿。
+夏荫区之胜在于树，这里有大可合抱，茂如翠盖的鸡爪槭；姿态优雅，繁花如雪的百年白茶梅；挺拔雄伟，松针如拂尘的大王松，特别是两棵浓荫匝地的苦槠，在鹿顶山麓，已是五六百岁的高龄寿星了。这些都是陈家花园的旧物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茹经堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于今宝界桥南堍琴山之麓，是近代著名教育家唐文治的别墅书院，始建于1934年。1983年进行大修，改称“唐文治先生纪念馆”。茹经堂，占地二亩余，背山面湖，环境幽静，建筑精美。门头“茹经堂”横额，由陆定一书写，背额“师表人伦”由朱世溱书写。进门有小池，如镜照影。拾级而上，是具有民族形式的正房，上下两层，小巧玲珑，曲折多变。今厅堂已改成陈列室，上悬“唐文治先生纪念馆”匾，系周谷城书写，还有刘海粟的“山高水堂”题额。唐文治的儿媳俞庆棠，建国前后为社会教育事业作出贡献。现茹经堂内辟有这位社会教育家的纪念室，邓颖超、胡愈之都分别为之题额。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太湖仙岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太湖仙岛原名三山，俗称乌龟山。位于梅梁湖中，距鼋头渚2.6公里。它是太湖七十二峰中的著名山峰，面积12公顷，实际上由4个小山峰组成。 
+头尾二山名“东鸭、西鸭”，主山名“三峰”，另一小峰无名。主山高49.8米。五十年代始进行开发，造桥、建亭、绿化；七八十年代建耸翠楼，山顶建文徵明诗碑亭，东建“点鸥亭”等；1990年辟为猴岛，已成为“太湖仙岛”。
+太湖仙岛，展示着古老的道教文化和神话色彩，分洞天福地和天都仙府等景区，中有古朴凝重、亭廊连结的会仙桥，会仙桥北的西鸭山，为洞天福地游览区，耸立着精雕细缕的“太湖仙岛”大牌坊，汉白玉浮雕影壁“玉帝巡天回銮图”。有专供猴子栖息和表演猴艺的花果山、水帘洞、演艺场，还装点着“神猴出世”、“齐天大圣牙旗”、“花果山石碣”，重现著名的古典小说《西游记》中的情景。主峰为天都仙府，内设天门天街、天都仙府、药王、文王、财神殿、灵霄宝阁、蟠桃瑶池、月老祠、太乙天坛等。天街上商店鳞次栉比，古色古香。仙桃形、石榴形、葫芦形等雕花门窗，玲珑多姿，恍若仙景。天都仙府的主体建筑占地1320平方米，主楼三层五重檐，歇山顶，高22米，内设文昌、关帝、妈祖殿宇，两侧有六十花甲元辰廊。灵霄宫，七层四角，高38米，塑有玉帝神像。大觉湾，仙人洞，汇集着中国佛教、道教石窟艺术。其它还有祭天台、月老祠、鸳鸯亭等不少景点。
+三山以孤见奇，以小取胜，若翠螺置于玉盘之中，林木葱茏，山径深邃，景观开阔，文徵明诗碑中的《太湖》诗云：
+岛屿纵横一镜中，湿银盘紫浸芙蓉。
+谁能胸贮三万顷，我欲身游七十峰。
+天远洪涛翻日月，春寒泽国隐鱼龙。
+中流仿佛闻鸡犬，何处堪追范蠡踪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七桅帆船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡是吴文化的发祥地，吴文化主要体现在水上，而水文化又离不开船，七桅帆船是吴地船文化的一个缩影。距今已有200年历史。原来传说是岳飞的水师战船，岳飞屈死风波亭后，就把战船改良成鱼船，战士们靠打渔为生，它的航行速度相当快，顺风时每小时可以达到20公里，逆风时成之字行行走。曾经有四艘同样的船在一起一网捕起了3600公斤的银鱼，可见它是捕捉银鱼的主力船只。它也是目前太湖流域中船帆最多，船型最大的木制船只，被称为“渔船博物馆”。鼋头渚景区为了满足广大游客登帆船饱览太湖美景的要求，仿制了三艘停在鼋头渚码头，可以让游客从船上领略太湖美丽风光。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海峡友好石碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草坪上的这棵树是一棵用台湾日月潭边的泥土和太湖湖水共同浇灌的友谊之树，代表了两岸人民同心同根。在2006年7月，太湖鼋头渚风景区与台湾日月潭，两大景区将在自然与文化资源管理、景区规划编制与实施、景区管理及运作等方面开展交流与合作。台湾日月潭的原住居民同鼋头渚的职工在前面这片草坪进行联谊活动。这块碑、这棵树，向来自海内外的游客展示着“两岸一家亲”。日月潭是台湾岛唯一的、最大的自然湖泊，以“双潭秋月”美名传世；鼋头渚是太湖风景区的核心景区，以“鼋渚春涛”闻名遐迩。两湖的合作再次证明了鼋头渚在太湖旅游中“佳绝处”的地位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐霞客铜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡是一座有着3100年历史的江南名城，历史上名人辈出，有外交家薛福成，数学家华蘅芳，文学家钱钟书。而在旅游界也有一位名人，他就是有着“中华游圣”之称的徐霞客。他是明代的著名旅行家和地理学家，他用双脚丈量人生，书写了一部千古奇书《徐霞客游记》。
+徐霞客铜像高3.6米，用铜4吨多，由著名雕塑家吴为山设计，山西宇达集团浇铸，是为了纪念徐霞客诞辰420周年和出游太湖400周年塑造的。塑像双目炯炯，神情坚毅，象征着他胸怀理想，目光远大，探索真理，勇往直前。双脚略有弯曲，象征着他跋山涉水的艰苦。身段作了艺术化处理，全身的衣服和身披的蓑衣随风飘舞，如流水灵动，似山峦起伏，象征这这位“中华游圣”与山水大地融为一体的历史化身。整个塑像体现了“探人所未知，达人所未达”和“行者无疆，壮行中华”的霞客精神。他之所以落户鼋头渚景区，是因为太湖为400年前徐霞客的首游处，当年他从江阴河道进入运河再由运河到达太湖鼋头渚，从鼋头渚出发去苏州的东山、西山。鼋头渚是徐霞客壮游中华的首游处。他一生曾多次游览太湖，而鼋头渚享有太湖第一名胜美誉，所以选择“太湖佳绝处”的鼋头渚作为中国第一尊徐霞客铜像的所在地。
+徐霞客铜像的落户创造了全国乃至全球多个“第一”。第一座徐霞客铜像，其他地方都是石像、玉像。第一座青年徐霞客塑像，其他多为中老年像。同时，它也是投资最大的徐霞客像，耗资100余万元，无锡市区第一座徐霞客铜像等等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横云石壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在涵虚亭下的一个天然大水湾里。这里，湖滩崖上，石壁列阵，怪石眠空；下侧湖水吞波吐涛，古人有“千金能买太湖石，难买断岸此千尺”的赞誉。明末，东林党首领高攀龙，隐于蠡湖，常在这里湖滩濯足，取“沧浪之水浊矣，可以濯吾足”之意。抗战胜利时，无锡人朱松黯书“明高忠宪公濯足处”八个隶字于石上，以示对东林党人高风亮节的敬仰。“横云”和“包孕吴越”摩崖石刻，为晚清无锡县令廖纶所书。1895年春，廖纶偕友泛舟至此，觉得这里气势雄伟，欣然题书镌于岩壁，以誉太湖似母亲般地孕育着江浙两省人民。
+山坡上建有“霞绮亭”，方形，临崖兀立，有杨寿楣的《霞绮亭记》刻石，林散之书于1990年的亭额。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼋渚灯塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯塔是作导航之用。1920年，无锡绅士华题蓉壁居南乡，一次舟行夜归，迷失了方向，误入了湖心，险遭覆舟葬身鱼腹之祸。于是在此立竿悬灯导航。1924年，锡湖轮船公司首航太湖，地方人士集资建一座灯塔以示祝贺。1982年，进行了彻底翻新，底部和中心进行加固，四周覆以金山石，高度从原来的12.6米加高为13.1米，饰以粉红色、紫酱色，显得更为雅致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩崖石刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡旅情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡是一座历史悠久的江南名城，早在3500年前，陕西周太王的长子泰伯为了礼让王位而南奔荆蛮，来到了无锡梅里，也就是今天的每村，创建了“勾吴国”。历时600多年，所以无锡是吴文化的发源地。隋唐之后，随着京杭大运河的开凿，同时与长江、太湖水系相聚，使无锡的水路交通便利，成为货物集散地，无锡是历史上有名的“布码头”和“丝市”也是“四大米市”。便捷的交通带动了无锡经济的大发展。到了上世纪40年代，无锡已有“小上海”之称。经济发展的同时，由于无锡在历史上建制低，一直是无锡县。所以知名度低于苏州。上世纪80年代，为了扩大影响，无锡旅游局到社会广泛征集旅游口号，在4000多条宣传口号中，选中了这块石碑上的这句（江苏省旅游促进处袁晓国）“无锡充满温情和水”、“温情”，无锡是无锡文化的发源地，吴文化倡导温文尔雅，也反映了无锡旅游的优质服务。“水”呢，在充满水乡风情的无锡，水是灵魂，更是核心，一切都离不开水，便捷的水路交通造就了无锡经济的大发展。同时，太湖水灌溉农田，使无锡成为了著名的鱼米之乡。而现在，无锡的旅游更离不开水，鼋头渚就是凭借着“真山真水”的独特风光闻名中外。
+背面刻的是《无锡旅情》的中文歌词。无锡市为了提高知名度，除了运用各种宣传方式，还特别注重将文化艺术与旅游活动结合起来。1986年5月，通过日本阪急旅行社邀请了日本著名诗人、作曲家中山大三郎和东京ABC音乐出版社长山田广作来无锡旅游，他们回国后很快创作并出版发行了《无锡旅情》和《清明桥》两首歌，由日本红歌星尾形大作演唱。特别是《无锡旅情》这首歌，在日本六家电视台播放半年之久，唱片发行量突破100万张，风靡日本全境，许多日本友人正是从这首歌中了解了无锡，纷纷慕名前来无锡旅游。也是这首歌的影响力带动了无锡的经济。现在的无锡已经是著名的日商投资高地，已有一千多家日资企业落户无锡新区，有很多投资规模都超过了一千万美元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震泽神鼋是用青铜制作的，长1.7米，高1.3米，宽1.1米，重达700公斤，这是“中华青铜文化复兴公司”在1985年5月无锡首届“太湖之春艺术节”时赠送给鼋头渚公园的。关于“鼋”有两种说法，一种是自然界中的鼋，一种是神话传说中的鼋。在自然界中鼋是一种和鳖相似的动物，有的地方就把它叫做“大鳖”。关于“鼋”有两种说法，一种是自然界中的鼋，一种是神话传说中的鼋。在自然界中鼋是一种和鳖相似的动物，有的地方就把它叫做“大鳖”。其实鼋和鳖是有区别的：鳖的重量最大只有三四公斤，而鼋的重量可超过100公斤；鳖吻长而尖，鼋无尖吻嘴圆；鼋又叫癞头鼋，缘由是鼋头头部散生疣状突起，鳖的头部却是光滑的；鳖的外形呈扁圆，鼋的外形却是正圆。因此南方人俗称“团鱼”，又是团圆，又是“余”，十分吉利。它是国家二级保护动物，多数生长在广西。
+在神话传说中，鼋是龙和鳖所生的长子，呈龙头龟身凤爪鹰尾，正如我们面前所看到的这只神鼋。它是用青铜制作的，长1.7米,高1.3米,宽1.1米,重达700公斤,这是“中华青铜文化复兴公司”在1985年5月无锡首届“太湖之春艺术节”时赠送给鼋头渚公园的。这“震泽神鼋”由著名雕塑家庆宝持创作，上镌有朱复戟教授篆刻题名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这块“鼋头渚”的刻石高2米，正面的“鼋头渚”三个字是光绪年间由无锡举人秦敦世书写的。另一面刻“鼋渚春涛”四个字，是我国历史上最后一个状元刘春霖写的。“鼋头渚”的刻石高2米，正面的“鼋头渚”三字是光绪年间由无锡举人秦敦世书写的。另一面刻“鼋渚春涛”4字，是中国历史上最后一个状元刘春霖写的。刘春霖与园主杨翰西是同科进士，他在光绪三十年（公元1904年）殿试中独占鳌头，但没有想到1905年废除了科举制度，他竟成了末科状元。“鼋渚春涛”四个字是在1906年题书的，这里的“春”字用的最妙，一是刘春霖来锡时正是仲春时节；二是这里面对着太湖的一个内湖，叫梅梁湖。根据《具区志》记载：“梅梁湖在夫椒山（今马山）东，吴时进梅梁至此，舟沉失梁，后每至春首则水面生花。”（梅梁指的是楠木，楠木是上等的好材料，那么它是不是就是现在的梅树呢？当然不是，楠木的“楠”在古代写作“枏”，“枏”是“楠”的古体字，是“梅”的异体字，所以“梅”在古代不是指现在的梅树，而是指“楠木”。）后人据此典故把鼋头渚、马山、拖山之间的水面称为“梅梁湖”。每逢春天，这里会出现神话般的奇景：春涛好似古梅在水上开花一般，显得美丽极了；三是无锡正处在太湖北岸，春天时多东南风，太湖无日不起浪，尤以鼋头渚一带水势浩大，波涛汹涌，声势雄壮。鼋渚涛声是这里的一大特色。若遇风和日暖，微波涟漪，涛声则清缓而流畅，和谐而有节奏；若遇狂风怒号，浊浪滔天，则轰然巨鸣，犹如万马奔腾，真有“涛声吼鼋渚，地胜十洲三岛”的感觉。所以鼋渚春涛是鼋渚涛声中最神奇的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横云石壁是鼋头渚著名的风景点，这里奇峰怪石半环着一个天然的大水湾，在绝壁悬崖上刻有“横云”和“包孕吴越”6个字。横云石壁是鼋头渚著名的风景点，这里奇峰怪石半环着一个天然的大水湾。在绝壁悬崖上刻有“横云”和“包孕吴越”6个字，这是清末无锡县令廖纶书写的。廖纶在光绪辛卯年（公元1891年）正月初八，同友人乘船至此，觉得这里气势雄伟，就欣然挥笔，题书“包孕吴越”和“横云”，镌于石壁上，使湖山增色。
+“包孕吴越”形容太湖气势宏大，跨越江浙两省，江浙两省在2400年前主要是吴越两国的疆域，太湖在其间，湖水浇灌了两国的土地，使两国百姓受益非浅。太湖像伟大的母亲以自己的“乳汁”哺育了吴越儿女。
+“横云”是说在湖中远处回望鼋头渚，只见上下苍苍茫茫，水天一色，这一带湖岸好似横在半空中的一抹彩云，在轻轻漂移。原来的横云山庄也是因为这横云石刻题名的。（大家再看下面的这块石壁，上有“明高忠宪公濯足处”8个大字。明高忠宪公指的是明朝东林党重要领导人之一的高攀龙。高攀龙曾是无锡东林书院主讲，后因东林党得罪了宦官魏忠贤，受到魏忠贤阉党的无情打击，造成了恐怖的“党祸”。高攀龙回到无锡后，常常隐蔽在现在蠡湖东面临湖而筑的“水居”读书，那时书院被毁，奸党横行，他自号：“湖水老人”，不接宾客，不谈时事，只以花鸟为伴。他常到鼋头渚湖滩濯足，取“沧浪之水浊兮，可以濯我足”之意，表示避世隐身，知足常乐。虽然如此，魏党还是不放过他，迫害一天甚于一天。高攀龙自知不免，就于1626年3月17日清晨，在住宅后园池中从容入水而死，后人在池畔立石，上刻“高子止水”。抗日战争胜利后，无锡人朱松黯书写“明高忠宪公濯足处”镌于石壁上，以示对高攀龙的纪念。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒天阁是鹿顶山的主建筑，坐落在600平方米的平台上，高24米，八角三层四重檐，黄琉璃顶。意为“四时有景，八方入画”。登阁一望，一幅神奇而绝纱的太湖美景图画尽入眼帘。鹿顶山，位于鼋头渚充山之东，山高96米，地理位置优越，视野开阔。1983年，无锡市人民政府决定建“鹿顶迎晖”一景，1984年动工兴建，1986年元旦正式开放。通鹿顶山的道路有四条，还有一条盘山公路，一般游人多从挹秀桥登山。天阁是鹿顶山的主建筑，坐落在600平方米的平台上，高24米，八角三层四重檐，黄琉璃顶。意为“四时有景，八方入画”。登阁一望，一幅神奇而绝纱的太湖美景图画尽入眼帘。人们赞叹湖山风景建设者独具慧眼，在群山环立的溪湖之交，选择这个八方入画的山峰，建高阁于山之巅。望太湖，湖光缥缈；望蠡湖，溪水涟漪；东南西北望，都是湖，尽是水，七十二峰错落其间，可以把万顷太湖、十里蠡湖、七十二峰瞧个够，看个透，它标志着太湖风景区建设的崭新面貌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南兰苑位于无锡鼋头渚风景区广福寺下的齐眉路中，占地2.5公顷。始建于1987年，1988年基本建成，1989年春季举行了开园仪式，并在此举办了中国春季兰花展览。在广福寺下的齐眉路中，占地2.5公顷。无锡有较长的艺兰历史，清代已兴盛于民间。鼋头渚引种兰花50余属，180种，数千盆之多，并建成一个青瓦粉墙、江南式庭院建筑的兰苑，有国香馆、留香亭、流芳涧、香帘等景点。茂林修竹，曲水清流，兰香四溢。进苑是倚墙而立的碑廊，壁间嵌王献之、文徵明、郑板桥、吴昌硕等历史名人的兰花画刻。南部山坡地，山石嶙峋，溪涧曲流，树木葱茏，是兰花的栽培区。以兰居为中心的一组厅堂，是品赏兰花的去处，室内圆台、方桌、高脚茶几陈列兰花展品。国香馆面水而建。荫棚区别具风情，用平台、曲廊，或让兰花自然生长在溪边、石隙，或附生在乔灌木间，形成绝妙的幽境。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄峙于充山半山腰，建成于1931年，建筑仿宋、明宫殿式，面阔五间，气势宏伟。“澄澜堂”匾额，为清末无锡华世奎所书；中堂“天然图画”为谭泽?所书。两旁有陈夔龙书于1933年的对联：
+山横马迹，渚峙鼋头，尽纳湖光开绿野；
+雨卷珠帘，云飞画栋，此间风景胜洪都。
+这里视野开阔，青峰碧波尽展眼前。早中晚，晴雨阴，景色变化莫测，故说可与滕王阁媲美。堂中还有林开谟书于1933年的楹联：
+吴越有具区，襟江带湖，经始楼台都入画；
+春秋多佳日，陶元浴素，默参龙象欲逃禅。
+堂下，列“震泽神鼋”，青铜铸成，高1.3米，长1.7米，重700公斤，龙头鳖身，系上海青铜文化复兴公司献给1985年首届太湖之春艺术节的礼物，雕塑家徐宝庆主持创作，朱复戡篆“震泽神鼋”四字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4419,12 +4759,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I561"/>
+  <dimension ref="A1:I603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A598" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I561" sqref="I561"/>
+      <selection pane="bottomLeft" activeCell="G602" sqref="G602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17208,7 +17548,721 @@
         <v>1168</v>
       </c>
     </row>
+    <row r="562" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E562" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I562" s="2" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E563" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F563" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I563" s="2" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E564" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="I564" s="2" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E565" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I565" s="2" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E566" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I566" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E567" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I567" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E568" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I568" s="2" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E569" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I569" s="2" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E570" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F570" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I570" s="2" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E571" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I571" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E572" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I572" s="2" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E573" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I573" s="2" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E574" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I574" s="2" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E575" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I575" s="2" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E576" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F576" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I576" s="2" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E577" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F577" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="I577" s="2" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E578" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F578" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I578" s="2" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E579" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F579" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I579" s="2" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E580" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F580" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I580" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E581" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F581" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I581" s="2" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E582" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F582" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I582" s="2" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E583" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F583" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I583" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E584" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F584" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I584" s="2" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E585" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F585" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I585" s="2" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E586" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I586" s="2" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E587" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="I587" s="2" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E588" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F588" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I588" s="2" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E589" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F589" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I589" s="2" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E590" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I590" s="2" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E591" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I591" s="2" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E592" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F592" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I592" s="2" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I593" s="2" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E594" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I594" s="2" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I595" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I596" s="2" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I597" s="2" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E598" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I598" s="2" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E599" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I599" s="2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E600" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I600" s="2" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E601" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I601" s="2" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A602" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E602" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I602" s="2" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E603" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I603" s="2" t="s">
+        <v>1201</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A563:WVQ609">
+    <sortCondition descending="1" ref="F563:F609"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4192" uniqueCount="1356">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4326,6 +4326,496 @@
 吴越有具区，襟江带湖，经始楼台都入画；
 春秋多佳日，陶元浴素，默参龙象欲逃禅。
 堂下，列“震泽神鼋”，青铜铸成，高1.3米，长1.7米，重700公斤，龙头鳖身，系上海青铜文化复兴公司献给1985年首届太湖之春艺术节的礼物，雕塑家徐宝庆主持创作，朱复戡篆“震泽神鼋”四字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州吴中太湖旅游区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 太湖风光美，精华在吴中！苏州吴中太湖旅游区位于天堂苏州西南隅的太湖之滨，境内有中国碧螺春之乡”东山景区，“天下第一智慧山”穹窿山景区和“苏州最美的山村”旺山景区。盈盈碧水、脉脉青山、渺渺湖岛、点点风帆，秀美的湖光山色与散落在太湖山水间的人文古迹相映生辉，俨然一幅绝佳的江南山水画卷。太湖是吴文化的发源地，是天然的历史文化博物馆。古镇、古村、古岛等历史人文景观，宛如点缀在太湖山水间的颗颗明珠，数量之多、档次之高，堪称世界之最。闻名中外的“兵圣”孙武、“塑圣”杨惠之、“草圣”张旭、“绣圣”沈寿、天安门和故宫的设计者蒯祥、王熬等历史名人，都曾烙下生活的印记。     枇杷、杨梅、橘子，银鱼、白虾、大闸蟹、碧螺春等远近闻名。刺绣、雕刻、缂丝、建筑工艺、青铜铸造、古琴制作、书画装裱等匠心独具的精巧技艺，深受历朝历代皇室和平民的喜爱，成为中国苏派艺术的代表。    这里湖不深而辽阔，山不高而清秀，群峰隐现于波涛，景点散布在太湖山水间，远、中、近三景组合皆宜，晴、阴、雨三时情趣各异，春、夏、秋、冬 四季分明。春天的太湖平静而有朝气， 夏天的太湖热情而欢快， 秋天的太湖灵动而美丽，冬天的太湖圣洁而可爱。抿一口碧螺春，舀一勺莼菜，含一颗杨梅，剥一粒枇杷……走过太湖四季，四季枝头饱含着太湖母亲丰盈的乳汁，不管是天高云淡，还是风雨如晦，太湖都是这里的人民最美丽也最可爱的家园。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东山景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东山，又名洞庭东山，位于苏州城西南，它是延伸于太湖中的一个半岛，三面环水，万顷湖光连天，渔帆鸥影点点。境内自然风光秀丽，物产丰富。春天，百花盛开，万紫千红，茶芽滴翠；端阳佳节时，枇杷林披翠挂黄，杨梅树枝茂茁壮；秋天，漫山遍野的桔林，远看万绿丛中点点红，近看累累硕果树弯腰。在这著名的自然风景区内，青山如壁，林木茂密，泛舟湖中，令人乐而忘返。东山既有山川林石之美，又有人文风物之萃。古人赞其有山之胜，石之胜，居之胜，花果之胜，山隐之胜，仙境之胜和山水之胜。洞庭之美，美在山，其中“莫厘远眺”为东山全景之首。每当朝霞初起，晨雾未消，登莫厘峰观红日喷薄而出，更为瑰丽壮美，激动人心。莫厘峰青山如黛，风光旖旎，登临山巅，置身悠悠漂浮的白云之中，山下田畴村庄,时隐时现，宛如进入仙境一般。此外，东山的碧螺春、白沙枇杷、杨梅、银杏和莼菜等名特优特产，均已有数百或上千年的历史，并留有许多民间传说，增添了东山的历史文化内涵。真可谓：怡情雅致牧闲来，绝色佳境任君游；古园古镇古村落，原汁原味细品尝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雕花楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 洞庭东山，物阜民丰，历来是一处风水宝地。元明以来洞庭山商人聚居于此，鳞次栉比的明清建筑，透现出中国资本主义萌芽时期这里的繁荣与昌盛。雕花楼，虽建于民国初年，但楼主却是洞庭山商人中后起的佼佼者；特别是此楼集精湛雕刻工艺、融优秀中华文化于一体而极具文物价值，爰被国务院公布为全国重点文物保护单位。
+       雕花楼，是这座宅院的俗称，它的正名为“春在楼”，因宅院座西向东，大门朝东开设，故取“向阳门第春常在”之意而命名。宅院面积5500多平方米，有照壁、门楼、前楼、后楼、附房等建筑组成，并呈纵轴线对称布列。前、后楼之间，有厢房和回廊联结，成走马楼形式。主楼三层，设计者充分考虑到天井和主楼的采光与通风，三楼收身两檩而呈“假三楼形式”，显得尤为科学。
+       主楼设有中式和西式客厅。中式客厅采用传统风格，有鹤颈椽卷棚轩顶，立屏风，配红木条几及靠椅。西式客厅枭混线泥幔顶，镶红、橙、黄、绿、蓝五色玻璃隔扇，门窗均按西洋做法，厅内设沙发茶几。以便楼主按不同身份、不同习惯和要求，在不同的氛围中接待不同的来客。这样的配置，不仅体现了楼主的特殊身份，也使建筑反映出半殖民地半封建社会的时代特征。楼北用建筑留下的隙地，规划建成的花园，小而精致，有亭、有桥，有假山、有水池，有花、有树……四季景色，一应俱全。一拳之石、一勺之水都有讲究。园的西北角，有佛楼，是楼主特意为其母亲建造的。在此礼佛颂经，有清静和远离尘世的感觉。砖雕门楼和前厅，是楼主最着意的地方，也是整座宅院最精华的部分。门楼施精细的砖雕，主楼的梁、枋、桁、柱，隔扇门窗，均以雕刻装饰，充分体现了苏派建筑、香山帮匠人精当细致的艺术特色。这些雕刻每幅都隐含一则生动的故事，围绕着“忠孝节义”、“孝悌传家”的主题，并表现出楼主“福禄寿禧”，“延年益寿”的祈福心理。
+       中国有句古话，叫：“一部《孝经》治天下”。雕花楼堪称中华传统文化的博览馆。在此不仅可看到我国灿烂的文明成果，其琳琅满目、鬼斧神工般的雕刻装饰，定会使看到它的人扼腕称奇，叹为观止。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆巷古村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于苏州后山太湖边的陆巷是目前江南建筑群体中质量最高、数量最多、保存最完好的古村落。
+　　陆巷古村是明代正德年间宰相王鏊的故里，是全国首批历史文化名村，被誉为“太湖第一古村”。王鏊曾连捷解元、会元、探花，其门人唐伯虎称他为“海内文章第一，山中宰相无双”。王鏊母亲姓陆，其村因此得名。
+　　陆巷古村源于南宋，距今逾千年，是一座保存较为完整的明清古村落，村中有明代老街、三元牌楼，各种厅堂鳞次栉比。陆巷古村名人辈出，被誉进士摇篮、教授之乡。村北的寒谷山、低而秀丽，每当夕阳西下。一轮红日缓缓西沉，红火闪耀，无比壮观。
+      该古村位于山坞之中，背靠莫厘峰，面向太湖，东有寒谷山、西有箭壶，今称巩俐岛，同太湖西山遥遥相望、依山傍水，风景秀丽。顺着王鍳故居往后山走是满山遍野的桔林，这里就是《桔子红了》的拍摄地。村民依山而居，村中筑有六条直通湖畔的巷弄。走进长长的巷子，幽幽的长弄，仿佛走进悠悠的历史长廊。
+      陆巷古村，位于东山西麓中部,依山傍湖,景色秀丽，远望如一幅“水是眼波横，山是眉峰聚”的传神画图。陆巷，于南宋渐成村落；自明代王鏊而后，明清两代，名人辈出，仅王姓就有王禹声、王世琛、王颂蔚等人，使这个仅有百户的山村，巨宅鳞比，牌楼相接，其道路之修整，屋宇之恢弘，冠于江南。现保留明代建筑20多处，清代建筑比比皆是。其中，明代建筑遂高堂、会老堂、晚三堂、双桂楼，明基清建的惠和堂，清建的三德堂等，都具有较高的历史价值和科学艺术价值。据考证，惠和堂是王鏊的故居，为古时官宦宅第建筑的代表。村中的主要街道均用青砖倒砌成人字纹或以条石刻人字纹铺面，并刻着有上下轿马的标记。陆巷古村是迄今吴中古建筑群中数量最多、保存最完整的一个村。1986年3月被列为县级文物保护单位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三山岛国家湿地公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 太湖三山岛国家湿地公园，古称小蓬莱，位于苏州城西南五十余公里的太湖之中。三山岛国家湿地公园因一岛三峰相连而得名，相传三座山峰分别为春秋时吴妃三姐妹的化身。登上主峰北山，眺望中峰和南峰，清秀兀立， 恰似两位美丽多情的江南女子。放眼湖中，邻近还有泽山、厥山、蠡墅山等三座小岛，和三山岛一起组成三山群岛。据说泽山和厥山也有乡民居住，大概仅五十户人家，以经商花果为业。
+        三山岛国家湿地公园有得天独厚的自然地理环境，气候温和、四季分明，冬不太凉，夏不太炎，苍山碧水，风景幽美。三山岛国家湿地公园四季花果累累，除有“洞庭红”红橘外，更有名果“马眼枣”为全国所罕见，果大二寸许，鲜甜爽口，现尚有百年以上古枣树692棵。
+        清吴庄赞《三山》诗曰：长圻龙气接三山，泽厥绵延一望间，烟水漾中分聚落，居然蓬莱在人寰。“四面皆平湖、山屹乎其中、孤绝而巧......”在三山岛国家湿地公园博物馆，可以看到一万二千年的旧石器和古脊椎动物化石，各种古辕人的牙齿比比皆是，这是一九八四年在三山岛国家湿地公园清风岭发现并挖掘出来的，称之为三山文化，证明太湖流域同样为中华民族的发祥地，而三山岛国家湿地公园正是三山文化的集中代表。三山岛国家湿地公园不仅历史悠久，而且三山文化和古吴文化源远流长。二千五百年前，吴王夫差曾来过这里，他的小姑就葬在三山岛，故岛上有一座小姑山、小姑庙（娘娘庙）。庙前湖中有一绿洲，岛上村民称水葬台。村民大多数姓吴，后来有部分去了海外，据说目前在台湾的吴姓人士有三百万，难怪台湾同胞对三山岛国家湿地公园十分厚爱，常年从宝岛台湾到苏州三山岛国家湿地公园观光。
+        山上有十景之胜。现存有：板壁峰，石峭陡立，恰以一天然的水石盆景；狮身人面石，俗称叠石，酷埃及狮身人面像斯芬克斯；十二生肖石，石临太湖，玲珑嵌空，似十二生肖之动物形状；姑亭，传为梳妆台（水葬台）；其余尚有香炉石、牛背岩等。岛上家家培植盆景，堪称水碧山翠小蓬莱。
+        岛上常年花果不断，洁静的农家旅馆和田园风光，使你如临世外桃源。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  东洞庭山，具有她特殊的美。灵峰嵯峨，离立波际，与八百里太湖共升沉。这里既有巍峨之气，又有浩渺之容。这里春茶、冬枣，杨梅为夏橘为秋；终年青山如黛，四季秀色可餐。启园，就座落在这样一座灵山的东北端。
+       启园，又称席家花园，是苏州独有的借景于真山真水，并依苏州古典园林格局规划、建造的私家园林。参与规划设计的蔡铣、范少云、朱竹云都是当时江南首屈一指的书画大家。他们以明代王鏊所建“招隐园静观楼”的意境风貌精心设计，“临三万六千顷波涛，历七十二峰之苍翠”，使整座园林寓意深邃，尽得湖山之胜、之美。
+       园主席启荪，是著名洞庭山商人席端攀、席端樊的后代。他早年在上海发展，1933年，回到东山，在东山开设小火轮往返于东山、苏州之间；在东山创立面粉厂，开设东山发电厂，在造福乡梓的同时，建造了这座私家花园。
+       启园占地五十余亩，有庭园、花园和柳毅小院三个部分组成，其中柳毅井、康熙手植杨梅和御码头为“启园三宝”。花园以“涨合池”和“涵影池”为中心。“涨合池”得名于北宋张先“桥南水涨虹垂影，清夜澄光合太湖”之句；“涵影池”寓明人冯善“震泽春生涨碧漪，净涵云影漾玻璃”之意。池岸一以太湖石，一以黄石环拢叠砌，峰岭之趣，亦然得体。园中建筑疏朗有致，大楼小亭、敞轩厅榭都面向水池。起伏蜿蜒的复廊，贯串联络于各景点之间。复廊很有特点，夹在两廊之间的粉墙上，镶嵌着一方方图案各异的窗景。透过花窗，被粉墙隔断的园景隐约可见，景随步移，构成一幅幅不同的画面，给人以遐想和游之不尽的感觉。
+       柳毅小院，以古井和王鏊题刻的石碑为主体，独立成院。井边贴墙而筑的半亭，也以柳毅命名，它和启园外丰圻山边的“白马土地庙”一起，附丽着柳毅传书的传奇故事。
+       园外巍峨的莫厘峰和浩瀚的太湖，是启园独有的依托。游于园中，可见青山，可览烟波。阳光下，浩瀚的太湖满湖洒金；月影中，朦胧的太湖微波耀银。清康熙皇帝接驾时的御码头直伸水际。在此可览洞庭山与波升沉的壮阔气势；可见太湖中渔帆或隐或现的生动景象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫金庵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东山环山公路，过“苍龙伏水饮太湖”的龙头山，折而向西，在山坞深处，可见一抹黄墙，那就是紫金庵。
+        紫金庵，亦名金庵寺。据《净因堂碑记》称“庵创自梁陈间”。明郑杰景泰三年（1452）所撰《洞庭纪实》中亦有“金庵在西卯坞内，昔有胡僧沙利各达耶于此结庵修道，玄宗时诏复修殿宇，装金佛像，焕然重新焉”的记载，说明紫金庵的创建至少应在唐之前。庵于唐贞元间曾遭废毁，复建后，虽经历代修葺，特别是明清两代的变修，使建筑失去了唐代风貌。但这座僻居山中的小庵，仍洋溢着浓浓的古意。
+        大殿内的三世如来、左右两壁的十六罗汉和飘海观音像，是紫金庵精华所在。相传这些像为南宋民间雕塑圣手雷潮夫妇的作品。其余塑像、金刚、飞天等三十二尊，则为明末邱弥陀增塑。
+        大殿正面的三世如来，庄严安详，端坐在覆莲座上；虔诚恭敬的迦叶、阿难侍立两旁，烘托出主佛的崇伟与庄严。独立鳌头的望海观音在大佛的背后。她肌肤丰腴，神情优婉，颇有唐塑“吴带当风”之势。她搭然佇立，姿态袅娜，把女性的温柔、聪颖和慈爱充分表现了出来。
+        大殿两边的十六罗汉，比例适度，神态逼真。它们各显妙相，或沉思，或假寐；或讪笑，或愁思；或讲经，或听经；或钦叹、或藐视……这些罗汉面部表情细腻，富有性格特征。它们以生活、故事和神话为题材，通过雕塑的形式，表现了不同性格、不同年龄和经历的佛弟子，经过皈依佛法，勤加修炼，达到永入涅槃、不受生死果报之累的情况，反映出“佛光普照，殊途同归”的深刻意境。
+        中国画、中国的艺术品，历来要求作品：写心、传神、达意，做到气韵生动。紫金庵罗汉像的艺术造就，最基本的一点，就在于它反映了当时社会人们的真实生活，表现了现实人的内心活动，所以，至今还具有动人的魅力，而成为不朽的作品，并成为吴中地区的一处全国重点文物保护单位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穹窿山景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 穹窿山景区拥有形如钗股的穹窿山，海拔341．7米。三茅峰状若浮笠，俗称笠帽峰。山有东西两个铜岭，百英荟萃，氛围恬静。山上有泉四眼，双膝泉涓流不息，挂杖泉静影澄碧，法雨泉直奔农田，百丈泉清醇甘甜。茅蓬坞的涧水，霪雨过后，飞流猛撞，触石作声。
+　  穹窿山景区拥有丰富的自然资源，拾阶而上，步移景易，或苍松翠竹，或泉水潺潺，环境极为清幽静谧。612亩的省级自然保护区—茅蓬坞是一座天然的植物博物馆，拥有牛鼻栓、短穗竹、紫楠等名贵树种以及穹术、三七、党参、灵芝、何首乌等药生植物，已探明的药生植物就有151种。林海千亩，树高景深，层次丰富，环境幽雅清静。树木的气味芳馨，吸之沁人心脾；树木的奇特姿态，观之令人心旷神怡。穹隆山景区还是苏州地区最大的“天然森林氧吧”，林间氧气充足，空气中负离子含量每立方米达2万个，是一般空间负离子含量的400至500倍。
+　  穹窿山景区历史悠长，集政治、军事、宗教、文化于一山，丰富的人文景观是其又一资源优势。“空岩已及万仞半”的茅蓬，相传是西汉朱买臣故宅。今存盘石一方，上有明正德己巳年(1509)都穆题刻“汉会稽太守朱公读书处”十个大字。近人李根源也题词于此。 经学术界考证，穹窿山为当年孙武子的隐居地，孙武在此完成了其传世之作——《孙子兵法》。近年来，这里相继建成了孙武苑，《孙子兵法》全文碑、兵圣堂、碑廊、中日友好樱花林石碑等。
+　　苏州穹窿山，一座您谈古思今，访踪千年历史文脉；悠游小憩，尽享天籁风情的绝佳之处。   
+      穹窿山景区是我们秉承吴中区“最美太湖山水，打造吴中新城”的重点项目工程，今后的开发建设将在加强景区基础配套的基础上，更着眼于旅游景区吃、住、行、游、购、娱等要素的合理搭配，更注重于景区文化内涵的拓展和延伸。相信随着景区的深度规划策划，穹窿山景区一定能成为一座以自然生态资源为基础，以孙子文化为主题，以宗教文化、皇家文化、休闲文化为补充的太湖第一名山、圣山。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁竹亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">铁竹亭是为了纪念穹窿山一位比较有名望的道者施亮生而建，他是上真观的开山祖师，道号铁竹道人。施亮生是苏州横塘人，13岁到苏州朝真观出家学道，23岁拜徐演真门下为徒，学五雷正法。后来又在前明巡抚吴晋锡和真人张应京的协助下兴建上真观，把上真观扩建为5048间，称为江南的道教中心。施亮生为苏州的道教发展立下了不朽的功劳，这里也是他当时下山经常休息的地方。我们后人为了纪念这位铁竹道人，就在此建了这个“铁竹亭”。亭的两边有一副对联“静坐不虚兰室趣，清游自带竹林风”，清代书画家王震所题，表达了一种雅趣和感叹，坐在这里可以品赏兰之趣，行走在这条廊里。两边青竹摇摆，一股股清爽的竹风随身而行。继续往前是“足畅轩”，国民党元老于右任老先生在和风朗日的天气中，一入山门就被此处的“山水园林”所陶醉，顿感脚步轻快，心畅神舒，忍不住题了这幅对联：“修竹崇兰，静观其趣；和风朗月，足畅斯怀”。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南第一唐彩卧佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南第一唐彩卧佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上真观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　坐落在三茅峰的上真观，面向苏州古城，背靠小王山，东邻佛教名山灵岩山，南与香山桃花岭、白马岭、烂柯山、大苑邻、小苑岭等诸胜同脉毗邻，峰峦连绵起伏，犹如游龙翻腾之状，气势磅礴。
+　　清朝末年，上真观殿堂轩阁，有房二千余间，分三十六房分管，有宫殿轩阁居堂四十余座。如天妃宫、祖师殿、玉皇殿、三清殿、三元殿、三茅殿、关帝殿、纯阳殿（吕祖殿）、雷尊殿、灵官殿、玄帝殿、文昌殿、太乙殿、神虎殿、养和堂等等。这些殿宇星罗棋布，建筑宏伟；堂内神像，塑造精巧，形象逼真。民国时，上真观稍趋衰落，但尚有殿房2000多间，上世纪三十年代日军占领苏州，穹窿山上  真观，遭受日本侵略者的肆意破坏，殿宇除关帝殿、龙王殿、吕祖殿、财神殿等外，其余均毁于大火。即使如此上真观仍具有一定规模，在民间还有相当大的知名度。上世纪五十年代，穹窿山上真观依然是江南最大的道教建筑群， “文革”期间，以破“四旧”将殿宇全部毁坏，令人痛心不已。自1978年后，在人民政府的关怀下，中国道教获得复兴和发展，苏州穹窿山道教也得到了复兴。1991年开始，上真观在原址上逐步恢复建有山门、龙王殿、玉皇殿、望湖亭等一批道教建筑和景点。1996年，上真观作为宗教活动场所正式对外开放，经过多年来的开发与建设，上真观已初具规模，其建筑宏伟壮观。
+重修的上真观在原有基础上，按科学发展观的理念，在设计、修葺、筹集资金等方面，做到了既有古观意韵，又有现代气息，与时俱进，凸现山情，使道教文化与民俗文化、旅游文化相结合。上真观坐西朝东，占地70余亩，建筑面积达15000余平方米。观内主要建筑均沿中轴线排列，从东向西，由低至高，依次为山门、三茅殿、玉皇宝殿、三清阁。中轴线两侧建有金钟、玉磬楼、真人殿、天师殿、慈航殿、文昌殿、药王殿、财神殿等，都为单檐砖瓦纯木结构。
+　　山门是上真观前门，面阔三间，重檐砖瓦纯木结构，约200平方米。山门正中悬挂乾隆皇帝亲笔御书“穹窿山”横匾和“上真观”竖额，两侧横匾为“弘扬道法”和“振兴中华”。山门殿内供奉王灵官神像。在山门殿两侧建有金钟玉磬楼，寓意“金钟玉磬，和谐平安”。出山门殿向上，呈现在眼前的是一幅青石九龙巨壁，为皇家道院象征。在九龙壁两侧建有天师殿、真人殿。真人殿中供奉施真人像，大殿供台下为施真人墓。天师殿中供奉张天师和雷尊及龙王神像。跨越77级台阶就登上了上真观主殿三茅殿重檐，面阔五间，约500平方米。横匾竖额为清康熙帝御书“三茅殿”和“句曲神宫”，两侧横匾“心容天下，道在人中”为全国人大常委、中国道协常务副会长张继禹道长所书。殿前为金山石铺成的露台，有100多平方米，供石雕山猫（老虎）一只，憨态可掬，为镇观之宝。殿中供奉的自然是三茅真君像。三茅殿北为慈航殿，供奉送子、滴水、紫竹观音神像。三茅殿南为文昌殿，供奉文昌、孔子、朱熹等文人像。
+　　出三茅殿，迎面看到的巍峨建筑为三清阁，面阔七间三层四重檐，建筑面积达1602平方米，为苏州第一阁。走进底层为玉皇殿，供奉玉皇大帝神像。第二层为道教文物展示室，有康熙年间御赐铁制腊扦、清代历代皇帝赐上真观书画等。第三层为三清阁，匾额为北宋大书法家苏东坡题写，两边“天地玄黄、日月同辉”横匾为元代赵孟頫书写。殿内供奉三清神像。三清阁两侧为药王殿和财神殿。药王殿边为养和堂，这里亭台楼阁，坏境优雅。在财神殿南侧为乾隆行宫区。乾隆行宫按原样复建，建筑面积达1570平方米，这里展示着皇家文化，有当年乾隆帝六下江南六登上真观的历史介绍。在乾隆行宫边，有乾隆31岁（第二次下江南）来上真观栽种的玉兰树，树龄已达二百多年，枝繁叶茂，郁郁葱葱。绕过乾隆亲栽的玉兰树，左转向南，来到著名的望湖亭，登亭西望，大茅峰山脉横陈于前，右首是大茅峰主峰，余脉自右至左向西南去，波光粼粼的太湖天水一色，锦绣江南尽收眼底，难怪他每次驾临穹窿山和上真观，在领略风景之余，为上真观留下了多幅墨宝，上真观以其墨迹，镌刻于石碑，立在亭内，所以望湖亭又称“御碑亭”。石碑正面刻的是乾隆帝第二次下江南（即1757年）作的《穹窿山望湖亭望湖》诗：“震泽天涟水，洞庭西复东。双眸望无尽，诸虑对宜空。三万六千倾，春分秋月中。五车禀精气，谁诏陆龟蒙？”
+　　古往今来，不论达观显贵，还是文人墨客，在春暖花开踏青祭扫之时，或是秋高气爽走亲访友之际，总不忘上穹窿山，朝拜上真观，周边百姓更是如此，时被誉为“穹窿福地”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾隆皇帝曾经六下江南，据考证六次都到过穹窿山，御湖原来只是一个无名湖泊，但因清高宗弘历（乾隆皇帝）每次驾临穹窿山时，都要经过苏福运河到善人桥御湖后弃舟登岸，也就因此得名了，所以御湖中还有迎驾亭。石牌坊正面刻有“慈恩圣德”，两边是爱国政治家、革命家于佑任题的对联“人文开日月，盛绩纪尊彝”。
+　　御湖总体面积达75000平方米，水域面积达55000平方米，最深处5米。平均水深3米，湖面呈不规则的方形，湖心我们看到的是龙涎瀑布，是苏州地区最大的人工瀑布，高18米，宽45米。湖面呈不规则方形，湖旁两侧有龙涎瀑布、接驾亭、应天阁、御膳房、徽派民居等建筑，依托穹窿山的清秀威仪，自然之美与人工之美浑然一体，御湖倍显逶迤清秀，千姿百媚。
+　　在几里外都能感受到瀑布之声的震撼，湖边还有文人墨客留下的石刻，“芳涛”由宋代大文豪苏轼题写，意思是：风吹御湖，两边花草气味芬芳，鸟语花香，连湖面的波涛也带有芬芳。“天地清合”由民国元老于佑任题写，意思是：事态清平和顺。“吴郡名山第一山”由宋代四大书法家之一的米芾题写，显示出了穹窿山在苏州诸山中的地位。“山辉川媚”由徐枋题写，明时徐枋曾在穹窿山隐居，表达了对穹窿山山清水秀，山辉水媚自然风光的赞叹。“得山水清气，极天地之观”也是于佑任题写，描绘万物造化中蕴涵的山水精神，尽赏天地景象。应天阁当年是供皇帝喝茶小憩的地方。匾额上“风物清嘉”由近代学者章本义题写，表达了苏州是个物产丰富，人文清雅，人杰地灵的风水宝地。游客们可以坐在皇帝曾喝过茶的地方，边品着杯中的香茗，边欣赏着眼前自然之美与人工巧术浑然一体的御湖，仿佛置身于一幅美丽的画中，舍不得离开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁邦寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁邦寺位于穹窿山景区的北面，历史悠久。据史料记载，始建于梁代，称“海云禅院”，重建于南宋绍兴十二年（1142年），当时抗金英雄岳飞被秦桧谋害后，抗金名将韩世忠看破朝廷的腐败，隐居在苏州的沧浪亭，他的六位部将也随之在此剃发修行，出家隐居。他们虽然离开了朝廷，但还是心系国家，于是把“海云禅院”改名为“宁邦寺”，宁邦宁邦就是希望国家和平安宁的意思。
+　　宁邦寺的第一重殿——天王殿，殿内一尊金佛大肚弥勒佛。据说他是佛祖释迦牟尼的接班人，所以也叫做未来佛。两侧是四大天王（四大金刚）。
+　　寺院的正殿——大雄宝殿。“大雄宝殿”四字是由原中国佛教协会会长赵朴初所题。殿内正中间供奉的是释迦牟尼佛，左尊为药师琉璃光佛，右尊为阿弥陀佛。后面供奉的是海岛观音，他能使众人脱离苦海。
+　　走出大雄宝殿，左边是观音殿，又名大悲坛。里面供奉的是观世音菩萨，他是西方极乐世界的上首菩萨，观音的形象有多种不同。我们这里供奉的是杨枝净瓶观音，他的两旁侍者是龙女和善才童子。右边地藏殿里面供奉的是地藏菩萨，寓意地狱救苦，度化众生。而九华山就成为地藏菩萨的应化之地。
+　　大钟（楼）钟声象征着平安，故有闻钟声去烦恼之说，寺院早晚叩钟一百零八响，寓意众生能脱离一百零八种烦恼，以祈愿受苦众生听闻钟声之后，能够烦恼轻、智慧长、菩提生。
+　　宁邦寺旁这潭泉水是穹窿山古泉之一—百丈泉。据传宋代高僧佛慧禅师主持时，因寺内僧多水少，而水不够，他施法将锡杖插于半山百丈崖上，顿时泉水涌出， 并将山泉水引入寺院内供僧人使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙武书院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《孙子兵法》诞生于苏州市吴中区，这使得本区享有了其他国家和地区无法取代的历史、文化价值。随着经济、社会的发展，人们对和平、和谐的世界环境的渴求越来越强烈，《孙子兵法》的现实价值和时代魅力也越来越耀眼夺目。为了更好地继承并挖掘这一历史文化资源，做大做强我区文化旅游产业，苏州市吴中区人民政府与中国孙子兵法研究会协手在苏州穹窿山景区打造中国首家、也是全国唯一的一家讲学基地――苏州吴中孙武书院。
+　　孙武书院总占地面积为1万3千多平方米，总建筑面积为8千多平方米，绿化率达40%，总投资5千万，是2009年吴中区重点建设项目，现在基础建设已经完成，预计将在2010年9月份投入使用。书院分为研究培训中心和接待中心两个主体部分。研究培训中心建筑面积为4千5百多平方米，主要功能为培训及研究办公，分为3层，含教室、研究室、会议室、办公室、资料室等。接待中心建筑面积为2千3百多平方米，主要功能为住宿及餐饮，分为3层。中心备有豪华套间、豪华单间、套间、商务间、标间及三人间客房共计68间，可容纳118人住宿；有1宴会大厅及10间包厢，可容纳近500人同时用餐。
+　　孙武书院的成立，旨在挖掘并推广《孙子兵法》的文化内涵、战略智慧，使传统文化的精华与当代社会的发展融合起来，使孙子兵法这一文化遗产转化为现代生产力。孙武书院的主要活动形式是举办各类培训班，通过短期培训班、长期培训班或与知名培训品牌合作办学等形式，组织对企业高层管理者、政府官员、商学院在读学员和在读EMBA、MBA学员进行培训，以增强培训班学员的战略素质、组织才能和领导智慧，从而使孙子兵法这一文化遗产转化为现代生产力。同时，孙武书院在每年的《孙子兵法》诞生纪念日举行孙子兵法国际交流活动，交流主题将涉及企业战略、企业管理、企业文化、区域发展战略、行政管理等多方面内容。通过国际文化交流活动，吸引全世界的研究专家、企业精英、管理高层云集苏州吴中，汇集国内外孙子兵法研究和应用的最新信息与成果，通过孙子兵法广交朋友，集聚人气，将苏州吴中和穹窿山水推介出去，并通过孙子兵法的文化品牌，增强我区的文化“软实力”，促进社会经济发展的“硬实力”。
+　　在做好培训、交流业务的同时，书院将大力开拓以孙子兵法文化为核心的文化产业内容，如学术杂志、论文集的出版，培训音响制品的制作、出版，孙子文化网站的建设、孙子兵法文化旅游产品的开发等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾隆御道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御道是1.5米宽的砚华石铺成的小道，也就是乾隆御道。穹窿山御道和苏州其他的御道不同，一般的御道是为皇帝专设，路面常用青砖竖砌成“人”字形花纹，寓意过路者是“万人之上”的君主。但穹窿山上的御道是先前就用山石铺成，因为当年乾隆六次来穹窿山时，每次都是走这条道上山，故称御道，因而这里的御道更多带有纪念性质了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“洞天”，是指别有洞天，天外有天的意思。在道教中，“洞天”就是指人间的地上仙山。道教共有十大洞天，三十六小洞天和七十二福地，他们共同构成了道教地上仙境的主题部分。据史料记载，此处原有一座规模宏大的门楼，其实就是上真观的头山门，但在文革时期已遭到破坏，现在看到的洞天门楼是在原址上重新修建的 。 
+　　洞天门楼上面是关帝庙殿堂，祭祀的是三国时名将关羽，又称关公，关老爷。在道教中，关公又称武财神，在许多殿堂或人家都供奉关公的神像。在佛教中，他又被视为守护寺院之神，被称为关帝菩萨或伽蓝菩萨。门楼上有块匾额“义炳乾坤”，表达的是关公对刘备的忠义之心光耀天地之意。
+　　洞天关帝庙的特别之处就在于它庙内的屋顶装饰类似于皇家建筑。屋顶中央有一道教的“八卦图形”，外圈彩绘有“暗八仙”，即为八仙所用的法器。中间共有八只蝙蝠，并且这八只蝙蝠微微向内聚拢，意为汇聚八方之福。最特别的是穹顶有一副双龙戏珠的浮雕，并用金粉喷绘，这在别处的庙宇中难得一见。庙里供奉着三尊神像，中间手拿《春秋》的这位就是关公，手持兵器的是关公的部属周仓，另一位手中拿有印章的是关公的义子关平。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱买臣读书台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">我国历史悠久，全国各地标有“读书台”地方也特别多，像安徽宿松的李白读书台、山东鄄城的曹植读书台等等，其中以穹窿山的“朱买臣读书台”最带传奇色彩，因此它被列为我国的五大名台之一。与其他地方读书台不同之处，在于它是一块长约2.5米，高约1.3米、宽1.5米，近乎长方体的磐石，毫无人工斧凿，可谓是出于天然，上刻有“汉会稽太守朱公读书之处”。这个“朱公”就是朱买臣，他是西汉是的一代名臣，但他可以说是一个大器晚成式的人物。相传他当年出身贫贱，可是酷爱念书，一有时间就要读。因为当时的书籍大都是用竹简制作的，一部书一大捆，分量不轻，他出外打柴或卖柴都带着书，既不方便、又重。为了这个事，朱买臣遭到妻子的讥笑和责骂，之后他就不把书带回家或带到集市上，每次上山砍柴时，就在如今的“读书台”处偷偷看一会，回家时就把书都藏在这个石头底下。朱买臣最后读书有成，飞黄腾达，人们为了纪念他，就把这块大石，命名为“朱买臣读书台”，当地乡镇命名为藏书。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙武苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">孙武苑草堂一共是五开间的茅屋，依山而建，是香港著名企业家方润华捐资而建。屋前的一泓清泉潺潺而流，源出绝壁，以竹筒相接，别具一格。在孙武草堂内陈列的是仿春秋时期的古床、古凳、蓑衣、锄头等，再现了当年孙武隐居撰写兵书，与好友饮茶对弈的生活场景。
+　　孙武，春秋齐国乐安人，是今天的山东惠民县，现在那里还建有孙武故居。孙武是当时齐国的贵族，后来因为逃避战乱，来到吴国，因而他的生平活动主要在吴国，建功立业也是在吴国。孙武年幼时就跟着其叔叔穰苴学习兵法，他的叔叔是当时齐国的大司马，也是我国早期著名的军事家。孙武军事理论的形成和他叔叔密不可分。孙武避难来到我们吴国后，就来到穹窿山茅蓬坞里隐居著书，写下了举世闻名的《兵法十三篇》。后来孙武与吴国名丞伍子胥结识，被举荐给吴国的大王阖闾，并最终帮助其成就霸业。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">孙子兵法碑刻廊 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙武苑中的碑廊占地1300多平方米，呈“回”字型。在正中间的石碑上是老一辈革命家毛泽东看了孙武百句名言中“知彼知己，百战不殆”，引用过来的“知己知彼，百战百胜”。整个碑廊是由三种版本组成，它们都由黑色大理石制作而成。正面是中文碑，全文共有6097个字，是由苏州已故的书法家程可达根据魏武帝的注本改写的。中文碑中的字与字之间，行与行之间的距离是5*5厘米，暗寓孙子兵法“五五之变，无穷无尽”；左边英文碑共有十万字母是由中国孙子兵法研究会的副会长吴如嵩主编，原国家外文局局长林戊荪翻译的；右边是日文碑，有1.2万字，由日本孙子兵法研究专家服部千春先生亲自校定并捐款建立的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩月台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩月台，当年韩世忠将军中秋赏月的地方。为了纪念这位抗金名将后人也在这里留下许多摩崖石刻，是一处难得的天然石刻碑林。石刻可分为三种类型：
+　　第一类描写的是自然景观。“天趣”李学诗题，指这里的真山真水得天独厚，天然、天景、天色别有洞天，置身其间妙趣横生乐趣无穷。“孤峰皓月”清代潘奕隽题，指晚上登峰赏月，皓月当空，银白色的月光，普照人间，令人感慨无穷，赏月的心情或喜或悲各有不同。“玩月台”韩世忠题，韩世忠当年在宁邦寺常登台赏月，叹月。“山辉川媚”明孝廉徐枋题，赞美这里的山水风景、山明水秀、山峰光辉灿烂，泉水妩媚可爱。
+　　第二类写的是佛教宗义。“彼岸”章炳麟题，指西方极乐世界，含人的生死病离的哲理。“菩提石”石如法师坐禅处，民国元老李根源题，石如和尚学印度皇子释迦牟尼在菩提树下参理悟性，“莲台”苏州探花吴荫培题，指大慈大悲，救苦救难，普度众生的观世音菩萨登岸之处。“四大皆空”民国元老张一麐题，指酒色财气皆空，是一种偏面消极观点。
+　　第三类写的含政治色彩。“避秦”民国二十五年（1936年）九月莫荣新题，意思是先祖避开秦朝时代战乱纷纷，随意躲避来此安居，有反对战乱，祈求和平的意思。“英雄肝胆、菩提心肠”于右任题，意思是自古英雄，为国为民，情柔志刚，爱憎分明。“横眉冷对千夫指，俯首甘为孺子牛”，对敌不共戴天，对友甘为牛马。
+　　这两年，景区对玩月台逐步开发建设，在玩月台新建了戏台、茶楼、玩月亭，晚上游客可以在此听戏品茶赏月。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景区广场及大门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾隆皇帝六下江南六次都来过穹窿山，并且每次留下墨宝。大门口“穹窿山”三字就是乾隆御笔。“穹”是苍穹、高大的意思，“穹窿”是我国古代一种传统的宗教建筑形式，俗称“圆顶”，是迈向圣殿的通道，而穹窿山的山体是中间隆起，四边下垂，形如圆顶，把它叫做“穹窿山”也十分贴切。 
+　　两边柱子上的对联“太湖万顷在襟袖，穹窿亿丈凌星辰”是乾隆第三次来穹窿山时留的，意思是说:在穹窿山山顶眺望太湖,八百里太湖好像就在襟袖之间，山高亿丈伸手就可触摸到天上的星星和月亮。表达了乾隆对穹窿山的赞美，一种帝王霸气有感而发，也体现出了穹窿山在我们苏州诸山中的地位。
+　　在正门背面有一块匾额“舒心畅神”是著名书画家亚明所题，表达了他游玩穹窿山之后的美好心情，感觉心情舒畅，精神倍加。两边“何处仙人被酒逃归天上去，异领词客吟诗才到此间来”，写出了游览穹窿山后，远离喧嚣城市后的宁静，以及那种来自大自然的诗情画意。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望湖园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 望湖园，是穹窿山的山顶花园，占地60亩。据专家考证乾隆皇帝曾六下江南，六次都来过穹窿山，并且每次都会到上真观祈福延寿，然后到山顶眺望太湖、领略风景，此处故得名“望湖园”。
+     “憩园”是近年景区新建的，为游客休息、喝茶所提供的场所，其中的设施都是用竹子和木艺制作，体现出的是一种自然风情，与整个穹窿山的环境氛围融入一体。
+       由憩园向上就是“朝元亭”，朝元者，礼拜神仙也，穹窿山向来被认为是“仙山”。两边柱联“紫府尤少赤松子，人间岂逢黄石公”。
+       与朝元亭相连的是逶迤曲折的长廊，是穹窿山的旧十景之一。在廊的两侧都可以欣赏到自然景色。隆冬季节，天降瑞雪时，在廊中看到整座山银装素裹，四野茫茫，因此在廊边有乾隆御题“西廊数雪”。廊亭匾额“探雪”是宋代书法家黄庭坚所题，意思是说在这里踏雪探雪是文人雅士最乐意的事情。楹联：“花浓雪聚，鸟啭歌来”是清代书法家汪研山题，意思是说：这里花儿浓密，白雪相聚，鸟儿鸣歌，好一派诗情画意。
+       走出长廊，我们就能看到一座楼阁，正门的匾额“环翠楼”是舒同题写。环翠楼共有两层，可容纳150人用茶，底楼有戏台，可以让游客一边品茶一边欣赏苏州评弹，二楼设有8间包厢。茶楼前面是会议室，被称为“醉月舟”，可容纳200多人出席会议。从会议室的侧面看，整个醉月舟形如一艘古时候的官船，是模拟拙政园的“香洲”而建。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺山景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“旺山生态农庄—田园梦乡”位于苏州城西南8公里处，真实展现“吴中生态绿园，旺山诗梦乡里”的田园梦境。生态园包括钱家坞农家乐、耕岛农事参与体验区、农业观光园及尧峰山登高揽胜等游览景区。
+　　钱家坞是一个原生态的自然村落，田园气息比较浓厚、村舍院落整洁有序、环境优美祥和。结合现代都市人的休闲理念，钱家坞规划为农家乐旅游景区，主要经营农家特色的餐饮和农家住宿服务，提供地道纯朴的农家服务。 
+　　在耕岛农事参与体验区您可以学会农耕的常识与劳作，从野外拓展中学会与自然的融合与共存；在这里您更能够与水作最亲密地接触，在一弯湛蓝清澈的溪流中挽起裤腿，兴奋地涉水；喜欢垂钓的朋友也可以在这里大显伸手，尽情享受垂钓的乐趣；或参与乡村烧烤，心情得到最充分的放松。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕岛位于旺山景区中心，是体验“农耕文化”的高档休闲会所。耕岛四周绿水环绕，岛内林木繁茂，岛上特色餐厅、风情小驻、宠物会所等现代生活设施一应俱全。在耕岛这个“绿色生态家园”，您不仅可以融入农家生活，尽享垂钓之娱、采摘之乐，还可以陪同家人、朋友一起挑选宠物、露天烧烤、休闲度假……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农耕园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农耕园位于旺山山脚，占地10亩，以种植无公害蔬菜、瓜果以及特色蔬菜为主，我们坚持有机耕种，拒绝农药危害。在这里享受农耕的乐趣，您可以到田间亲自采摘，体验淳朴的农作生活，品尝新鲜瓜果蔬菜，感受绿色的惬意，品尝自然的味道。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物会所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州旺山耕岛宠物会所是FCI（世界犬业联盟）的永久会员，主要从事宠物犬和工作犬的寄养、驯导；宠物驯导师的培训、考评、取证以及边境牧羊犬的繁育科研工作。会所现为华东地区“国家宠物驯导师培训基地”和“国家宠物驯导师考评中心”。这里是CKU全国纯种犬鉴定和新生犬注册的指定站点之一，还是CKU授权的“地方训练俱乐部”所在地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝华寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝华寺，又称宝华禅寺，在旺山村薛家湾宝华坞。该寺始建于南朝梁天监二年（公元503年），距今已有1500年的历史。
+　   苏子美有诗云“西南登尧峰，俗云尧所基。洪川不能没，上有万众栖。”尧峰山历来是个登临的好地方，站在尧峰之巅，极目远望，太湖风光尽收眼底，连吴江烟云也历历在目。真有“一览众山小”之感呢。 “万竿绿竹影参天，风曲鸟鸣入山幽“。霭达岭竹林叠泉流水激荡，苍翠竹林缭绕，漫步于林间小径，尽可以放松心情，享受这天然的绿色氧吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憨憨泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又称颔颔泉。据说天竺颔颔尊曾手携锡杖，云游四方。一日来到尧峰山下，见这儿山清水秀，风光迤逦，便将锡杖插入泥中，决定在此筑庙驻足。谁知当他拔起锡杖时，地下就有一股清泉涌出，从此永不干涸，被人称作“颔颔泉”。也有人说，有仙人路过此地，被宝华寺僧人助人为乐的精神感动，留下了这口井。这儿的泉水，天旱不竭，天涝不溢，甘甜清洌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放生池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛门戒杀，并以拯救一切生灵为己任。各寺庙大多建有放生池，以供放生水族。四月初八释迦牟尼佛生日这天，佛教信众聚众赴庙放生，叫“放生会”。除佛教外，道教也有放生戒杀之义。放生之说也为儒家所崇尚。放生之举，与当今动物保护主义者理念相符，也有利于生态环保。但除放生之外，我们平时更要善待动物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观音池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因池内有观音雕像而得名。观音，又称“观世音”，是佛教四大菩萨之一。观音以慈悲为怀，誓言要普救世上所有受苦众人后才成佛。观音信仰，在民间的影响甚大。池中汉白玉观音塑像，手持净瓶，通体洁白无暇，象征观音菩萨的慈悲之心和无私胸怀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“万竿绿竹影参天，几曲鸟鸣入山幽”。旺山竹海绵延数公里，微风吹过，竹子如同海洋波涛起伏，修竹翩翩起舞，使人犹如置身于竹林的波峰与波谷之间。竹海空气清新纯净，竹子的制氧量是常绿阔叶林的1.5倍，空气负离子含量达9.8万个/立方厘米。空气负离子对人体的保健、养生、净心、调神自怡、强身壮体，效果十分明显。在竹林中徜徉，就是在天然氧吧呼吸着10万吨新鲜纯氧，令人身心清爽，精神倍增。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺山植物园位于宝华寺旁，占地150亩，种植了香樟树、樱花、银杏、桂花、紫荆、海棠、红枫、夹竹桃、白玉兰、红叶李等30余种植物。可谓是月月有花，四季常绿，以其多采的植物景观，浓郁的自然风韵，使人流连忘返，乐在其中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九龙潭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九龙潭位于上山塘北，七子山脚山坞。一道山泉自上而下，汇成一泓碧水，潭水清澈，却深不见底。传说下面囚禁着为救人间大旱上天偷宝瓶的九条小龙。
+　　景区青山怀抱，绿树成荫，环境幽雅，内现有九龙潭水库、九龙戏水瀑布、竹亭茶楼、揖山亭、葡萄长廊、观光步道、银杏果园、旺山茶叶基地等景点。在这里您可以聆听潺潺的山泉流水，尽情呼吸山林的新鲜空气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银杏茶叶基地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺山银杏茶叶基地是苏州地区特有的生态农业示范区，总种植面积300余亩，采用银杏和茶树套种的方式种植，其中种植银杏5万余株，银杏特有的植物药性可以帮助驱逐蛀蚀茶树的虫类，茶树可以在银杏树的保护下更好的生长。这种套种的方式可以保证基地所生产的茶叶是真正的绿色生态农产品。在天然山林环抱之中，银杏树和茶树相互辉映，形成一片翠绿的风光，这里空气清新，树木葱郁，环境优美，是山林游览的好去处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九龙戏水瀑布（九龙潭水库）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九龙戏水瀑布是七子山水汇集九龙潭后形成的天然水瀑奇观，在夏天雷雨之时便会出现，在潭下形成九道水柱瀑布。水柱喷涌时，时而细长，时而粗壮，仿佛伴随着节律，场面甚为神奇。传说是潭下囚禁着的九条小龙在潭底翻腾戏水所致。后九龙潭水库经过精心设计改造成为容量一万立方米的山林水利设施，而九龙戏水瀑布得以保留，成为九龙潭一景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揖山亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相传，石湖之滨有弟兄七人以打渔为生。一年皇帝南巡来苏，官府下令石湖渔民限时限刻捕鱼进贡；皇帝听说石湖秀丽，封湖来游。一边催逼下湖捕鱼，一边又封湖，统治者的蛮横激怒了渔民，七兄弟带头反抗，终被杀害。乡亲们将他们葬在山上，从此这山就有了“七子”之名。乡亲不敢公开祭奠，便在山下造亭，以“揖山”为名来纪念他们。这就是揖山亭的来历。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹亭茶楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九龙潭竹亭茶楼是专为游客精心设计的休憩品茗场所，共有室内外茶座近百个，可提供茶水、饮品、小食、棋牌娱乐等项目。竹亭茶楼隐于四周茂密竹林之中，全部采用毛竹背山面水依势结构而建，古朴典雅。茶楼内桌椅、茶具古色古香，可提供各地精选的名贵茶品，其中地产旺山碧螺春茶尤为有名。该茶取自旺山生态茶园，是全部采用有机种植的茶叶。此茶在茶楼内使用旺山甘泉冲泡，幽幽清茶，淡淡茶香，令人思绪飘然。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西施塘、范亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二千多年前，旺山村所在地因位于“临湖控越”的横山脚下，一度曾是吴国西南重镇。传说当年范蠡就是从这里护送西施上山入吴的。当年西施入吴，自离家后便一直闷闷不乐，来到此处看到这一汪清泉，酷似其家乡的山水，方才露出一丝笑容。西施原是浣纱女，长年与水相伴，见到这一泓清泉不禁跳入池中戏水洗浴。故事流传至今，这儿也仍然保留着“上山塘”、“西施塘”这样的称呼。池塘边的亭子，也因范蠡曾在此驻足护卫，而取名“范亭”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叆叇岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  叆叇岭是尧峰山和宝华山之间的一个山口。因太湖水汽常和山风在此相遇，导致山口周围时常云雾缭绕，故此得名。又传说每年聚于太湖的野鸭都会从这个山口穿过，野鸭从山口纷至踏过，故又称“鸭踏岭”。
+       景区现有千亩生态茶博园、龙津茶楼、葫芦池、梅花井、尧峰山、龙洞、千人石等自然生态景观和人文景观。身在叆叇岭您能感受到“奇石耸危壁，飞泉赴幽潭。丛篁接空虚，偃松碍烟岚”的幽情，领略深山茂林世外桃源的神韵。
+       茶博园：茶博园包括茶博园建筑和茶园两个部分。茶博园建筑建造面积约4980平方米，建筑面积为2400平方米。茶园占地面积300余亩，出产高品质的绿色生态碧螺春茶叶。茶博园是一个集种茶、采茶、炒茶、品茶、卖茶五位一体的茶文化中心。游客在此处可以细细品尝用当地天然山泉水泡制的碧螺春茶，欣赏着茶园漫坡的美丽景色，令人心旷神怡。
+       千亩生态茶园：旺山千亩生态茶园位于烟波浩渺的太湖之滨，碧螺春的故乡，这里气候温和，冬暖夏凉，空气清新，云雾弥漫，具有茶树生长得天独厚的环境。旺山碧螺春茶条索纤细，卷曲成螺，满披茸毛，色泽碧绿。冲泡后，味鲜生津，清香芬芳，汤绿水澈，叶底细匀嫩。 碧螺春茶从春分开采，至谷雨结束，采摘的茶叶为一芽一叶，一般是清晨采摘，中午前后拣剔，下午至晚上炒茶。采用传统手工方法炒制，茶香茶品从古至今，一脉相承。
+       葫芦池：传说吕洞宾路过尧峰山，看到这儿风水绝佳，香火旺盛，可惜缺水。就问洞庭君，怎不把太湖水引点过来？洞庭君说，太湖确实水很多，但要绕过尧峰山也甚是麻烦。吕洞宾便道：既然你怕麻烦，我药葫芦里有的是水，就送你一瓢吧。说罢就摘下身上葫芦，往尧峰山下一泼。叆叇岭下立刻就出现了一个水池，形状还和葫芦极为相似。葫芦池”因此得名。
+       梅花井：传说有仙人路过七子山，曾向山上僧人要水喝，却受到了僧人的刁难，为惩戒他们的吝啬，一气之下就背走了寺庙里的那口井，但背到尧峰山后，因为贪看尧峰的美景，又觉得背上的井是个累赘，便顺手摔到了山下。谁想这井落到地上竟碎成了五瓣，远远看去极像一朵梅花，从此就有了梅花井、五瓣井这样的名字，且井里的泉水清冽甘甜，常年不竭。
+       尧峰山：座落在旺山村西，是横山一脉。相传帝尧时洪水泛滥，太湖一带皆为所淹，唯此峰独露水面，乡民得免灭顶之灾，故名尧峰。尧峰一带群峰起伏，风光旖旎，登高可眺太湖诸峰，下山能享林木之幽，风景殊胜。明申时行云：“吴郡城西二十里许，峰峦林壑幽奇，环丽之观不可胜数……衡岗叠巘蜿蜒崒嵂者，不可胜数，尧峰最胜。” 
+       龙洞：又称白龙洞，在尧峰山半。据方志记载，“危崖云叠，呀然中豁如屋，可坐数十人，其内有穴，尝飞白龙，故名。”龙洞还与僧佛关系密切，高僧湛川性禅师曾在洞内创云阿居，他“行脚有年，还返于吴，始至尧峰栖止龙洞之石室，死心参禅，昼夜危坐”。美丽的传说给人增添了无限的遐想，又与高僧、佛法有关，所以龙洞也就远近闻名了。
+       多景岩（千人石、千人座）：多景岩，是尧峰山巅的一块巨石，石广而平，可容多人，故有千人石、千人座之称，曾被列入尧峰十景之一。这儿视野开阔，吴江之烟树，苕霅之云峰，铜官之落日，石湖之片镜，西山之落霞，风烟舟楫，水树千重，白沙虚壁，尽收眼底，是观景的绝佳之处，曾有“双眸洗净看不厌，欲结遮头草一间”之叹。
+       观音壁：观音壁又名观音岩，在龙洞之北，两崖相迭，山岩如削，形似佛龛，岩壁上原有石刻观音而得名。清人徐源有诗并序，道：“观音岩在尧峰山北麓，层峦叠嶂，突兀奇峭，胜概鲜丽，惜去吴城颇远，游者罕至，……因赋诗为之倡。”诗中有“横山四走如奔骑，中有奇观若深避”等句。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太湖湖滨国家湿地公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏州太湖湖滨国家湿地公园是太湖游客中心的配套公园， 位于环太湖景观大道中心区，东起太湖景观大道水风车入口处，西至太湖新天地，全长2公里。太湖公园主要有“栈桥探幽”、“芦荡迷宫”、“悠然双亭”、“风车堞影”、“八仙过海”、“鸥鹭栖归”、“渔舟唱晚”、“落日听涛”等八景组成，是忘却城市喧嚣、世俗纷扰，亲近太湖山水，体验自然野趣，感受吴地风情的佳绝处。
+      太湖游客中心占地面积约119.5亩。作为辐射整个景区的服务和管理中枢，主要功能为门票销售、游客咨询、景区介绍、换乘中心、购物休憩、旅游监控、集团办公、停车场等，对内可与各大景区联动，对外可与机场、高铁沟通，是未来中外游客进入太湖景区的第一门户，是太湖旅游的新地标。它由上海同济大学建筑设计研究院担纲设计，其造型灵感来自于太湖贝壳，与身后100米的摩天大楼形成组合，恰如一艘扬帆远航的太湖渔舟。太湖游客中心致力于打造成为长三角地区规模最大、通达性最强、服务体系最完善的景区游客服务中心。
+       太湖湖滨国家湿地公园是太湖游客中心重要组成部分，共分入口区、金杉银芦区、梅花坞服务区、水庭暗香景区、“新天地”休闲服务区、临湖漫步游憩区、太湖水上食府区等7个分区，同时，在沿湖岸线种植乔木、草坪，设计景观小品，修复名胜古迹，是一个集水生植物观赏、生态科普、候鸟栖息、步道游览等旅游项目以及芦苇荡、生态湿地景观为主的生态主题公园。太湖湖滨国家湿地公园通过不断完善与发展，不仅成为了城市的绿“肺”，也正逐步成为太湖游客就近触摸太湖美景的最佳之地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛仔俱乐部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太湖牛仔乡村俱乐部又名苏州太湖牛仔俱乐部， 它坐落于太湖第一岛——西山岛。 苏州牛仔俱乐部周围有林屋洞、石公山、缥缈峰、明月湾古村、西山国家森林公园等著名景点。 太湖牛仔乡村俱乐部一期项目陆地面积达300多亩，水域面积有200多亩, 提供餐饮、住宿、游乐、会务、培训等多种服务，为华东地区少见的综合性大型度假村。苏州太湖牛仔俱乐部可以同时举行千人以上的大型活动，其配套设施类别齐全,丰俭由人。周边环境山青水秀风景怡人，是企业团体活动、 商务旅游、庆典、会议、年终晚会拓展、培训、游乐、白领自驾游、 情侣度假、亲子游、及学生夏令营冬令营、春游、秋游的首选活动场所。欢迎您前来苏州牛仔俱乐部。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿光农场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万顷太湖，烟波浩渺，西山岛如水中仙子，飘然落于碧波之上。岛上常年水气氤氲，气候清爽润泽，宜居家，更宜休闲度假。在这里，太湖绿光休闲农场开辟了各种丰富多彩的旅游休闲项目：可以与大自然亲密接触，亲身体验收获蔬果的喜悦、亲近动物的乐趣；还可以骑上骏马，在跑马场上尽情驰骋；或者玩一把卡丁车，切实体会一回“跑跑卡丁车”中漂移的刺激；又或者转一转无花果迷宫，发掘一下自己拨繁去冗的潜力。更让人惊喜的是，这里有着大片的香草花田，您不需要远渡重洋到普罗旺斯，就可以徜徉在美丽的香草花园中，感受薰衣草迷迭香的迷人香味，享受到阳光、香草、法国乡村般的自在生活。清清花果香，悠悠田野趣，太湖绿光休闲农场期待着您的到来。 
+      农场占地面积五百亩，主要规划建设区分为九大区域：水果采摘园、可爱动物区、香草花园、绿光广场、住宿区、温室养生餐饮区、休闲娱乐区、DIY教室、体能活动区,欢迎广大游客前来休闲观光。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缥缈峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西山主峰缥缈峰位于西山岛西部，海拔337米，为太湖七十二峰之首。太湖七十二峰，四十一峰在西山，缥缈峰景区是太湖山水的精华所在，自古以宏伟秀丽的湖光山色和众多的名胜古迹闻名于世。景区以缥缈峰为主体，辅以周围的主要山坞，景区总面积约10平方公里，森林覆盖率近80%。 缥缈峰顶有一形似鹰嘴的巨石，上刻民国元老李根源题写的“缥缈峰”三字，附近还有紫云泉、砥泉、仙人桌、登高台、望湖亭等遗迹。太湖风云多变，山峰常隐于云雾之中，缥缥缈缈，似仙山隔云海，如霞岭玉带连，有“缥缈晴峦”景观，为西山八大胜景之一。
+      太湖地区旧时有重阳节登缥缈峰的习俗，历代的文人墨客也留下了许多优美的诗作。宋代大诗人范成大，留有“满载清闲一柞孤，长风相送入仙都。莫愁怀抱无消豁，缥缈峰头望太湖”的名句。登缥缈峰的传统线路较多，从水月坞、涵村坞、绮里坞、包山坞、东蔡等地均有上山小道。缥缈峰景区可将周围的水月坞及堂里古村、绮里坞、包山寺、东蔡古村、天王坞等景点景区联系起来，它的建设对推动西山旅游业的进一步发展有重要意义。金庸武侠小说《天龙八部》中天山童姥居住在天山缥缈峰更使缥缈峰为大家所熟知。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明月湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 明湾古村，座落在苏州市太湖国家旅游度假区西山岛南端的太湖边。因“湖堤环抱，形如新月之湾，”故称明湾。明湾是西山岛上最古老的村庄。相传早在春秋时期已成村落，村民多数是沦为奴隶的越国战俘。从唐代诗人皮日休《明月湾》诗句看，唐代的明月湾已是“野人波涛上，白屋幽深间；晓培桔栽去，暮作鱼梁还”，村民已以“耕鱼树艺”为业了。南宋时，通奉大夫杨偰，“买洞庭西山明月湾地，营别墅以居。”尔后秦氏、吴氏、邓氏、黄氏等贵族后裔纷纷迁入，古村开始繁荣。清乾隆年间为鼎盛期，延续至今，千年不衰。2007年5月，被国家建设部、国家文物局公布为中国历史文化名村。
+      明湾古村，三面环山，一面临湖，山环水抱，形势奇胜。古村本体面积约9万多平方米。其平面布局因山川地势呈棋盘格形，村内古民居沿街巷成片分布，历代营建不断，高低错落有致，纵向分布与横向发展交织，形成了街道纵横、小巷幽深的村落布局，民居建筑与山环水绕的自然环境十分和谐地融为一体。村中的街道全长1140米，共用4500多块花岗岩石铺成。街道上为行人，下为排水沟。据《明月湾修治街埠碑记》记述，该石板街建于乾隆三十五年（1770）九月由于泄水功能极好，有“明湾石板街，雨后着绣鞋”之民谚。
+      明湾村现存清乾、嘉年间的民居、祠堂10多处，较完整的有：瞻乐堂、瞻瑞堂、礼和堂、礼耕堂、凝德堂、汉三房、揄耕堂、仁德堂、黄氏宗祠、秦家祠堂、薛家厅、敦伦堂等。民居的平面布局均营建成一个长方形的封闭院落，一般为三进，大多建楼，各进单体建筑沿中轴线分布，依次为：门屋、大厅、住楼。各进之间设天井、门楼，可前后贯通。功能分明，主从有序。
+      “明月处处有，此处月偏好”。明月湾历来是骚人墨客神往的绝好去处。相传，春秋时，这里曾是吴王夫差携西施赏月之地。尔后，唐代的著名诗人白居易、皮日休、陆龟蒙、刘长卿；宋代的苏舜钦、黄庭坚；元代的吴存；明代的高启、谢晋、王世贞；清代的姚承绪；当代的艾煊等均曾到此赏景吟诗，并留下了众多的优美诗文。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石公山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石公山位于西山岛东南，面积0.206平方公里，三面环水，一面背倚丛岭，满山翠柏葱郁，如青螺伏水。原有“石公”“石婆”象形石，山以“石公”命名。山体为石灰岩，素以奇峰、奇石、奇洞著称，被列为太湖西山地质公园。明袁宏道说：“西洞庭之山，高为缥缈，怪为石公，丹梯翠屏，此石之胜地也。”
+      山中有奇石及山体构成景观多处，分别有：哨石、一线天、联云嶂、云梯、明月坡、蟠龙洞、夕光洞、归云洞等，其中：哨石，内有小孔，风吹作螺声而名；一线天，原名“风弄穿云涧”，两壁间石隙成缝，其狭小仅容一人穿行；联云嶂，乃数丈石壁，状似屏风，直插云霄；云梯又称丹梯，一巨石直插云间，有不规则石磴数十级，若登云之梯；明月坡，为巨型黑色大理石，可容数百人，倾斜入湖，传为吴王夫差携西施赏月处，旧有“石公秋月”，列“西山八大景”之首；蟠龙洞，在山西南，遇潮则没入水中，水退则现，湖水拍洞，如人鼓瑟，悦耳动听；夕光洞，在一线天旁，西向面湖，洞顶有缝隙，夕阳西下，射入洞中，耀熠生辉。
+      景区山径及观景点错落分布，有橘香亭、翠屏轩、断山亭、来鹤亭、浮北玉堂、印月廊、览曦亭等仿古亭榭多处，供游人赏景和休憩。
+      远看石公山，恰如一盆灵巧精致的山水盆景，满山翠柏葱郁，如青螺伏水，似碧玉浮湖，故山有“浮玉”之称。唐代以来，游览过石公山的文人和名人有：白居易、陆龟蒙、皮日休、李弥大、范成大、高启、王鏊、唐寅、蔡羽、姚希孟、蔡旅平、沈彤、叶廷琯、俞樾、李根源等，胡耀邦、江泽民、李鹏、朱镕基等党和国家人视察吴中时亦到石公山访古游览，历代名人游览石公山挥毫抒情，感叹湖光山色之美，留下了许多诗文墨迹，为景点增光添彩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林屋洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 林屋洞在太湖洞庭西山（今金庭镇），景区占地面积500亩，有溶洞景观和梅海景观两个部分组成。林屋洞，又称龙洞，山称龙洞山，因洞体状龙而名。洞为石灰岩溶洞，被称为“天下第九洞天”，为道教所指神仙居住的洞府，径尺摩崖“天下第九洞天”六字为明代大学士王鏊所书。
+      林屋洞历史悠久，文化积淀深厚。相传，洞为天下地脉所系，自此可通向各地名山。志书记载，大禹治水时到过林屋洞，并在洞内石屋藏匿了天书（素书）。相传春秋末年，吴王阖闾曾遣灵威丈人入洞觅得天书，导致亡国。汉代时，林屋洞被道教中人所居，唐代后成为旅游胜地，陆龟蒙、皮日休、范成大、李弥大、王鏊、蔡羽、归庄、李长祥、俞樾等历代诗人墨客多有往游，吟颂诗文不绝。唐宋之际，这儿还被辟为道教胜地，历代帝王每年派遣使者至洞内举行“祭龙”等斋醮仪式，并投放金龙玉简。上世纪80年代重新发掘溶洞时，出土了金龙、铜龙、玉简、神像等珍贵文物，大多为唐宋时遗物。洞内有三门，同会一穴，一名雨洞、一名丙洞、一名旸谷洞，洞内有石室、龙床、银房、石钟、石鼓、金庭、玉柱、白芝、龙盆、石燕等奇石景观。林屋山上有云岩、曲岩、伏象岩、鳞岩等怪石。山顶有仿古建筑“驾浮阁”，占地2亩，高24米，呈八角形，楼阁红栏赤柱，琉璃瓦顶，重檐攒头，翘角飞檐，气宇轩昂，是眺望太湖和观赏梅海的绝佳处。
+      现林屋洞景区是西山春天探梅的主要景点，登临山顶驾浮阁，山下万亩梅林尽收眼底。每年2至3月，满山梅花竞放，雪白如海，蔚为壮观，称“林屋梅海”，每年“太湖西山梅花节”盛会在此召开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国工艺文化城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国工艺文化城，位处苏州市吴中区历史文化名镇光福镇，占地1500亩，总建筑面积100万㎡（一期建筑面积达28万㎡），由呈辉集团斥资30亿元人民币倾力打造，是中国专业市场重点项目、中国商业企业重点项目、国家太湖旅游度假区重点项目。中国工艺文化城，将携手中国工艺美术集团，在现有行业交易模式的基础上，创造性开发“新全球认定”的第六代专业市场，规划建设“华艺品国际交易中心”、“中国工艺第一街”、“工艺文化产品创意研发暨版权保护基地”、“国际会展中心”、“大师原创作品博览馆”、“休闲娱乐公园”、“华意酒店”、“仓储物流中心”、“工艺品鉴定中心及其它配套的公共服务体系”等九大功能分区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司徒庙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司徒庙  是香雪海景点内的重要景观，原是祭祀东汉司徒邓禹的祠堂。1953年，玄墓山驻军和圣恩寺方丈融宗被安置到这已经十分荒落的祠堂中居住。经融宗整治，兴建经楼、佛阁，遂成佛教寺庙。融宗在这里生活了32年，即使是“破四旧”、“文化大革命”斗争最严酷的时候，他仍坚持住庙，护持古柏，还保护了明刻《大藏经》等重要文物。1987年，融宗回圣恩寺住持后，仍兼任司徒庙方丈，所以司徒庙有圣恩寺下院之称。
+司徒庙原有明清时代的建筑二十余间，后经陆续重修翻建，现金刚殿、大雄宝殿一应俱全，并成为一处远近闻名的旅游胜地。
+       司徒庙以古柏闻名于世，因称“柏因精舍”。园中有古柏六株，其中四株尤古，相传为邓禹手植，分别被命名为“清”、“奇”、“古”、“怪”。“清”者，碧越苍翠，挺拔清秀；“奇”者，主干折裂，新枝出于枯本，颇有枯木逢春之趣；“古”者，纹理盘曲，古朴苍劲；“怪”者，曾遭雷击，劈为两半，卧地三曲，如走地蛟龙。这些柏树经过千余年风霜雨雪，日曝雷电的侵袭，历劫而不磨，交织成一幅遒劲壮观的“柏枝图”。明末徐枋赞美它“雄奇偃蹇，殆不减少陵所咏孔明庙柏”。李根源先生则将这里的柏树、文征明手植紫藤、苏州织造府之瑞云峰和汪氏义庄的假山并列为苏州四绝。历代赞誉之词不一而足。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香雪海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光福青山笼翠，太湖映带，素有“吴中山水之冠”之称。 光福之邓尉山，以梅驰名。每当瑞雪迎春，梅花斗雪而开。邓尉山区“千顷一罅白，弥漫十余里”，“入山尽花枝，芬芳令人醉”，银海荡漾，凝若积雪。清康熙江苏巡抚宋荦，给这里起了个雅称——香雪海，形象地概括了这里梅花的味、色和量。
+邓尉山种梅的历史，始于二千多年前的西汉时代。元明之交，这里更是“隙地遍种梅，蔚然如雪海”了。每年正月，邓尉探梅几成苏沪一带的习俗。《清嘉录》、《吴郡岁华纪丽》均有详细著录。所谓“二十四番花信风，梅信第一。惟时四方名流骚客，或寻胜，或探梅，舟来车往络绎而至，极一春之盛”。近年来，吴地常于惊蛰前后举办“梅花节”，盛邀天下宾客来此赏梅。
+      香雪海的梅花与杭州超山、南京梅花山、无锡梅园，并称为全国四大探梅胜地。而这里最为知名。清康熙、乾隆两代帝王均数次来山赏梅，写下诗歌达数十首之多，记录了他们的胜游。文人仙侣更以他们的擅长，或诗、或文，或画、或联……形成了这里深厚的“梅文化”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光福景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西山景区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4759,12 +5249,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I603"/>
+  <dimension ref="A1:I655"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A598" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G602" sqref="G602"/>
+      <selection pane="bottomLeft" activeCell="F655" sqref="F655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18259,6 +18749,1079 @@
         <v>1201</v>
       </c>
     </row>
+    <row r="604" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A604" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E604" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I604" s="2" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A605" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E605" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I605" s="2" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A606" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E606" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F606" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G606" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I606" s="2" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A607" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E607" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G607" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I607" s="2" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A608" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E608" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G608" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I608" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A609" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E609" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F609" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G609" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I609" s="2" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A610" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E610" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F610" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G610" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I610" s="2" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A611" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E611" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F611" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I611" s="2" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A612" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E612" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F612" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G612" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I612" s="2" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E613" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F613" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G613" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I613" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E614" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F614" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G614" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I614" s="2" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A615" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E615" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F615" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G615" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I615" s="2" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="616" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A616" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E616" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F616" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G616" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I616" s="2" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A617" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E617" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F617" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G617" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I617" s="2" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A618" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E618" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G618" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I618" s="2" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A619" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E619" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F619" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G619" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I619" s="2" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A620" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E620" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F620" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G620" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I620" s="2" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="621" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A621" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E621" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F621" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G621" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I621" s="2" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E622" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F622" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G622" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I622" s="2" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A623" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E623" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F623" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G623" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I623" s="2" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A624" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E624" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F624" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G624" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I624" s="2" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A625" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E625" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F625" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G625" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I625" s="2" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E626" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F626" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I626" s="2" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E627" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F627" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G627" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I627" s="2" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A628" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E628" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F628" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G628" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H628" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I628" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E629" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F629" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G629" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H629" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I629" s="2" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A630" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E630" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F630" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G630" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I630" s="2" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A631" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E631" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F631" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G631" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H631" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I631" s="2" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E632" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F632" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G632" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H632" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I632" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A633" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E633" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F633" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G633" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H633" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I633" s="2" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A634" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E634" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F634" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G634" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H634" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I634" s="2" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A635" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E635" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F635" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G635" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H635" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I635" s="2" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A636" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E636" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F636" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G636" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I636" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A637" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E637" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F637" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G637" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H637" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="I637" s="2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A638" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E638" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F638" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G638" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H638" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I638" s="2" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E639" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F639" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G639" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H639" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I639" s="2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A640" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E640" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F640" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G640" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H640" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I640" s="2" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A641" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E641" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F641" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G641" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H641" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I641" s="2" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A642" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E642" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F642" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G642" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I642" s="2" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E643" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F643" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I643" s="2" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E644" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F644" s="2" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A645" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E645" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F645" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G645" s="2" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A646" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E646" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F646" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G646" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H646" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I646" s="2" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A647" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E647" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F647" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G647" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H647" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I647" s="2" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A648" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E648" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G648" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H648" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I648" s="2" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A649" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E649" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F649" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G649" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H649" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I649" s="2" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A650" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E650" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F650" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G650" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H650" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I650" s="2" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A651" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E651" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F651" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G651" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H651" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I651" s="2" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A652" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E652" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F652" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G652" s="2" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E653" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F653" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G653" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H653" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I653" s="2" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E654" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F654" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G654" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H654" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I654" s="2" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E655" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F655" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G655" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H655" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I655" s="2" t="s">
+        <v>1353</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A563:WVQ609">
     <sortCondition descending="1" ref="F563:F609"/>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4192" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="1431">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4816,6 +4816,282 @@
   </si>
   <si>
     <t>西山景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溧阳市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天目湖镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天目湖旅游度假区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天目湖旅游度假区，位于溧阳市区南部8公里，区内座落着沙河、大溪两座国家级大型水库因属天目山余脉，故名“天目湖”。旅游度假区总体规划面积为10.67平方公里（不包括水面7.25平方公里）。
+天目湖的周围，现存许多历史文化遗址：以春秋时代楚人伍子胥名“员”命名的伍员山，东汉大文学家蔡邕读书台，太白楼，报恩禅寺，唐代名刹龙兴寺旧址，“天下第一石拱坝”等。 天目湖地区物产丰富，有“沙河桂茗”绿茶、“乌龙茶”、“珍珠栗”、“桂元栗”、“砂锅鱼头”等。
+天目湖旅游度假区，是融观光、旅游、度假、会议等活动为一体和具有“行、游、住、食、购、娱”一条龙服务的省级旅游度假区。
+1994年7月被江苏省人民政府批准为省级旅游度假区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天目湖山水园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天目湖水世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山竹海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御水温泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌楼</t>
+  </si>
+  <si>
+    <t>天目湖海洋世界</t>
+  </si>
+  <si>
+    <t>湖里山景区</t>
+  </si>
+  <si>
+    <t>状元阁</t>
+  </si>
+  <si>
+    <t>中华曙猿馆</t>
+  </si>
+  <si>
+    <t>游船</t>
+  </si>
+  <si>
+    <t>动感影院</t>
+  </si>
+  <si>
+    <t>远古磨坊</t>
+  </si>
+  <si>
+    <t>高空飞降</t>
+  </si>
+  <si>
+    <t>乡村田园景区</t>
+  </si>
+  <si>
+    <t>逍遥桥</t>
+  </si>
+  <si>
+    <t>绣球岛</t>
+  </si>
+  <si>
+    <t>天下第一壶</t>
+  </si>
+  <si>
+    <t>天目茶苑</t>
+  </si>
+  <si>
+    <t>报恩寺山门</t>
+  </si>
+  <si>
+    <t>水上乐园</t>
+  </si>
+  <si>
+    <t>山水园广场</t>
+  </si>
+  <si>
+    <t>这个巍峨雄伟的建筑就是“天目湖牌楼”，它是天目湖旅游度假区的主要标志性建筑物之一，同时也是游客出入度假区的主要通道。</t>
+  </si>
+  <si>
+    <t>“天目湖海洋世界”占地2000多平方，是国内典型的中小型水族馆。</t>
+  </si>
+  <si>
+    <t>湖里山景区三面环水，一面接陆，是一座伸向湖中的半岛。岛上植被茂盛，石阶蜿蜒曲折，亭台楼阁、石窟假山、水榭长廊都环湖而建，漫步其间，湖光山色一览无遗。</t>
+  </si>
+  <si>
+    <t>为了对青少年进行教育激励，溧阳人特意在天目湖景区的湖里山上建造了这座状元阁，将溧阳历史上的名士、近代以来的科技文化名人的生平事迹及孜孜好学考取国家重点高等院校的大学生名单集锦介绍，永示后人。</t>
+  </si>
+  <si>
+    <t>现在我带您来到的场馆是江苏省科普教育基地之一的“中华曙猿馆”。这是在溧阳上黄镇水母山发现的一批动物化石，经分析有22种之多，特别是中华曙猿化石的发现尤为重要。</t>
+  </si>
+  <si>
+    <t>朋友，现在我们泛舟湖面，去撩开天目湖那美丽而神秘的面纱，领略天目湖水的柔美清纯。</t>
+  </si>
+  <si>
+    <t>金泉号是山水绝佳景区的主体建筑，更是天目湖最为精彩的一个景点，它形似一艘即将沉落的海盗船，为目前国内最先进的4D动感影院。</t>
+  </si>
+  <si>
+    <t>为了让游客们真正体会到乡村田园的生活乐趣，景区特从民间寻访到大小不等、年代不同、作用各异的古磨近20个，陈列在此供人们观赏和操作。</t>
+  </si>
+  <si>
+    <t>高空飞降是度假区内最刺激的项目，索道的起点位于山顶，整个索道长480米，落差50米。</t>
+  </si>
+  <si>
+    <t>乡村田园岛又称猴岛，这是因为景区在这个岛上放养了一百多只活泼可爱、机敏好动的小猕猴，它们是没有圈禁，自由活动的，这给这岛可增加了不少自然野趣。</t>
+  </si>
+  <si>
+    <t>这座桥是连接猴岛和绣球岛的唯一通道--逍遥桥，它是用铁索、铁链连接，铺上木板而成的，走在上面摇摇摆摆，逍遥自在。</t>
+  </si>
+  <si>
+    <t>绣球岛又名茶叶岛，是天目湖所有岛屿中最为精巧秀气的一座半岛。岛上茶树茂盛，修剪整齐，管理精细。</t>
+  </si>
+  <si>
+    <t>“天下第一壶”已经得到吉尼斯上海总部的认证，是目前为止世界上最大的紫砂提梁壶。</t>
+  </si>
+  <si>
+    <t>刚刚看过天下第一壶的您是不是有了些品茶的欲望呢？这个岛上有一个品茶的好去处，那就是岛上最高处的那座“天目茶苑”。</t>
+  </si>
+  <si>
+    <t>报恩寺的原址在市区夏桥，它始建于南朝梁代天监年间，距今已有1400多年。报恩寺寺名源于佛教的“四报恩”说，即“报佛祖恩、报国君恩、报师傅恩、报父母恩”。</t>
+  </si>
+  <si>
+    <t>大雄宝殿又称正殿、大殿，“大雄”是对佛陀释迦牟尼的尊称，意谓大智大勇，能镇伏邪魔，当然大殿中的主供也是释迦牟尼佛了。</t>
+  </si>
+  <si>
+    <t>观音在印度佛教中原是男性打扮，初传入中国时也是男性打扮。从南北朝开始，中国古代的观音开始逐渐变为女相，这是因为在中国人的心目中，女性更具有亲和力，更符合观音慈悲为怀，救苦救难的形象。</t>
+  </si>
+  <si>
+    <t>水上乐园是酷暑中的一个清凉世界，里面设有水滑梯，冲浪池、喷淋小屋等水上娱乐项目。</t>
+  </si>
+  <si>
+    <t>天目湖山水园广场大照壁上展现的是参照历史画卷《千里江山图》及天目湖的真实景象所作的“千里江山风景区”的浮雕石刻画。</t>
+  </si>
+  <si>
+    <t>天目湖山水园景区是国家AAAAA级景区，是天目湖的核心景区，拥有慈孝文化园、状元文化区、奇石馆、精灵国、彩蝶谷、中国茶岛等景点。四面群山枕水、碧波荡漾，湖中岛屿散落、湖岸曲折通幽，游船是景区的经典项目，可以满足千余人同时畅游天目湖。
+　　状元文化为湖里山历史文化区的核心，慈孝文化为传统文化园的开篇之作，内有奇石馆、江南茶村等景点。龙兴岛彩蝶谷有蝴恋、蝴梦、蝴画三个展馆。精灵国，有琳达的舞台、朵儿的村庄、吉米的乐园，为孩子们打造快乐的动物乐园，邂逅动物王国的音乐圣典——精灵乐队的精彩演出等。
+　　天目湖水世界位于天目湖山水园景区内，是华东地区唯一临湖、唯一自然山水类景区的水上乐园，是亚洲顶级生态型水世界，每年暑期开放，原生态环境，优质的水质，植被茂盛，遮阳防晒，免去了夏日玩水暴晒的烦恼。由国际顶尖规划机构精心设计，配有巨碗滑道、巨蟒、家庭大滑板、宝贝乐园、竞速滑道、自由落体、平行大水环、加勒比海水城、超级台风、玛雅漂流等数十项进口设备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天目湖南山竹海景区是国家AAAAA级景区，距天目湖山水园景区18公里，是江苏、浙江、安徽三省交界之地，景区内峰峦起伏，万亩翠竹一望无垠。 
+在竹海中，两山夹峙之间，山涧水和天然雨水汇集成了小小的“静湖”，湖水终年清冽。
+　　攀上海拔508米的吴越弟一峰，便可将万亩竹海全景，苏浙皖三省风光尽收眼底，真正领略“一览众山小”的风光。
+　　溧阳是“世界长寿之乡”，拥有108位百岁老人，南山竹海良好的自然环境使得周边村落有着许多长寿老人，长寿文化成为南山竹海的文化内涵。从分布在竹海深处的“寿”字，到南山寿翁，这个中国第一老寿星，再到万寿堂，寿文化无处不在。  　在南山竹海历史文化区，有民风味实足的舞狮表演。
+　　随后再去竹文园，品味竹之品格，在“竹之品”“竹之用”“竹之境”三大展馆中穿梭，感受竹文化的盛宴，浸染源远流长的竹寿文化的熏陶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天目湖御水温泉，坐落于江苏省溧阳市境内，毗邻天目湖南山竹海景区，属国家AAAAA级景区。其地热井位于戴埠火山岩盆地南西边缘，露天泡池依山傍水，错落有致，凭借着其自身的自然优势，取旧赋新，气韵天然。御水温泉井底温度43℃，泉水的PH为7.99，富含多种矿物质、微量元素和特殊化学成分，属于稀缺的碳酸氢钙型温泉，医疗价值、理疗作用“含金量”巨大。经常浸泡，可爽身润肤、缓解疲劳、永葆身心健康。
+御水温泉由温泉养生区、度假酒店区、单栋式酒店区、休闲体育区和特色商业区五大区域组成。拥有温泉博物馆，52个经典景观泡池，情侣区、动感区、加料区、自然区四大泡池区；是度假休闲养生畜锐的风水宝地。 
+天目湖御水温泉成为中国十大温泉，为原生态高品质温泉的典范之一，是华东唯一竹海森林里的温泉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从客运中心出来，就看见了南山竹海的牌楼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客栈位于南山竹海客运中心和游客中心旁边，交通方便，步行到景区大门口约十几分钟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太白酒坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁边一家太白酒坊，采用古法酿酒，游客可以随意入内参观，了解酿酒过程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山竹海的大门口进去就是35000亩毛竹，这里终年常绿，景区内的负氧离子超越城市15倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从大门口进去不远就是静湖，这一座湖面积不大，但是湖水很深，最深处可达20余米，水质洁净，在湖边特意修建了步行栈道。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹筏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然你也可以乘坐竹筏到对岸，那里乘坐景区的观光小火车去南山竹海的核心景区，吴越弟一峰和鸡鸣古村。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缆车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘坐景区小火车到了终点，那里可以乘坐缆车去吴越弟一峰，也可以乘坐地轨缆车去鸡鸣古村，我们决定先去吴越弟一峰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴越弟一峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴越弟一峰并不高，海拔只有500多米，乘坐缆车15分钟就到了山顶。从缆车上看满山都是翠竹，风吹过来竹叶摩擦沙沙作响，脑海中顿时浮现出好几部电影中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山顶是祈福的地方，悬挂有一口大钟，撞钟之时声音传向极远处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐山亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山顶的小亭子名为乐山亭，也许是仁者乐山之意。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿文化广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿文化广场就在山下，生活在这样的环境中，怎么可能不长寿？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊猫馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个熊猫馆里养了两只大熊猫，受到游客们特别的喜爱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直向前走，前往竹文化园，这里是竹子博物馆，有各种竹子的介绍以及竹制品和竹文化展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹文化园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华东原生态水世界 遮阳 防晒 开启清凉的生态玩水之旅
+天目湖水世界，位于江苏省江南名城溧阳市5A天目湖山水园景区，依山傍水，遮阳防晒，是华东地区临湖、自然山水类景区的水公园，是亚洲生态型水世界。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5249,12 +5525,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I655"/>
+  <dimension ref="A1:I692"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F655" sqref="F655"/>
+      <selection pane="bottomLeft" activeCell="E691" sqref="E691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19822,6 +20098,950 @@
         <v>1353</v>
       </c>
     </row>
+    <row r="656" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D656" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E656" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I656" s="2" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A657" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D657" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E657" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F657" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I657" s="2" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E658" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F658" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G658" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I658" s="2" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A659" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E659" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F659" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G659" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I659" s="2" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A660" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E660" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F660" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G660" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I660" s="2" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A661" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E661" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F661" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G661" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I661" s="2" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A662" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E662" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F662" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G662" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I662" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A663" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E663" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F663" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G663" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="I663" s="2" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A664" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D664" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E664" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F664" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G664" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I664" s="2" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A665" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D665" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E665" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F665" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G665" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="I665" s="2" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A666" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C666" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D666" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E666" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F666" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G666" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I666" s="2" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A667" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C667" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E667" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F667" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G667" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I667" s="2" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A668" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D668" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E668" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F668" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G668" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I668" s="2" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A669" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E669" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F669" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G669" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I669" s="2" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A670" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C670" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D670" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E670" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F670" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G670" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I670" s="2" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A671" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C671" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D671" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E671" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F671" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G671" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I671" s="2" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="672" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A672" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E672" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F672" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G672" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I672" s="2" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A673" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C673" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D673" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E673" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F673" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G673" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I673" s="2" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A674" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E674" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F674" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G674" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="I674" s="2" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="675" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A675" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C675" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E675" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F675" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G675" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I675" s="2" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="676" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A676" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D676" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E676" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F676" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G676" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I676" s="2" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A677" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E677" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F677" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I677" s="2" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="678" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A678" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D678" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E678" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F678" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I678" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="679" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A679" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C679" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D679" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E679" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F679" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G679" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I679" s="2" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A680" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D680" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E680" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F680" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G680" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I680" s="2" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="681" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A681" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E681" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F681" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G681" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I681" s="2" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="682" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A682" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E682" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F682" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G682" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I682" s="2" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="683" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A683" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D683" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E683" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F683" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G683" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I683" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A684" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D684" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E684" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F684" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G684" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I684" s="2" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="685" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A685" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C685" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E685" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F685" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G685" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I685" s="2" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="686" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A686" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D686" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E686" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F686" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G686" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I686" s="2" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="687" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A687" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D687" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E687" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F687" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G687" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I687" s="2" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A688" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D688" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E688" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F688" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G688" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I688" s="2" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="689" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A689" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D689" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E689" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F689" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G689" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I689" s="2" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="690" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A690" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D690" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E690" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F690" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G690" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I690" s="2" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="691" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A691" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C691" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D691" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E691" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F691" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G691" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I691" s="2" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A692" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D692" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E692" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F692" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="I692" s="2" t="s">
+        <v>1403</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A563:WVQ609">
     <sortCondition descending="1" ref="F563:F609"/>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5383" uniqueCount="1635">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5092,6 +5092,931 @@
   <si>
     <t>华东原生态水世界 遮阳 防晒 开启清凉的生态玩水之旅
 天目湖水世界，位于江苏省江南名城溧阳市5A天目湖山水园景区，依山傍水，遮阳防晒，是华东地区临湖、自然山水类景区的水公园，是亚洲生态型水世界。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常熟市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙家浜镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞山尚湖旅游区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙家浜·虞山尚湖旅游区位于江苏省常熟市，旅游区以江南山水文化为依托，融人文、生态、休闲为一体。虞山是国家森林公园，因商周之际吴地先祖虞仲卒葬于此而得名，是我国吴文化的重要发源地；尚湖与虞山相依，因商末姜尚（姜太公）在此隐居垂钓而得名，湖内湿地遍布，鹭鸟翔飞，为中国最佳生态休闲旅游湖泊；沙家浜以京剧《沙家浜》而闻名，形成了革命传统教育区、红石民俗文化村、横泾老街、湿地公园等景点，红色教育游、绿色生态游、金色美食游、影视文化游享誉国内外。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞山风景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞山，古名乌目山、海隅山，又因山形如卧牛，亦称卧牛山，后因商末周太王次子仲雍（虞仲）与兄泰伯让国南来，死后葬于此而改称虞山。虞山峰峦连绵起伏，颇有大山之势，最高处为海拔261米。山南坡短而陡，以奇石高耸著称，“拂水晴岩”、“剑门奇石”等景多集中于此；山北坡长而缓，多幽深溪涧，并有维摩山庄、剑阁、藏海寺、报国院、宝岩寺、老石洞等景点和众多名人墓葬散布山间。兼具丰富吴文化历史遗存和山水相依自然景观的十里虞山蜿蜒入城，与千年古城常熟交融形成江南水乡山城独特风貌。1987年列为江苏虞山国家森林公园。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑门景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于虞山锦峰之巅，海拔261米，以石景著称。相传吴王夫差在此试剑，将石一剑劈开，形成洞开一线的两扇石门。清康熙御题“烟岚高旷”和玉玺镌刻在剑门巨石上，剑门下并有明清时期的名人石刻群。景区内还有桂香园、拂水晴岩、瞿式耜墓、松风亭、藏海寺、报国院、长寿桥等景点。登临剑门山风开襟，视野广阔，湖泊纵横，阡陌交错，农舍处处，舟帆悠悠，尽收眼底。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝岩景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 位于虞山南麓宝岩湾，临湖依山，空气清新，为天然氧吧。园内千年古刹宝岩禅寺，香烟缭绕，周边竹海环抱，杨梅茂盛。民俗“看杨梅、烧莳香”传承至今已达900多年。景区内尚有小云栖寺、石洞冷泉、连城石壁、帝师园、虞山印象和生态科普馆等展示虞山人文与自然资源的新老景点多处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞山城墙景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于半入城之虞山东坡。始建于西晋太康四年（283年）。历代屡有修葺，元至正十六年（1356年），张士诚固建土城为砖城，腾山而筑，初具规模。明嘉靖三十二年（1553年），知县王鈇为拒倭寇入侵筹资重建，高二丈四尺，基宽八尺，雄伟秀丽，逶迤入城，蔚为壮观。故素有“江南小长城”之称。
+景区由镇海台，虞山门城楼、西城楼阁、阜成门城楼等景点组成，全长约1400米。其中由古城西门侧傍山而建的地藏殿、五岳楼、大石山房结合山道构成的“西城楼阁”景观，明清时代就已列为 “虞山十八景”之一；而辛峰亭和虞山门城楼则组成了新虞山十八景之一的“辛峰城楼”。登楼极目四顾，青山绿水，古城巷陌，尽收眼底，不亦快哉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉蟹泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 玉蟹泉在秦坡涧旁的石城峰上。因为水质醇甘清冽，被誉为“虞山第一名泉”。在距城约4千米处的虞山北坡。长百余米，呈层楼状，越上越陡，涧内怪石累累。雨后瀑布奔飞，湍流击石，声如风雷。明人倪钜《秦坡》诗咏其声势：“雨后秦坡水，势如天潢注。非风亦非雷，摇动山中树。”涧顶部石门、石城两峰相峙，涧底有春秋吴文化遗址“七星墩”，涧畔有常熟第一名泉“玉蟹泉”涧为虞山最深秀之境。
+      该泉遇涝不溢，逢旱不竭。水质厚重，含有大量矿物质，试把铝币轻放水面，飘浮不沉。更为奇特的是，水底经常泛出水泡，如蟹吹沫。
+      玉蟹泉既可饮用又是一处旅游景致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴王点将台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫相岗西,有一墩耸峙,气势逼人,志载为旗墩。高墩南临一片石场，可坐数百人，相传为元末农民起义首领吴王张士诚阅兵演武之处，人称“演武场”。那便是“吴王点将台”了。
+      1984年文物普查时，考古人员发现“点将台“并非自然石墩。2000年，展开科学发掘，发现墩内是一石室，结构有通道、过道及石室三部分，通长26米，高8米。经测定，石室建于公元前805年至公元前551年的西周晚期至春秋早期之间。大批高质量的原始青瓷的出土，推翻了“中国原始青瓷的烧造技术成熟于东汉”的论断。
+      近20年来，学术界关于石室土墩的用途，本来就存在着房屋说、墓葬说、军事说、祭祀设施说等多种观点。吴王点将台为这一课题的研究提供了重要线索。从吴王点将台规模之大及所见青瓷几乎皆为酒器，而无随葬物的分析，似可认定为祭台或祭室。如此庞大的祭祀设施只有国家或王室可享用，且既世称吴王点将台，必有历史的影子在内，故所言“吴王”极可能是西周春秋时期的吴王，而非元末的吴王张士诚。
+      点将台地处虞山最西之峰峦，登临，可南望昆承湖，西望无锡和江阴诸山。极目北眺，但见天际有隐隐一带，便是长江。于此“雄视”，气象广阔，可壮胸中豪气也！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松风亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦峰西之拂水岩,是虞山最西的峰峦了.松风亭居于峰巅岩顶吗，为四方石亭。亭额由著名画家朱屺瞻书。亭柱有著名书画家谢稚柳书写的楹联：
+      巨阙奔云东走    晴岩拂水西回
+      此联形象地描述了于此看到的“拂水晴岩”奇景。
+      在松风亭上放眼远眺，但见“江流天地外，山色有无中”。横亘天际的是荡荡长江，依偎山脚的是泱泱尚湖。北望中的狼山和南望中的苏州诸山皆淡成袅袅青烟，忽焉似有，忽焉若无……感觉中，足下的虞山和尚湖便是江南的腹部了。
+      回望虞山诸峰，但见层峦叠翠，于明秀中透出处子般的雄健。虞山不以海拔自拥，不事张扬，有的是一种自然朴茂、淡泊甘醇的风骨和历史文化积淀的深沉，弥漫着东方哲学的意蕴。虞山就这样朗润玲珑、文采飞扬而秀出东南。
+      民族英雄瞿式耜墓距此百余米。一说松风亭由瞿墓石坊联：“古涧风回千壑响，寒潭影落万松枝”而得名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清代石刻群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞山东麓，从仲雍墓道“南国友恭”坊南侧“小三台”起，经石梅至雅集亭止，多正、草、隶、篆的题名石刻。小三台有“初平石”石刻。在原雅集亭遗址山壁镌刻有“石亭铭”：“两湖如镜、万树连云、文学仰止、遗爱唯殷”。在巫公祠后山坡六块巨石上， 分别镌刻“寿” 、“富”、“康”、“德”、“考”五个大篆及“味石主人题、东林土书”（即朱宪斌、王朝瑞）。稍前矗立一巨石，西向刻楷书“适可”两字，上镌小字行书“昨夜飞来”，系近代书法家、铁琴铜剑楼主人瞿启甲所书。附近有石洞，洞口镌楷书“壁磊”两个字，边镌“乐乎”两小字。还有清康熙五十九年(1702年)言汝泗楷书“山辉川媚”四字，行书“松风水月”四字；乾隆十一年(1746年)粮储道程光炬书“蒙泉”两字等。以上石刻现为市级文物保护单位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂香园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 桂香园是虞山国家森林公园旅游区近年新建的一座园中之园。该园位于山居湾，上接剑门景区，下连兴福禅寺，占地150亩，园内植千余株桂花树，有金桂、银桂、丹桂、四季桂等品种，金秋季节，满园桂花竞放，十里虞山飘香。
+　　园内还遍植茶花、杜鹃花、玉兰花、紫薇、剑麻等各种观赏花木，与桂花林相映成趣。园内一尊总高8米的汉白玉雕“皆大欢喜”佛，造型生动完美。民间传说中的“仙人石”、“葡萄石”、“斗牛石”也是园中赏心悦目的景点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拂水晴岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拂水岩在锦峰之阳，是一面数丈高的陡峭山崖。山崖如壁，豁然中开，一股山泉临崖直泻。“长寿”和“香花”两桥呈丁字形飞架崖山之上。山崖正对尚湖广阔湖面，夏日，多西南风，瀑布倾泻时激起的水花被顺山坡上冲的劲风托起，回扑到豁口，使站在桥上的有人有细雨蒙面的感觉，故称“拂水晴岩”，为虞山十八景之一。若在午后，尚湖里蒸腾而起的水汽漫进山崖豁口，与瀑布溅起的水花相交融，在夕阳的照射下折射出一条七彩飞虹，更是美妙绝伦。这是拂水晴岩的独特魅力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋石室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞山石室土墩位于虞山西北端山颠，据考证属春秋时期文化遗址。采用长条形石块叠成，并用大石块封顶后，堆以山泥。为何所用，说法不一，尚待考证。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王鞭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登虞山锦峰可由西门外“烧香浜”取南坡山道直达。山道陡而又窄，任你年轻健儿也要频频停下来喘息，号称有“七十二个透气站”，可见其道艰难。相传此道是西楚霸王项羽来虞山考察地形时挥鞭抽打而成的，故民间还称为“霸王鞭”。
+      山道在密林怪石间穿行，有时蚱蜢飞溅，野兔出没，野趣十足。一路行来，可欣赏到许多石刻，大多为明清遗迹。“奇石”、“去思石”、“果然”、“观止”、“青云得路”等石刻都大气磅礴。各类题记、游记等记述性石刻作品亦可玩味。
+     “烟岚高旷”为康熙帝书，楷体，刻有边框，边框内刻双龙图形，及“康熙御览之宝”印。据《康熙南巡录》所载，御书乃康熙四十七年康熙南巡时，沈宗敬迎驾献画所得。
+      不知何年何月，“烟岚高旷”西有一巨石从崖上坠落时被三块相叠的长石托住，从此定格，成为险谲奇观，人称“三生石”。
+      见到三生石时，山道已和山脊平行。过剑门十余米，有支路缓缓下斜，这便是“小霸王鞭”了。
+走“小霸王鞭”，可进入更加幽深的境地。小道紧贴绝壁，逶迤曲折，仅容一人通过。此处，树高林密，古藤盘缠，深秀幽静；沉积岩岩相特点显著，岩层间生长着蕨类植物，青苍相迭，是山林的原始本相。忽闻水声淙淙，抬头见瀑如珠帘，知己身在拂水岩下。脚前事积水潭，人需从接脚石上小心通过。晴日，水珠在石上跌碎，飞溅成雾，凉意森森。雨天则飞流直下，瀑声訇然，需紧贴崖壁穿瀑而过。
+      由淙淙飞瀑、飒飒松风、关关鸟语、唧唧虫声构成的荒情野趣、自然天籁，充盈着质朴的美，粗犷的美，身临其境，人的感情之弦会与大自然丝丝相和。于此留连，直像裸体的婴孩扑进了母亲的怀抱，会领略到一种忘机出世、返归家园、重葆童真的美妙感受。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 虞山的雄奇之处便是处于最高峰(锦峰)的剑门.剑门以奇石险峻夺人.绝壁中开如门缝,窄处仅二尺许,顶端有巨石堵于“门缝”，凌空欲坠而不坠，若达摩克利斯之剑，令人生畏。明人沈周的“绝壁云扶将坠石”，说的就是此石。勇者可从门缝间攀援上下，身临幽谷绝境，体验蜀道之难，剑气豪情顿生。
+      虞山剑门当然和剑有关。《吴越春秋》说吴国有一位著名的铸剑师干将，受命为吴王阖闾铸剑。干将采五山之铁精、六合之金英集于一炉，又候天伺地，待“阴阳同光，百神临欢，天气下降，地气上升之时”点火开炉。历经波折，终成阴阳二剑，阳名干将，阴名莫邪，是他和妻子的名字。干将把阴剑“莫邪”献给吴王复命，把阳剑“干将”藏了起来。藏剑的事泄露出来，阖闾大怒，一剑斩了干将。阖闾死后，其子夫差接位，听说干将献剑之前曾对儿子说过“雄剑藏处，松生石上”的话，便专挑“松生石上”之处寻找雄剑。找来找去就找到了虞山锦峰之巅。这一带危崖壁立，奇松攀石，不正是“松生石上”之处吗！夫差一到锦峰，就听得腰间所佩的莫邪剑在剑盒内隐隐作响，分明是阴阳二剑相应和的声响，猜想“干将”剑就在这一带了，便命手下人彻底搜寻。几百将士查找了三天三夜，就是找不到雄剑踪影，把个夫差气得七窍生烟，拔出莫邪剑奋力劈向危崖。
+     “莫邪”剑有神力相助，一时间电闪雷鸣，锦峰危崖訇然裂为两半……据说，这就是剑门的来历。有诗为证：
+      夫差极英勇，试剑虞山巅；
+      挥刃苍崖兮，石髓流如水。
+      奇剑分崖，当然只是传说。《藏海寺志》记载：“志所称剑门云，乃先侍御籍凿石而通之者，募夫捐资动以万计，亦一时豪举哉。其后又造一阁。”说的是邑人钱籍发起整修剑门一景的事。钱籍，明代常熟人，官至御史，罢官归乡后募夫捐资，整理剑门一带山崖，并造剑阁。剑阁成，钱籍亲撰一联曰：
+      无边风月供嘲弄
+      有主江山属剪裁
+      此联写出了开凿剑门的得意之情，却被人曲解为“有叛逆之心”——江山的主人当然是皇帝，皇帝的江山岂是容人剪裁的？钱籍做了善事却因此被捕入狱，百口莫辩，冤哉枉也。
+      现存剑阁所悬板是钱籍当年所撰的另外一联：
+       绝壁剑开，伊阙羊肠应让险
+       重湖镜列，洞庭彭蠡合争奇
+      阁中还有常熟籍大学者钱仲联自撰自书一联：
+      蜀阁称雄，佛掷陶家轮，剑北分来峰一角
+      尚湖绝代，人在水精域，镜中为照月千鬟
+      此联以剑门比于四川的剑阁，说剑门是有人施展佛法从四川分来的奇景，真是奇思忽发，附丽增光也。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣贤广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 虞山圣贤广场位于西三环虞山南路路口，占地2.3万平方米，由圣贤雕塑、浮雕墙和休闲广场三部分组成。其中圣贤雕塑高15米、宽30米，分别由仲雍、言子、巫咸三位虞山圣人的巨型头像和刻有“中国吴文化第一山——虞山”字样的底座构成，是目前华东地区最大的巨型石雕，连为一体的石雕头像，肃穆中透着清和，似乎是先贤们在凝视着后人。石雕后面90米长、5米高的浮雕墙则反映了三位贤人在不同历史时期的重大成就和对吴文化起源与发展的杰出贡献：仲雍的孝父弃位、远赴荆蛮、传播文明，言子的北上求学、刻苦学习、礼乐教民，巫咸的学术成就、辅助国君等传诵久远的历史文化精粹，都在墙上一一展示。休闲广场则以虞山自然山体特别是大片竹林为背景，配以成片茶田及基本的休闲设施，充分展示了茶山竹海的优美意境。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石洞冷泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 石洞冷泉是江南地区最大的引水瀑布，也是江苏虞山国家森林公园的主入口。景区上游是天然的石洞，名为老石洞，洞中原有冷泉流出。中下游是雨水常年冲刷形成的峡谷，两侧则被大片竹林包围。整个景区成汉字“吴”字形布局，有绿龟伏涧、竹海听涛、栖霞亭、石洞飞瀑、神牛戏水等景点。
+      沿着步游道走去，这边两个洞口便是老石洞了，里面是相连通的，石洞壁上还刻有“冷泉”、“ 秉烛游”石刻。走在一池碧水上，周围青山环抱，脚下流水潺潺，任谁都会陶醉其中！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王石谷墓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于尚湖北岸程家桥西堍，中山路下侧，坐北面湖。王石谷（1632—1717），名翚。号耕烟散人、清晖主人，乌目山人等，虞山画派创始人。曾应康熙帝诏入朝主绘《康熙南巡图》，有“画圣”之誉。后人将其与王时敏、王鉴、王原祁并称“四王”，又合吴历、恽寿平，六人并称为“清初六家”。其墓初在虞山北麓，后迁至今址，其子处伯、孙邦宪附葬于侧。建国后多次修葺。今墓占地457平方米，封土直径3.1米，高1.2米，围以罗城并设有拜台、墓门等。冢前后各竖碑一通，后碑为清乾隆九年所立，上镌文“皇清徵士先祖考妣石谷府君例赠钱氏孺人合葬之兆”，前碑为宣统元年立，上镌翁同龢于光绪二十六年（1900）所书“清画圣王石谷先生墓”字样。墓道长20余米，立有近年重建“清画圣王石谷先生墓道”单间冲天式石坊一座，现为省级文物保护单位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小云栖寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又名白云栖禅院，又名松泉寺。在虞山西麓。建于清康熙年间。寺内原有望湖楼。寺后有一山洞，深丈寺，左面有石崖覆盖如屋，右面泉从石坎中溢出，汇成池沼，碧水盈盈，清澈见底。泉水甘洌，故称洌泉，又名露珠泉，石壁上嵌有“天下名泉”、”露珠泉”两碑。洞顶出口处有百年怪树一株，横卧地面，形如醉汉跌石：又有古藤一技，为明代所植，围粗一抱，分成数枝，曲结盘缠，攀授数十丈，恫顶部为青藤覆盖，蔚为奇观）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞山印象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 观光车道上方的是虞山印象景点，这里原来是一片乱石丛生的山坡，并被杂灌木林遮盖。我们因地制宜在这规划了石间穿梭的旅游路线，并在沿路的石头上刻上常熟虞山印派代表林皋、赵古泥、庞裁和庞士龙等人的篆刻作品，游客在赏景的同时能体会到常熟虞山深厚的历史文化内涵。
+     林皋：林皋（1658-1726）字鹤田，亦作鹤颠，福建莆田人，因官侨寓常熟。篆刻宗法文彭，复取法沈世和等。并能上溯秦汉，博宗宋元，兼取徽派雄浑厚重，苍劲古朴之风而自成一家。其精研篆刻之道，作品章法简繁相参，疏密处理周详；刀法稳健，挺拔遒劲而不事修饰；篆法多采用小篆、缪篆，古雅清丽，驰誉印坛。与沈龢、王瑾等形成颇具影响的虞山印派。作品有《宝砚斋印谱》,颇得当时书画家及收藏家所珍爱。
+赵古泥：赵石（1874-933）字石农，号古泥，又号慧僧，别署泥道人，常熟人。“新虞山印派”的代表人物。赵古泥兼擅诗书画印，以印章造诣最深，曾投拜吴昌硕门下。他学古不泥古，从师承中蜕变，于印坛别树一帜，时人称为赵派。其女赵林为上海名家。弟子有邓散木、汪大铁、唐素铁、濮康安、王辛一、李溢中等。著有《拜缶庐印存》40卷、《泥道人诗草》2卷等。另有多家所辑的《赵古泥印存》数种传世。
+     庞氏双杰：庞裁（1871-1937）字君亮、絅量等，常熟人。精金石篆刻，能绘花卉，尤工牡丹。著有《兰石轩印存》。其子庞士龙（1899-1987）字云斋，别署海禺山民。精鉴别工篆刻，得其父亲授，深入丁黄心法，为虞山印派后起之秀。著有《常熟书画史汇传》、《常熟印人录》、《云斋旧藏善本印谱回忆录》、《宋元版本流传考》、《云斋知见善本印谱目》、《云斋印话》、《云斋自用印谱》、《海禺山民印存》。
+     斗蟋蟀：大人小孩一同斗蟋蟀的场景。常熟旧时就有斗蟋蟀的风俗，捕捉蟋蟀，观其争斗，以为乐事。每年白露初过，中秋节近时，斗蟋蟀最为盛行。在此期间常熟的少年儿童大多到处捕捉蟋蟀，欢聚一堂，争斗之声此起彼伏，胜者欢天喜地，博得满堂喝彩；败者有垂头丧气者，或有不服者，捕购更勇猛蟋蟀再邀争斗。城内茶馆往往成为斗蟋蟀场所。
+     茶文化：常熟旧时茶馆里一杯茶，大侃山海经的景象。虞山种茶始于明清，1958年建立虞山茶场（1960年为虞山林场）。剑门、维摩一带，地势高爽，土层深厚，微量元素含量丰富，空气清新湿润，生态环境极其优越，是无公害和有机食品绿茶的生产基地。每年清明至谷雨期间采摘嫩芽，加工成品质上乘的绿茶。尤以“剑毫”、“茗毫”、“针毫”为珍品，誉为“乌目三毫”。还有“剑门太白”、“虞山白茶”两种用白叶茶树新生叶片制作的珍品，冲泡后香气四溢，回味无穷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 宝岩栽种杨梅的历史悠久，元重修《秦川志》已有记载。宝岩杨梅果实汁多，甜酸适度，素负盛名。杨梅有“大年”和“小年”之别，“大年”的产量是“小年”的几倍。初夏时节，老杆新枝都被累累坠坠的杨梅压弯，一时间飞红流翠。遇上大年，杨梅林主人格外大方，声明树上杨梅凭人畅吃，只是不可带走。园主不怕你胃口大。其实胃口大也没用，吃上十几颗，人和牙齿就有些“软”了，又舍不得难得的口福，还是买几斤回家慢慢享用的好。一买一卖之间，定是笑语连篇，乐不可支。梅林的野趣总会久久地留在人们记忆里。
+     杨梅树姿态挺秀，冠幅广阔，是集果、材与欣赏为一体的珍贵树种。除了大片心栽，宝岩梅林中尚有百龄老树上百棵。百龄老树绿叶如燃，红果累累，生机盎然，大年时每棵树出产80千克以上。老树高大，梅熟时节，几个人在树下协力拉开旧被单，让身轻的少年攀上树去摇动树枝，叫声“下雨喽！”杨梅便哗哗啦啦落在了被单上。这才是真正的梅雨呢！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连城石壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞山是常熟历史文化的“根”，三千多年的常熟历史文化积淀大部分都能在虞山寻根溯源。连城石壁广场就是撷取常熟特别是虞山文化的精华，通过人物、故事、事件等表现手法，利用雕塑的形式，集中展示了虞山诗派、虞山画派、虞山琴派和虞山印派以及藏书、书法、医药等七大文化亮点。
+     这些文化场景以天然的虞山山体为背景，展现了虞山秀丽的自然景观和深厚的文化底蕴之间的有机结合。取名“连城石壁”就是巧妙地把这些文化瑰宝连城的价值以及青山连城的区位隐含其中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生态科普列车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生态科普列车是一辆蒸汽式火车，这列蒸汽火车是上游1188机车，是唐山机车车辆厂制造的第1188辆机车，也是唐山大地震后唐山机车车辆厂恢复生产制造的第一批机车之一。该机车于1982年8月18日制造出厂后即由南京热电厂购进投入运行。该机车为SY型，构造速度为80km/h，机车功率为1500马力，牵引力为2000T，轮周牵引力为14944kg，行车曲线半径为最小125M，煤水车水箱容积为25立方米，煤装载量为11.5吨。
+      作为南京热电厂自备机车，该机车自投入运行以来一直在该厂自备铁路线上运行，担负着南京热电厂电力用煤的运输重任。自1982年投入运行后，该车性能良好运行稳定，累计为南京热电厂运输煤炭3000余万吨，累计发电550亿千瓦时，为江苏省经济发展和居民生活做出了重要的贡献。
+       2004年10月，1188机车在运行22年后被内燃机车取代正式退出运行。2006年4月，江苏虞山国家森林公园将1188机车从南京热电厂运回常熟，进行了整修，放置在虞山宝岩生态观光园内，并将其命名为“宝岩号”，同时开始建设宝岩生态科普展览馆，馆内是有关科普知识的展览和一些动物标本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝岩福海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝岩以水迎客。潭由涧水积成，名福海，作椭圆状，映山林翠色，青幽澄澈，如有沉璧。相传商末姜太公为躲避商纣王暴政来常熟时，曾住在附近的小石洞里。姜太公是位半人半神人物，发现小石洞正处于能影响星相和地脉的“风水灵点”，就在洞中不断地调遣水脉，终于让福海之水与长江之水在地下连成为一脉，使福海之水成为一塘永不枯竭的水域。这个故事不过是后人的附会，其实福海地处虞山第一湾，承接着虞山蕴藏的丰沛“天水(雨水)”和“地水(地下水)”，自然是长年不会枯竭的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝岩禅寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 宝岩禅寺位于宝岩生态观光园的中心位置，是景区内的一个主要景点。
+     宝岩生态观光园位于江苏虞山国家森林公园南麓宝岩湾的苍山翠谷之中，占地面积200公顷，被称为“虞山第一湾”。园内森林景观绚丽恢宏，以大片天然针阔混交林为主，建有果茶立体栽培园、果树精品园、观赏竹种园、杨梅品种园等森林植物生态园，同时开放有一列科普蒸汽列车，餐饮区有十多家特色农家饭店。现已成为了集农业生产、生态观光、森林旅游、休闲度假、文化娱乐、科普教育于一体的旅游胜地，为人们提供了一个亲近、回归自然的好去处。同时也是江苏虞山国家森林公园内一个森林景观最为丰富的自然生态园，也是AAAA级区虞山——尚湖风景区的一个重要组成部分。
+     宝岩禅寺初名延福禅院，始建于南朝梁天监年间，距今已有1500多年历史。南宋及元、明、清，寺屡建屡废，民国时寺僧潭月重创此寺，殿宇一新。文革期间，寺被拆毁。
+     历史上，曾有一位国王、三位皇帝与宝岩寺结下了不解的佛缘。禅院初建，即因寺内高僧弘扬佛法的深远造诣，和地处虞山第一湾的幽雅环境，盛极一时。五代十国时，吴越国王钱镠施金五百两，建佛塔于院内，顿使延福禅院名声远播，引来众多信徒焚香礼拜，无福求福、有福延福。北宋端拱年间，宋太宗下诏延请延福禅院高僧希辩至京城开封讲座播法，并亲赐法号“惠明大师”和紫罗方袍一袭。淳化三年，宋太宗又向延福禅院诏赐一批佛教经典。天禧年间，宋真宗改院名为宝岩禅院并赐额。天圣年间，宋仁宗又特赐铜铸之天齐仁圣帝像于宝岩禅院供奉。由此，宝岩禅院声名远播，成为江南名寺。     
+       历代以来，宝岩寺、兴福寺、藏海寺、三峰清凉寺被称为虞山四大名寺。据民间传说，这四大名寺各司其职，有主天，主地，主平安，而宝岩禅寺则主奉财神。再加上寺庙所处的宝岩湾北倚灵峰，南面尚湖，寒风辟道，温水长流，物种丰饶，尤以特产杨梅最为著名。因此，常熟民间历来就有到宝岩“看杨梅，烧莳香，敬财神”的习俗。
+     盛世修寺，随着宝岩生态观光园建设的实施，重建宝岩禅寺被列入市委、市政府的《常熟市旅游产业发展规划纲要》。按设计规划，重建后的宝岩寺建筑面积6000多平方米，占地面积20亩。大雄宝殿气势恢宏、造型精美，建筑面积700多平方米，是目前常熟最有气势的大雄宝殿。新加坡佛教协会专门为宝岩禅寺捐赠了重达十一吨的白玉卧佛。二OO二年四月二十八日，宝岩禅寺举行了隆重的大殿佛像开光仪式。开光之日，佛光普照人山人海，钟磬齐鸣寺内寺外，香火缭绕天上人间……如今，重放光彩的千年古刹宝岩寺，隐身于郁郁葱葱的宝岩生态观光园内，既是四方信徒进香朝拜的宗教胜地，也是宾客游人探幽悟道的神往之处。
+     宝岩生态观光园园内林壑清幽，茶果飘香，建有果茶立体栽培园、观赏竹种园、杨梅品种园等森林植物生态区，空气清新、植被繁茂。园内有700多亩杨梅林特别是170多棵百年以上树龄的古杨梅树，年年挂果，满树玛瑙。180多亩的毛竹林长势很好，郁郁葱葱。另外，园内历史人文景观丰富，有清朝两代帝师翁同和、清末四大谴责小说之一《孽海花》作者曾朴等名人墓地，始建于南朝梁天监年间的千年古刹宝岩禅寺则更为著名。
+     宝岩生态观光园自一九九八年开园以来，已经成功举办了九届宝岩杨梅节和四届江苏虞山森林旅游生态观光节，使已有900历史的到宝岩“看杨梅，烧莳香，敬财神”的民间习俗重放异彩，展示了常熟悠久灿烂的人文传统，是继尚湖牡丹花会、尚湖国际文化节后的又一重大旅游活动，成为颇具地方特色、个性魅力的旅游热点，也成为市民休闲娱乐、放松身心的传统节日，取得了良好的社会效益、生态效益和经济效益。
+     宝岩生态观光园自1998年旅游开发以来，成绩斐然，凭借着丰富的森林景观资源和独特的历史人文景观资源，深受众多周边地区游客的青睐。同时我们不断加大开发建设力度，自2004年以来先后投资一亿多元对景区进行重新的规划建设，目前一期深度开发工程已经完成，正在加快二期工程的开发建设，新建石洞冷泉、虞山印象、枫林飘香、连城石壁等四处新景观。其中，石洞冷泉营造了水潭、瀑布、栈桥等休闲设施，连城石壁则利用石壁雕塑来反映古城常熟在琴、书、画、诗、印、藏书等方面的文化特色；同时，园内新建了4公里长的观光车道延伸连接石洞景区，并通过步游栈道将宝岩生态观光园和虞山剑门景区连成一体，全面改造景区的硬件设施，提升景区的文化品位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝岩生态观光园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  位于虞山南麓宝岩湾的苍山翠谷之中，占地200公顷，有280亩林木间作茶田、180亩观光竹海、杨梅品种园、果树精品园等森林植物生态区。园内290多种植物活体标本和陈列在蒸汽列车车厢内的150多种动物标本，更融入了科普的内涵，被列为江苏省科普教育基地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阜成门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阜成门是继常熟方塔公园、曾赵园、新虞山公园之后，虞城旅游的又一新亮点。阜成门俗称西门，明代嘉靖年间，倭寇侵犯，从海上入侵长江，骚扰常熟。嘉靖三十二年，为巩固城防，扩建城墙，从虞山辛峰亭背面而下，筑此城门。阜成门修复工程，包括阜成门和城墙延伸段，全长150米。新修复的阜成门设三座门洞，中门按二车道设计，主体面阔25.95米，进深19.04米，城门城楼高约20米。新修复的阜成门恢复了明代时期的历史原貌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇海台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 常熟古城的北大门俗称旱北门，现已不复存在。向东弧形而去的马路就是在古城墙基上建筑的环城路。古代出这北门可到达长江岸边登船入海。海洋辽阔无垠，人们驾船入海都希望自己能征服海洋平安归来；海洋不仅给人们带来财富，台风大潮、江洋大盗也会给人们带来威胁；为祈求生活安宁平和，所以人们将这向北城门叫“镇海门”。这个城台也就得名“镇海台”。</t>
+  </si>
+  <si>
+    <t>虞山门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞山门在辛峰东侧，正处于望海墩（虞山最高峰）和城内方塔的连线之上，可见先人选址之用心。在民间传说中，古城与虞山的关系更为有趣——虞山（卧牛山）是下界神牛，辛峰是牛头，辛峰亭是牛角，方塔是栓牛之桩，腾山而起的城墙便是栓牛的缰绳了。神牛既留，瑞气永聚，常熟当然是年年丰收了。
+      常熟城墙建于南宋建炎年间。至正十六年，张士诚占领常熟，把土城墙改为砖砌，以加固城防。明嘉靖年间，倭寇常通过长江潜入，劫掠常熟沿江村庄，渐有掠城之势。时任常熟知县王鈇发动民众捐款筑城，并改虞山门为镇山门，以振威武之气。现存的过山城墙修于1993年—2006年城高7.68米，宽5.44米。虞山门上建有重檐式城楼，古朴轩昂，威武俊明。
+      “辛峰夕照”是“虞山十八景”之一。虞山门是观赏此景的最佳之处。
+      每当傍晚时分，黄墙碧瓦的辛峰亭沐浴在夕照中，眉清目秀，雍容典雅，婉若一位大家闺秀，亭亭玉立，有荷之风采，梅之品质。
+      面对这山水与城廓相依存、相吐纳的形势，不由得让人想起清代诗人孙原湘的名句——“七水流香穿廓过，半山飞绿进城来。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西城楼阁、五岳楼、大石山房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 西城楼阁景区占地1.8万平方米，是明嘉靖虞山城墙修复工程的重要组成部分。西城楼阁原位于古城西门之内，与城垣和阜城门毗邻，为著名的“虞山十八景”之一，包括致道观、大石山房、东岳庙、严氏读书馆(逍遥游）地藏庵、阜城门、城堞、牌坊等，尤以建于南朝梁代致道双和建于南宋的东岳庙与明代腾山而建的城墙雉堞争相耸峙，蔚为壮观。明人蒋廷锡《城西秋望》诗写到“高阁三层烟树里，青山半角夕阳中。一行雁齿斜城界，万井鱼鳞碧瓦丛”。今楼阁已不存，为新建筑所代。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞山公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞山公园位于虞山与古城交接处，地势开阔，林木葱茏，湖光潋滟，小径逶迤，尽展“十里青山半入城”的独特景观。
+      虞山公园分南北两部分，北区精雕细刻，景点密布；南区俊朗舒展，野趣盎然。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐喷泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐喷泉，以映山湖水体为基本元素，运用现代光学、电学、电子学等高科技原理，从设计上充分融入了常熟特有的城市气质和个性，充分展示了常熟人民独特的精神风貌，经济实力和审美情趣。全景共采用14组基本水型，可根据不同场合、不同音乐背景自由组合，是一座集音乐喷泉、激光、灯光、音响于一体的综合性大型水景景观，它的建成给靓丽的虞山景区又平添了一道风景线。
+　　映山湖音乐喷泉围绕在一个36米长，7米宽的长方形框架内展开，它以方为外型，以圆为内核，寓意九州方圆，布局中展示出常熟稳健大气的城市风貌，中心以高喷为视觉交点，展示着气势磅礴、直冲云霄的傲慢气势，同时中轴线上4个互喷和18只直上喷头间隔排列，刚健挺直，形成三个富有层次感的上冲水型，将整体景观的阳刚气质予以充分的表白，主喷和副喷外侧均有两圈圆形排列的水型，内侧向上直喷，烘托五个圆心内的高喷，其外侧则分别是花篮造型和圆摇，花篮居中，象征着城市蓬勃开放、宽厚的胸襟与气度。圆摇灵动，象征着活力奔放、收发自如的精神风采。在中轴线上焕发着浓郁的时代气息，中轴线内侧，6个栩栩如生的海鸥水型，翅膀矫健有力，节奏整齐和谐，寓意着搏击海浪、长空翱翔的凌云斗志。外侧6只礼炮凌空绽放，蔚为壮观，气势蓬勃，营造出灿烂缤纷的节日场景。第八组跑泉，以排山倒海碧波展浪的雄姿时而从中间向两侧奔涌，时而从两侧向中心集池，或从左至右，或从右至左，或一个、或成排、或平行、或山型，营造出饱含力量、韵律和造型的变化之美。框型后翼，如歌如舞，如梦如幻，充分展示水体的无穷魅力，歌颂幸福快乐的美满生活。前排6只孔雀开屏，典雅华丽，富有民族特色，爱寓琴瑟合鸣，左右各两只彩虹喷泉，横跨全池，凌空飞度，使整个水景融为一体的同时，营造出天人合一的伟大力量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖心亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> “湖心亭”是园中的主要风景点，此亭建于凌波横卧的九曲桥上。亭西有双茅亭，亭北有半舫式水榭，亭树相映成趣，构成佳景。园内尚有“倚晴楼”、“栗里”、“环翠小筑”、“半松亭”、“卷云石”、“凝碧假山”、“沁雪石”等景点，掩映在柳暗花明处，点缀于峭崖曲水畔，形成步移景异的园林构景蒙太奇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映山湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮山新景是2004年常熟市委、市政府为民办实事工程之一，占地面积12.5万平方米，并和原本的虞山公园连成一体，成为我市最大的开放式公园。景区塑造以山为主体空间景观，并运用传统造园中的“添水”的手法，开挖建造面积15000多平方米的映山湖，修建石拱桥、仿古式建筑，铺设10万平方米的草坪，使虞山东坡焕然一新，以“十里青山半入城”的风姿，凸显着江南城市的独特风韵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞山动物园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 虞山公园动物园，建于1999年,位于近郊常熟市北门大街45号，是常熟唯一的动物园。现已成为本地小朋友们普及动物科学知识和游人休闲娱乐的良好场所。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王石谷亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王石谷亭1973年迁建，在园中西部山腰间。亭作长方形，在松风亭上，拾级可登。邑人王石谷为清初名画家。此亭从北门大街50号原王石谷祠中迁来。亭内正壁上原嵌有《石谷先生骑牛还山图》，为王石谷于清康熙三十二年（1693年）离开清宫画苑时，宫廷画家扬州禹之鼎为表惜别之情绘赠，后裔孙镌于石置王石谷祠内。此一珍贵文物，已由市文管会取下保存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠王碑亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  忠王碑亭建国后建，位于环翠小筑东南，为太平天国时期据守常熟将领为忠王李秀成歌功颂德而立，名“报恩牌坊碑”。碑文长达四百九十多字，为太平天国时期所刻碑文字数最多、字体最佳的一种。此碑原在南门外天朝牌楼处，几经迁移。后建亭虞山公园之中，保存此碑。供人瞻仰。十年浩劫中，石碑移至市文管会保存，现藏碑刻博物馆。1986年初，该亭移至公园后山虞红亭南30米处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挹秀园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷云石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷云石位于栗里茶室前。此石高3米，最宽处约1.5米，其状舒展如云，形态奇特，正中镌刻邑人、燕谷老人张鸿题书“卷云”两大字，旁镌“刳神胎，出灵氛，一舒一卷为天下云，丙子六月燕谷老人题”。其状舒展如云，形态奇特，好似一条神鱼，由神鱼联想到神龙，由神龙联想到“龙从云”,想象奇特，意境优美。
+    卷云石灵秀轻盈、临风欲飞。此石系从辛峰巷燕园移来，原为明代钱谦益临顿里（东门大街）老宅“荣木楼”宅后花园中遗物。清雍正时析县，琴川河以东划入昭文县境，钱宅部分被改建为昭文县衙及城隍庙等。民国后，又在其地兴建虞阳小学，石即立于城隍庙后之学校操场一角。约30年初，因扩建监狱至操场，遂将其移至正筹建中之常熟公园。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倚晴园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倚晴园座落在虞山公园的前部（栗里茶室旁），1979年建倚晴楼，1985年拆除前民众教育馆，建倚晴园。园前石狮为宋代遗物，这对石狮非常人性化，神情各异，正在玩嬉，是宋代南派石雕狮子的代表之一，雄抱球母抱狮。1931年修筑公园时，移至于此。
+    园以两层古建筑倚晴楼为主景，上海市同济大学建筑系司马铨教授设计，陈从周教授题额，市古建筑公司承建施工。雕梁画栋、精致纤巧，登楼南望引人注目的是红枫林。春秋佳日、枫枝展红、妖艳如醉。园中场路铺设与环境构建由董浜建筑站和常熟市园林管理处基建组实施。实际工程总价为10.21万元。建造了晚翠亭、归飞亭、倚晴楼，建曲廊94.36平方米，楼前凿小池、叠湖石，植桂花、修竹等，外面以青砖黛瓦打造有漏花窗的矮围墙102米。此园为一封闭庭院，结构精致，小巧优美，环境幽雅，景点荟萃，可称微型园林杰作，也是我市园林中独具特色的园中园。
+    倚晴园内有一古井——义井，上有曾之撰（曾朴之父）的题字。（曾之撰曾任清代刑部侍郎，相当于现司法部副部长），其子曾朴为我国近代著名文学家、法国文学翻译家，其名著《孽海花》为清末四大谴责小说之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沁雪石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沁雪石今在常熟虞山公园环翠小筑院内,宋吴兴赵皇亲家私人花园莲庄旧物。元代时，莲庄为著名书画家、诗人赵子昂所有。“沁雪石”植于该园鸥波亭前。明代流入常熟，几经波折才搬入虞山公园。
+    “沁雪”石名由来，众说不同。一说：“沁雪质纯黑，遇雨润，则白色隐起如雪，故名”。另一说：“石质黑，而额上一方雪着即消”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴地先贤遗址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文学桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文学桥言子墓前，“道启东南”和“南方夫子”两座石牌坊中间，是从东坡上虞山的毕竟之路。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御碑亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清权祠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《清权祠》占地面积464平方米、总建筑面积305平方米，两进式，大堂正中设有仲雍塑像，上悬“让德高风”牌匾。左侧悬挂有自泰伯、仲雍以下二十世的“吴世系表”，右侧悬挂有自泰伯“创建勾吴”，至“夫差误国”止，“吴国疆域变迁图”，吴国从一个小小的梅里，到阖庐时，吴国的领土已扩张，疆域向北推进到齐鲁边境，占据了全部苏北地区；又向西推进，灭了楚国的几个附属国，与楚国直接接壤，占据了现在安徽的淮南、六安等地；向南推进，则占领了现在的浙北地区，展示了春秋后期吴国鼎盛时期的疆域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲雍遗址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  仲雍墓位于常熟市虞山东麓，是常熟有历史考证的最老古墓，距今约有3000余年，1956年10月18日列为江苏省文物保护单位。
+      仲雍，又名虞仲，为殷末周族领袖古公旦父（周太王）次子，为避位与兄泰伯同奔南方（今无锡、常熟一带），并“断发纹身”，与民同耕，立为句吴，泰伯无子，由仲雍继位，成为吴君，殁后葬于常熟乌目山，乌目山因而改名为虞山。
+      仲雍墓墓门在山麓下，为乾隆年间所建，刻“敕建先贤仲雍墓门”，其后为“清权祠”，专祀仲雍。第二道牌坊横额“南国友恭”，背刻“让国同心”。再上面的牌坊横额为“先贤虞仲墓”，背刻“至德齐光”，均建于乾隆年间。墓穴留有三块墓碑，居中者书“商逸民虞仲周公墓”，为明代遗物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言子墓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 孔子弟子言子之墓。位于常熟虞山东麓。言子，名偃，字子游，常熟人，曾到鲁国就学于孔子，勤奋好学，以文学见长，学成南归，道启东南，被尊为“南方夫子”。
+      言子墓初建于西汉，经历代修建，乃有今日宏大规模。墓门面对北门大街，墓道延伸至半山腰。自下而上有牌坊三道，均有匾额柱联。墓门牌坊联为“旧庐墨井文孙守，高陇虞峰古树森”。第二道前后有乾隆书额：“道启东南”、“灵萃句吴”。第三道牌坊为雍正江苏布政使额书“南方夫子”。墓道还有石亭三座、有康熙御书横额“文开吴会”。坟圈内有明清墓碑各一，分别刻有“先贤子游言公墓”、“先贤言子墓”。1956年10月18日言子墓被公布为江苏省文物保护单位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛峰亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  春秋战国时期，吴王阖闾大军压境，齐国的齐景公被迫将小女儿孟姜送到吴国作为人质。孟姜忧思家国，加上丈夫早亡，郁郁成病，临死请求葬于虞山，以望故土。孟姜死后，吴王按其意愿将她葬于虞山辛峰。“辛峰”得名于明代，其“辛”有“悲切”之义，或许就是其女的悲凉故事而来的吧。
+      “齐女墓荒枯树老”，是明代诗人的描写，而今，齐女墓已经湮没不可确指。南宋时，辛峰上建亭名“望湖亭”，而后屡有修葺，亭名也多次更改，曾称“极目亭”、“达观亭”，最后定名为“辛峰亭”。
+      常熟地处湖泽水乡。古人迷信，恐有蛟龙出没造孽乡里，在河道两旁遍植干稞，以约束蛟龙行动。干稞的叶子如剑，蛟龙不敢轻触。造辛峰亭也是为的威震蛟患。亭内有碑，刻专剿孽蛟的许真君像。此碑至今尚在。
+ 辛峰亭六角重檐两层，造型轻灵隽秀，端庄优雅，正合秀婉雅懿的悠悠吴韵，又和常熟人日常厮守，使人倍感亲切，成为虞山的标志性建筑。
+      登亭俯瞰，常熟古城和新区尽在望中。由此南眺，则两湖在焉。昆承湖稍显缥缈，正式宋人徐次铎《极目亭》诗意：“几点归帆破暮烟，数行雁字落霞边。”尚湖近傍城山，一碧万顷，波光潋滟，正是黄公望画境。
+      仰观虞山，只见城垣之外诸峰积翠，归鸟投林，满耳皆是天籁之音。明代诗人王珙的名句“耳清尘不到，何必问桃源”，是在这里得到的吧？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三峰景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三峰寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三峰清凉寺因地处虞山第三峰，故名。三峰清凉禅寺始建于我国佛教鼎盛时期的南朝梁代。清代后期，在多位高僧的筹划下，明式寺舍屡获修葺增建，渐成江南明刹。因附近“万松林”多百年以上古墓，参天蔽日，蔚为壮观，吸引了诸多名人雅士到此寻访胜迹。两朝帝师翁同龢晚年即常来寺内“闻思阁”闭门读书。
+      三峰清凉禅寺既是信徒进香祈祷的场所，更是高僧弘扬佛法培育僧才的地方。自明代以来，寺内名僧辈出，在佛教界影响巨大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴福寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴福景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深山藏古寺。从虞山北麓车水马龙的现代化马路折入古墓葱郁、溪水潺潺的山涧小道，行一里许，便见绿荫深处有黄墙蜿蜒——原来是兴福寺到了！幽雅的环境，恢宏的屋宇，悠扬的钟声，缭绕的香火，使来访者一下子进入了“别有洞天”，顷刻少了几分浮躁。对自然恩泽的感激，对神灵敬畏的虔诚，不由人不放轻脚步，放低话语。此时此刻，唐代诗人常建那首脍炙人口的《破山寺后禅院》五律便会脱口而出：
+      清晨入古寺，初日照高林。
+      曲径通幽处，禅房花木深。
+      山光悦鸟性，潭影空人心。
+      万籁此俱寂，但余钟磬音。
+      诗中的破山寺即是眼前的兴福寺。在唐代诗人笔下，破山寺已是古寺，屈指算来，兴福寺至今已有一千五百年了。
+      兴福寺的寺名有来历。据地方文献记载，早在佛教盛行的南北朝南齐时代，曾任郴州刺史的倪德光，为了顺从母亲信佛心愿，“舍宅为寺”，将自家的花园捐赠并改建为寺院，初名大慈寺。又因此寺建于破山涧畔，故亦名破山寺。梁大同三年（537年），破山寺拓建时在大雄宝殿后殿挖出一突兀石块。高僧慧眼识宝，看出此石筋纹暗合“兴福”两字。从此此石成为镇寺之宝。兴福石名声远扬，众多善男信女和四方游客来寺拜谒，争相抚摸此石祈求事业兴与和合家幸福。大慈寺因此改名兴福寺。唐咸通元年（862年），唐懿宗特赐兴福寺大钟一口；九年，又赐额“破山兴福寺”。兴福寺声名日隆，成为江南名刹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联珠洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联珠洞，在兴福寺西北面的深崖陡壁间。洞高三米，宽十米，深十五米。洞顶有孔，直径半米，山泉从孔中滴洒而下，好象无数珍珠联贯坠落，储在洞内石潭间。洞门有近代书法家李根源题“联珠洞”三字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维摩景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维摩山庄（维摩绿茶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维摩山庄原为佛家胜地，名维摩寺，始建于南宋隆兴元年，后屡废屡复。1983年，江苏省太湖风景区建设委员会为恢复虞山十八景之“维摩旭日”，在维摩寺遗址上建成维摩山庄。
+      山庄大门东向，以迎旭日。进门，乃百步方圆的宽敞院落，植桂成林，名“百桂园”。每年金风起时，园内金银满枝，芳香染衣。有碑立于桂林深处，镌“沁香甜醉，侨老归心”，原来桂树是美籍华裔张兆明夫妇斥资栽植，是名副其实的“流芳美事”。
+      穿过百桂园，但见堂轩高敞，回廊逶迤，亭榭错落，全是明清形制。亲朋三五，找个清幽处坐了，又点一壶虞山绿茶来品，便是一等惬意之事了。细听林间鸟鸣，恍如人语，或者叫“滴滴水儿”，或者唤“你想一想”端的有趣。别问鸟名，它们叫的词儿，就是它们的名了。
+      到维摩山庄一定要上望海楼。木楼梯在脚下嘎嘎作响，别介意，如果听不出个中的沧桑意味，正好说明你还年轻。这楼是很老了，建于乾隆三十年。登楼远眺，天际有隐隐一线，乃长江。默观良久，内心油生苍茫之感慨，想起来唐代大诗人陈子昂的千古绝句：前不见古人，后不见来者，念天地之悠悠，独怆然而涕下。
+      明清间常熟才女柳如是也为望海楼撰过联，云：日毂行天沦左界，地机激水卷东溟。也是英气冲天，感慨万端。可见大江、青山、落日这些伟大而永恒的东西是最能激起慷慨豪情的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏海寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 藏海寺在虞山最高峰——锦峰。此处悬崖峭立，巉岩巍峨，气势雄伟。寺既在山之巅，何称“藏海”？若非佛门中人，恐怕大多不甚了解。连《虞山藏海寺志》也未有说明。幸好寺内存有国学大师钱仲联撰《重建藏海寺碑记》，可释疑：“藏海者，莲花藏庄严世界海，最上风轮名胜藏，持一切香水海，彼香水海中，有大莲华，名香憧光明庄严，持此莲华藏庄严世界海”。也缘于此说，所以藏海寺大殿称“普光明殿”，而不称“大雄宝殿”。佛学深奥，未有潜心修行，深入经藏，方能智慧如海，了悟世界人生。
+      始建于宋代的藏海寺，初名觉海庵。明代则因庵处拂水岩之东，称拂水东庵。在以后漫长而多变的历史岁月中，庵舍屡经兴废。它的名闻江南，并成为至今仍长盛不衰的朝山进香“报娘恩”民间宗教活动的开始，则起源于清代一位高僧葬母于庵内的一片孝心。清初，被信奉佛教并一度出家为僧的顺治皇帝尊为“大觉普济能仁国师”的高僧通琇，由京返乡（江阴）途中来游虞山，深为拂水东庵内外的“人杰地灵”所吸引，遂应请主持庵务。后其母大慈老人亡故，通琇和尚经皇帝恩准并施金，将母葬于庵内大悲殿之后，建报恩草堂大慈大人墓塔，又由吏部尚书金之俊为题谒勒石。通琇和尚善待老母始终的事迹，为时人敬仰，树为楷模。清末，两朝帝师翁同龢拜谒墓塔后，写下了“野鹤孤云大慈塔，幽篁乔木古东庵”的题联。通琇和尚主持后，改“拂水东庵”为“藏海禅院“。后经数载呕心沥血的整修拓建，昔日破败寺宇，焕然一新。而时人更深被通琇和尚还山葬母的孝心和维护佛殿的诚心所感动，自发在民间相传为真武（供奉在毗邻报国院内）神诞的上巳之日（三月初三），相约结伴成群结队朝山进香报娘恩。进香者少则七八人、多则数十人组成队形，在旗伞幡带前导下，敲击乐器，手持经卷唱诵偈语，时而缓步行进，时而匍匐叩首，从虞山西麓羊肠小道“霸王鞭”。直抵拂水岩上，然后入寺设坛斋戒，诵经礼佛，场面蔚为壮观。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报国院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 虞山五大寺院中的报国院，是唯一的道教场所。它与藏海寺仅一墙之隔，自清代乾隆年间，即已寺院合并，统一管理。这种来自西域之佛和出自本土之神的和谐相处、佛道合一的局面，为我国众多寺院所少见。
+      报国院始建于明代正德年间，原称真武庙。庙内供奉的真武帝君，又称玄武，是我国古代神话中的北方大神，与主东的青龙、主南的白虎、主西的朱雀，同为道教中的四方之神。真武帝君，民间亦称真武祖师。爱神及山，真武庙所在的山头，也被民间称为“祖师山”，一直流传至今。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶隐园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿过观光车道便是瓶隐园的入口，这里是一片原始的枫香林，下车步行在林间木栈道上，就可尽情享受大自然的恬静之美，体会“停车坐爱枫林晚，霜叶红于二月花”的意境。为了纪念清末两代帝师翁同龢先生，把枫香林命名为瓶隐园。同时用艺术雕塑、碑刻的形式向人们展示了翁同龢传奇的一生及其恢宏的书法艺术。东侧林中的便是翁氏家族墓地——翁氏新阡，为江苏省文物保护单位，占地约700平方米，翁同龢墓为翁氏家族墓地中最西侧一冢。远处遥遥相对的粉墙黛瓦的建筑便是翁同龢晚年隐居的瓶隐庐。翁同龢为常熟人，做过清朝同治和光绪两代皇帝的老师，官至尚书。他支持维新变法运动，康有为就是经他引见给光绪皇帝的。后来维新变法失败后，被慈禧太后一道懿旨革职还乡，就住在我们虞山宝岩湾西麓。后来在他的学生——南通近代实业家张骞等人的帮助下修建了这所宅子，晚年隐居于此。翁先生将这所宅子取名为“瓶隐庐”，意思是从此守口如瓶，不谈朝政。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翁同龢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翁同龢（1830-1904)字声甫，号叔平、瓶庐、松禅。常熟人。清咸丰六年时状元。为同治、光绪两朝帝师三十年。历任内阁学士，刑部、户部右侍郎，左都御史，刑部、工部、户部尚书，协办大学士，两入军机，兼总理各国事务大臣，为官廉正。他请罢修圆明园、平反杨乃武与小白菜冤案、究心经史、延揽人才、中法战争主战、中日甲午战争反对求和、支持并推动戊戌变法。因支持变法被开缺回籍，后又被革职。在虞山瓶隐庐隐居，表面上寄情于山水之间，但心底里仍关注时局，心系国事民生，牵挂思念幽禁在瀛台的光绪帝，困顿七年后病故，宣统元年诏追谥“文恭”。他学问雅博，诗、文、词兼擅，长于读史作诗，精研书画，收藏亦富，其书法自成一家，尤为世所宗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状元及第</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翁同龢中状元后准备进京，乡邻们争相送别。翁同龢自小聪明好学，刻苦勤奋，6岁入私塾时“四书”、“五经”朗朗成诵。15岁考中秀才，19岁参加礼部举行的贡试，朝考“列一等第五名”，“复试擢第一”，一时“誉满京华”。22岁参加由顺天府组织的乡试，考中举人，主考官称他为“当今不可多得之士”。26岁参加清政府规定的会试，通过了中试、复试、殿试，最后以一甲第一名状元及第，官授翰林院修撰。从此，步入政坛并一步步被擢为要员。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两朝帝师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翁同龢教授小皇帝光绪。同治四年（1865年），翁同龢接替父业，入值弘德殿，为同治师傅，前后教读九年。同治病逝后，光绪继位，慈禧又命翁同龢入值毓庆宫，为光绪师傅。从光绪启蒙识字到翁同龢因支持维新变法削籍归里，师生相处达24年。在学习上，翁同龢是光绪的师傅；在生活上，是光绪的监护人；在政治上，他又是光绪最宠信的大臣。因此，翁同龢对光绪帝的思想影响最大，彼此之间的私人感情也最深。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨白冤案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨白冤案平反后，杨乃武跪谢翁同龢。同治十二年（1873年），浙江余杭县杨乃武案发生，县令刘锡彤严刑逼供，捏供杨乃武与小白菜通奸谋杀葛品连。此案经杭州知府、浙江巡抚、刑部侍郎三审具结，草率奏报。恰值翁同龢擢升刑部右侍郎，他细阅案卷，发现供词与诉状的疑点和漏洞甚多，又询阅了杨乃武姊姊的京控呈词和浙江绅士的联名呈词，走访了浙江籍的京官，听取了刑部经办人员的各种意见。于是翁同龢对此案提出了驳议，并决定对案件复查，最后全案得到平反。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戊戌变法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在翁同龢的辅佐下，光绪草拟《定国是诏》。为救国强国，1898年（戊戌年）翁同龢支持并推动维新变法运动。他向光绪密荐康有为，援引维新派，支持成立强学会。6月11日，他辅佐草拟变法谕旨，颁布《明定国是》的诏书，正式宣布变法。6月15日，以慈禧太后为代表的顽固守旧官僚为阻止变法，强令光绪帝将翁同龢开缺回籍。9月23日，慈禧太后发动政变，幽禁光绪帝于瀛台，翁同龢被革职，永不叙用，并交地方官严加管束。至此，戊戌变法宣告失败。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写春联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过年时翁同龢挥笔书写春联。翁同龢在从政的数十年中，每当政余之暇，大多寄情书画，研究诗文碑帖，他的颜体书法浑厚沉毅；所作文人画，清卓典雅，为时所重。开缺回籍后，时间充裕，习书不辍。山居期间，他自署松禅老人，又号瓶庐居士。每日习书研画、作诗，“日临汉碑帖数十字”，寒暑无间，书法进步很快，到了出神入化的地步。每当逢年过节，凡有邻里乡亲前来求题、求书春联的，他一概有求必应，欣然题送。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悠然自得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翁同龢与邻里乡亲对弈。翁同龢被开缺回籍山居期间，他经常以虞山为中心，有时漫步田埂，远眺平芜秋色，观朝阳、落日或满山秋林红叶；或扶笻山中，访问僧农与摩挲无字断碣；有时扁舟湖上，遥看星斗，测闻渔歌；有时驾舟到福山观潮，看点点风帆和浪击轮舟；有时与邻里乡亲对弈于山间，老者有之，弱冠者有之，引得观棋者众，惊叹者有之，谋划者有之，微笑不语者有之，其乐融融，显得十分悠然自得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄公望纪念馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于虞山西麓小石洞景区。黄公望，字子久，号一峰，又号大痴道人，本名陆坚。常熟人，元代画家、书法家。画法继承董源、巨然，晚年自成一家。其水墨画苍茫简远，气势雄秀，有“峰峦浑厚，草木华滋”之评，并独创“浅绛山水”一派。黄公望的绘画在元末明清及近代影响极大，画史将他与吴镇、倪瓒、王蒙合称元四家，而以黄居首。存世画作有《富春山居图》、《天池石壁图》、《九峰雪霁图》等，尤以《富春山居图》名闻中外。著有《写山水诀》画论。黄公望晚年活动于江浙一带，死后归葬于虞山小石洞西南侧。
+    黄公望墓为省级文物保护单位，墓庐旁建有黄公望祠。建筑面积约500平方米，分为前厅和后厅两部分，中间有一庭院，两侧由长廊相连。馆内展览内容经常熟文史、美术专家反复探讨确定，并邀请南京师范大学艺术学院教授设计布置。前厅进门处正中树立一屏风，上面介绍纪念馆的概况：两侧墙壁设立斜向展板，介绍黄公望生平和历代对他的评价；后厅正壁摆放黄公望塑像，两侧墙壁展出其经典作品的复制品。通过这样的布展，可以让参观者在详细了解其艺术成就的同时，瞻仰、怀念先贤。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝师园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿过观光车道便是帝师园的入口，这里是一片原始的枫香林，下车步行在林间木栈道上，就可尽情享受大自然的恬静之美，体会“停车坐爱枫林晚，霜叶红于二月花”的意境。为了纪念清末两代帝师翁同龢先生，把枫香林命名为帝师园。同时用艺术雕塑、碑刻的形式向人们展示了翁同龢传奇的一生及其恢宏的书法艺术。东侧林中的便是翁氏家族墓地——翁氏新阡，为江苏省文物保护单位，占地约700平方米，翁同龢墓为翁氏家族墓地中最西侧一冢。
+      远处遥遥相对的粉墙黛瓦的建筑便是翁同龢晚年隐居的瓶隐庐。翁同龢为常熟人，做过清朝同治和光绪两代皇帝的老师，官至尚书。他支持维新变法运动，康有为就是经他引见给光绪皇帝的。后来维新变法失败后，被慈禧太后一道懿旨革职还乡，就住在我们虞山宝岩湾西麓。后来在他的学生——南通近代实业家张骞等人的帮助下修建了这所宅子，晚年隐居于此。翁先生将这所宅子取名为“瓶隐庐”，意思是从此守口如瓶，不谈朝政。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚湖风景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚湖因商末姜尚（姜子牙）在此隐居垂钓而得名，是国家AAAAA级旅游景区、国家首批城市湿地公园、中国十大魅力之最佳生态休闲湖泊。主体水面800公顷，烟波浩渺，水质清澈，与十里虞山交相辉映，形成一幅自然山水画。湖内湿地遍布，荷香洲、钓鱼渚、鸣禽洲、桃花岛等七个洲岛镶嵌其中，呈岛中有湖、湖中有岛的独特景观。岛上树木苍翠，鸥鹭翔飞，风景怡人，设有太公岛、拂水山庄、船模馆、江南牡丹馆等一批人文景观和欢乐岛、水上游船等游乐项目。景区四季活动丰富，其中春季的牡丹花会已成为江南地区最有品牌影响力的旅游节庆活动之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太公岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拂水山庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拂水山庄是明末清初东南文宗钱谦益的私家别业，见证钱谦益和一代才女柳如是白发红颜传奇的爱情之园。耦耕堂、花信楼、燕楼、秋水阁等拂水八景，错落有致、古朴典雅、意趣盎然，堪称明清私家园林建筑中的精品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷香洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷香洲因洲内诸池遍植荷花、夏季荷香四溢而得名，是观山湖胜景之绝佳处。洲内绿树成荫，胜景处处：有相传黄公望在此饮酒作画的湖桥串月，有品茶赏荷的流香馆、四景园，百鸟云集的水上森林，更有精品荟萃、名闻江南的中华牡丹园。徜徉其间，自然之美尽在眼底。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚湖牡丹园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 如今的尚湖拥有中华牡丹园、国际牡丹园、百年牡丹园等牡丹文化精品展示区，拥有9大色系300多个品种50000多株的牡丹，规模品种均为江南之最。“江南看牡丹，相约常熟来”，每年春季举办的牡丹花会盛况空前，远近闻名。近年来，景区与中国牡丹传统产地洛阳、菏泽、彭州联手成功打造了“中国牡丹行”这一国字号旅游品牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山水文化园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚湖水街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚湖水街集餐饮娱乐与一体，位于尚湖景区出口。水街建筑风格充分体现江南水乡的文化元素和历史积淀，形成一个具有传统风貌和现代感生活文化的都市旅游景点，将古老虞山尚湖的神韵与粉墙黛瓦融为一体。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">景区入口的太公岛以彰显姜尚文化为主题，通过“太公文化馆”、祈福台、子牙亭、太公钓台等景观，让游客了解姜尚与尚湖的历史渊源，感受姜尚文化的独特魅力。太公岛是虞山尚湖旅游度假区2010年向游客奉上的一道文化大餐。太公岛集中展示姜尚文化的景观区，分四个区域：一区设“太公阁”，用以展示姜尚与常熟尚湖相关的典籍史料；二区选取“太公家训”中的相关格言，镌刻成碑，以示游人；三区将建设“钓鱼台”、“子牙亭”和“八卦戏水池”，全面展现太公当年的生活场景；四区为观景游览活动和休憩区。通过这种人文与生态交融、历史与时代荟萃、视听与参与性结合的多种艺术表现形式，充分展示姜尚文化的丰富内涵。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钓鱼诸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常熟宝钢度假村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常熟宝钢度假村，与虞山隔湖相望，雄卧348亩地，其中水面积70亩，揽尚湖于怀中。
+    度假村恬然优美的环境，四周水杉环绕，草丛中不时闪现梅花鹿机敏的身影。河水中跳跃的鱼儿在召唤你，展开双屏的孔雀在欢迎你。放养的家禽草鸡闲步其间，仿佛置身于现代田园画卷之中。
+    常熟古城风景秀丽，物产丰富。素以“鱼米之乡”闻名于世。尚湖水质清洌，水产品品种繁多，但限量捕捞。尚湖野生水产系自然繁殖生长，富含天然养分，无污染，使用尚湖野生水产可以补充人体所需的微量元素。加上其鲜美可口的质感，更是现代都市人所追求向往的佳肴美食。
+    为此度假村引进了数十种野生水产品。如：野生甲鱼、野生黄鳝、野生桂鱼、野生芝麻浪鲫、野生小龙鱼、野生黑鱼、野生鳊鱼、巴肺鱼、野生鲫鱼、鲈鱼、野生昂子鱼、野生塘里鱼、野生河虾、白米虾、尚湖青壳螺丝等，加上精英秘制汁水，更加突出湖鲜的鲜香滑嫩的口感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟语林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 数千株池杉，吸引了白鹭、夜鹭等鸟类来此成群栖息。其间游人至此或可聆听天籁之声，或可与鸟类近距离接触，鸟语林由此得名。而路畔水中菱塘遍布，城市湿地景观悦然眼前。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高尔夫会所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 高尔夫运动是一项高尚的体育休闲运动。经过500多年的历史发展，现代高尔夫已经成为了一项全球性的体育产业。尚湖高尔夫以水上高尔夫为独特主题，整个球场占地25万平米，具有18洞迷你球场，标准球道5洞及高尔夫会所配套设施等等。会所面山临湖，能让人感受到高雅运动的魔力所在！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德和楼茶艺馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德和楼，位于尚湖水街,内置茶桌茶座,提供各类茶水饮料等，环境幽静清雅。与三两好友一起来到水街，品茶聊天，打牌下棋的同时，还能欣赏水街和尚湖的秀丽风光，别有一番滋味。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水街咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水街咖啡，位于常熟尚湖风景区，有咖啡西餐厅、铁板烧、木の兰日本料理等多个餐饮品牌，为白领消费者提供极其便利的全国连琐商务休闲沟通网络平台。咖啡厅以全新的咖啡概念和设计模式，将现代休闲与异域文化理念融入咖啡之中，配合各大节庆活动，及时推出店内活动，给恬静的尚湖水街注入现代气息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀水坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀水坊，以江南水乡特有的清新、简洁的装饰风格吸引了四面八方的宾客。饭店主要经营尚湖湖鲜系列、常熟本帮菜系列、乡村农家菜系列，是商务用餐、家庭聚会、旅游聚餐及各类喜庆活动的理想场所。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫藤长廊、唐寅系舟处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 紫藤长廊实木搭建而成，春夏绿荫遮日，清新凉爽，微风阵阵，鸟语花香，远眺青山近观荷，顿感远离尘世，人与自然融会，身心得以净化，秋冬残阳稀照，湖面波光粼粼，长廊变成了社区，谈天说地，自然祥和。
+      唐寅见虞山尚湖山水秀丽，顿时画兴大发，特地乘一小船边欣赏边泼墨，唐寅每画毕一幅，总觉似象又不象，于是再画一幅；再对虞山，仍觉得不够象，一共画了几十幅，统统被其团成纸团弃在舱内，傍晚小船绕虞山一周回城，唐寅付钱后弃舟欲离，船主问“舱内之画可要？”唐寅说：“此乃灶内引火之物，可付之一炬”。船主待唐寅离舟后，忙从舱内取出几个纸团，摊开抹平观之，件件是精品，一清点，共有七十一幅，次日，船主拿到市场出售，很快被人抢购一空，发了一笔大财。后人为纪念这一典故，故在此处设“唐寅系舟”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水上森林（湿地迷宫）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚湖有近千亩湿地，水上森林遍布池杉，芦苇、莆草、荷花给景区的生态提供了无限生机，岸边水杉、柳树、玉兰香樟、枫树组成人工林。  
+    良好的生态环境使绝迹多年的鸟禽纷纷回归，据专家测定，目前湖中鸟禽已达63种，其中国家一级保护的珍禽，有中华秋沙鸭、白鹳、黑鹳，有二类保护的天鹅、鸳鸯等，更有成千上万的红嘴鸥，白鹭盘旋于湖洲上空，所有泛舟湖上，往往能见到“鹰击长空、鸟翔浅底”，“落霞与孤骛齐飞，秋水与长天一色”的美景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虞山尚湖青山绿水的自然背景，是天然的露天烧烤区。虞山尚湖物产丰富、湖鲜众多，约三五好友，垂钓、品茗、烧烤，不失为惬意的选择，吸引着成千上万的游客前来踏青游玩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 岛内有“水上步行球”、“海上冲浪”、“丛林飞鼠”等游乐项目，在山水间，尽情娱乐，是放松心情的好去处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱谦益墓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于尚湖北岸中山路南侧刘神浜。钱谦益（1582-1664），字受之，号牧斋，晚年又号东涧遗老等。常熟人，明万历三十八年进士，授翰林院编修。官至崇祯朝礼部侍郎和南明弘光朝礼部尚书，为著名藏书家、文学家，被推为东南文坛祭酒。著有《初学集》、《有学集》、《开国群雄事略》、《列朝诗集小传》等。卒后葬于所建拂水山庄东侧，其父钱世扬墓昭穴。墓地原范围较广，有墓道、拜台、石坊等，后毁，建国后多次修缮。今存墓坐北朝南，背山面湖，占地743平方米，封土高1.3米，围以罗城，冢后竖清代嘉庆间书法家钱泳书“东涧老人之墓”和民国间立“钱牧斋先生墓”碑二通，墓前有新建石亭一座，亭柱上镌钱谦益书“遗民老似孤花在，陈迹闲随旧燕寻”楹联一副，现为省级文物保护单位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳如是墓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于尚湖北岸中山路南侧花园浜，西距钱牧斋墓约50米。柳如是（1618—1664），本姓杨，名爱，后改姓柳，名隐，又名如是，号河东君等，为江淮名妓。她博览群书，善诗文书画，关心国家兴亡，有“巾帼女杰”之称。后嫁钱谦益为妾。明亡后，曾秘密支持反清复明活动，表现出崇高的民族气节。清康熙三年（1664）钱谦益殁后发生家变，柳如是自缢而死，由钱谦益门生安葬于原拂水山庄西侧秋水阁庭园中。著有《戊寅曹》、《湖上草》、《柳如是尺牍》等。今墓坐北朝南，背山面湖，占地500余平方米。封土高1.1米，围以罗城，前竖“河东君之墓”碑一通。并有石亭一座，亭柱上镌柳如是书“浅深绿水琴中听，远近青山画里看”楹联一副，现为省级文物保护单位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四景园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 四景园，顾名思义，以四面皆有景而得名。北有山色涛声，南有映日风荷，西有夕阳晚照，东有塔亭双影。此处为观赏虞山尚湖云蒸霞蔚的最佳点。山色清而风浪不绝，可谓气势磅礴的山色涛声之景；东面的方塔古迹与虞山上的辛峰亭，各居一点，独领风骚，可谓双影美景；而每当秋日，夕阳晚照之时，枫林尽染，艳如灿霞，四景园的临水平台给人天人合一的美妙意境。而南面的满池荷花在夏日的映衬下给人丝丝凉意，游人避暑纳凉的好地方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖桥串月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖桥串月虞山十八景之一，尚湖西北有一座石桥，名湖桥，桥有三拱门。此桥构造特殊，系由两桥合成，湖底亦同样倒建一桥。桥洞适成正园形，月圆时候，桥身方向和月亮运行轨道相垂直，当月亮升至一定的高度，拱桥和月影相套合，投影湖中别有奇观。相传在中国画坛上的地位有如书法史上王羲之地位的元大画家黄公望远离仕途，隐居虞山脚下，湖桥之畔。他常孤舟行至湖桥孔下，吟诗独酌，饮罢将酒瓶投掷水中，日积月累湖桥洞孔下堆满了酒瓶。他晚年力作《富春山居图》在我国画坛的地位可与书法史上《兰亭序》相媲美。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拂水堤 串月桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拂水堤 长1.4公里，南连荷香洲，北达虞山脚下，与山上虞山十八景之一的“拂水晴岩”正好对应，长堤上姹紫嫣红，杨柳婆娑，宛如一条绿色的彩带正在柔动嬉水，故名“拂水堤”。 堤上建十七孔桥，筑亲水式坡岸和平台，挹水问鱼，近香亭等景观。 串月桥  串月桥是在穿湖堤上一座观光式桥梁，桥长208米，宽13米，形为古典式拱桥，姿态轻巧飘逸，皓月当空，十七桥空景倒映湖中，与月影串连叠套，相映成趣。
+    望虞台 地处拂水堤中段，是拂水堤核心景观。建筑面积741平方米，其方形井筒式造型别致，大尺度梁架外饰，极富力度感，好似渔船和风帆，大有乘风破浪之势。与“挹水问鱼”一景形成鲜明呼应，刚柔相济，自然和谐。为游人品茗聊天休闲的绝好场所。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博雅堂、流香馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博雅堂 地处荷香洲公园西侧，原是常熟城区县后街场的一座清代建筑，解放前曾是常熟药业工会，解放后改为卫生院。1988年移建于此，仍保持原貌，建筑风格典雅端秀，粉墙黛瓦，红柱花窗，四周绿水环绕，三面廊栏相拥。可依栏观莲，抱竹而歇。博雅堂取自明代常熟藏书家孙楼的藏书楼名。
+    流香馆 座落在荷香洲公园的内湖岛上，原系张桥乡卫浜卫氏家祠，距今已有四百余年历史，1987年按原貌移建于此。流香馆四面环湖，曲桥流水。馆前是水上平台，对面是湖桥串月，馆后是丛丛竹篁，雀鸟栖息，莺歌燕舞，与远处大湖面上的交飞鸥鹭遥相呼应。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良渚遗踪 、七桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良渚遗踪建有全木结构的亭子，形状如远古时期木柱草屋，古朴自然。亭子下面嵌入式摆放着六十年代在尚湖东北岸围湖造田时，挖掘出土的历史文物器件，经考证，属良渚文化晚期遗址，距今已有4500余年历史，有玉器、石制器皿，石铲、石刀等，这说明当时这里的人类已经能大规模种植谷类，有较高的生产力。山水文化园中有七座桥，七桥有七巧之寓。七桥分别称为浮碧、来青、饶景、拾诗、观荷、渡芳和曲桥，七座桥呈现不同的风格，浮碧为木拱桥；来青的木花架桥；两桥取意明代诗人孙楼的诗句“浮碧三千倾，来青十二峰”。饶景为单孔石拱桥，拾诗桥为竹廊桥，两桥取意清代著名女诗人席佩兰的诗句“篷窗饶暮景，收拾到诗情”。拾诗桥两端有两首名诗句，分别是明代沈周的“鸬鹚群栖竹叶暗，蜻蜓特立荷花秋”。明代杨仪的“箬笠多情能恋我，钓丝遗兴不须归”。
+    观荷桥为三孔石拱桥。桥上观小荷尖尖，荷叶田田，荷花映日，位置颇佳，故名观荷桥，渡芳桥把荷香洲的牡丹园与文化园连在一起，花香随桥飘来，故名渡芳桥。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照壁、诗柱、弦歌台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化园入口内广场3500平方米区域，浓缩了尚湖文化内涵。照壁由底座、壁身、台帽构成长24米高2.5米，呈圆弧形，是华东各大景点中最大的照壁。正面贴白色花岗岩大理石，刻《尚湖赋》全文，背面贴雨点青石。《尚湖赋》全文共890余字，由明代进士丁奉所作，文中介绍了尚湖的历史由来，描写了尚湖不同季节、不同自然条件下的景色。其所谓“阐胜弥繁，描幽罔鞠”。详细介绍了尚湖鱼类、鸟类、多种植物，还说明了尚湖交通、地理等。作者描写景观或比喻或夸张带有浓厚的感情色彩，字里行间透露出作者对尚湖的炽爱，抒情是本文的画龙点睛之笔，“则知滹沱之所以克济乎王霸，而江湖之所以见忧于范公”，说尚湖“盖不特供骚人之啸弄，而实以济百千万之苍生”。作者虽然被贬，仍心系苍生，不忘黎民。
+    诗柱呈圆柱形，用大理石加工打磨而成，十二只石柱，刻有于右任、翁同和、康有为、黄公望等人游尚湖的诗句。（诗词另附）
+    弦歌台面积450平方米，圆形亲水平台，可为文艺表演的舞台，南面设看台。湖山堂亲水平台，卵石滩、双亭也可观赏。与演员步道构成酷似乐器阮的形状，本已是凝固的音乐。平时游客至此远可观山，近可嬉水，左有古朴的湖上堂，右有植物造景彩虹坡，与太公石、卵石滩隔水相望，云崖飞瀑、跌水、小桥、双亭、渔家橹船尽收眼底。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天岩飞瀑、卵石滩、石刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天岩是一座粗犷的黄石假山，用一万二千多吨黄石垒积而成，是江南第一大黄石假山，被誉为“江南第一山”。整个假山构思匠新、手法独特，在远处观赏山体走势自然流畅，纹理清晰，层次分明，高低错落有致。主峰、侧峰、拖脚、余脉气势雄伟、有力。近视迂回曲折，山路上下一贯通，真可谓移步换景、动感丰富，山脚下是瀑布深潭、与自然水系相连，山体掩映于绿树花草之间，倒映在湖水之中，是一幅唯美的自然山水画卷。
+    正面瀑布自上一泻而下，水落深潭、与矶石相碰，发出轰鸣声与飞雾。声色俱美、撼人心魄，令人叹为观止。同时在假山飞瀑之间开合石洞，使洞中之人亦可观瀑、嬉瀑，别有情趣。山上、山下、洞中皆有路，置与山中又是别有一番意味。如果外观写成意，那么内外就是写真了。山沟、山谷、山涧、水矶、水岫、涉水汀步，跌水、树池，水平台、水滩石、石桥、石凳、石桌、石柱、石钟应有尽有。所有元素以石洞串连，不臃肿、不做作，山洞中左登右攀，境界各殊，有平面的迂回，有立体的盘曲，其堆叠之精，构筑之妙，达到炉火纯青的地步。而垒石不用一根钢筋，匠人采用“无法皆为法”的手法，被誉为第三代黄石假山的代表作。观山仁者见仁，智者见智，各得其然，可谓“心中山水篇，只在百步间”。
+    天岩飞瀑下游是将近1600平方米的卵石滩，浅滩卵石星罗棋布，滩涂池杉相间、水草相连，银鱼穿梭，卵石一直延伸至岸边翁翁郁郁的树林，灌木之中，晨雾袭来，若隐若现，尚父巨石巍然中立，欲演一场坐坛封神的好戏。
+    坐在卵石上细细品位，石上刻有当代政要、名人游尚湖的书法，墨迹（内容另附），有李强的“风光这边好、尚湖赛西湖”，周太炎的“山青水秀荷香”，言恭边的“琴韵”，周文在的“梅雨初晴、山色翠柳、波微漾鸟衔红”等。
+　　虞山印派代表做也篆刻卵石上，有较高的艺术欣赏价值。虞山印派主要师承吴门派，吸取微派之长，形成了苍老古朴而又不失清新秀丽，稳沉凝重而又不失气象万千的艺术风格。从而堪与海内外渚派争雄，到了晚清，虞山派传人中最有成就的数赵古泥，他师从印坛北斗吴昌硕，他的作品古朴茁茂，恢宏宕落，寓奇于正，能自出心意，表现出浑穆从容，博大奇情，神采飞动的面貌。卵石滩刻赵古泥的“烟村”，林皋的“杏花春雨江南”，吴伟的“近市澄湖似掌平”。
+　　当年于右任听说赵古泥书法神似翁同和，篆刻颉颉吴昌硕，长与已酷似，爱才曲驾，两人握手相对大笑，同游尚湖留下首屈一指的诗篇，“尚父湖波荡夕阳，征诛渔钓两难忘”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝调江南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝调江南地处尚湖穿湖大堤南侧，建筑原名为拂水小筑，是一所具有江南文化特色的观景式建筑。雨露、清风、鸟鸣、夕阳，在实景的演绎下无需多余的言语，就是发呆也是一段故事。这里主要给客人提供正宗的虞山剑门绿茶及意式咖啡系列，再加上精致的点心及果汁系列，如同虞山尚湖一样把古典与现代进行到底。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖山堂、双亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖山堂一座仿日式砖木结构楼阁，临水而起，平脊低檐，四廊环护，主屋临水的一面都开有低矮轩窗，古朴自然，屋外是临水的平台，直扑湖面，水平相亲，浑然一体，屋内宽敞明亮，精巧雅致，窗里幽兰，窗外修竹，倚窗而座揽隐隐青山，悠悠碧水。舞榭亭台，草木交辉。
+    双亭是东南文宗钱谦益和一代佳人柳如是爱情见证。钱谦益号牧斋，官至吏部侍郎。但他早年即以文学冠东南，作为诗人，他与吴伟业，龚鼎孽同列为江左三大家，而实际上以其为首。作为史学家，他早年撰《太祖实录辨证》五卷，人赞“虞山（钱谦益）尚在，国史犹未死也。”作为文章家，他名扬四海，号称当代文章泰斗，被誉为王世贞后文坛最负盛名之人。柳如是才貌出众，为秦淮八艳之一，她才艺出众，琴棋歌舞，诗词书画，样样精通。所作诗词赋，造诣极高，特别是词，连钱谦益也自叹弗如，她支持反清复明，表现出坚贞的民族气节，有“巾帼女杰”之美誉。
+    柳如是闻虞山有钱学士谦益者，是当今李杜，欲瞻其风采，“驾扁舟来虞”两人冲破世俗，结为良缘，当时柳如是24岁，而钱已是年近花甲，钱柳结合居拂水山庄，日夕相对，读书讨论，考异订讹，老夫少妻，感情弥笃。
+    清军至南京，钱不听柳“取义全大节，以副盛名”的劝告，削发降清，柳欲投秦淮水殉国，被钱死死拉住。一次，钱柳同游拂水山庄，钱见石涧流泉，澄清可爱，想脱鞋洗脚，柳一旁冷笑道“此沟渠水，岂秦淮河耶？”钱悔恨道“非汝我已殉节也！”两人相视苦笑。
+    钱谦益死后，一场家变顿时爆发，柳如是被族人夺田、霸宅，索财。柳不堪凌辱，遗书女儿，“我之冤仇，汝当同哥哥出头露面，拜求汝父相。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙家浜风景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙家浜旅游度假区位于秀丽明媚的阳澄湖畔，交通便捷，北离常熟市区10余公里，南达沪宁高速苏州、无锡互通40和50公里，东接常昆线至上海85公里，2003年建成的苏嘉杭高速公路在境内互通，205省道复线和锡太路与之相接，成为长江三角洲高速公路网中的一个重要节点。全区以“芦花放，稻谷香，岸柳成行”之独特的江南水乡田园风光崛起于旅游市场。
+沙家浜旅游度假区是全国爱国主义教育示范基地、全国百家红色旅游经典景区、国家AAAAA级旅游区、国家湿地公园，国家国防教育示范基地、江苏省生态文明教育基地、江苏省自驾游基地，2009年刷新了自驾游基尼斯纪录。
+景区追求大自然生态和野趣，营造水乡“森林公园”，各个不同的地块，形成了春景、夏景、秋景、冬景以及万竹岛，同时追求“芦花放、稻谷香、岸柳成行”的意境，绿化与芦苇构成一个协调、和谐的大自然生态景观，春是桃红柳绿，夏是荷藕飘香，秋是杏林尽染，冬是雪融芦花，四季如诗如画。碧波之上，橹声咿呀、渔歌阵阵；万绿丛中，鸟儿婉啼、苇香扑鼻，展示了原汁原味的水乡特色。此外，独具特色的端午龙舟赛、民俗风情展、风筝表演、江南吴歌会等活动，也体现了沙家浜深化的文化内涵。
+景区推出的探访《沙家浜》故事，追寻阿庆嫂、郭建光踪迹，接受爱国主义教育之“红色教育游 ”；忘却都市喧嚣，呼吸新鲜绿色空气之“绿色生态游”；品尝阳澄湖大闸蟹，享受“持螯赏菊、对酒当歌”意境之“金色美食游”；漫步沙家浜古镇，品味浪漫与怀旧的“影视文化游”，以独特的魅力享誉旅游市场。
+主要景点有：入口处照壁、东进桥、常熟市法制教育中心暨廉政教育中心暨禁毒教育观、瞻仰广场、沙家浜革命历史教育馆、红石民俗文化村、游船码头、芦苇迷宫、迷宫百菜园、横泾老街影视基地、芦花村、文脉流、国防教育园。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙家浜革命历史纪念馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙家浜革命历史纪念馆占地面积6400平方米，建筑总面积4492平方米，紧扣爱国主义教育和革命传统教育两大主题，主要展示了沙家浜的革命历史、新四军在这里开展抗日游击战的战斗历程、后方医院伤病员养伤的情况、京剧《沙家浜》的诞生历程和沙家浜部队的发展历史等情况.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙家浜芦苇活动区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙家浜芦苇活动区是整个景区的核心，分成水上和陆上芦苇迷宫两大区域，纵横交错的河港和茂密的芦苇，构成辽阔、狭长、幽深、曲折等多种形态的水面或陆上芦苇空间，形成一个个迷宫，为游客提供了一个追寻野趣和体验新四军辗战芦苇荡情景的场所，漫步、泛舟其间，鸟儿婉啼，凉风习习，苇香扑鼻，野趣横生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红石民俗文化村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红石民俗文化村集江南水乡特色建筑之大成，再现抗日战争时期江南水乡小村风貌，建筑依水而建，前是宽阔水面，橹声咿呀，苇叶青青，一派水乡恬静；后是新篁、荷塘、小溪，一片农家景象，展现了沙家浜独特的民俗风情。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春来茶馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春来茶馆再现了当时遍布沙家浜村落的小茶馆原形，“垒起七星灶，铜壶煮三江；摆开八仙桌，招待十六方”。竹林嬉戏、听戏品茗，尽享农家生活乐趣，与芦苇迷宫相得益彰。良好的大自然生态，是追求回归自然“绿色旅游”的极佳选择。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横泾老街影视基地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横泾老街影视基地保存了农村建筑旧貌，吸纳江南小镇精华，重现了上世纪三、四年代的江南乡间风貌和文化特征。三十集电视连续剧《沙家浜》就是在这里完成的，此外还有《三言二语》、《金色年华》、《中国酒王》、《茉莉花》等电视剧到此取景拍摄。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙家浜国防教育园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙家浜国防教育园位于沙家浜革命历史纪念馆北侧，占地130亩，由拓展训练区、彩弹射击区、军事武器展示区、抢滩登陆射击场、户外野营帐篷区等部分组成，是沙家浜风景区为增强公民国防观念，普及国防知识，增强旅游可参与性，全面提高青少年素质而建设的又一新的亮点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦荡湿地公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦荡湿地公园是华东地区最大的生态湿地之一，占地1000亩，其中湿地面积超过75%，已成为华东地区综合性的旅游度假胜地。总投资共一亿元，在建设过程中遵循“保护优先、科学修复、适度开发、合理利用”的基本原则，将芦荡湿地的三分之二作为湿地保育区，用以维护生态环境，保持生态平衡。对另外三分之一则进行有效开发，规划建设湿地精品园、湿地示范园和芦荡人家三大功能区域，重点突出芦苇湿地景观，最大限度地维持原始自然风貌。湿地精品园内主要种植各类湿地典型植物，全面展示湿地植被形态景象，园内的植物种类多达百种，组成复杂的湿地植物生态系统。湿地示范园主要由浅根植物区、观鸟区、浅水栈道等组成，强调科普性与游客互动性的融合，园内鸟类资源十分丰富。芦荡人家主体建筑由6所农舍及相关配套设施组成，大多为恬淡朴素的江南水乡民居，接待中心、水吧、住宿标房等各项设施一应俱全，带给游客“小桥、流水、人家”的田园意境。
+     据初步调查统计，沙家浜湿地公园有植物种类约300种，其中水生植物、沼生植物约37科59属93种。有湿地鸟类68种，其中国家级、省级保护种类9种，水禽资源较丰富，种群密度大，冬季水禽数量达三万只。景区东扩工程占地1200亩，以追求大自然生态，打开水域，视觉上营造浩浩荡荡感觉为设计理念，巧妙地利用原有水域，打开水面，形成烟波浩淼一泓清水，所有陆地，依据当时江南水乡自然地形复原，缓坡接水，移步土动。沿着生动的岸线和水中浅滩，芦苇丛生，从各个不同视角都有浩浩荡荡的感觉冲击力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞻仰广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞻仰广场占地1.33万平方米，以“郭建光”、“阿庆嫂”等形象为主创作的大型主雕屹立于广场中央，生动地揭示了军民鱼水情深的主题。象征新四军伤病员的18根柱雕以形态各异的块面造型和强烈的肌理效果对比，淋漓尽致地表现出新四军伤病员泰山压顶不弯腰的革命精神。两组锻铜浮雕以细腻、生动的构图和丰满的人物形象，演绎深化鱼水情深主题。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5525,12 +6450,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I692"/>
+  <dimension ref="A1:I797"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A791" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E691" sqref="E691"/>
+      <selection pane="bottomLeft" activeCell="F797" sqref="F797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21042,6 +21967,2919 @@
         <v>1403</v>
       </c>
     </row>
+    <row r="693" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A693" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D693" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E693" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I693" s="2" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A694" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C694" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D694" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E694" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F694" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I694" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A695" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D695" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E695" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F695" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G695" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I695" s="2" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A696" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C696" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D696" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E696" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F696" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G696" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H696" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="I696" s="2" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A697" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D697" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E697" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F697" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G697" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H697" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I697" s="2" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A698" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D698" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E698" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F698" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G698" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H698" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I698" s="2" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="699" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A699" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C699" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D699" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E699" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F699" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G699" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H699" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I699" s="2" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="700" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A700" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C700" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D700" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E700" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F700" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G700" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H700" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="I700" s="2" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="701" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A701" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D701" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E701" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F701" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G701" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H701" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I701" s="2" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="702" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A702" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C702" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D702" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E702" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F702" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G702" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H702" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I702" s="2" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="703" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A703" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D703" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E703" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F703" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G703" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H703" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I703" s="2" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="704" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A704" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D704" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E704" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F704" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G704" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H704" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I704" s="2" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A705" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D705" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E705" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F705" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G705" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I705" s="2" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A706" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D706" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E706" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F706" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G706" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H706" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I706" s="2" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A707" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D707" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E707" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F707" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G707" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H707" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I707" s="2" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A708" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D708" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E708" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F708" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G708" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H708" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I708" s="2" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A709" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D709" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E709" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F709" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G709" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H709" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I709" s="2" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A710" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D710" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E710" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F710" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G710" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H710" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I710" s="2" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="711" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A711" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D711" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E711" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F711" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G711" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H711" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I711" s="2" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="712" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A712" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D712" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E712" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F712" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G712" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H712" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I712" s="2" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A713" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C713" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D713" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E713" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F713" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G713" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H713" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="I713" s="2" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A714" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C714" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D714" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E714" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F714" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G714" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H714" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I714" s="2" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="715" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A715" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D715" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E715" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F715" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G715" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H715" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I715" s="2" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A716" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C716" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D716" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E716" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F716" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G716" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H716" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I716" s="2" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="717" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A717" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D717" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E717" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F717" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G717" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I717" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="718" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A718" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D718" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E718" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F718" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G718" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H718" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="I718" s="2" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="719" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A719" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D719" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E719" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F719" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G719" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H719" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I719" s="2" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="720" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A720" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D720" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E720" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F720" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G720" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H720" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I720" s="2" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A721" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D721" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E721" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F721" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G721" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H721" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I721" s="2" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="722" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A722" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D722" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E722" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F722" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G722" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="I722" s="2" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="723" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A723" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D723" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E723" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F723" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G723" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H723" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I723" s="2" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A724" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D724" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E724" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F724" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G724" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H724" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="I724" s="2" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="725" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A725" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D725" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E725" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F725" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G725" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H725" s="2" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A726" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C726" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D726" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E726" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F726" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G726" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H726" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="I726" s="2" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="727" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A727" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D727" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E727" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F727" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G727" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H727" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I727" s="2" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="728" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A728" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D728" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E728" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F728" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G728" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H728" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="I728" s="2" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A729" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D729" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E729" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F729" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G729" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H729" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I729" s="2" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A730" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C730" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D730" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E730" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F730" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G730" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H730" s="2" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="731" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A731" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D731" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E731" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F731" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G731" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H731" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="I731" s="2" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="732" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A732" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D732" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E732" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F732" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G732" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H732" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I732" s="2" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="733" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A733" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D733" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E733" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F733" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G733" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H733" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I733" s="2" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="734" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A734" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D734" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E734" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F734" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G734" s="2" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="735" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A735" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D735" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E735" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F735" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G735" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H735" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I735" s="2" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="736" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A736" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C736" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D736" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E736" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F736" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G736" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H736" s="2" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A737" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D737" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E737" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F737" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G737" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H737" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="I737" s="2" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A738" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D738" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E738" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F738" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G738" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H738" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I738" s="2" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A739" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D739" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E739" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F739" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G739" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H739" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I739" s="2" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="740" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A740" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D740" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E740" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F740" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G740" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H740" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I740" s="2" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A741" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D741" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E741" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F741" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G741" s="2" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A742" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C742" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D742" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E742" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F742" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G742" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H742" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I742" s="2" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A743" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D743" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E743" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F743" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G743" s="2" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A744" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D744" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E744" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F744" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G744" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H744" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I744" s="2" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="745" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A745" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D745" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E745" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F745" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G745" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H745" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I745" s="2" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="746" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A746" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D746" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E746" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F746" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G746" s="2" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="747" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A747" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D747" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E747" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F747" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G747" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H747" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I747" s="2" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="748" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A748" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D748" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E748" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F748" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G748" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I748" s="2" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="749" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A749" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D749" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E749" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F749" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G749" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I749" s="2" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="750" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A750" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D750" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E750" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F750" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G750" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I750" s="2" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="751" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A751" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E751" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F751" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G751" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H751" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I751" s="2" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="752" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A752" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D752" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E752" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F752" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G752" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H752" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I752" s="2" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="753" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A753" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D753" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E753" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F753" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G753" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H753" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I753" s="2" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="754" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A754" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D754" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E754" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F754" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G754" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H754" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I754" s="2" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="755" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A755" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D755" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E755" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F755" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G755" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H755" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="I755" s="2" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="756" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A756" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D756" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E756" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F756" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G756" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H756" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I756" s="2" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="757" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A757" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D757" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E757" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F757" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G757" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H757" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I757" s="2" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="758" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A758" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E758" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F758" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G758" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="I758" s="2" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="759" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A759" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E759" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F759" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G759" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I759" s="2" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="760" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A760" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E760" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F760" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="I760" s="2" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="761" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A761" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D761" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E761" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F761" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G761" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I761" s="2" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="762" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A762" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D762" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E762" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F762" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G762" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I762" s="2" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="763" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A763" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D763" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E763" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F763" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G763" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="I763" s="2" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="764" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A764" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D764" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E764" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F764" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G764" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H764" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I764" s="2" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="765" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A765" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D765" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E765" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F765" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G765" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H765" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I765" s="2" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="766" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A766" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E766" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F766" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G766" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H766" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I766" s="2" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="767" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A767" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E767" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F767" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G767" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H767" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I767" s="2" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="768" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A768" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D768" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E768" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F768" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G768" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H768" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="I768" s="2" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="769" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A769" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E769" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F769" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G769" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H769" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I769" s="2" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="770" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A770" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D770" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E770" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F770" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G770" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H770" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I770" s="2" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="771" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A771" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D771" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E771" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F771" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G771" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H771" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I771" s="2" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="772" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A772" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D772" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E772" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F772" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G772" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H772" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I772" s="2" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="773" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A773" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D773" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E773" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F773" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G773" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H773" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I773" s="2" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="774" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A774" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D774" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E774" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F774" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G774" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="I774" s="2" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="775" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A775" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B775" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D775" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E775" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F775" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G775" s="2" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="776" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A776" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D776" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E776" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F776" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G776" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H776" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I776" s="2" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="777" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A777" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C777" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D777" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E777" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F777" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G777" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H777" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I777" s="2" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="778" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A778" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D778" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E778" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F778" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G778" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H778" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I778" s="2" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="779" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A779" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C779" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D779" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E779" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F779" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G779" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H779" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I779" s="2" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="780" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A780" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D780" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E780" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F780" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G780" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H780" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I780" s="2" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="781" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A781" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C781" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D781" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E781" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F781" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G781" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I781" s="2" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="782" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A782" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D782" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E782" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F782" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G782" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H782" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I782" s="2" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A783" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C783" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D783" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E783" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F783" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G783" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H783" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I783" s="2" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="784" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A784" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D784" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E784" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F784" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G784" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H784" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I784" s="2" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="785" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A785" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D785" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E785" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F785" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G785" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="786" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A786" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D786" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E786" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F786" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G786" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H786" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I786" s="2" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="787" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A787" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C787" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D787" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E787" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F787" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G787" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H787" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I787" s="2" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="788" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A788" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C788" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D788" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E788" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F788" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G788" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H788" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="I788" s="2" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="789" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A789" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C789" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D789" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E789" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F789" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I789" s="2" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="790" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A790" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C790" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D790" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E790" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F790" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G790" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I790" s="2" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="791" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A791" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C791" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D791" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E791" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F791" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G791" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H791" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I791" s="2" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="792" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A792" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C792" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D792" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E792" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F792" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G792" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I792" s="2" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="793" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A793" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C793" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D793" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E793" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F793" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G793" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H793" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I793" s="2" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="794" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A794" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C794" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D794" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E794" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F794" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G794" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I794" s="2" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="795" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A795" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C795" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E795" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F795" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G795" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="I795" s="2" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="796" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A796" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B796" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C796" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D796" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E796" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F796" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G796" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I796" s="2" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="797" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A797" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C797" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D797" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E797" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F797" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G797" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="I797" s="2" t="s">
+        <v>1630</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A563:WVQ609">
     <sortCondition descending="1" ref="F563:F609"/>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5383" uniqueCount="1635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5560" uniqueCount="1689">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6017,6 +6017,250 @@
   </si>
   <si>
     <t>瞻仰广场占地1.33万平方米，以“郭建光”、“阿庆嫂”等形象为主创作的大型主雕屹立于广场中央，生动地揭示了军民鱼水情深的主题。象征新四军伤病员的18根柱雕以形态各异的块面造型和强烈的肌理效果对比，淋漓尽致地表现出新四军伤病员泰山压顶不弯腰的革命精神。两组锻铜浮雕以细腻、生动的构图和丰满的人物形象，演绎深化鱼水情深主题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇江市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句容市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅山风景名胜区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅山风景名胜区位于江苏省西南部镇江句容市境内，古称金陵地肺名山，华阳境天，是中国道教七十二福地中第一福地，十大洞天中第八洞天。茅山形胜独特，风景秀丽，2001 年被列为国家AAAA级旅游区，主峰大茅峰372.5米，与二茅峰、三茅峰依次相连，逶迤起伏。相传距今约5000年前，展上公善养生术，修炼于句曲山伏 龙地（今茅山镇玉晨村），植白李弥满，食之登仙，当地称其地为“白李溪”，在玉晨观的石牌坊上刻“高辛道场”。周时燕国人郭四朝，也曾修炼于玉晨观，成道 后被敕封为“太微葆光真人”。先秦时，李明真人栖息于郁冈山古炼丹院（今乾元观）合神丹而升仙。秦始皇三十七年（公元前210年）十月，秦始皇东巡会稽， 刻石颂德而还，遂登句曲山北陲，埋白璧一双，会飨群臣，感叹地说：“巡狩之乐，莫过山海，自今以往，良为常也。”于是句曲山北陲为良常之山。《洞天福地》 列茅山为第八洞天，第一福地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然风景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机农业示范区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 作为核心区域的自然风景由十数座绵延起伏的大小山峰组成。区内沟壑纵横，林木葱郁，泉涌溪流，李塔、马埂、上杆等水库以及星罗棋布的大小塘坝似明珠撒落在山中。良好的地理和气候条件，孕育了这里丰富的自然资源。有松、柏、杉、樟、栎、榉、檀、枫、楸、银杏、合欢等木本植物；有毛竹、淡竹、刚竹、苦竹；有葛藤、紫藤等藤本植物；有党参、太子参、何首乌、薄荷、桔梗、芍药、白芨、金针、红根、苍术、铁柴胡、金银花、半夏、射干、大蓟、一支黄花、马蹄香、车前草等中药材；有灵芝、竹荪、金蝉花等珍奇菌类；毛栗、锥栗、山枣、山楂、毛桃、棠梨、茶叶、构骨、兰花、杜鹃、迎春等果类和观赏植物随处可见。白鹭、山鸡、斑鸠、野山羊、野兔、獾、狼、蛇等野生动物时有出没，基本保持着原始的自然风貌。
+    大山口林木葱郁，充满原始韵味；乌鱼洼幽深静谧，疑似世外桃源；无底洞深邃莫测，布下重重迷雾；穿洞石鬼斧神工，好似天外飞来；龙台泉终日流淌，水质清洌甘甜；通京桥静卧荒野，人来车往不再；宝藏寺晨钟暮鼓，千年香火重燃……迷人的自然景观被赋予神秘的传奇色彩，孕育出丰富的人文历史文化内涵。相传秦始皇、孟郊、陆子遹（陆游幼子）、汤显祖等历代许多闻人、墨客都曾到此游历。明太祖朱元璋也曾在此屯兵养马，点将征战。抗日战争时期，陈毅、粟裕、谭振林、廖海涛、罗忠毅等老一辈无产阶级革命家率领新四军转战茅山根据地，也在此留下许多传奇故事。祖籍河南、湖北的移民，更以他们勤劳、善良、好客的淳朴的民风为景区凭添了一种和谐和宽松的气氛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围绕九龙山景区绵延数十里的江苏省句容茅山有机农业示范区，展示着新时代的风采。全长22.12公里的高规格有机农业公路纵贯景区南北，沿途有八大有机农业种植、养殖区域，五大项目区。总面积3.5万亩的有机农业生产基地分别以有机粮油、有机林果（茶）、有机蔬菜种植、以牧草种植为前提的草食禽畜养殖四大产业为主，并依托景区优良的旅游资源优势开发出休闲观光农业项目。建东农场、大地农场、行礼果园、华超农庄相继落成，蜜桃、大枣、柿子、板栗、竹笋、茶叶、稻米、禽畜、水产品等系列有机农副产品供不应求，到处洋溢着社会主义新农村的勃勃生机。
+    春来百花飘香，夏日清风送爽，秋季硕果满枝，冬天不显荒凉。周边景区仿佛一座都市后花园，以其幽静、美丽、安详的姿态吸引着四面八方的宾客，是一块值得珍视、珍惜、珍爱的自然瑰宝。二○○五年，经江苏省人民政府批准，周边景区被命名为省级风景名胜区。“九龙山色”、“李塔藏书”被评为句容十佳风景。围绕九龙山景区绵延数十里的江苏省句容茅山有机农业示范区，展示着新时代的风采。全长22.12公里的高规格有机农业公路纵贯景区南北，沿途有八大有机农业种植、养殖区域，五大项目区。总面积3.5万亩的有机农业生产基地分别以有机粮油、有机林果（茶）、有机蔬菜种植、以牧草种植为前提的草食禽畜养殖四大产业为主，并依托景区优良的旅游资源优势开发出休闲观光农业项目。建东农场、大地农场、行礼果园、华超农庄相继落成，蜜桃、大枣、柿子、板栗、竹笋、茶叶、稻米、禽畜、水产品等系列有机农副产品供不应求，到处洋溢着社会主义新农村的勃勃生机。
+    春来百花飘香，夏日清风送爽，秋季硕果满枝，冬天不显荒凉。周边景区仿佛一座都市后花园，以其幽静、美丽、安详的姿态吸引着四面八方的宾客，是一块值得珍视、珍惜、珍爱的自然瑰宝。二○○五年，经江苏省人民政府批准，周边景区被命名为省级风景名胜区。“九龙山色”、“李塔藏书”被评为句容十佳风景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元符万宁宫万寿台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万寿台，古时候称作“彰台”。 整个台坊建筑浑然一体，雕工精细，古朴大方，主体以青石砌筑而成，分上中下三层，中路没有建上下台阶，台阶而是设置在东南与西北角上，因为万寿台原为宋元时期为皇帝和太后启建“金箓道场”拜章上表之圣地，所以中路不设上下台阶，意思就是中路只有皇帝才能行走，其它臣民只能从两侧行走。台上正中建造石坊一座，曰“三天门”，门高6米多，宽2米，门头以上共有四层石雕，一层为二龙戏珠浮雕，二层为石刻三天门横额，三层为五只形态各异的仙鹤浮雕，四层为梁、沿、脊俱全的石雕门顶；两旁古柱高达6.5米，共分五级，一级门柱，高3.4米；二级立体盘龙柱，高1.5米；三级立体八节石墩，高0.4米；四级莲花石座，高0.4米；五级为两石柱顶巅一对高0.8米，左右相对而视的雄雌石雕坐狮。
+    “三天门”的两侧石柱石刻对联是：“仙乐彻九霄，祝一人之有庆；天香招五鹤，祈四海之同春”。因宋哲宗皇后孟氏之误食绣花针，京城名医都不能医治，而茅山上清派第二十五代宗师刘混康使用茅山道符箓，将孟氏所食绣花针催吐而出，宋哲宗大喜，随即赏赐了一大批珍宝给茅山，而这幅对联上的“一人”就是专指皇帝而言。
+    “三天门”的背面横额上刻有“万寿台”三字，左右石柱石刻对联为：“翠岳捧仙台华阳真气，丹崖飞绀殿河上玄风”。茅山原名句曲金坛华阳境天，元符宫下有华阳洞，华阳真气是指茅山道教上清符箓道法；河上玄风，是指道教神仙河上公曾在茅山修炼得道，玄风代表道教一代宗师的风范，万世流传。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老子神像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老子，是道教学派的鼻祖。为纪念老子功德，1996年，茅山道院广泛聚集各方力量，在元符万宁宫内建造了一座高99尺、重106吨、用226块青铜拼接而成的露天老子铜像。这尊铜像为中国道教史上、也是目前世界上最大、最高的一座露天老子神像，现已获得世界吉尼斯纪录。在建造过程中，为抢时间、争速度，工人在现场挂了6条白布制成的标语以营造紧张的劳动气氛，鼓舞干劲。哪知条幅刚挂好，现场就狂风四起，大雨如注，所有条幅均被撕裂，周围银杏树上、地上到处都是七零八落的布条。后经一位老道长点化，才豁然开朗。原来，道教以“黄”为尊，以“九”为最大、最吉祥数子。于是，工人们把原先6条白色横幅换成9条黄色的，后直到工程结束，连续22天没下过一场大雨，横幅也安然无恙地高悬直至施工结束。施工中，还曾出现两侧山体因雨水造成较大面积滑坡，但唯有神像坐落之处丝毫未动，是否属偶然巧合？众说纷纭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新四军纪念馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 茅山新四军纪念馆坐落于茅山脚下，距离苏南抗战胜利纪念碑约300米。
+    1938年夏，陈毅、粟裕等同志率领新四军东进抗日，创建了以茅山为中心的苏南抗日根据地。
+    为了缅怀老一辈无产阶级革命家的丰功伟绩，教育后人，经江苏省委批准，于1985年9月建成了茅山新四军纪念馆。
+    纪念馆占地面积为16.3万平万米，分展览区和纪念碑瞻仰区。展览区包括基本陈列和“将帅馆”、“英烈馆”、“新四军廉政教育馆”三个专题陈列，一个临时展览厅。展厅建筑总面积11500多平万米。
+    基本陈列为《新四军苏南抗日斗争历史陈列》。展览分为:“苏南人民奋起抗击日本侵略军”、“茅山抗日根据地的开辟”、“新四军东进北上”、“苏南抗日根据地的艰苦坚持”、“苏南人民夺取抗日斗争的胜利”五大部分。展出各种珍贵文物和历史资料2000余件，陈列采用现代化展示以及图表、灯箱、蜡像、雕塑等不同形式真实、形象、生动地再现了陈毅、粟裕、谭震林等老一辈无产阶级革命家的光辉业绩和当年抗日军民浴血奋战的悲壮场面。
+    “将帅馆”陈列主题为《江南风云――茅山新四军将帅陈列展》，展览面积为2800余平方米。分设元帅厅、大将厅、上将厅、中将厅、少将厅以及省部级以上领导干部厅六个部分。集中展出了在苏南敌后抗战中建立卓越功勋的陈毅、粟裕、叶飞等100名授予少将以上军衔的高级将领，以及谭震林、张鼎丞、罗炳辉、曾山、邓子恢、陈丕显等部分高级干部的主要生平业绩。展出珍贵的历史照片、文物1500余件。陈列采用现代化科技展示手段，充分调动观众的参与性和互动性；在艺术表现形式方面，则突出重点和亮点，力求创造出个性化的展陈空间，让观众在参观的同时唤醒他们对历史的认同感和对先辈们的敬仰之情。
+    “英烈馆”陈列主题为“茅山魂——《茅山新四军英烈陈列展》，展览面积为200余平方米，展览分为血染疆场、以身殉职、英勇就义、虎胆英勇、同门忠烈、巾帼英雄、开明士绅、文化先锋、英雄少年等八大部分，选取88位具有典型意义的烈士事迹和156件珍贵文物进行展示，同时将1980名烈士事迹在多媒体中循环播放，力求多形式、多维度再现苏南抗战中的个体英烈、群体英烈的光辉形象，全面地反映苏南军民浴血奋战的惨烈、悲壮情景，大力地弘扬和传承革命先烈博大的爱国情怀和勇于献身的精神。
+    1995年9月1日在茅山西侧的望母山巅建成了“苏南抗战胜利纪念碑”。碑名由原国防部长张爱萍题写，该处已成为纪念馆瞻仰区。
+    1997年冬发现“碑前放鞭炮，空中响军号”的奇观，参观瞻仰的人群络绎不绝，2006年4月，该奇观成功申报为上海大世界吉尼斯纪录。
+    建馆以来，纪念馆年均接待国内外观众40余万人次，近年来年接待观众逾120万余人次。截至2008年5月，共计有250余家大专院校、部队院校、中小学校和机关企事业单位与纪念馆结成基地共建单位。2008年实行免费开放，观众接待量成倍增长。自1992年以来，纪念馆先后被中央、省、市有关部门列为“校外德育基地”、“江苏省爱国主义教育基地”、“全民国防教育基地”等，并先后荣获“江苏省优秀博物馆”、“全国爱国主义教育示范基地”、“全国红色旅游经典景区”、“全国重点纪念馆”、“全国文明单位”等荣誉称号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“仙人洞”、也称“蓬壶洞”，仙人洞入口，距离元符宫的山门不到百米。相传古时候曾有仙人在洞中潜心修炼，并且得道成仙，所以称之为“仙人洞”。仙人洞是一个石灰岩溶洞，形成已有6500多万年的历史。这里常年气温较低，在夏天是避暑胜地，比室外温度低十多度。仙人洞在历史上久负盛名，清朝文人孙星衍曾写过一首诗赞美此洞：“垂乳甘可餐，流膏滑难触。心疑转仙境，旷荡见平陆。”仙人洞在清朝时期已堵塞，直到20世纪80年代，才重新对游客开放。此洞总长920米，分为上、中、下三层，现已开发利用的为中、下两层，长度208米。
+仙人洞以“秀”、“灵”、“仙”为主要特点，洞径小巧玲珑，蜿蜒曲折，洞中流水潺潺，古人修炼的遗迹隐约可见。洞中主要景点有：青牛嬉水、通天河、仙人灶台、九曲银河、上界仙书、善心池、月芽湖、天生仙桥、莲花悬顶、影壁遗址、飞天瀑布、七级浮屠、老子传道、玉帘在望、千年雪山等；在洞的出口处有三只仙鹤正在等待得道成仙之人，带领他们飞往仙界。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华阳洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅山自古就有“第一福地，第八洞天”的美誉，这“第八洞天”就源自于华阳洞。洞天，是道教名词，是指“通过”之所，修道者在洞中修炼，与神仙相通，与天界相通。
+华阳洞位于茅山老虎岗西侧，北距印宫约300米。这里很有“仙气”——自然环境下，负氧离子含量高达10000个/立方米，负氧离子有空气维生素和有“空气长寿素”之称，有利 于人体的身心健康。茅山上清派以“存神”、“服气”为修行的主要方法。华阳洞无论从地球磁场效应还是负氧离子浓度上都称得上“集天地之灵气”。
+    清代《茅山志》记载，华阳洞有东西南北五个洞口，3显2隐，东西长45里，南北宽35里，空虚170丈。现在我们所见的是华阳洞西口，华阳洞洞口上方刻有华阳洞三个大字，每个字约1米见方。相传为宋代大书法家苏东坡所书。齐梁时著名道教学者陶弘景曾隐居此洞，并借洞而设华阳三馆，著书立说，收徒传教；唐代诗人刘长卿也曾写诗赞曰：“渐临华阳口，微路入葱茜。七曜悬洞宫，五云抱深殿”；宋代张商英在《华阳洞》中赞到“素虎斑虬蹑紫烟，几看沧海变桑田，赤城玉笥寻真后，又到华阳第八天”；清代康熙皇帝南巡，曾御书“华阳洞天”。
+    华阳洞曾出土部分唐宋时期的道教文物，后由于各种原因，仅开挖150米便停止，洞内有何神奇，至今让人好奇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九霄万福宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道教是多神教，神仙很多，一般又以“神仙”的诞辰之日为节日，将节日最集中的时期定为香期，举行庙会，所以茅山香期时间比较长，从农历腊月二十四送灶，直到第二年的农历三月十八“大茅君回盼日”，前后将近三个月。
+    茅山道观规模宏大，全盛时期有257座宫观，其中以三宫五观最为著名。茅山主体建筑九霄万福宫、元符万宁宫、崇禧万寿宫以及乾元观、仁佑观、德佑观、玉晨观、白云观，俗称“三宫五观”。道教场所最常见的是某某宫或某某观，还有称庙、府、洞、祠、道院等，如上海城隍庙、龙虎山天师府、江西庐山仙人洞、茅山道院等，这些不同称谓，反映出道教在一定历史时期的一些特征。“宫”在古代是对房屋的通称，发展到后来成为封建帝王住所的专用词。道教场所，经过帝王的颁赐，自然就称作“宫”，如九霄万福宫、元符万宁宫等；“观”是“宫门前之双阙”。道教场所称“观”始于陕西周至县楼观台，“观”有时也有皇帝诏命敕建的，如现存的茅山乾元观。
+元代以前茅山所有道观所兴道教上清派,明代以后,“三宫”多为道教正一派,“五观”多为道教全真派，但无论正一还是全真,从古到今都有供奉三茅兄弟的太元宝殿，上清派列祖列宗都受祀祠。
+     现在我们到达了茅山的最高处、也是茅山影响最大的一座宫观——“九霄万福宫”，又因它坐落在茅山主峰大茅峰之巅，通常也被称为顶宫。
+我们现在所在的地方是顶宫的广场。这个广场东西长约80米，南北宽约40米，广场南侧有石栏，以石栏为界，另一边就是江苏常州金坛属地了。眼前是东山门，正面是“茅山道院”四个黄色大字，背面上是“紫气新辉”四个隶书大字，左右侧门分别写着“出玄”、“入牝”，玄为阳，牝为阴。《玄牝》出自老子的《道德经》第六章，“谷神不死，是谓玄牝，玄牝之门，是谓天地根”，“玄牝之门”就是说道生万物，万物由是而出。             
+    大家再请看西侧那栋建筑（西山门入口）：它有个特征，外面门框顶是圆的，内门顶是方的。我们知道东山门是解放后许世友开山凿路后才有的，而西山门才是古时真正的顶宫大门。这个一方一圆的门形是有说法的。宫观为圆，居家为方，这告诉我们茅山道士是可以成家立室的！
+    顶宫创建于西汉时三茅真君得道飞升之后，已经有2100多年的历史。在元代延祐三年（公元1316年），皇帝敕建赐“圣祐观”，专门供奉大茅真君茅盈；明代万历二十六年（公元1598年），又被敕建殿宇，升级为宫，赐名为“九霄万福宫”。整体建筑坐北朝南, 东西对称，依山借势，结构严谨，布局合理，自南至北，层层而上，雄伟壮观。顶宫先后历经三次大的劫难：分别是太平天国时期、抗日时期和文革时期。
+    在抗战时期九霄万福宫遭到战火的破坏。因为九霄万福宫是茅山的制高点，日军在这里设立据点。新四军把茅山作为根据地的中心，必须把这个据点拔掉。新四军曾经在茅山道士们的通风报信下，利用日军换防的机会，多次设伏打击日军，但由于地势险要，一直没有攻下来。到了后来，茅山道士们一致认为“顶宫住了日本人，对革命有害，就烧了吧。”于是，茅山道士与新四军里应外合烧了“九霄万福宫”，成功将日本人赶出了茅山，新四军将茅山全部纳入根据地。由于破坏比较严重，顶宫大部分是85年以后重新修建或复建的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李塔湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边景点九龙山地处茅山景区南部约7公里处，由数十座大小山峰组成，植被密布，泉涌溪流。景区内的李塔水库，建于1957年，为丘陵山区水库。水面约有3平方公里，最深处超过40米，水体为亚一类水质，能见度可达到5米深。水库三面环山，半公里长的水库大坝筑在两座山之间，东边为李塔村。站在堤坝上，微风徐来，碧波荡漾，山水一色，仿佛少女一双清亮的明眸，闪闪动人。在春汛其间，水一直漫到山腰，水温柔地抚摸着葳葳的野草、低矮的杂树，松树林倒映在水中，真是丽水青山，明媚动人。作为秦淮河的源头之一，水库的积水来自几座山，没有一丝污染，水质清冽纯净。从湖的西北侧一直延伸到龟岛，有着优美的湖岸线和宽阔的湖面，并保留着良好的生态环境，时常有栖息在附近从林中的白鹭、灰鹭、野鸭在湖面嬉戏，是城市居民周末、假日休闲度假的绝好的原生态景区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德祐观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德祐观占地面积1600平方米，主体融合传统建筑及宗教风格，在保护遗址的基础上满足宗教及观光的功能。德祐观建于元延祐年间（1314—1320年），该观专祀二茅真君茅固，在抗战期间被日军烧毁。清雍正、乾隆年间（1723-1795年）有全真派道士沈一清重建这座宫观。1958年，德祐观仅存的3间破旧房屋都拆作他用。2010年5月13号奠基，2013年4月28日对外开放。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅山医疗温泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近日，在茅山山林深处又发现一处医疗温泉资源。
+　　这是自去年在景区内偶然发现一处泉眼后，收获的又一次惊喜。据有关专家介绍：“要审定有保健和医疗价值的医疗温泉，有14项标准，只要其中一项标准达到，即可确定为医疗温泉。含有不同矿元素的温泉，可对不同的疾病有保健和医疗效果。据了解，距离景区约1公里处发现的温泉，含有达到标准的锰、碘、锶、溴、钡等多种元素，出水温度为摄氏60度左右，是一种对皮肤病等多种疾病有疗效的医疗温泉。”目前，温泉正在进一步检测之中。
+    茅山曾因其褶皱构造复杂、断裂变动强烈等条件，为国内外地质工作者所关注，是中国最早开展地质研究的地区之一。自古茅山有九峰、十九泉、二十六洞、二十八泉等胜景，如喜客泉、人称“阴阳井”的玉蝶泉、被誉为“天下第八泉”的白玉泉等神奇独特的泉水，但发现温泉实属罕见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二三茅峰景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁祐观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 仁祐观位于景区周边，占地面积1400平方米，主体融合传统建筑及宗教风格，在保护遗址的基础上满足宗教及观光的功能。仁祐观遗址，位于小茅峰顶，建于元延祐年间（1314-1320年），该观专祀小茅君茅衷，此宫观于抗战期间被日军烧毁，清雍正、乾隆年间（1723-1795年）有全真派道士沈一清重建这座宫观。2009年，茅山管委会将恢复重建和开发纳入景区近三年规划，并提上正式日程。2010年5月13日奠基，2013年4月28日全面建成并正式对外开放。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二三茅峰景区现有景点德祐观、仁祐观各占地面积1600平方米和1400平方米，主体融合传统建筑及宗教风格，在保护遗址的基础上满足宗教及观光的功能。两观位于二、三茅峰之间，分别建于元延祐年间（1314—1320年、建于元延祐年间（1314-1320年清雍正、乾隆年间（1723-1795年）有全真派道士沈一清重建这两座宫观。两座观内原有灵官殿、经堂殿、太元宝殿、道众住宅等建筑，抗战期间被日军烧毁。1958年，德祐观仅存的3间破旧房屋和仁祐观所剩残垣破壁都拆作他用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大茅峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 茅山主峰，标高372.5米。宋代王安石诗：“一峰高出众峰巅”、“仰攀萝茑去无前”；明代湛若水诗“云赛疑无路，徐行乃有通，不知转忽间，脚踏最高峰。”。大茅峰东连峰为东岭，标高348.0米。自东岭向东偏北方向，接飙轮峰和龙尾山（大龙背），形成一条“巨龙”。龙头在顶峰，龙身蜿蜒而下，龙背标高逐渐降低，依次为272.2米、289.5米、255.1米、171.2米、158.0米，直到红山门，龙尾端为57.5米。
+    2007年，句容市国土部门用GPS卫星定位系统，测出的茅山山脉等高高层分析图显示，大茅峰“巨龙”身形一览无遗，科学验证了史料记载。大茅峰南连峰为海江山（标高187.0米），海江山南为仙韭山，今称石龙山，标高150.2米。峰顶有龙池，大旱不涸，西侧有陈毅元帅题字，用常绿树植成占地100亩的“东进林”三字景观。目前，大茅峰顶上坐落着以灵官殿、宗师殿、藏经楼、坎离宫、太元宝殿、三天门、二圣殿、道教博物馆等建筑为主要结构的规模建筑群——九霄万福宫，宫观至山下交通便捷，6公里盘山公路和1.5公里游步道均可到达山顶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棋盘石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 茅山周边景点德祐观遗址的西南方向不远处，有一块平平整整状如棋盘的天然石要板，人称棋盘石。相传有时候茅山脚下住着一户人家，靠打柴为生。一天，这家樵夫来到二茅峰砍柴，看见两位老者，一个穿红衣，一个穿黑衣，聚精会神地在石板上下棋。樵夫走到跟前，两老者若无其事地头也不抬，只在下棋，樵夫将自已的扁担插在地上，绳索、柴刀丢在一旁，不声不响地站在一旁观看二老下棋。一会儿，穿黑衣的老者对樵夫说：“你母亲来了！”樵夫只当没听见，仍然默不作声地看下棋。又过了一会，穿红衣的老者又对老者樵夫说：“你妻子来了！”樵夫连忙回头张望，却没有看见人来。当樵夫转过头来看时，霎间两位老者已无影无踪。樵夫转身去拿扁担，而扁担却已长成一棵大树，后人称其为“扁担树”，绳索也变成藤萝绕在树上。“很久很久以前村上有位砍柴人进山砍柴，一直没有回来。”樵夫下山听村上人说，不由的感叹道：“山中方片刻，世上几百年，红尘有何恋，不如去学仙。”说罢转身飘然进山去了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好运石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相传大茅君茅盈当年不畏千里，从陕西咸阳来句曲山采药炼丹，治病救人，修道行善。当时茅山常年风多雨少，一年中至少有十个月是在狂风中度过的。茅山方圆百里的上空也都是烟飘沙飞，老百姓走路即使蒙起头巾，回家后还是一嘴的沙石，这给当地百姓日常生活以及农作都带来了极大的不便，人们祈盼着什么时候风就可以停了。然而无论山上风有多大、路有多陡，茅盈他必定每天朝出晚归，在山林间搜寻草药。累了饿了时，就靠着此块石头，就着干粮和山泉充饥。说来也奇怪，他只要立于此石某个方位，便能挡山间四面来风。久而久之，茅山的风变得不那么大了。就在茅盈修成正果、得道升仙后，茅山从此便没有了那种狂风。人们为了感激这位圣人的功德，于是便把此石称为“好运石”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在元古界，地球上现有的大小山脉区域原先大都是一片汪洋大海，后经古生界加里东运动，地壳缓缓上升，海水时进时出，地面或海或陆，这期间沉积了古生界和中生界以海相为主的海陆混合夹有陆相碎屑的沉积地层，如石灰岩、白云岩、页岩、砂岩及煤岩等。这其中以砂岩最为着名。砂岩是一种沉积岩，是由石料经过水冲蚀及沉淀于石床上，经过百年堆积变得坚固而成。它是一种固结的砂质岩石，大体由石英粒组成，为碳酸钙与氧化铁的混合物。砂岩的色彩分明，有黄若细沙、红如砖色等。砂岩的表面和纹理有一种原始的庄重气息，似大漠起伏的沙丘，似大海不定期平缓的沙滩，它是整体和谐与细部变化的完美结合。砂岩磨砺亿年的沉稳性格，庄重、典雅，随着地球历经无数次翻天覆地、沧海桑田的变化，每每就有了今日的名山大川。茅山砂岩，为地质学家李毓等于1935年定名。茅山在大地构造上属扬子古陆下扬子台褶带的偏东一部分。茅山曾因其褶皱构造复杂、断裂变动强烈等条件，为国内外地质工作者所关注，是中国最早开展地质研究的地区之一。茅山砂岩的成分中主要为单晶石英，因而它是建筑、装饰、雕刻等方面难得的原材料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉蝶泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅山周边景点有两个泉眼，一冷一温，故名阴阳井，又名玉蝶泉。元代雅士张圭、王祚远曾以《玉蝶泉》为名留下诗篇。张圭写道：“仙人修炼地，玉井着神功，日月双轮见，阴阳两窍通。可堪清彻底，那更施无穷，尚冀丹砂力，当浇尘念空。”元王祚远赞叹说：“飙轮蜂上阴阳井，冬夏涓涓不改清，冷暖俱非尘世味，几人饮此悟长生。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五指湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“五指湖”实际就是茅山景区辖内最大的人工湖——“茅山湖”。在茅山西侧，1958年动工，1960年合龙蓄水。坝长668米，总库容1800万立方米，灌溉面积2.82万亩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天下第八泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉水给人以清澈、润甜之感，她清纯不娇媚，苍桑不笨拙，她是聚天地精华、吸日月之光的一种精灵！茅山自古就有“九峰、十九泉、二十六洞、二十八池”的胜景。茅山十九泉中有一眼古泉被誉为“天下第八泉”，这眼古泉座落在南镇街旧香火街内，此泉因蕴含了道家的仙灵之气，显得异乎寻常，神秘莫测！泉水冬暖夏凉，水质甘甜，遇旱不涸，从古至今，滋养了一代又一代茅山人。全国并列第八的泉池，还有江西南昌紫清山丹井。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白云观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白云峰在茅山景区周边。明弘治县志记载：南朝陶隐居答诏问：“山中何所有，岭上多白云，只可自怡悦，不堪持寄君。”宋绍兴间道士王景温退居结庐于此，名闻于上，诏即所居为白云崇福观。宋，张绅游白云观诗：“白云终日护茅山，楼观参差杳霭间，知我来无着处，时来相伴道人闲。”现观已毁，但此名流传。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷劈池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅山周边景点有2个雷劈池，一池池水为硫磺味，一池池水为甘泉。据说原三茅峰顶无食用之水，天雷先劈一池，但有硫磺之味，不可食用。后天雷在其近旁又劈一池，食之甘甜如蜜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下泊宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下泊宫，位于句容市东南20KM，茅山景区西南。茅山志记载，茅盈在汉地节（公元前67年）自咸阳来句曲，于此处立茅舍以候二弟。陶弘景（南朝梁隐士）说，父老相传此处即茅盈的故宅。唐贞观11年（公元637年）重立碑文为下泊宫。元陈辅诗：“咸阳龙虎此飞升，二弟东山道亦成，不见棠梨司命宅，空馀丹井一泓清。”宫已毁。现为茅山镇所属自然村。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎏金龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003年，茅山管委会通过自筹资金对史料记载的“第八洞天”——华阳洞进行了恢复性开发。开发过程中，出土了包括戒指、鎏金龙、大型动物化石等文物，其中鎏金龙属国家二级文物。出土的鎏金龙中，有的为西汉时期作品，龙的四条腿粗短，形同兽腿，足为鹰爪，有三趾；有的为东汉时期作品，龙形象足较长，足亦分兽足、鹰爪两种；东汉末至东晋时期的龙身体四肢细长；而八只龙爪似传说中麟麒之腿的，均为晚唐时期制作。鎏金龙长约9.5厘米，前胸宽约3.5厘米，龙头角约1.5厘米，龙身通体鎏金。鎏金也称火镀金，是将黄金或铜与水银按一定比例混合，手工涂在青铜器及银饰品表面，加温蒸发汞，黄金或铜便留在器物表面。如此反复数层，视金层饱满匀称即成，再用玛瑙压光。茅山道教以独特的“符箓”和“丹药”着称于两千多年的历史长河中，被历代皇室所信奉，尤其在唐代达到了鼎盛。而中国古代国家祭祀仪式的重要环节就是祭天、祭地、祭水的投龙致祭，清《茅山志》记载：嘉熙元年（1237年）九月二十六日，“理宗金箓投龙玉简词”中记载：“……命道士三十二员于建康府元符万宁宫启建灵宝道场”，历代皇室几乎每年都要派谴使者,组织道士,打醮告祈，祝祷“国家太平、皇图巩固、人寿年丰。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道教文化广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅山道教文化广场，占地近4万㎡、投资过千万。广场设计体现了茅山文化与自然山水间的和谐统一，重点营造出了茅山旅游的“三环境”。一是道教文化环境：广场南部区域中心铺设的嵌有两颗直径约2米的黑白球的阴阳太极鱼，北部区域中心铜球上雕刻的老子“清静经”，沿北部山体而建的35米长雕刻着茅氏三兄弟得道成仙传说故事的石景墙，以及广场上的亭台楼阁、小桥流水，处处都显露着道家的自然文化。二是自然生态环境：整个广场设计坚持“以人为本”、“以生态环保为先”，巧妙地利用现有空间营造出生态、和谐的旅游休闲环境。广场绿化以本地常绿树种为主，各种花卉、灌木点缀其中；同时，广场分24个点埋设了室外音响系统。幽雅的音乐伴着这一地美景，神仙佳境自然显现。三是独特地理环境：广场以茅山自然山体为蓝本，在广场东部兴建了一座伴有瀑布的大型黄石立体假山。从广场的双曲桥上远观北面的另一座假山，又将欣赏到一幅天然而成的高额、秀眉、翘鼻、微笑着的巨型“美人脸”，也称“迎宾石”，意为笑迎八方宾朋。游人至此，定会感叹于两山并行间的奇景。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6450,12 +6694,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I797"/>
+  <dimension ref="A1:I823"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A791" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A816" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F797" sqref="F797"/>
+      <selection pane="bottomLeft" activeCell="F824" sqref="F824"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24880,6 +25124,589 @@
         <v>1630</v>
       </c>
     </row>
+    <row r="798" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A798" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C798" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E798" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I798" s="2" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A799" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C799" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E799" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F799" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I799" s="2" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="800" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A800" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B800" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C800" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E800" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F800" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G800" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I800" s="2" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="801" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A801" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C801" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E801" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F801" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G801" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I801" s="2" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="802" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A802" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C802" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E802" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F802" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G802" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="I802" s="2" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="803" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A803" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C803" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E803" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F803" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G803" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I803" s="2" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="804" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A804" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B804" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C804" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E804" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F804" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G804" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I804" s="2" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="805" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A805" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C805" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E805" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F805" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G805" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I805" s="2" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="806" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A806" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C806" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E806" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F806" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G806" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I806" s="2" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="807" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A807" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C807" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E807" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F807" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G807" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I807" s="2" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="808" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A808" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C808" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E808" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F808" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G808" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I808" s="2" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="809" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A809" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C809" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E809" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F809" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G809" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I809" s="2" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="810" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A810" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C810" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E810" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F810" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G810" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="I810" s="2" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="811" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A811" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C811" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E811" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F811" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G811" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I811" s="2" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="812" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A812" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B812" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C812" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E812" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F812" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G812" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I812" s="2" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="813" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A813" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C813" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E813" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F813" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G813" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="I813" s="2" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="814" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A814" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C814" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E814" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F814" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G814" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I814" s="2" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="815" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A815" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C815" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E815" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F815" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G815" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I815" s="2" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="816" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A816" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C816" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E816" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F816" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G816" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I816" s="2" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="817" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A817" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C817" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E817" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F817" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G817" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="I817" s="2" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="818" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A818" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C818" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E818" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F818" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G818" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I818" s="2" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="819" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A819" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C819" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E819" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F819" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G819" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I819" s="2" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="820" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A820" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C820" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E820" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F820" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I820" s="2" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="821" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A821" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C821" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E821" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F821" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I821" s="2" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="822" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A822" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C822" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E822" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F822" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G822" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I822" s="2" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="823" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A823" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C823" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E823" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F823" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G823" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I823" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A563:WVQ609">
     <sortCondition descending="1" ref="F563:F609"/>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5560" uniqueCount="1689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5607" uniqueCount="1706">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6261,6 +6261,85 @@
   </si>
   <si>
     <t>茅山道教文化广场，占地近4万㎡、投资过千万。广场设计体现了茅山文化与自然山水间的和谐统一，重点营造出了茅山旅游的“三环境”。一是道教文化环境：广场南部区域中心铺设的嵌有两颗直径约2米的黑白球的阴阳太极鱼，北部区域中心铜球上雕刻的老子“清静经”，沿北部山体而建的35米长雕刻着茅氏三兄弟得道成仙传说故事的石景墙，以及广场上的亭台楼阁、小桥流水，处处都显露着道家的自然文化。二是自然生态环境：整个广场设计坚持“以人为本”、“以生态环保为先”，巧妙地利用现有空间营造出生态、和谐的旅游休闲环境。广场绿化以本地常绿树种为主，各种花卉、灌木点缀其中；同时，广场分24个点埋设了室外音响系统。幽雅的音乐伴着这一地美景，神仙佳境自然显现。三是独特地理环境：广场以茅山自然山体为蓝本，在广场东部兴建了一座伴有瀑布的大型黄石立体假山。从广场的双曲桥上远观北面的另一座假山，又将欣赏到一幅天然而成的高额、秀眉、翘鼻、微笑着的巨型“美人脸”，也称“迎宾石”，意为笑迎八方宾朋。游人至此，定会感叹于两山并行间的奇景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮安市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周恩来故里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周恩来故里景区位于全国历史文化名城——江苏省淮安市，为国家5A级旅游景区。
+周恩来故里旅游景区包括周恩来纪念馆、周恩来故居、驸马巷、河下古镇，总占地3.15平方公里。区域内拥有水域风光、生物景观、遗址遗迹等6大主类、18亚类、83种基本类型资源，旅游资源单体总数100多处。除了拥有丰富的旅游资源，周恩来故里的历史、人文内涵厚重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周恩来纪念馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周恩来纪念馆，位于江苏省淮安市城北桃花垠，为国家AAAAA级旅游景区，距离周恩来故居约两华里，属周恩来故里景区。
+周恩来纪念馆于1992年1月16日落成，由邓小平题写馆名，江泽民、李先念、李鹏、杨尚昆等同志为纪念馆题词。周恩来纪念馆开放以来已接待了胡锦涛、贾庆林、温家宝、贺国强、习近平等众多党和国家领导人。
+馆区由纪念岛、宽阔的水面和湖四周环形绿地组成。总面积有三十五万平方米，其中百分之七十为水面。岛上建有主馆和附馆，总建筑面积为3265平方米，其中主馆1918平方米，附馆1345平方米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞻仰台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周恩来铜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仿北京中南海西花厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周恩来邓颖超纪念馆位于天津市南开区水上公园西路，占地面积70000平方米，建筑面积12850平方米，是全国唯一一座夫妻合一的伟人纪念馆。馆区由主展厅、西花厅专题陈列厅、周恩来专机陈列厅、纪念广场等组成。
+　　1977年6月，天津市委、市政府决定在周恩来母校南开中学东楼建立周恩来同志青年时代在津革命活动纪念馆，1978年3月5日对外开放，为全国重点文物保护单位。
+　　1994年2月4日，经中宣部批准，在邓颖超等五四时期的进步青年发起组织的天津妇女进步团体女星社旧址上建立了邓颖超纪念馆，为天津市文物保护单位。
+　　1996年，中共天津市委、天津市人民政府报请中共中央批准在以上两馆的基础上建立周恩来邓颖超纪念馆，1998年2月28日建成开放，江泽民题写馆名。
+　　纪念馆的展览包括：周恩来生平陈列“人民总理周恩来”、邓颖超专题陈列“邓颖超——20世纪中国妇女运动的先驱”和以实物实景的方式展出的主题文物陈列“伟大的情怀”三个既有内在联系、又独立成篇的展览。展览采用现代设计理念，以丰富的文物、突出的主题和鲜明的天津特色，生动再现了周恩来、邓颖超两位伟大政治家由天津起步、从爱国青年学生成长为坚定的马克思主义者的光辉历程，以及他们在追求理想信念的过程中，相识、相知、相爱，携手一生，最后将骨灰洒在天津海河的革命情怀。
+　　周恩来邓颖超纪念馆开馆12年来，受到社会各界广泛赞誉和好评，成为全国爱国主义教育示范基地、全国廉政教育基地、国家一级博物馆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主馆坐落在绿色草坪的基台上，象征着周总理是中国人民忠实的儿子，他将永远扎根在祖国的土地上。主馆高26米，与南京中山陵、雨花台烈士纪念馆为同一等级高度。主馆呈四方形，内八角。四方八面体寓意着周恩来的精神普照着我们中华民族。四根花岗岩石柱寓含着周恩来生前曾先后于1954年、1962年、1964年和1975年四次提出要在我国实现“四个现代化”的宏伟设想。四根花岗岩石柱支撑着四坡屋顶，看上去可使人联想起古老江淮平原上提水灌田的牛车棚，寓含着周恩来的一生是为人民服务的一生。四根柱子支撑四坡屋顶的造型还像苏北里下河地区的待渡亭。周恩来1910年离家赴东北时曾在运河边的待渡亭候船，然后登舟北上。以待渡亭的形状作为他的纪念馆寓意周恩来从淮安待渡亭走出，最终又回到了他的故乡。
+主馆分三层。底层为陈列厅，里面以丰富而详实的图片、实物和电视显示屏，来展示周恩来总理光辉灿烂的一生。沿南边51级台阶就来到了二层瞻仰大厅。周恩来1921年23岁时在法国巴黎加入中国共产党，当1949年新中国成立时他被任命为政务院总理兼外交部长，时年正好是51岁。
+大厅内设周总理全身汉白玉座像一尊，连基座高4.7米。纪念厅的蓝色天棚可以让阳光直接射到四米多高的汉白玉坐像上，像的四周由鲜花、长春盆景簇拥，寓意着周恩来是一位顶天立地的伟人。三层为观景台，远眺可望古城和馆区风景。如果从上往下鸟瞰，则可见牌楼式的景门和人字形附馆合起来，正好是“八一”的图型，寓意周恩来领导八一南昌起义之意。附馆建筑呈人字型，面对主馆呈拱卫之势，体现了周恩来是人民的好总理，他永远活在人们的心中。附馆共两层，二楼主要是办公用房，底层设有名人字画厅和影视厅。字画厅陈列展出国内外知名人士和书画大家为周恩来纪念馆捐赠的书画作品，影视厅主要放映周恩来生平业绩的影视片。
+主馆前的广场上，半圆形的草坪上有一圆形水泥平面，广场如半月，圆形的水泥平面似一轮红日，寓意周恩来光辉业绩与日月同辉。与纪念馆正面隔湖相望的是瞻台，其和主馆、附馆在一条中轴线上，它由廊亭和高达16米的剑碑组成。剑碑各由四根柱子组成棱形剑头，看似无形胜有形，寓意周恩来的精神、品德、业绩如丰碑永远地矗立在亿万人民心中。纪念馆两侧通过两座桥与入馆道路相连，东侧连接清扬公路，西侧直通城区，可以到达周恩来故居。纪念馆主馆为花岗岩贴面。色彩简洁明快，外观庄重肃穆，与四周的清波绿水交相辉映，象征着周恩来的博大胸怀和平易近人的高尚情操。另外，整个馆区占地五百多亩，其中五分之四是水面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周恩来铜像广场上的周恩来铜像高度为7.8米，其中底座3.6米，像身高4.2米，总高度寓意伟人周恩来走过的78个光辉的人生春秋。基座上“周恩来同志”五个金光闪闪的大字是由江泽民同志于1997年12月31日题写。铜像重量两吨多。其姿势取材于20世纪50年代末，60年代初周恩来与工人、农民亲切交谈时的习惯动作：双手叉腰，面带微笑，显现出周恩来平易近人的风范。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驸马巷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驸马巷是指古城淮安镇淮楼西北隅约三百多米处的一条小巷，原名望仙巷。因明惠帝朱允炆在此巷内为驸马都尉黄琛建造了一座驸马祠，故改名为驸马巷，一直沿用到今天。饮誉海内外的周恩来同志故居就坐落在这条巷内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河下古镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河下古镇位于江苏省淮安市淮安区西北隅，古邗沟入淮处的古末口，曾名北辰镇，是淮安历史文化名城的核心保护区之一。这里曾诞生巾帼英雄梁红玉、大文学家吴承恩等历史名人。明清两代这里曾出过67名进士、123名举人、12名翰林，有“进士之乡”之称，文化底蕴十分深厚。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6694,12 +6773,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I823"/>
+  <dimension ref="A1:I832"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A816" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A825" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F824" sqref="F824"/>
+      <selection pane="bottomLeft" activeCell="F833" sqref="F833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25707,6 +25786,165 @@
         <v>1658</v>
       </c>
     </row>
+    <row r="824" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A824" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E824" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I824" s="2" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="825" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A825" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E825" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F825" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I825" s="2" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="826" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A826" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E826" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F826" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G826" s="2" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="827" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A827" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E827" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F827" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G827" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="I827" s="2" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="828" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A828" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E828" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F828" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G828" s="2" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="829" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A829" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E829" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F829" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G829" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I829" s="2" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="830" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A830" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E830" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F830" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G830" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I830" s="2" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="831" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A831" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E831" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F831" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I831" s="2" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="832" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A832" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E832" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F832" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I832" s="2" t="s">
+        <v>1705</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A563:WVQ609">
     <sortCondition descending="1" ref="F563:F609"/>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5607" uniqueCount="1706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5726" uniqueCount="1748">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6340,6 +6340,191 @@
   </si>
   <si>
     <t>河下古镇位于江苏省淮安市淮安区西北隅，古邗沟入淮处的古末口，曾名北辰镇，是淮安历史文化名城的核心保护区之一。这里曾诞生巾帼英雄梁红玉、大文学家吴承恩等历史名人。明清两代这里曾出过67名进士、123名举人、12名翰林，有“进士之乡”之称，文化底蕴十分深厚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大丰区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华麋鹿园景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏大丰麋鹿国家级自然保护区位于黄海之滨，保护区总面积 78000公顷，其中核心区2668 公顷，缓冲区2220 公顷，实验区73112 公顷。
+江苏大丰麋鹿国家级自然保护区是世界占地面积最大的麋鹿自然保护区，拥有世界最大的野生麋鹿种群，建立了世界最大的麋鹿基因库。
+保护区接待了来自40多个国家近100万人次的游客，其中国内外青少年38万人次，占游客总数的40%，为开展宣传野生动物保护的科普教育，提高公众的环境意识发挥了巨大作用。
+2015年10月8日，经国家旅游局公示，江苏省盐城市大丰中华麋鹿园景区晋升为国家5A级旅游景区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华麋鹿园景区游客中心为三层，占地面积16000平方米，建筑面积3000平方米。中心设施先进是一个集旅游信息服务、咨询服务、旅游换乘、餐饮、购物、娱乐、休息等为一体的旅游服务平台，能为游客提供便利、舒适、安全、快捷、实惠的旅游服务。体现以游客为本的理念，并满足残疾人和特殊人群的使用需求。
+   游客中心于大厅内设置了电脑触摸屏，休息室，备有沙发、茶几、电视、饮水机、擦鞋机等设施，景区在合理的布局下最大数量的配置相关设施，数量充足，宽敞舒适，并配有影视介绍系统，提供游客休息时欣赏景区的秀美风光。
+   服务台免费为游客准备了景区导览图、宣传册、文化书刊等，配有图片和文字说明，便于游客的游览。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一号码头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年春节，中华麋鹿园正式开通游船服务，在麋鹿生活区内开辟了游船线路，新增游船码头两座，增设相关配套基础设施。游线全长3500米，每艘游船可容纳4-6人不等，游客可自由选择。同时，景区配备了安全、救援设施以及经验丰富的救生员，保证每位游客的安全及观赏效果。游船码头入口两侧均有商店，方便游客购买精美的纪念品。水上观赏麋鹿，无疑是景区的一大亮点，不妨一试！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物迷宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华麋鹿园植物迷宫长56米，宽27米，由法国冬青排列，地面由果岭草、黑麦草满铺而成。占地面积1512平方米，浓绿的树木长成密不透风的绿墙，这样的迷宫适合家长带着孩子一起探索人性的双重特征：复杂与简单、神秘与可知、感性与理性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童乐园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童游乐园以儿童游乐为主要内容，以儿童为主要服务对象。在对儿童的身心特征、活动尺度进行分析与研究的基础上，进行各类游戏设施的布置。以绿色生态、寓学于乐为主要原则，打造能让儿童快乐游戏、健康成长的游乐园。
+  游乐设施采用进口黄花梨木，防腐防晒防水防潮，木质坚硬厚重，结实牢固，高档美观，绿色环保。儿童游乐园结合了国内市场特点，通过平衡木、高钻网、组合独木桥、爬坡组合等巧妙的将钻、爬、跳、滑、翻、滚等功能性动作溶于儿童的娱乐之中，既锻炼了孩子的平衡，独立协调和创造能力，也利于孩子的自我保护意识。游乐设施的结构安全耐用，其设计巧妙，色彩和谐，塑料的各个部件巧妙结合，可给孩子带来安全，欢乐和活泼的感受。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听嗷坡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听嗷坡，驻足聆听，您可听到漂泊异乡的游子——麋鹿呼唤祖国母亲嗷嗷的哀鸣。这里是1986年8月14日从英国回归故土的39头麋鹿的安息之地，它连接了中国近百年来无麋鹿的历史，并在近20年的生命历史中创造了令世人瞩目的神话般的奇迹。为此，特立碑铭文表达人类对它们的无限感激，和为此而作出杰出贡献的前辈们的敬仰之情。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“神鹿回归”碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原国家林业局副局长赵学敏视察时，了解到麋鹿野放回归自然实验获得可喜进展的情况下即席挥墨而作。在中国文化历史的长河中，麋鹿始终是作为一种吉祥象征而存在的，是生命力旺盛的象征，是贤达仁义的象征，还是绵延数千年的皇权象征。这一点在我国大量出土的瓦当、瓷器以及墓葬品描绘有众多麋鹿图案中得到证实。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百麋图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为纪念2007年大丰野生麋鹿超百头而建造。百麋图雕刻了麋鹿的一百种行为，麋王俯视、母鹿咀嚼、小鹿吮奶、双麋打斗、群鹿奔跃……一百头麋鹿形象逼真、直观生动、内涵丰富，堪称麋鹿行为的百科全书。1998年11月、2002年7月、2003年10月、2006年10月四次人工有计划的麋鹿全野生放养实验获得了初步成功，其野生种群已由53头增至235头，已成为全世界拯救濒危物种及野生动物重引进项目的成功范例，体现了人与自然的和谐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封神台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一座八层砖木中式宝塔。此塔多用，封闭的第五层是为储水而设，使此塔兼备了饮水和观赏的功能。塔高39米，是为了纪念由英国无偿赠送的39头麋鹿。加之，传说中姜子牙在东海滨筑台封神，因此取名为封神台。此台内藏《封神榜》珍本，是中华麋鹿园的镇区之宝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观鹿台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模仿北京南郊的观鹿台而建。观鹿台共有台阶39层，并被分成三个组成部分，象征了大丰麋鹿种群发展的三个阶段：引种扩群、行为再塑、野生放养。在此，游客可以享受到皇帝般的待遇，与一群悠闲的麋鹿一起度过一段惬意美好的时光。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿王展示区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在中华麋鹿园内，每年春季都有一场鹿王争霸赛，每个鹿群都会产生一头鹿王。新建成的“麋鹿王府”内，安排了曾经“不可一世”的四头麋鹿王，它们都是当年的勇猛斗士，经过约一个月时间生死决斗，最终赢得胜利，成为当年数个麋鹿群中“妻妾成群”的麋鹿王之一。
+    2009年的麋鹿王，是当年第一麋鹿野化区的第一头麋鹿王，是“麋鹿王府”中最资深的元老级麋鹿王。2010年的一头麋鹿王，曾经因连续两年左角根部长出“匕首”型畸形角枝，而成为第三麋鹿野化区里2010年和2011年的连任麋鹿王。温和、稳健的另一头2011年麋鹿王，是第二麋鹿野化区麋鹿王。它对“王妃”恩爱有加，鹭鸟们也喜欢徘徊在它左右，但对“情敌”毫不留情，痛下杀手。2012年麋鹿王，是第三麋鹿野化区麋鹿王，拥有“王妃”200多位，为历届以来史上最强势的麋鹿王。
+    目前，四任麋鹿王还不太适应人们给它们安排的“王府”生活环境，胆子比较小，游客只能稍远一点观看。紧接着科研人员将对它们进行人工驯化，让游客能够近距离饲喂甚至可以触摸。
+    让这些“逊位”的麋鹿王集中展示，配以图文并茂的介绍，形象生动地向游客诠释麋鹿家族香火传承的行为和方式，使人们了解麋鹿、关爱麋鹿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麋光角影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    这是麋鹿回归后第一头鹿王角的放大仿制品。麋鹿角的生长和其它鹿种一样，按规律每年脱落一次，就象落叶乔木上的叶片，年复一年地生长凋落。而牛羊类的角一生只长一次，终生不换。在个体之间，从麋鹿角的大小可以判断麋鹿的年龄。角枝的大小和繁殖的成效呈正相关。角枝的作用主要用于同性间的竞争。正常情况下1岁1叉，直至5岁，以后随着年龄的增长长出突瘤。雄麋鹿争偶时主要靠显摆，以及仪式化的格斗，虽不时表现出用角不断相顶的势态，并发出震耳的撞击声，但一般都不会伤及对方的要害部位。这是进化过程中巧妙选择的结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麋鹿碑陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    这里安息着1986年回归祖国的39头麋鹿。它们完成了祖先还家的夙愿。在黄海滩涂上扎根、繁衍，使麋鹿家族香火不断，如今2360头大丰麋鹿都是它们的后裔。当初它们当中年龄最小的2岁，最长的7岁，麋鹿理论寿命25年，实际17—18年，如今它们的生命都已圆满划上了句号。这可称得上是世界上人类为野生动物建造的最大的纪念碑。1986年，39头麋鹿就是在这儿走下卡车，呦呦几声，奔向一望无际的黄海滩涂的。因此，这儿又有一个好听的名字——听嗷坡。碑的东西两端分别雕塑着一只鸟——白鹭，与麋鹿相伴生，以采食麋鹿体外寄生虫长角血蜱为己任。所以又称它为麋鹿的白衣天使。这座墓碑的墙壁上分别刻着六首《安魂赋》，格式特别：摆布是英国十四行诗的形式，表明它们的童年在英国度过；沿袭中国古代的书写方式从右至左、从上至下来书写，则表明它是中国的特有物种，如今又回到了祖国的怀抱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麋鹿奔腾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   按照39头“海归派”麋鹿原型、等比例制作而成的麋鹿群雕。为首体型高大、角枝粗壮、气宇轩昂者就是回归后的第一头鹿王、第一个离世的18号雄鹿，边上是调皮捣蛋、离家出走、勇于探险的39号，在它们身后就是39头麋鹿中最后去世的26号，边上是产下第一头小崽——“生生”的妈妈，3号麋鹿……39头麋鹿都有着许多鲜为人知的故事，每个“归侨”都有着史诗般的生命历程。　　
+   “麋鹿奔腾”的场景取材于它们回归后的第一个春天，也就是1987年的春天，春意盎然、百鸟争鸣、晴空万里，它们“水足饭饱”后，欢快地越过土坡，俯冲下来的情景。它既真实再现了39头麋鹿的生活场景，又寓意了麋鹿保护事业迎来了动物史上的春天，并如奔腾的麋鹿势如破竹、锐不可当……　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麋鹿本纪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界上最长的以麋鹿文化为题材的石刻书法长廊。全长42米，高3.9米，39块黑色大理石镶嵌在古朴的长廊上，寓意着39头麋鹿的后代香火旺盛、绵长亘远。它以《史记》中记载皇家历史的体裁形式“本纪”，用文言文记述了麋鹿物种起源、与先民共存、千百成群、溃不成群、深居园囿、飘零异乡、绝处逢生、回归故土、种群复兴的曲折历史。它集书法、石刻、美文、历史于一体，具有很高的文化欣赏价值。　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麋字碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石碑上用39种字体镌刻着39个“麋”字。它汲取了甲骨文、石鼓文和现代文中的各种字体，有象形文字、篆体、魏碑、仿宋、宋体等，表明了麋鹿历史源远流长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹦鹉园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中秋之际，中华麋鹿园的鹦鹉园将正式对外开放，牡丹鹦鹉、虎皮鹦鹉、亚历山大鹦鹉、鹊鸲、黑领噪鹛等20个种类近千只鸟儿进驻，将成为新的亮点。
+    驻足鹦鹉园，手抓鸟食，舒展手臂，成群的“小精灵”便蜂拥而至，它们或站立于你的肩头、手臂，或叽叽喳喳呼唤同伴，或啄食，或嬉戏追逐，盘旋左右，场景既逗人又壮观。让你如痴如醉，可能会忘记拍下许多唯美的画面。
+    和鸟的互动也让每一位游人真正感受到人和动物间的融洽和心情的愉悦，深刻体会到保护动物的责任和意义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯麋之尊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界麋鹿保护史上有四座里程碑。第一座里程碑是清朝乾隆皇帝，他保存了麋鹿这个物种。麋鹿数量在商周时期达到顶峰，后来不断减少，到了乾隆年间野外麋鹿所剩无几，绝大部分集中在北京南海子皇家猎苑中。乾隆皇帝在位59年，中国出现了前所未有的盛世景象。相传他的父亲雍正帝在外打猎，获得一头雄麋鹿，喝了鹿血后热血沸腾，与一山野村姑生下一男孩，这就是后来的乾隆帝。乾隆帝对麋鹿情有独钟，他不仅是一位勤政的国君，而且对保护野生动物也有独到见解。他花费了38万两白银将明代留下的北京南海子皇家猎苑的土墙改成砖墙，并增设了13座角门，使南海子成为一座范围广大、设施完备、技术成熟的皇家园囿。当时古南苑的具体范围现在仍可通过散落在北京城南的一些相关地名依稀可见。为保护南苑内以麋鹿为主的珍禽异兽，朝廷除了严禁百姓涉足外，还设置了正四品的郎中总尉专门负责管理，采取了多种养护和建设措施，主要是栽种树木、花卉和水生植物，限制开垦土地。为清除苑内狼、狐和猛禽等食肉动物对珍禽异兽的伤害，每年冬天乾隆皇帝在围猎时也都亲自将这些动物作为主要的捕杀对象，称之为“打狼围”。同时还制定了具体的奖罚制度。在他之后的几位皇帝都沿袭了他的做法。经过200年左右的管理和运作，南苑内鸟兽兴旺、草木葱郁、环境优美，麋鹿数量也得以迅速增长，清史记载，当时苑内麋鹿数量已达数百头。　　
+    第二座里程碑是阿芒·大卫，他科学发现了麋鹿。正是他把麋鹿从自然保护、科学研究的角度推向全世界。阿芒·大卫是个酷爱自然和探险的人，36岁时被法国天主教派到中国来。他有个中国名叫谭征德。除了传教外，他把主要精力集中在中国内地3次科学考察上，足迹遍布大江南北。他在动物标本收集、分类命名和生态描述等方面获得了举世瞩目的成就。他不仅“发现”了大熊猫、金丝猴和珙桐，而且还“发现”了麋鹿并获得麋鹿标本，使其影响达到了顶峰。1865年，阿芒·大卫在北京天主教工作期间，他听说南苑内有许多珍禽异兽，这引起了他浓厚兴趣。于是他找到了一次机会，躲过哨兵爬上了围墙，他在众多动物中发现了过去从未见过的一种鹿，立即意识到这一鹿种极可能有很高的学术价值。怎样获取麋鹿标本他费尽了心思。终于在1866年一个寒夜，他以20两纹银换取了两张麋鹿皮和两具头骨。之后这些标本被寄往巴黎自然博物馆，同年经米尔恩—爱德华兹主任鉴定证实了这群鹿果真是一个新属新种。从此这种绝灭于中华原野，身藏于皇家禁苑，世人未识的国粹动物以大卫鹿的称呼轰动了欧洲。当初定名的模式标本，至今仍收藏在法国自然博物馆。　　
+    第三座里程碑是指英国贝福特家族，他们保存了麋鹿物种。自1866年，也就是大卫将麋鹿公布于世后的若干年里，圈养在皇家猎苑内的麋鹿被英、法、德、比等国先后掠走，分别饲养在欧洲各家动物园里。但由于当时对这种动物的生态习性缺乏了解，有的在运输途中死去，有的是因为饲养面积太小、饲料单调，有的勉强活了下来，但繁殖又不理想。第一、第二代还过得去，到三代以后逐渐退化，最后不育而绝种。1894年—1901年，英国公爵贝福特十一世果断购买了残存在欧洲的18头麋鹿，并放养在自然环境和北京南苑差不多的英格兰乌邦寺庄园内。庄园内开阔的草地、稀疏古老巨大的橡树、稠密的人工林以及大小不一的人工湖，给麋鹿创造了和谐的自然生活环境。据贝福特的档案资料记载，在最初的18头中，只有来自巴黎的1头雄麋鹿和少数雌麋鹿有繁殖能力。也就是说，现在全球6个洲23个国家和地区209个饲养点麋鹿全是这18头甚至比这更少麋鹿的后代。　　
+    第四座里程碑是中华麋鹿园，它壮大了麋鹿种群。中华麋鹿园在麋鹿保护方面创造了三个“世界之最”：面积最大；种群数量最大；最大的基因库。近30年来，经过社会各界的鼎力支持和保护区全体职工的不懈努力，科研保护、生态旅游事业全面发展。中华麋鹿园已经成为一个传播人类绿色文明的基地，同时又是增强人们生态环保意识的窗口和培养青少年热爱自然的绿色课堂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金滩鹿鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金滩鹿鸣，该区域为麋鹿生活区，总面积7000亩。在此可以看到几百头成群的半野生放养麋鹿。之所以称为“半野生“，是因为这个区域的麋鹿一年当中的初冬到第二年的初春大约小半年的时间是需要人工投喂饲料的，其余时间人类不干预它的生活。麋鹿生性胆小，不容易接近，为了更好的保护麋鹿以及观赏效果，此区域必须乘坐电瓶车或游船参观游览，禁止步行进入，乘车途中不得上下车。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美食坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华麋鹿园美食广场规划，设计总面积为25100平方米。以美食建筑、美食广场、休闲活动场地、生态绿化配置等为主体表达内容。
+  1、以人为本原则。中华麋鹿园生态美食坊的设计充分考虑了人们的心理，满足人们或静止观赏或开心活动的需求，同时考虑了安全要素。细部设计遵循人体工程学原则，使人们使用起来自然舒服，创造出尺度适宜，环境优美，景色宜人，人景交融的环境。
+  2、体现特色原则。美食坊的设计充分体现美食文化及生态环境相融合的特色，不仅赋予新意，而且融合麋鹿环境、美食文化。通过生态多样性的表现手法将特色文化与内涵表达出来，创造出既有文化性、美食性，又具有生态性的自然环境。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6773,12 +6958,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I832"/>
+  <dimension ref="A1:I852"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A825" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A845" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F833" sqref="F833"/>
+      <selection pane="bottomLeft" activeCell="A833" sqref="A833:E852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25945,6 +26130,403 @@
         <v>1705</v>
       </c>
     </row>
+    <row r="833" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A833" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C833" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E833" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="I833" s="2" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="834" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A834" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C834" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E834" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F834" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="I834" s="2" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="835" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A835" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C835" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E835" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F835" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I835" s="2" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="836" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A836" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C836" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E836" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F836" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I836" s="2" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="837" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A837" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C837" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E837" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F837" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I837" s="2" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="838" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A838" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C838" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E838" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F838" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I838" s="2" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="839" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A839" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C839" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E839" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F839" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I839" s="2" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="840" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A840" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C840" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E840" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F840" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I840" s="2" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="841" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A841" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C841" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E841" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F841" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I841" s="2" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="842" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A842" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C842" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E842" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F842" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I842" s="2" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="843" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A843" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C843" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E843" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F843" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I843" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A844" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C844" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E844" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F844" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="I844" s="2" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="845" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A845" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C845" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E845" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F845" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="I845" s="2" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="846" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A846" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B846" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C846" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E846" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F846" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I846" s="2" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="847" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A847" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C847" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E847" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F847" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I847" s="2" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="848" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A848" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B848" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C848" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E848" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F848" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="I848" s="2" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A849" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C849" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E849" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F849" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I849" s="2" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A850" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C850" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E850" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F850" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="I850" s="2" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A851" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B851" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C851" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E851" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F851" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="I851" s="2" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A852" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C852" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E852" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F852" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I852" s="2" t="s">
+        <v>1747</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A563:WVQ609">
     <sortCondition descending="1" ref="F563:F609"/>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5726" uniqueCount="1748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5876" uniqueCount="1851">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6525,6 +6525,1203 @@
     <t>中华麋鹿园美食广场规划，设计总面积为25100平方米。以美食建筑、美食广场、休闲活动场地、生态绿化配置等为主体表达内容。
   1、以人为本原则。中华麋鹿园生态美食坊的设计充分考虑了人们的心理，满足人们或静止观赏或开心活动的需求，同时考虑了安全要素。细部设计遵循人体工程学原则，使人们使用起来自然舒服，创造出尺度适宜，环境优美，景色宜人，人景交融的环境。
   2、体现特色原则。美食坊的设计充分体现美食文化及生态环境相融合的特色，不仅赋予新意，而且融合麋鹿环境、美食文化。通过生态多样性的表现手法将特色文化与内涵表达出来，创造出既有文化性、美食性，又具有生态性的自然环境。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云龙湖景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">云龙湖旅游景区位于徐州市区西南部，距离市中心3公里，是以云龙山水自然景观为特色，以两汉文化、名士文化、宗教文化、军事文化为主要内容，集科普、观光、游览、休闲、生态等综合功能为一体的城市型旅游景区。2005年被批准为国家4A级旅游景区。2016年8月，获批国家5A级旅游景区。景区规划面积44.7平方公里，外围保护地带面积44.2平方公里，规划控制范围总面积88.9平方公里。其中，云龙湖水域面积7.5平方公里。 
+景区内山清水秀，风光如画，文物古迹众多，旅游资源非常丰富，是游客休闲娱乐的一个极其悠闲的场所。水面湖光山色，相映生辉，一条玉带般的湖中路，把湖面分成东西两湖。环湖路依山顺堤，宽阔平坦，锁绕一湖碧水，长约14公里。临湖而立，三面青山，叠翠连绵，烟波浩渺，尽收眼底。沿湖而行，岸草如茵。三月桃红柳绿、仲夏荷花吐艳、深秋枫林尽染、严冬梅花傲雪。东岸春景、南岸夏景、西岸秋景、北岸冬景。四季风光层次鲜明，各自异彩纷呈，可谓“天工美景已如画，人意雕琢又著花”。 
+云龙湖旅游景区以其独特的地理环境、优美的自然环境、丰富的旅游资源、便利的交通条件和齐全的旅游设施，每年吸引数百万中外游客来此观光旅游。 
+云龙湖旅游景区主要资源有：徐州，既是中国历史文化名城，又是中国优秀旅游城市，同时还是国家级园林城市。它地处江苏省北部，津浦与陇海两大铁路干线的交叉点上，京杭大运河穿城而过，地理位置十分优越，素有“五省通衢”之称。徐州南通江淮，北邻齐鲁，西接中原，东连海滨，交通异常发达。近年来，徐州观音机场已开通国内各大城市、港澳台地区航线及韩国等国际航线；京沪、京台高速公路以及京沪高铁横穿南北，连霍高速公路与徐兰高铁纵贯东西；加上穿城而过的京杭大运河，形成水、陆、空三位一体的大交通格局。 
+徐州，是一座拥有五千多年文明史、两千五百年建城史的古城，是江苏文明的最早发源地之一。尧封彭祖于泗水之滨，彭祖据此建立大彭氏国，故此地称彭城。大禹定九州，徐州名列九州之一，而彭城位于徐州中心，故彭城又称徐州。徐州曾作为大彭氏国和西楚帝国的国都。秦以来，徐州先后作为郡、路、州、府、县等不同级别的行政区治所。汉初，高祖刘邦封其弟刘交为楚王，号楚国，都彭城。徐州因其地理位置十分重要，历来是兵家必争之地，仅有记载的战事就多达400余次。最早的一次，发生于公元前21世纪，即彭伯寿征西河。楚汉相争，张良一曲《楚歌》令项羽八千兵散；韩信九里山十面埋伏，令项羽兵败垓下，自刎乌江。三国角逐，陶谦三让徐州；曹操屠城，彭城血流漂橹。拓跋焘屯兵云龙山，留下千年石佛遗迹。公元1948年发生于徐州及其周边地区的淮海大战，更是惊天地，泣鬼神，成为举世闻名的经典战例。 
+徐州是个山清水秀、景色怡人的山水古城，“山包城，城包山”是其地理特征。自然山水构成了徐州城市空间格局——“群山环抱，一脉入城；两河相拥，一湖映城”，自然景观条件十分优越。在徐州主城区周围，分布着大小山头72个，这些山头怪石嶙峋，草木茂盛，其中，云龙山分布着众多文物古迹，如北魏大石佛，唐宋摩崖石刻，宋代苏东坡遗迹、张山人放鹤亭，明代兴化寺，清代大士岩、云龙书院，泰山碧霞祠，汉王拔剑泉等名胜古迹，闻名中外。 
+悠悠数千载历史，造就了徐州这座古邑名城，也孕育了徐州楚风汉韵的地域文化特色。作为中国历史文化名城之一，徐州 “汉代三绝”、云龙山水、东坡遗迹享誉全国，蜚声海内外。近年来，按照建设生态徐州、绿色徐州、园林徐州、人文徐州的目标，徐州以绿美城，以文立城，把丰厚的历史文化底蕴转变为生动时尚的创意与建设诗意家园的创举，打造出魅力四射的苏北园林城市，同时，也获得了“中国优秀旅游城市”的称号。 
+云龙湖旅游景区是徐州旅游的名片。 
+云龙湖旅游景区，位于徐州市区南部，景区内云龙山绵延九节，状若游龙，素称徐州名胜之冠。徐州遗台故垒，名胜古迹遍布城乡，并兼有北雄南秀之长，已出土的万余件文物，精美罕见，汉画像石饮誉中外。云龙湖旅游景区现为江苏省省级风景名胜区。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云龙湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">云龙湖最初只是一个积水洼地，因位于徐州南郊簸箕山下，又因其形状像簸箕，故而称簸箕洼。因其东、南、西三个方向均为山区，夏季洪水暴发，来自山区的洪水皆注入此洼，汇集成湖。云龙湖历史上还曾经有过其他几个名字。北宋时称尔家川，明代称苏伯湖，万历年间因湖水经常泛滥成灾，民间作石狗镇水，所以又称石狗湖。也有资料记载石沟湖。据传说，苏轼任徐州知州时，曾计划引上游丁塘湖和金钟湖之水灌人此湖，令此湖风光与杭州西湖相媲美。当年苏轼曾主持疏浚汉王到尔家川的河道，即今玉带河。1959年12月，徐州市人民政府为解决石狗湖常年洪水泛滥，威胁徐州市城市安全的问题，正式启动石狗湖水库工程。时任徐州地区行署副专员的汤海南提出建议，将正在修建的石狗湖水库更名为云龙湖，市政府采纳了他的建议，石狗湖即更名云龙湖。1960年底，云龙湖北大堤建成，开始拦洪蓄水，集水面积内的地面径流经水库拦截调蓄，减少了上游山洪对市区的威胁。1967年，受文化大革命影响，云龙湖一度更名为红卫湖，但没隔多久，又恢复了“云龙湖”这个名字。 
+云龙湖是一个水利工程，最初功能是拦洪调蓄水、保障徐州城市安全，同时发挥灌溉以及奎河冲污作用。云龙湖正常蓄水位高出市区平均水平面1至2米，与故黄河并称徐州市人民头上顶着的“两个大水缸”，随时具有倾覆的危险。为了彻底解决云龙湖的防洪安全问题，市政府又先后多次投入人力和资金对云龙湖进行清淤，修建泄洪闸和加固大堤，这柄高悬在徐州人民头上的“利剑”最终被拆除。 
+随着徐州旅游业不断发展和人民群众生活水平不断提高，社会对云龙湖的功能要求也越来越高。利用云龙湖生态环境发展旅游逐渐得到政府和社会的重视。云龙湖的旅游开发建设始于1987年。当时徐州有一个青年实业开发公司，向市政府有关部门提出申请，请求以向社会发行股票的形式募集资金用于开发云龙湖旅游项目。而此时，徐州市政府从发展经济的需要出发，正在酝酿云龙湖的旅游开发事宜。因此，申请很快得到了市政府有关部门的批准。青年实业开发公司共募集资金30余万元，用于投资云龙湖东岸旅游渡假酒店及游船码头建设项目，自此揭开了云龙湖旅游开发的序幕。 
+1998至1999年，利用西湖清淤的淤土堆成生态岛，面积约35亩。1999至2000年，利用“八一”大堤建成滨湖公园，全长4000米、宽140米。2002年至2003年，实施云龙湖东岸显山露水工程，拆迁黄茅岗村和小金山村，沿湖东路两侧实施景观绿化建设。2004年至2007年，实施小南湖生态环境建设，向南扩展云龙湖湖面0.962平方公里，使云龙湖水面面积达到6.5平方公里，水域面积达到了7.5平方公里。2008年至今，市政府不断推进生态文明建设，持续加大云龙湖周边环境生态修复，先后投入200亿元实施了“显山露水”、“退渔还湖”、“拆违建绿”和林相改造等工程，沿湖拆迁面积200多万平方米，新增绿地和水面150余万平方米。先后组织云龙山景区、珠山景区生态修复；实施滨湖公园、云龙山、水族馆、湖中路、湖西路和“四合一工程”等生态观景环境建设和改造项目；新建南湖水街、滨湖新天地、艺术馆、音乐厅等一大批休闲场所；新增婚庆园、金石园、好人园等景点、景观数十处，景区人文价值和环境品质不断提升。党和国家领导人多次莅临景区视察工作，称赞云龙湖是“国内最美城中湖”，“不是西湖胜西湖”。2011年4月，泰国公主诗琳通来访徐州并游览云龙湖，留下了“徐州是个令人难忘的城市”的赞语。亚州铁人三项赛、全国冬泳赛等国际国内大型赛事和全国性风景湖泊工作研讨会、水族馆行业年会、索道年会、苏轼研究会等行业大会先后在景区举办，景区年接待游客600余万人次，境外游客20余万人次，促进了景区知名度、美誉度不断提升。如今，云龙湖已成为徐州城市的窗口和对外交往的重要名片。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云龙山景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">云龙山，位列全国五十座佛教名山之一，地处风景秀丽的云龙湖畔，与云龙湖山水相依，素为徐州名胜之冠。云龙山南北长约3公里，最高峰海拔142米，其山势蜿蜒起伏，状若游龙。据《江南通志》记载，南朝宋开国皇帝刘裕祖籍彭城，少年时，常登云龙山，每次登山山上总会出现云雾缭绕的奇异景象。刘裕后来做了皇帝。民间传说云龙山有云龙环绕之异，云龙山因而得名。  
+云龙山上苍松翠柏蓊郁蔽日，殿宇亭台星罗棋布，四时风光不同。北宋大文豪苏轼在他的《放鹤亭记》中曾作如下描述：“春夏之交，草木际天；秋冬雪月，千里一色；风雨晦明之间，俯仰百变……”  
+云龙山自然风光怡人，历史人文景观丰富。从北魏至民国，一千五百多年的开发历史，给云龙山留下了许多珍贵的历史文化遗产。如北魏时期人工开凿的大石佛，唐宋时期开凿的摩崖石刻，北宋年间张山人故址、放鹤亭、饮鹤泉，明代胜吉和尚创建的兴化寺，清代康熙年间徐州知州姜焯开凿的大士岩，晋商创建的山西会馆，雍正年间徐州知府李根云创建的云龙书院，光绪年间徐州知府田庚倡建的船厅等历史文化古迹，还有民国时期建造的碑廊、御碑亭等。 
+云龙山有着深厚的历史文化积淀，其中尤以名人文化著称。宋代大文豪苏轼任徐州太守时，曾多次携友游览云龙山，纵情山水，留下许多精彩诗篇和散文，成为传世佳作。此后至明清民国，文臣武将多有题诗刻碑，为云龙山增添了几许风流倜傥。 
+云龙山的佛教文化源远流长。自北魏以来，佛教灯燃千载，历经隋、唐、五代、南北朝与宋、元、明、清各代，历代高僧与能工巧匠，为云龙山留下了一批佛教历史文化经典，其中尤以“三砖殿覆三丈佛”的独特景观名噪天下。 
+然而，由于徐州历史上久经战乱，许多珍贵的历史文化遗产遭到惨重破坏。 
+解放初期，徐州百废待兴，人民政府面临城市重建重任，在财政异常困难的情况下，硬是挤出一部分资金，对云龙山重要古迹进行了维修整理。 
+二十世纪六十年代后期，掀起了文化大革命，云龙山又一次遭到浩劫，许多重要文物古迹惨遭破坏，大石佛被毁，密布大佛两侧崖壁上的小佛雕无一幸存，许多珍贵的石碑被人为破坏，变得面目全非。 
+至二十世纪八、九十年代，社会趋向安定，在政府财政及社会资金支持下，云龙山上大部分古迹逐步得到修复。在修旧的同时，又先后增建了幽邃轩、洞天小庐、云龙山北大门、跨云阁、观景台、杏花村、西大门、鹤归亭及同心台等一批新景观，部分复建了张山人草堂、云龙书院等古迹。 
+改革开放促进了经济发展，同时也给景区建设带来了前所未有的发展机遇。徐州市政府高度重视景区建设，于2004年实施了云龙山显山露水工程，2012年实施了云龙山敞园改造工程，改造后的云龙山生态环境得到极大改善，景色变得更加优美。景区发展前景呈现出勃勃生机。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏步桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说此桥因苏轼而得名。苏轼任徐州太守，常于公务间隙率宾朋僚吏登云龙山。传说，苏轼带人往山西麓黄茅冈拜访张山人路经此处，不小心掉到了山涧里。附近百姓闻知此事，便找来一块石板架在山涧上，取名为“苏步桥”。现在的苏步桥建于1999年，是一座造型美观的小型石拱桥，每根桥栏柱上均雕刻了石狮子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金山公园位于云龙山尾部西侧，云龙湖东南岸，以金山为中心，占地面积约30亩，主体建筑是苏公塔；还有轩、亭、台、桥、榭等建筑分布在山脚湖边，高低错落有致，前后相互呼应，使山与湖在空间上达到相互融合，形成横展于云龙湖东南岸的风景画卷。这座八角形的塔就是苏公塔。塔名由书法家尉天池题写。苏公塔原名金山塔，是一座仿宋式琉璃宝塔，上下共5层，高32米，建筑面积312平方米，内设旋梯，建成于1993年。塔基下有一地下墓室，是建塔时发现的一竖井式汉墓，一直保持原状。“苏轼行迹图”，共41幅。此图由田秉锷撰稿，岳喜明作画并雕刻，以苏轼一生行迹为主题，以苏轼在徐州的事迹为重点，采用阴刻板画形式连缀成篇。此花岗岩雕制“行迹图”丰富了徐州东坡文化的内涵。苏公塔后有两层水榭码头，叫“一金坞”，引自苏轼《罢徐州往南京，马上走笔寄子由五首》中“异时亩一金”笔意而来。圆梦园前还有“苏公别徐图”，是2000年为纪念苏轼别徐州920周年而建。 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏花春雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早在宋代就已成为远近闻名的自然景观。苏轼曾以“一色杏花三十里”来描述云龙山杏花村风光。每年二月，云龙山西坡从南到北绵延数里的杏花次第绽放，放眼望去，好似天上的云霓抖落人间，令人心往神驰。杏花花期可持续数周，而后渐随风雨飘零。落花时节，常令惜花之人心生几分惋惜，杏花春雨之名即由此而来。“花褪残红青杏小，燕子飞时绿水人家绕。”好在此时，桃花已开，杏花村又是另一番美景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">建于2004年。季子挂剑台正门青石牌坊上镌刻着“季子挂剑台”五个大字，两旁刻一副对联，上联：“见礼知政，闻乐知德。”下联：“观风审音，挂剑酬心。”横批：“至德遗风。” 
+季子挂剑是一个历史典故。季子，名札，是春秋时代吴国的公子，吴王寿梦的第四子。季子挂剑的故事，发生在公元前544年春天。季札奉命出使鲁、齐、郑、卫、晋等诸国。途经徐国因平时听闻徐君仁义且治国有方，前去拜访，徐君盛情款待。徐君看到季札佩戴的宝剑，心中十分喜欢。季札看出徐君之意，暗自决定，出使回程时将宝剑献给徐君。然而，当季札回来又路过徐国时，徐君已经去世，埋葬在徐国都城的郊外。于是，季札把剑挂在徐君墓地的树上，行礼之后，便踏上归国之路。徐国人非常赞赏季札重友情讲诚信的行为，便歌唱道：“延陵季子兮不忘故，脱千金之剑兮带丘墓。”上方10米高处有个平台，平台中间安放一方形石鼎，鼎上刻着兽纹。鼎后面平台尽处是一堵墙，墙上就刻着这句唱词：“延陵季子兮不忘故，脱千金之剑兮带丘墓。”徐君墓冢位于墙后，依山而筑。平台北侧即为挂剑亭，亭中立一碑，碑正面刻季子挂剑图，背面刻《季子挂剑台记》，记述了挂剑故事的原委。在景墙两侧镶嵌着题刻：“挂剑酬心，践信泉台。”挂剑台作为诚信的象征，是一座友情与仁义的丰碑，表明了古人对情、对意、对诚实、对诚信的一种珍视。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季子挂剑台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因涓涓泉水从一块大石壁上流入石潭，人们便把它叫做“流壁泉”，后为纪念刘玄德领徐州牧期间施仁政，又因“流壁泉”与其姓名谐音，故改名“刘备泉”。旁边建有小亭和茶苑，周围环境景色十分幽静。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三让亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三让亭是一座三角小亭，隐现于侧柏之中。三让亭台阶共有63级，暗示陶谦63岁时将徐州让与刘备。三让亭源于三让徐州的历史故事。曹操占据兖州后，便派人到琅琊郡接父亲曹嵩。曹嵩与兄弟曹德带领全家四十余口，辎重百余辆，满载财物前往兖州。徐州太守陶谦得知曹家路经徐州，亲自到城外迎接并热情款待，后又派都尉张铠领兵护送。谁知张铠见财起了歹意，半夜杀尽曹嵩全家劫了财物逃跑了。曹操知道后切齿发誓要与陶谦拼命，亲率大军杀奔徐州。陶谦自知抵挡不住，谴使向青州求救。几经周折，还是刘备率部突破重围冲进城内。陶谦大喜，也仰慕刘备的为人，当即要取出印牌让与刘备，刘备不受。后来，因吕布偷袭兖州，曹军退兵去救，徐州之围得解。陶谦当众取出印牌二次让出徐州，又被刘备推辞。后来陶谦染病，临终相托，徐州百姓也拥在府前哭拜说：“刘使君若不领此郡，我等皆不能安生唉！”刘备这才接受权领徐州事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西会馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">山西会馆依山而建，坐西朝东，由戏楼、关圣殿、南北配殿和两侧厢房四部分组成，主体建筑为砖木结构，占地面积约2700平方米。山西会馆是省级文物保护单位，也是徐州地区惟一保存较为完整的会馆式建筑。关圣殿前身叫关圣祠，由芙蓉亭改建而成。至清顺治年间，关圣祠已经“檐阿颓废，垣墉萧然”。后经山西商人捐资改建，将关圣祠更名为关圣殿。清乾隆七年，在徐经商的山西人共同捐资，在关圣殿基础上修建了山西会馆。会馆以关圣殿为核心，供奉关帝圣君、火神、财神、福神，因此又称“四圣会馆”。山西会馆是山西人往来贸易、物资集散及乡人聚会议事场所，也是外省商会在徐州建立的第一家会馆，又称“老会馆”。 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碑廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于放鹤亭东面，坐东朝西。原来只有三间，1959年夏扩建为十间。廊内墙中镶嵌不同时期石碑，多为明、清两代文人及官员所题诗文及书法作品。现有大小碑碣共计42块。珍贵的藏品有：元代黄公望的《过南阳武候祠记》，明代董其昌撰文书丹的《重修云龙山放鹤亭记》，明代著名水利家潘季训手书的《同江司徒小酌云龙山》和《再登龙山》，乾隆皇帝御笔亲书的《放鹤亭记》碑和《放鹤亭歌》碑等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招鹤亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">招鹤亭是一个四柱皆为青砖砌成的砖木结构四角小亭。此亭因苏轼《放鹤亭记》中《招鹤》之歌而得名。我们看，亭前的青石诗碑上，刻有《招鹤》之歌。在这里，我们可远眺云龙湖风光。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>始建于清光绪三十二年，为徐州知府田庚创建。原为两层砖木结构，上层似船，下层为厅。厅西面墙上有匾一块，上书“天上座”三字。匾下对联为：“春水船如天上坐，秋山人在画中行”。当时，常有文人在船亭吟诗、赏雪、集会。相亲、谢媒者也常借用此亭。船亭后来被毁。现在的船亭为1979年重建，占地面积600平方米。其中，建筑面积410平方米。船亭东首为三层，顶层为茶室，门额上悬挂 
+“天上座” 匾额，由前徐州市副市长王其华书写，对联由当代书法家徐州书协主席王冰石重新书写。门两边挂着光绪三十二年江苏候补教谕王琴九撰写的楹联： 
+大地俯青徐，看残落日平原，百战山河诠楚汉； 
+孤亭绕翠嶂，倚遍疏栏画槛，千秋雪月共苏张。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">依山崖所建五十三级台阶，俗称“五十三参”。取意于佛教中善财童子拜佛的故事。《华严经·入法界品》记述：善财童子为福生城长者之子，生下时有种种珍宝涌现，所以取名“善财”。善财接受文殊菩萨的指点，虔诚地依次参拜了海云比丘、善住比丘、弥迦长者等五十三位“善知识”（即名师、得道者），最后，从观音菩萨那里得道，成为观音大士的胁侍。寺庙修有五十三参，即劝告信士，要成“正果”，必虔诚参拜。每逢农历二月十九日，云龙山庙会期间，五十三参常云集四方善男信女，于此虔诚跪拜。庙会期间，大士岩山门对面的戏楼常常唱戏，五十三参常坐满看戏者。站在这里，向西可俯瞰碧波荡漾的云龙湖。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五十三参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自北宋元丰元年至清道光十九年（1839年）的761年间，此峭壁上留下了30多人的作品，有诗有文，除了围绕苏轼诗词奉和步韵的诗词和游记外，还有横卧峭壁的《续喜雨亭记》碑、《新修紫翠轩记》碑、顺治十三年（1656年）户部分司河南人贾壮的《紫翠轩》诗刻。此外还有许多摩崖石刻，如康熙九年（1670年）云龙山樵张志 羽题写的“枕石卧云”四个字，以及“旷逸”、“僧云”、“冈岭四合”等，这些石刻风格多样，刻工精湛，具有较高的观赏和文学研究价值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄茅冈摩崖石刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄茅冈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在古代，这里茅草丛生，乱石遍地，有如群羊卧坡。北宋神宗元丰元年，时任徐州知州的苏轼和好友王巩、颜复等由黄茅冈登云龙山。苏轼因酒醉不支，便醉卧在山崖下一块平板岩石上。过往路人见堂堂知州竟醉到如此地步，都拍手大笑。苏轼半醉半醒之间，高声吟诗一首：“醉中走上黄茅冈，满冈乱石如群羊。冈头醉倒石作床，仰看白云天茫茫，歌声落谷秋风长。路人举首东南望，拍手大笑使君狂。”这首诗在苏轼诗集中题为《登云龙山》。 
+黄茅冈因有“东坡石床”和历代歌咏苏公的诗文碑刻而闻名。明代著名哲学家王守仁（阳明）路过徐州，曾题写“黄茅冈”三字勒于山石，但因受风雨侵蚀，年久漫漶。我们现在看到的“黄茅冈”三字，是后来乾隆皇帝重新题写的，浑秀端正，每字长80厘米、宽50至60厘米。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观景台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">观景台分上、下两层。上平台面积约为400平方米，下平台面积约为1062平方米。在上平台南侧矗立一座六角重檐仿古亭，亭内摆放圆形花岗岩石桌。石桌周围摆放六只石鼓形花岗岩坐凳。在六根红漆抱柱中，朝向北面的两根柱上悬挂一副楹联：“一泓碧水涵古彭古意，百仞瑶台赏新景新姿。”下平台中间原为占地约300平方米的展览大厅及贵宾接待室，后改造为观景台茶苑。位于上下平台之间的观景台北侧入口照壁上，镌刻着由著名书法家尉天池题写的“观景台”三个大字。观景台可同时容纳2000人游览参观。登台观景，徐州城及环城山川风光，尽收眼底。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮鹤泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">原名叫石佛井，系穿凿岩石而成。此井最早的相关记载见于北宋地理名著《太平环宇记》：“有井在石佛山顶，方一丈二尺，深三里，自然液水，虽雨旱无增减，或云饮之可愈疾，时有云气出其中，去地七百余尺。”因井毗邻放鹤亭，故更名为饮鹤泉，并立饮鹤泉石碑。饮鹤泉水质清冽甘美，苏轼当年曾在《游张山人园》诗中赞道：“闻道君家好井水，归轩乞得满瓶回。”
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放鹤亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">为北宋时期彭城人张天骥所建。原亭已毁，现在的放鹤亭建于民国二十三年。建筑为清式，坐东向西，整体砖木结构，歇山飞檐，周有柱廊环绕，亭前左右花坛分列道旁，亭与环境浑然一体，古朴幽雅。苏轼《放鹤亭记》载：“熙宁十年秋，彭城大水，云龙山人张君之草堂，水及其半扉。越明年，水落，迁于故居之上，东山之麓。” 
+“麓”即指山脚。大水之后，张山人在此处重建新居，又在旁边建一座小亭，用来放鹤，放鹤亭由此得名。后经时任徐州知州的苏轼为之作记，使放鹤亭名传古今。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张山人旧居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">张山人旧居为茅檐三间，内置壁画几轴，朴拙家具几件。此处是张山人隐居耕读、奉养老母之处。山人终身未娶，高情出世，有如闲云野鹤，过着一种比“面南为君”还要逍遥自在的日子。其住处旁边造一草亭，耕读之余，每日以放鹤为戏。苏轼任徐州知州时，公余常来云龙山游玩，与山人诗酒唱和，二人结下了深厚友谊。原张山人旧居毁于熙宁十年彭城大水。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云龙书院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">坐落在云龙山西麓。康熙六十年，徐淮同知孙国瑜在此办义学。雍正十三年，徐州知府李根云将义学改建为书院，取名为“云龙书院”。乾隆五十三年，徐淮道康基田将书院加以扩建。院内建有讲堂、文昌阁、宜福堂、紫翠轩、四贤祠、三官庙、白鹿洞、望湖亭等。文昌阁藏书数万册，“四贤祠”内祭祀韩愈、苏轼、陈师道、杨时四位唐宋名贤。白鹿洞位于望湖亭下，为人工开凿，洞门高约2米、宽约1.9米、深3.2米。史载：唐贞元年间，李渤与其兄隐读于江西庐山五老峰下。李渤养了一只白鹿，十分驯良，常随李渤出入，人们都称李渤为白鹿先生。明正德初年，南康太宗王溱为了纪念李渤，辟山为洞，并取名白鹿洞。至清代，已形成惯例，凡建书院，必修白鹿洞，各地书院悉遵此制。清顺治十七年，徐谓弟建可廊，与望湖亭相通。可廊与云龙书院俱毁于民国战乱之际，1996年重建。历史上云龙书院设有山长（院长），聘请海内名儒担任。著名学者王峻、刘庠，著名辞学家冯煦，骈文家邓析都曾出任过山长或院长。云龙书院在其存在的182年中，培养了众多人才，为徐州文化发展作出了很大贡献。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀古亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">原名醉亭，建于民国初年，由铜山县首任民政长王少华倡建。建此亭的目的是为徐州文人雅士提供一处聚会场所。王少华亦曾积极倡导在云龙山上开展植树活动。1952年10月29日，毛泽东主席登临云龙山，途中曾在此亭中小憩，听陪同参观的地方领导汇报工作。毛主席十分熟谙徐州历史，与陪同的地方领导聊起了发生在徐州的楚汉战争，告诫大家不要学项羽刚愎自用，嫉贤妒能，要学刘邦，善用人才。听说乾隆皇帝曾经骂徐州是“穷山恶水，泼妇刁民。”毛主席说：“那是对劳动人民的污蔑”。随后，毛主席观察了云龙山及其周围诸山所呈现的童山秃岭的状况，当即向陪同参观的徐州市委、市政府领导做了重要指示：“我们要把黄河治理好，变恶水为好水；要发动群众上山植树，绿化荒山，变穷山为富山。”自从毛主席做出绿化荒山的重要指示之后，五十多年来，徐州人民大力开展植树造林、绿化荒山活动，徐州境内荒山尽披绿装，到处呈现出一派绿意盎然的景象。目前徐州周围山头绿化覆盖率已经达到了97%以上。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大士岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">它位于云龙山西半山腰上，是康熙五十八年徐州知州姜焯开凿的。他原来打算在这里建造僧舍，觅僧看守放鹤亭，因为在挖地基的时候发现了一块巨大的岩石，广约八丈，峰棱外露，不知道它有多深，又因山下黄茅冈有唐吴道子所画观音大士像石碑，于是授意石工把巨岩雕为观音大士像。观音像雕成后，人们发现其腰部有一道白纹，天然如带，“玉带观音”之名因此不胫而走。又因观音右手怀抱婴儿，俗称“送子观音”。观音像既成，姜焯即为观音像建正殿三间。后增建韦驮殿及左右寮舍，又置亭台、阁道，庙貌初成。因观音得道于南海，又称“南海大士”，观音像遂称为“大士岩”。 
+大士岩的正殿为圆通宝殿，正殿中的观音大士像雕在巨岩上，大士像已经毁于文革时期，这座大士像是1979年重塑的。观音殿门口两侧石柱上刻着一副楹联：“慈云无住庄严像，法雨常飞清净身”，横梁上刻有“普陀一支”字样。这是清乾隆皇帝游览大士岩时题写。1988年，又增塑了文殊、普贤菩萨。因为观音是阿弥陀佛的左胁侍，他同阿弥陀佛及其右胁侍大势至菩萨合称“西方三圣”。所以在北配殿建了三圣殿，供奉三圣。南配殿是大悲殿，也叫千手千眼观音殿。据佛经《大悲咒》记载，千手千眼的菩萨是观世音菩萨三十三应化身之一，画家依据密宗仪规而绘成多面多臂菩萨。而民间相传东周妙王的第三个女儿出家得道后，为替父亲治病，挖下了自己的双眼。砍下了自己的双手，制成药治愈了父亲的病。妙庄王为了纪念女儿，让塑匠塑一个全手全眼的观音像，塑匠听错了，塑了一个千手千眼的观音像。 
+观音殿院内有两株清代种下的古柏，树龄已逾300年，为徐州市重点保护古树名木。古往今来，无数善男信女都把这两株古柏看作神物，在膜拜送子观音之后，往往采用摸树来验证。据民间传说，若能闭上眼睛从北面的一株走过去直接摸到南面的一株树，则所求必应。大士岩左侧角门外，还有一株峭立于路边岩缝中的古柏，傲然挺拔，虬枝如铁，卓尔不群。此树树龄已有960多年，号称千年古柏。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗战亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">原亭建于1947年5月，采用钢铁焊接而成，故又称铁亭，亭子顶部安装有一个铜质平面火车头模型。亭内矗立着2米多高的尖顶花岗岩三棱碑，这就是津浦铁路抗战殉难员工纪念碑。碑的正面镌刻着碑名，右侧刻有津浦铁路员工英勇抗战事迹简介，左侧刻着烈士名录。碑文记载 ：公元1938年5月，日寇渐迫徐州，铁路员工同仇敌忾，于枪林弹雨中驾驶机车抢运物资，遣送难民291人（具体人数不详）。随军南撤转战粤汉湘桂两路，出生入死，奋勇当先。八年抗战，计有186名津浦铁路员工壮烈殉职。1947年5月，徐州机务段特立津浦铁路抗战殉难员工纪念碑，以昭后人。1997年，江苏省将其确定为爱国主义教育基地。此亭为徐州铁路分局1995年出资重建。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴化禅寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">素享苏北名刹盛誉，让我们到那里去参观吧。兴化寺始建于南朝宋、梁间，初名石佛寺。明代高僧胜吉缘山构宇，建大殿覆盖石佛。大殿三面均为山崖石壁，殿内供奉的石佛高11.52米，合三丈四尺有余，但殿的后墙只砌了三层砖。所以兴化寺以“三砖殿覆三丈佛”而闻名于世。 
+佛教一向劝人向善，佛像虽然法相尊严，但可以看到他其实是微笑着的，而且他方面大耳，显得非常慈祥。古代的能工巧匠用他们灵巧的双手演绎出了佛教“放下屠刀，立地成佛”的劝语。大殿内两旁的山壁之上刻有山峰、瀑布、洞穴，各种各样的佛像错落分布其间，成为“龛山为宇，削峰成相，四壁陡峭。阿罗汉、诸天、龙女历落岩窦间，天然如画”的巨观，虽在宣德七年被烧毁了一部分，但仍保存七十二处，二百五十余尊。其中，最早的年号为北魏太和十年。那时正是北魏凿窟雕佛的鼎盛时期，因而大石佛头像很可能为466—486年间雕凿的，算起来距今已有一千五百多年的历史了。 
+多年来，人们都习惯将大石佛称为释迦牟尼像。但是，从南京栖霞寺到兴化寺任主持的养熙法师，根据石佛像的手型认定大石佛像实际是阿弥陀佛而非释迦牟尼佛，纠正了一千多年来人们对大石佛的误判，并因此提议将兴化寺更名兴化禅寺。1986年，养熙正式荣膺兴化禅寺第十二代住持。 
+这里是1997年兴建的新大雄宝殿。在兴建时，施工队挖地基过程中，于地下8米处，意外发现成片成组的石刻佛教造像群。这些佛教造像群，就是位于这座新大雄宝殿地下的唐宋摩崖石刻。唐宋摩崖石刻沿南北走势的断崖开凿，面朝东，由下而上，共分四层七组。总造像数近200个，游记长达四五百字。各龛雕刻多为佛、菩萨、天王、力士、飞天、供养人等。造像为深浮雕，线条流畅，人物造型生动而富有个性。在佛龛两侧，有许多文字题记，记载了开凿的年代。其中，最早的为唐宪宗元和八年，最晚的为宋治平四年，历经唐宋两个朝代。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠山景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">珠山景区位于云龙湖西部珠山脚下，环绕整个珠山山脉，总占地面积80公顷。景区以道教文化为核心，以道家思想中的“返璞归真、天人合一”为文化内容，以徐州丰县籍道教创始人张道陵仙路历程（得道、修炼、斗法、立教、升天）为主线，设有鹤鸣台、百草坛、天师广场、创教路、神道、天师岭、万福广场等景点，来展示道家文化。景区紧密结合道教“一元初始、太极两仪、三才相和、四象环绕、五行相生、六合寰宇、七日来复、八卦演易、九宫合中、一元复始”的文化概念，同时又充分注重人的参与性与融入性，是集休闲、生态、自然为一体的开放式主题性景区。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗博园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">徐州历史上为华夏九州之一，有超过6000年的文明史和2600年的建城史，物华天宝、人杰地灵、人文荟萃，于1986年列入国家第二批历史文化名城。历朝历代风云志士、文人学者，留下了大量赋咏徐州的诗词歌赋。为弘扬地方传统文化、繁荣诗词艺术、打造“全国诗词之市”，市委、市政府在风景秀丽的珠山景区建设了这座“歌咏徐州”的诗词碑林园。 
+诗博园于2015年8月10日开工建设，12月建成开放，总占地面积50亩，分集中展示区和外延分散展示区两大区域，两个区域面积均为25亩。 
+诗博园入口景观标志整体造型以“龙型”玉佩为设计元素，结合汉代建筑细部构造设计而成。整体色调以米黄色为主，局部红色进行点缀，材质以花岗岩石材为主，结合钢化玻璃，打造传统与现代结合的效果。 
+入口两侧特色景观墙整体造型凸显汉代风格，使用现代材质预制混凝土与花岗岩的材质，局部以汉代花纹进行点缀，整体色调以灰色调为主，局部以黑色进行点缀。景观墙共16面，其中一面为LED电子荧光屏，其余15面集中展示15位历史名人肖像及其经典诗词作品。依次是（附1）。 
+回廊,是一座四方围合的半私密空间。整体造型依据古代“回型形”图案，又寓意“天圆地方”理念。色调以黄、灰色为主，构造材质方面以彩色混凝土、花岗岩等安全系数高的材料为主，局部结合钢化玻璃处理。沿回廊四周共展示诗词歌赋54篇（附2）。 
+外延分散展示区,以中国历史时间轴形式依次展示各时代诗词精品，包括春秋战国、秦汉、隋唐、宋元、明清、民国和现当代7个景观小品区（各景观小品区展示的诗词见附3）。 
+1、春秋战国景观小品区：以古代人物画像为设计背景，结合人像与诗词，进行集中展示，设计以春秋时期季子挂剑为设计元素，结合红色锈板材质，抽象提炼设计一块特色景观墙。共展示诗词5首。 
+2、隋唐景观小品区：依托唐朝家具“屏风”为设计元素，结合诗词文字，设计一组特色“屏风”景墙。共展示诗词6首。 
+3、宋元景观小品区：结合宋代活字印刷术为设计背景，将诗词展示与活字印刷板相结合，整体色调以深灰色为主，以石材为主要材质，局部以钢材进行点缀，充分展示传统与现代的完美结合。共展示诗词6首。 
+4、明清景观小品区：以明清青花瓷器为设计元素，结合诗词文化进行造型设计，青花瓷罐保留原始造型，以金属钢板为主要材质，局部调整色调，以暖黄代替纯白色，突显其文化底蕴。共展示诗词7首。 
+5、民国景观小品区：以民国文化为设计背景，依据民国建筑风格，进行文化景观墙设计，景观墙设计中采用青砖贴面，给人以复古、沉稳的感觉，整体色调以深灰色为主，局部结合钢化玻璃，并巧妙运用民国灯具进行点缀装饰。共展示诗词3首。 
+6、现当代景观小品区：选择龙型玉佩为设计元素，进行抽象提取，重新组合变形，运用现代工艺，以混凝土材质为主，局部对景墙进行适当掏空，并配以植物点缀以增加景观小品的空间变化。共展示诗词5首。 
+附1： 
+入口两侧景观墙展示的15首诗词 
+1.大风歌 
+            刘邦 
+大风起兮云飞扬，威加海内兮归故乡，安得猛士兮守四方。 
+刘邦（前256-前195），沛郡丰邑（今江苏徐州）人，汉朝开国皇帝。 
+   2.木兰花慢·彭城怀古 
+            萨都剌 
+古徐州形胜，消磨尽、几英雄。想铁甲重瞳，乌骓汗血，玉帐连空。楚歌八千兵散，料梦魂，应不到江东。空有黄河如带，乱山回合云龙。  汉家陵阙起秋风，禾黍满关中。更戏马台荒，画眉人远，燕子楼空。人生百年寄耳，且开怀，一饮尽千钟。回首荒城斜日，倚栏目送飞鸿。 
+萨都剌（约1272-1355），字天锡，号直斋，雁门(今山西代县)人，元朝诗人。 
+   3.垓下歌 
+            项羽 
+力拔山兮气盖世，时不利兮骓不逝。 
+骓不逝兮可奈何，虞兮虞兮奈若何！ 
+项羽（前232-前202），名籍，字羽，下相（今江苏宿迁）人，秦末军事家。 
+   4.经下邳圯桥怀张子房 
+            李白 
+子房未虎啸，破产不为家。沧海得壮士，椎秦博浪沙。 
+报韩虽不成，天地皆振动。潜匿游下邳，岂曰非智勇？ 
+我来圯桥上，怀古钦英风。唯见碧流水，曾无黄石公。 
+叹息此人去，萧条徐泗空。 
+李白（701－762），字太白，号青莲居士，蜀郡绵州昌隆（今四川江油）人，唐朝诗人。 
+   5.燕子楼 
+           白居易 
+           （一） 
+满窗明月满帘霜，被冷灯残拂卧床。 
+燕子楼中霜月夜，秋来只为一人长。 
+            （二） 
+钿晕罗衫色似烟，几回欲著即潸然。 
+自从不舞霓裳曲，叠在空箱十一年。 
+            （三） 
+今春有客洛阳回，曾到尚书墓上来。 
+见说白杨堪作柱，争教红粉不成灰。 
+白居易（772-846）,字乐天，号香山居士，河南新郑人，唐朝诗人。 
+   6.题汉祖庙 
+            李商隐 
+乘运应须宅八荒，男儿安在恋池隍？ 
+君王自起新丰后，项羽何曾在故乡！ 
+李商隐（813-858），字义山，号玉谿生，怀州河内（今河南沁阳）人，唐朝诗人。 
+   7.送蜀人张师厚赴殿试 
+             苏轼 
+云龙山下试春衣，放鹤亭前送落晖。 
+一色杏花三十里，新郎君去马如飞。 
+苏轼（1037-1101），字子瞻，号东坡居士，眉州眉山（今四川眉山）人，北宋文学家，曾任徐州知州。 
+   8.题樊侯庙 
+             黄庭坚 
+             （一） 
+汉兴丰沛开天下，故旧因依日月明。 
+拔剑一卮戏下酒，剖符千户舞阳城。 
+鼓刀屠狗少时事，排闼谏君身后名。 
+异日淮阴傥相见，安能鞅鞅似平生。 
+              (二) 
+门掩虚堂阴窈窈，风摇枯竹冷萧萧。 
+邱虚余意谁相问，丰沛英魂我欲招。 
+野老无知惟卜岁，神巫何事苦吹箫。 
+人归里社黄云莫，只有哀蝉伴寂寥。 
+黄庭坚（1045－1105），字鲁直，自号山谷道人，洪州分宁（今江西修水）人，北宋书法家、诗人。 
+   9.蝶恋花·送彭舍人罢徐 
+                           陈师道 
+九里山前千里路。流水无情，只送行人去。路转河回寒日暮。连峰不许重回顾。  水解随人花却住。衾冷香销，但有残妆污。泪入长江空几许。双洪一抹无寻处。 
+陈师道（1053-1102），字履常，一字无己，号后山居士，彭城（今江苏徐州）人，北宋诗人。 
+   10.鹧鸪天·重九席上作 
+                            辛弃疾 
+戏马台前秋雁飞。管弦歌舞更旌旗。 要知黄菊清高处，不入当年二谢诗。  倾白酒，绕东篱。只于陶令有心期。明朝重九浑潇洒，莫使尊前欠一枝。 
+辛弃疾（1140-1207），原字坦夫，改字幼安，别号稼轩，历城（今山东济南）人，南宋词人。 
+   11.沛歌 
+                    文天祥 
+秦世失其鹿，丰沛发龙颜。王侯与将相，不出徐济间。 
+当时数公起，四海王气闲。至今尚想见，虹光照人寰。 
+我来千载下，吊古泪如潸。白云落荒草，隐隐芒砀山。 
+黄河天下雄，南去不复还。乃知盈虚故，天道如循环。 
+卢王旧封地，今日杀函关。 
+文天祥（1236-1283），字宋瑞，一字履善。自号文山、浮休道人，吉州庐陵（今江西吉安）人，南宋政治家、诗人。 
+   12.登歌风台怀古 
+           唐寅 
+此地曾经王辇巡，比邻争睹帝王身。 
+世随邑改井犹在，碑勒风歌字失真。 
+仗剑当时冀亡命，入关不意竟降秦。 
+千年泗上荒台在，落日牛羊感路人。 
+唐寅（1470-1523），字伯虎，号六如居士等，吴县（今江苏苏州）人，明朝画家、书法家。   
+13. 户部山探梅 
+             李蟠 
+空山无伴已多年，独有寒梅傍我妍。 
+疏影偏宜闲散地，幽香不到艳阳天。 
+含苞带雨来相问，露蕊临风倍可怜。 
+纸帐夜深还入梦，罗浮只在一灯前。 
+李蟠(1656-1729)，字仙李，又字根庵，号莱溪，江苏徐州人，清朝康熙年间状元。 
+14、水龙吟·谒张子房祠 
+                            朱彝尊 
+当年博浪金椎，惜乎不中秦皇帝。咸阳大索，下邳亡命，全身非易。纵汉当兴，使韩成在，肯臣刘季？算论功三杰，封留万户，都未是、平生意。   遗庙彭城万里。有苍苔断碑横地。千盘驿路，满山枫叶，一湾河水。沧海人归，圯桥石杳，古墙空闭。怅萧萧白发，经过揽涕，向斜阳里。 
+朱彝尊（1629-1709），字锡鬯，号竹垞，秀水（今浙江嘉兴）人，清朝文学家。 
+   15.放鹤亭歌 
+    爱新觉罗·弘历 
+木石岂千年，羽衣早翩去。 
+何来云龙顶，依然有其处。 
+疏轩眺远栖嶙峋，阶前亦立胎仙群。 
+坡翁公案一重唱，尔时更有张山人。 
+青山绿野古徐州，黄河之水东南流。 
+本意登临豁远志，宣房深计翻增愁。 
+爱新觉罗·弘历（1711－1799），清朝第六位皇帝，年号乾隆。 
+附2： 
+沿回廊四周共展示诗词歌赋54篇 
+1、徐人歌 
+        佚名 
+延陵季子兮不忘故，脱千金之剑兮带丘墓。 
+春秋后期，吴国延陵季子出使晋国，途经徐国（今徐州地区），觉察到徐国国君喜欢他的宝剑，打算在完成使命后以剑相赠。而返回时国君已亡故，就将剑挂在他墓地的树上,徐人因此作歌。 
+2、楚辞·天问（节选） 
+          屈原 
+彭铿斟雉，帝何飨？受寿永多，夫何久长？ 
+屈原（约前340-约前278），名平，字原，战国时期楚国诗人。 
+3、徐州牧箴 
+           扬雄 
+海岱伊淮，东海是渚。徐州之土，邑于蕃宇。 
+大野既潴，有羽有蒙。孤桐蠙珠，泗沂攸同。 
+实列藩蔽，侯卫东方。民好农蚕，大野以康。 
+帝癸及辛，不祗不恪。沉湎于酒，而忘其东作。 
+天命汤武，勦绝其绪祚。降周任姜，镇于琅邪。 
+姜氏绝苗，田氏攸都。事由细微，不虑不图。 
+祸如丘山，本在萌芽。牧臣司徐，敢告仆夫。 
+扬雄（前53-18），字子云，蜀郡成都（今四川成都）人，西汉文学家。 
+4、彭城会诗 
+             谢晦 
+先荡临淄秽，却清河洛尘。华阳有逸骥，桃林无伏轮。 
+谢晦（390-426），字宣明，会稽（今浙江绍兴）人，南朝刘宋时期大臣。 
+5、彭城宫中直感岁暮 
+                 谢灵运 
+草草眷徂物，契契矜岁殚。楚艳起行戚，《吴趋》绝归欢。修带缓旧裳，素鬓改朱颜。晚暮悲独坐，鸣鶗歇春兰。 
+谢灵运（385-433），会稽（今浙江绍兴）人，南朝刘宋时期文学家。 
+6、登戏马台作 
+        储光羲 
+君不见宋公仗钺诛燕后，英雄踊跃争趋走。 
+小会衣冠吕梁壑，大征甲卒碻磝口。 
+天门神武树元勋，九日茱萸飨六军。 
+泛泛楼船游极浦，摇摇歌吹动浮云。 
+居人满目市朝变，霸业犹存齐楚甸。 
+泗水南流桐柏川，沂山北走琅琊县。 
+沧海沉沉晨雾开，彭城烈烈秋风来。 
+少年自古未得意，日暮萧条登古台。 
+储光羲（约706-约763），润州延陵（今江苏金坛）人，唐朝诗人。 
+7、彭祖井 
+             皇甫冉 
+上公旌节在徐方，旧井莓苔近寝堂。 
+访古因知彭祖宅，得仙何必葛洪乡。 
+清虚不共春池竟，盥漱偏宜夏日长。 
+闻道延年如玉液，欲将调鼎献明光。 
+皇甫冉（约717-约770），字茂政，润州丹阳（今江苏丹阳）人，唐朝诗人。 
+8、雨中登沛县楼赠表兄郭少府 
+                 刘长卿 
+楚泽秋更远，云雷有时作。晚陂带残雨，白水昏漠漠。 
+伫立收烟氛，洗然静寥廓。卷帘高楼上，万里看日落。 
+为客频改弦，辞家尚如昨。故山今不见，此鸟那可讬。 
+小邑务常闲，吾兄宦何薄。高标青云器，独立沧江鹤。 
+惠爱原上情，殷勤丘中诺。何当遂良愿，归卧青山郭。 
+刘长卿（约726-约786），字文房，宣城（今安徽宣城）人，唐朝诗人。 
+9、汴泗交流赠张仆射 
+            韩愈 
+汴泗交流郡城角，筑场千步平如削。 
+短垣三面缭逶迤，击鼓腾腾树赤旗。 
+新秋朝凉未见日，公早结束来何为？ 
+分曹决胜约前定，百马攒蹄近相映。 
+毬惊杖奋合且离，红牛缨绂黄金羁。 
+侧身转臂著马腹，霹雳应手神珠驰。 
+超遥散漫两闲暇，挥霍纷纭争变化。 
+发难得巧意气粗，欢声四合壮士呼。 
+此诚习战非为剧，岂若安坐行良图。 
+当今忠臣不可得，公马莫走须杀贼。 
+韩愈（768-824），字退之，河南河阳（今河南孟州）人，唐朝诗人。 
+10、燕子楼 
+            张仲素 
+            （一） 
+楼上残灯伴晓霜，独眠人起合欢床。 
+相思一夜情多少，地角天涯不是长。 
+            （二） 
+北邙松柏锁愁烟，燕子楼人思悄然。 
+自埋剑履歌尘散，红袖香消已十年。 
+            （三） 
+适看鸿雁岳阳回，又睹玄禽逼社来。 
+瑶瑟玉箫无意绪，任从蛛网任从灰。 
+张仲素（约769-约819），字绘之，符离（今安徽宿州）人，唐朝诗人。 
+11、题彭祖楼 
+           薛能 
+新晴天状湿融融，徐国滩声上下洪。 
+极目澄鲜无限景，入怀轻好可怜风。 
+身防潦倒师彭祖，妓拥登临愧谢公。 
+谁致此楼潜惠我，万家残照在河东。 
+薛能(约817-约880），字太拙，汾州（山西汾阳）人，唐朝诗人，曾任徐州节度使。12、送赵谏议知徐州梅尧臣鹿车几辆马几匹，轸建朱幡骑彀弓。 雨过短亭云断续，莺啼高柳路西东。 
+吕梁水注千寻险，大泽龙归万古空。 
+莫问前朝张仆射，毬场细草绿蒙蒙。 
+梅尧臣（1002-1060），字圣俞，宣州宣城（今安徽宣城）人，北宋诗人。 
+    13、彭城道中 
+               曾巩 
+百步洪声潦退初，白沙新岸凑舟车。 
+一时屠钓英雄尽，千载河山战伐余。 
+楚汉旧歌流俚耳，韩彭遗壁冠荒墟。 
+可怜马上纵横略，只在邳桥一卷书。 
+曾巩（1019-1083），字子固，建昌南丰（今江西南丰）人，北宋文学家。   
+14、登云龙山 
+                              苏轼 
+醉中走上黄茅冈，满冈乱石如群羊。冈头醉倒石作床，仰看白云天茫茫。歌声落谷秋风长，路人举首东南望，拍手大笑使君狂。 
+15、江城子·别徐州 
+                             苏轼 
+天涯流落思无穷。既相逢，却匆匆。携手佳人、和泪折残红。为问东风余几许？春纵在，与谁同！  隋堤三月水溶溶。背归鸿，去吴中。回首彭城、清泗与淮通。欲寄相思千点泪，流不到，楚江东。 
+16、永遇乐•明月如霜 
+                            苏轼 
+夜宿燕子楼，梦盼盼，因作此词。 
+明月如霜，好风如水，清景无限。曲港跳鱼，圆荷泻露，寂寞无人见。紞如三鼓，铿然一叶，黯黯梦云惊断。夜茫茫、重寻无处，觉来小园行遍。  天涯倦客，山中归路，望断故园心眼。燕子楼空，佳人何在，空锁楼中燕。古今如梦，何曾梦觉，但有旧欢新怨。异时对、黄楼夜景，为余浩叹。 
+17、浣溪沙 
+                             苏轼 
+徐门石潭谢雨，道上作五首。潭在城东二十里，常与泗水增减，清浊相应。 
+簌簌衣巾落枣花，村南村北响缲车，牛衣古柳卖黄瓜。 
+酒困路长惟欲睡，日高人渴漫思茶，敲门试问野人家。 
+18、石炭（并引） 
+                                 苏轼 
+彭城旧无石炭。元丰元年十二月，始遣人访获于州之西南白土镇之北，以冶铁作兵，犀利胜常云。 
+君不见前年雨雪行人断，城中居民风裂骭。 
+湿薪半束抱衾裯，日暮敲门无处换。 
+岂料山中有遗宝，磊落如□【上为“繄”的上半部；下为“石”。打不出来】万车炭。 
+流膏迸液无人知，阵阵腥风自吹散。 
+根苗一发浩无际，万人鼓舞千人看。 
+投泥泼水愈光明，烁玉流金见精悍。 
+南山栗林渐可息，北山顽矿何劳锻。 
+为君铸作百炼刀，要斩长鲸为万段。 
+19、水调歌头·徐州中秋 
+                                        苏辙 
+离别一何久，七度过中秋。去年东武今夕，明月不胜愁。岂意彭城山下，同泛清河古汴，船上载凉州。鼓吹助清赏，鸿雁起汀洲。  坐中客，翠羽帔，紫绮裘。素娥无赖，西去曾不为人留。今夜清尊对客，明夜孤帆水驿，依旧照离忧。但恐同王粲，相对永登楼。 
+苏辙（1039-1112），字子由，自号颍滨遗老，眉州眉山（今四川眉山）人，北宋文学家。 
+20、陪子瞻游百步洪 
+           苏辙 
+城东泗水平如席，城头远山涵落日。 
+轻舟鸣橹自生风，渺渺江湖动颜色。 
+中洲过尽石纵横，南去清波头尽白。 
+岸边怪石如牛马，衔尾舳舻谁敢下？ 
+没人出没须臾间，却立沙头手足干。 
+客舟一叶久未上，吴牛回首良间关。 
+风波荡潏未可触，归来何事尝艰难？ 
+楼中吹角莫烟起，出城骑火催君还。 
+注：百步洪，又名徐州洪，在徐州东南二里。 
+21、别子瞻学士 
+            秦观 
+人生异趣各有求，系风捕影只怀忧。 
+我独不愿万户侯，惟愿一识苏徐州。 
+徐州英伟非人力，世有高名擅区域。 
+珠树三株讵可攀？玉海千寻真莫测。 
+一昨秋风动远情，便忆鲈鱼访洞庭。 
+芝兰不独庭中秀，松柏仍当雪后青。 
+故人持节过乡县，教以东来偿所愿。 
+天上麒麟昔漫闻，河东鸑鷟今才见。 
+不将俗物碍天真，北斗已南能几人? 
+ 八砖学士风标远，五马使君恩意新。 
+ 黄尘冥冥日月换，中有盈虚亦何算？ 
+ 据龟食蛤暂相从，请结后期游汗漫。 
+秦观（1049-1100），字少游，号淮海居士，扬州高邮人，北宋词人。 
+22、病后登快哉亭 
+               贺铸 
+经雨清蝉得意鸣，征尘见处见归程。 
+病来把酒不知厌，梦后倚楼无限情。 
+鸦带斜阳投古刹，草将野色入荒城。 
+故园又负黄昏约，但觉秋风发上生。 
+贺铸(1052-1125)，字方回，号庆湖遗老，卫州（今河南卫辉）人，北宋词人。 
+23、九里山前（歌谣） 
+               佚名 
+九里山前作战场，牧童拾得旧刀枪。 
+顺风吹动乌江水，好似虞姬别霸王。 
+元末明初时期歌谣，出自施耐庵小说《水浒传》。 
+  24.歌风台 
+                    方孝孺 
+       歌风台下春水黄，歌风台上春草碧。 
+       黄河之水日夜流，碧草年年自春色。 
+       汉祖当时为帝王，龙泉三尺飞秋霜。 
+       五年马上得天下，富贵乐在归还乡。 
+       台前老人争拜跪，拄杖麻衣见天子。 
+       龙颜自喜还自伤，一半随龙半随鬼。 
+       翻思昔日亭长时，一心捧檄日夜驰。 
+       即今宇宙过四海，一榻之外谁撑持。 
+       却令猛士镇寰宇，安得长年在乡里。 
+       可怜创业垂统君，后使乾机付诸吕。 
+       淮阴少年韩将军，金戈铁马立战勋。 
+       藏弓烹狗太逼迫，解衣推食何殷勤。 
+       致令英雄遭妇手，血溅红裙当斩首。 
+       萧何下狱子房归，左右功臣皆掣肘。 
+       还乡悲唱大风歌，向来老将今无多。 
+       咸阳宫阙亲眼见，不忍荆棘埋铜驼。 
+       台前老人泪如雨，为言不独汉高祖。 
+       古来世事无不然，稍稍功成忘险阻。 
+       荒祠古庙名歌台，前人已尽今人哀。 
+       感激悲歌下台去，断碑春雨生莓苔。 
+方孝孺（1357-1402），字希直，号逊志，浙江宁海人，明朝文学家、思想家。 
+25、上吕梁洪 
+                胡俨 
+               （一） 
+乱石穿空叠浪惊，乌犍百丈上洪轻。 
+扁舟载雨西风急，试问徐州一日程。 
+               （二） 
+细雨斜风拂画船，船头怪石起苍烟。 
+仰看白浪排空下，始信河流远自天。 
+胡俨（1360-1443），字若思，江西南昌人，明朝文学家。 
+26、次韵答九逵徐沛道中见赠 
+              文徵明 
+兴逐青山得得来，行追遗躅吊荒台。 
+高歌沛上风生鬓，把酒彭门月泻杯。 
+春色三分寒食过，壮游千里素怀开。 
+方舟幸自从公迈，不用怀乡首重回。 
+文徵明（1470-1559），原名壁，字徵明，号衡山居士，长洲（今江苏苏州）人，明朝画家、书法家。27、自徐州至吕梁述水势大略    归有光 
+    黄河漫徐方，原野层波生。 万人化为鱼，凛然余孤城。 
+    仅见沮洳间，檐楹半颓倾。日月照蛟室，风波栖蜑氓。 
+    侵薄连群山，浩荡烟霞明。山回时复圆，盂盎涵光晶。 
+    忽然睹开豁，天末翠黛横。 此来顿觉异，日在江湖行。 
+    吕梁遂安流，泯泯无水声。 狼牙没深沉，一夜走长鲸。 
+    三洪坐失险，蛟龙不能争。 乃知房村间，尚未得泻倾。 
+    如人有疾病，腹坚中膨脝。 空役数万人，绩用何年成？ 
+归有光(1507-1571)，字熙甫，号震川等，苏州昆山人，明朝文学家。 
+28、徐州（将登黄楼问枣下之妇） 
+                徐渭 
+今岁青青陇麦稠，去年河水过堤流。 
+无家不自波中出，有鳖都经树杪游。 
+枣叶双扉询翠袖，柳根一面护黄楼。 
+泗州潭底猕猴老，不信今还锁泗州？ 
+徐渭（1521-1593），字文长，号青藤老人等，绍兴山阴（今浙江绍兴）人，明朝文学家、书画家、戏剧家。 
+29、再登云龙山 
+             潘季驯 
+龙山再上思依然，千里河流自蜿蜒。 
+几向蒿莱寻水脉，翻从沧海见桑田。 
+负薪十载歌方就，投杼当年事可怜。 
+为谢含沙沙且尽，归与吾已欲逃禅。 
+潘季驯（1521-1595），字时良，号印川，湖州乌程（今浙江湖州）人，明朝水利专家。 
+30、经下邳 
+             袁宏道 
+诸儒坑尽一身余，始觉秦家网目疏。 
+枉把六经灰火底，桥边犹有未烧书。 
+袁宏道（1568-1610），字中郎，号石公，荆州公安（今湖北公安）人，明朝文学家。 
+31、徐州杂题五绝句（其三） 
+              钱谦益 
+柳老花残木叶秋，西风斜日总牵愁。 
+天涯大有多情客，不忍经过燕子楼。 
+钱谦益（1582-1664），字受之，号牧斋，苏州常熟人，明末清初诗人。 
+ 32、冬日同王二张一毕四家侄穆儿子睿晚登东山 
+              万寿祺 
+木落东皋烟树齐，留侯台上望苏堤。 
+十年虎豹人家少，几处牛羊村舍低。 
+荒日尚悬寒郭外，群山不动大河西。 
+浮云直下三千里，南斗平临在碧鸡。 
+万寿祺（1603-1652），字年少，江苏徐州人，明末清初文学家、书画家。东山，今徐州子房山。 
+33、马陵山步月 
+                        阎尔梅 
+寒雾封野白，风坚暗霜射。黄河枯不奔，停泥清沚泻。 
+天远与岸平，鱼火或高下。日里诸山痕，忽随晚烟嫁。 
+舟邻尽商贾，相熟谈物价。携赀湖海间，敬慎守长夜。 
+念我吴越归，载易冬且夏。异国有奇书，所求非圃稼。 
+读之月明前，唱叹使人讶。素练满蓬窗，江鱼荐犀斝。 
+阎尔梅（1603-1679），字用卿，号古古，江苏沛县人，明末清初文学家。 
+34、彭城怀古八首 
+               王士祯 
+其一 
+城上黄楼天四垂，卷帘坐尽楚山姿。 
+羽衣吹笛人千古，楼下犹悬五丈旗。 
+其二 
+中原豪杰竞亡秦，楚汉烟销泗水滨。 
+放鹤亭中一杯酒，楚山齾齾水鳞鳞。 
+其三 
+楼观岧嵉戏马台，宋公九日此传杯。 
+诗人猛士如龙虎，只爱江东二谢才。 
+其四 
+仆射军中似父兄， 红莲书记擅才名。 
+重寻汴泗交流处，千步毬场草棘生。 
+其五 
+黄叶西陂七字诗，后山诗派石林知。 
+南山磬石流脂滑，不刻长洲主簿词。 
+其六 
+吕梁千仞古所嗟，况复层冰如莫邪。 
+陪尾山前鲁祠北，红泥亭子漾金沙。 
+其七 
+烟销陂水半篙碧，日出晓山千叠青。 
+荠麦依然春雪里，忍寒招鹤上空亭。 
+其八 
+风雨彭城意黯然，东堂松竹没寒烟。 
+颍滨老去东坡死，铜狄摩挲五百年。 
+王士祯（1634-1711），字子真，一字贻上，号阮亭，又号渔洋山人，新城（今山东桓台）人，清朝文学家。 
+35、和陈树滋徐州怀古 
+           沈德潜 
+沛丰千里莽纵横，楚汉纷纭此斗争。 
+将相侯王宁有种，英雄竖子孰成名。 
+山连芒砀云常合，水绕彭门浪不平。 
+戏马歌风总消歇，荒原烟雨遍春耕。 
+沈德潜（1673-1769），字碻士，号归愚，长洲（今江苏苏州）人，清朝诗人。 
+36、闻蛙 
+               倪瑞璇 
+      草绿清池水面宽，终朝阁阁叫平安。 
+      无人能脱征徭累，只有青蛙不属官。 
+倪瑞璇（1702-1731），字玉英，江苏宿迁人，自幼寄居睢宁舅父家，清朝女诗人。 
+37、拔剑泉 
+              邵大业 
+策马来寻拔剑泉，汉皇遗迹尚森然。 
+一泓暗泻碧峰外，百丈晴拖绿树边。 
+溜响消残龙战气，芒寒微动灞陵烟。 
+鸿沟寂寞乌江冷，不信清流此地偏。 
+邵大业（生卒不详），字在中，号厚庵，顺天大兴（今北京大兴）人，清朝雍正年间进士，曾任徐州知府。 
+38、子房山用谢瞻子房诗韵 
+               爱新觉罗·弘历 
+挥金报韩侯，藉箸翊汉王。氛除紫色争，运扶火德昌。 
+惟是筹军帷，宁必奋马枪？定策都关中，天府开堂皇。 
+业成即翻飞，赤松白云乡。过祀仰高风，千秋崇此疆。 
+爱新觉罗·弘历（1711-1799），清朝第六位皇帝，年号乾隆。 
+   39.戏马台吊宋武帝 
+              袁枚 
+身披衲袄博千场，万马登台剑有光。 
+一逐水仙归大海，三擒天子出咸阳。 
+白纱帽急金瓯小，野葛灯悬玉烛忙。 
+可惜雄心当暮齿，关中父老易沾裳。 
+袁枚（1716－1797），字子才，号简斋，钱塘（今浙江杭州）人，清朝诗人。宋武帝，名刘裕，字德舆，小名寄奴，祖籍彭城绥舆里，南朝刘宋开国皇帝。 
+40、镇河铁牛 
+               佚名 
+河清门外水悠悠，万里长堤卧古牛。 
+青草绕前难下口，长鞭任打不回头。 
+风吹遍体无毛动，雨湿周身似汗流。 
+莫向函关跨老子，国朝赖尔镇徐州。 
+镇河铁牛，乾隆《徐州府志》载：“（徐）州城如卧牛。昔人以河善泛溢，又铸铁牛镇之。”国朝，指清朝。 
+41、徐州八景诗 
+          佚名 
+自古彭城列九州，云龙遗迹几千秋。 
+绿柳烟消黄茅冈，红袖香渺燕子楼。 
+戏马台前声寂寂，子房山上韵悠悠。 
+当年楚宫今何在，惟见黄河水东流。 
+此为民间流传歌谣。 
+42、徐州 
+              陶澍 
+青山两岸抱徐州，也比金陵枕石头。 
+霸气久随王偃尽，城名犹为老彭留。 
+关津有险当淮泗，乡里无情斗项刘。 
+不信河源天上落，女墙根下是黄流。 
+陶澍（1779-1839），字子霖，号云汀，湖南安化人，清朝政治家、文学家。 
+43、无题 
+              龚自珍 
+此身已作在山泉，涓滴无由补大川。 
+急报东方两星使，灵山吐溜为粮船。 
+龚自珍（1792-1841），字璱人，号定庵，仁和（今浙江杭州）人，近代思想家、文学家。原注：“时东河总督檄问泉源之可以济运者，吾友汪孟慈户部董其事，铜山县北五十里曰柳泉，泉涌出；滕县西南百里曰大泉，泉悬出，吾所目见也。诗寄孟慈，并寄徐镜溪工部。” 
+44、庚寅闰夏入都谢同学招饮 
+              崔焘 
+鸿轩凤举想翩翩，卅载追随结胜缘。 
+泮水曾欣芹共采，云山好记砚同研。 
+诗吟梓里多真趣，叙拟兰亭证昔贤。 
+我辈论心胶漆似，不须车笠写盟笺。 
+崔焘( ？-1854)，字虹桥，江苏徐州人，清朝道光年间进士，入翰林院。 
+45、百字令·登黄楼有怀漱泉 
+                         冯煦 
+断虹初霁，倚层楼，送尽南来征辙。不见长河千尺泻，只见惊沙吹雪。病叶欺蝉，虚檐舞蝠，夕照相明灭。高城凝伫，天涯芳草将歇。  凄绝江上离心，闹红一舸，处处闻啼鴂。重到羽衣横笛地，此乐更无人说。四十三年，浑如电抹，秋鬓今骚屑。故人归否？乡愁应上眉缬。 
+冯煦（1842-1927），字梦华，号蒿盦，江苏金坛人，曾主讲徐州云龙书院。 
+46、放鹤亭眺石狗湖 
+             李施五 
+一望湖光一色天，渺茫两岸起云烟。 
+试衣亭建绿波外，挂剑台连白水前。 
+北绕荒城围玉带，东临古冢傍山巅。 
+回观燕子楼中燕，对对衔泥来往还。 
+李施五（生卒不详），字清彩，别号逸叟，清末避乱徐州，有《河上草堂诗抄》。 
+47、和汉云山楼共话 
+            张伯英 
+浩浩难清城市氛，小楼倚徙避斜曛。 
+山遮远目憎成叠，风皱微波细作纹。 
+劫后棋争多误著，吾衰诗战不能军。 
+云龙旧侣遥相忆，矫首南天雁一群。 
+张伯英（1871－1949），字勺圃，号云龙山民，江苏徐州人，近代书法家。 
+  48.秋日云龙山晚眺即景 
+            钱食芝 
+历尽巉岩到上层，秋风萧瑟满孤亭。 
+荒荒寒日下碧空，莽莽乱山浮远青。 
+张骥草堂看鹤舞，东坡水调隔云听。 
+石湖西望天如洗，数尽飞鸿下蓼汀。 
+钱食芝（1880-1921），名茂椿，字仲灵，江苏徐州人， 
+书画家，画家李可染的启蒙老师。 
+   49.过徐州 
+             胡先骕 
+得得车声破曙光，四郊野色郁苍苍。 
+乱山出没晴烟外，髡柳杈桠古道旁。 
+战血至今殷废垒，村翁从解话沧桑。 
+临风客泪一挥洒，回首中原事可伤。 
+胡先骕（1894-1968），字步曾，号忏庵，江西新建人，植物学家、教育家、文化学者。 
+  50.赋呈德公 
+            郁达夫 
+    道阻彭城十日间，郊坰时复一跻攀。 
+    地连齐鲁频传警，天为云龙别起山。 
+    壮海风怀如大范，长淮形胜比雄关。 
+    指挥早定萧曹计，忍使苍生血泪殷。 
+郁达夫（1896-1945），名文，字达夫，浙江富阳人，文学家。 
+  51.泗宿道中 
+                陈毅 
+夜走泗宿道，晨过旧黄河。古邳解鞍马，煮酒醉颜酡。 
+半规残月照，铁骑送长征。百里吠村犬，穿插敌伪惊。 
+畅游根据地，沿途劳送迎。相见问安好，老苍惊故人。 
+陈毅 （1901-1972），名世俊，字仲弘，四川乐至人，中华人民共和国军事家、外交家。 
+  52.保卫大徐州 
+      臧克家 
+老黄河用半截手臂 
+环护着我们这伟大的古城， 
+津浦、陇海划一个铁十字 
+在它的心中。 
+登上高岗 
+可以对着东海吐气， 
+鲜的鱼， 
+白的盐， 
+往返的火车 
+载不尽的富源。 
+前后不断的青山 
+象数不清的帐幕， 
+要三十万大军 
+把守在里边。 
+子房山头 
+仿佛箫声还在响， 
+楚歌四面， 
+扛鼎的霸王 
+领起残骑 
+引退乌江。 
+徐州城， 
+是中华的左心室， 
+它的脉络 
+关连着中华整个的生命。 
+徐州城， 
+它正受着四面的围攻， 
+敌人想用炮火穿透这一点， 
+把我们的南京连结起北京。 
+保卫它， 
+用血用肉！ 
+保卫它， 
+丰沛萧砀从古多英雄。 
+臧克家（1905-2004），山东潍坊诸城人，诗人、编辑家。 
+   53.徐州偶记 
+               郭影秋 
+垓下歌声剩楚丘，坎坷我尚忆徐州。 
+四围荒草没城邑，千里流沙证铁牛。 
+革命先驱喋热血，迷矇拍手看杀头。 
+而今旧梦全消歇，四化葱茏启壮猷。 
+郭影秋(1909-1985)，原名玉昆，又名萃章，江苏铜山人，曾任云南省委书记、南京大学校长、中国人民大学党委书记等。 
+   54、渔歌子·解放睢宁 
+                         张爱萍 
+淮北区中敌垒坚，围攻奋勇夺城垣。歼倭寇，整家园。军民祝捷光河山。 
+   张爱萍（1910-2003），四川达县人，曾任中华人民共和国国防部部长。 
+                 放鹤徐州 
+                      王剑冰 
+   三月的徐州，春正发生。粉红的杏花一层一层，从云龙湖边一直燃到半山腰，仿佛在赶赴一场经年之约。远远看去，红妆素裹，霞绯满天。云龙山下试春衣，一色杏花三十里，不知此杏花是否还是苏轼时的杏花。阵风吹来，一些花落在湖里，本来被柳抚绿的水，又多了点点胭红。天上飘着云和鸟，有时鸟会陡然回转，离开那些无序的云。更大的鸟从水边的草中弹出，像白色的飞碟。想起苏轼在徐州写的《放鹤亭记》，感觉那许是鹤。湿湿的空气中，有一股泥土的味道。偶尔有笑声，这里那里的溅出，随即又停了，制造出更加的纯粹与宁静。 
+　　初到徐州的人会醉的。原来不知道有那么多的好，徐州的好是藏着的。这里是黄帝后裔彭祖故地，自古列九州的彭城，被称为“五省通衢”和“北国锁钥、南国门户”，是交通与军事要冲；这里山川优美，虽地处平原，却有三河七湖七十二山峦；这里历史丰厚，遗迹众多，仅二十余座规模宏大的汉墓，就构成人文景观的华彩篇章；这里钟灵毓秀，不仅出有刘邦、项羽、张良、萧何、刘裕、朱温、李昪、李煜等数十位帝王将相，更有张道陵、刘向、刘禹锡、刘知几、陈师道、李可染等数百位精英。他们一个个如御风之鹤，翩然在博大浑厚的册页中。几天里，徐州的朋友领着我马不停蹄地看，看得我惊叹连连，感慨无限。 
+　　我去狮子山、龟山、北洞山，探楚王地陵，读汉画像石，观兵马军阵。我去彭祖园、射戟台、快哉亭，感古韵风流，慨英雄成败。我去云龙湖、大龙湖、九龙湖，望烟波浩渺，湖天相映。我寻燕子楼，看飞燕绕梁；观黄楼，赞诗林盛会；攀凤凰山，听淮海动歌；访可染居，仰大家风范。真的是目不暇接，流连忘返。 
+　　我去丰县、沛县，还没到地方，一股王气随着“大风起兮云飞扬”扑面而来，那般景象，是大风掀动云飞扬，还是大风与云同飞扬？丰沛的风云，托起了一个大汉江山。我到一条古水边，孔子在水上发过“逝者如斯”的慨叹，而孔子也不忘一个夙愿，仙鹤竹林旁是孔子向老子问道处。老子在这里长期隐居思索，才名扬了后来一气呵成《道德经》的函谷关。我登上戏马台，迎春花开得正艳，透亮的黄摇动着股股英气。一代豪杰，同样让徐州人敬仰。台下围着一群人，正慷慨激越地讲说虞姬和霸王。我到碾庄圩，旷野中寻找淮海战役的痕迹，只有一田田青苗，摇荡着昂昂的生机。 
+　　这是一个大气之地，乾隆六下江南四驻徐州，毛泽东比乾隆还多来了三次。谢灵运、白居易、韩愈、文天祥们，谁没有在这里留下过印迹？历史层层叠压着，不知还有多少秘密隐在这块土地上。而这里还衍生出许多哲与辩的事例：秦始皇在此打捞过九鼎中最后一鼎，九鼎是立国重器。秦皇无所得，国也没立住，且由徐州人建立了新朝；这里是汉王根基，项羽又在这根基上建了西楚的都城，留下耐人寻味的意蕴；徐州把诵出大风歌的刘邦生在这里，也让吟出一江春水向东流的李煜出自这里，前者成为一朝天子，后者做了千古词帝；黄河曾在这里咆哮，无数次将整座城市埋入地下，徐州人坚定不弃，信念再生，黄河竟然远去了。黄河故道，一河新水涌动着苍茫；徐州曾是个煤城，到处是黑烟子。现在却是天蓝山透绿，水清花繁荣，气候南移三百里。陪同的朋友说，“几年前的徐州已不能和现在同日而语，过几年你再来看看。”话语含着徐州人的自信。 
+ 随处地走，总觉得有一双手，在悄悄擦拭着徐州，打磨着徐州，使徐州成了一个让人迷恋、思绪流转的地方。九百年前苏轼从杭州任上来到徐州，连年修堤筑坝抗洪救灾。若果苏轼梦魂重游，或也同今人一样，会“错把徐州作杭州”。人文环境与精神气质构成徐州的氛围，不由人不生发鹤意云心。林子传来曲折婉转的唱腔，过去看，唱的、听的都迷醉其中。沿着苏堤来到湖边，到处是自在的人，他们有的将身体投泳于水，有的借扁舟徜徉碧蓝，有的随一纸鸢在长堤上奔跑，还有一些穿着婚纱这里那里的留照春艳。笑语欢声，直连向那极尽绚烂的山峦。 
+　　傍晚时分，我登上云龙山的最顶端，苏轼常到的放鹤亭还在。亭上望去，就看到那片杏花的色带，看到湖的光带，光带的四周是散发着楚汉色调的城市建筑。这时我就觉得，徐州的徐是舒缓的徐，悠扬的徐，徐州是徐徐的山水环绕的州。远处是楚王山，山上有神奇的五色土，五色代表着凝重沉稳、涵盖拥容，代表着富含多姿、明丽鲜活。这样说，它也当代表楚风汉韵、南秀北雄的徐州。想那个志向坚毅的放鹤人，是那般恣意地让鹤舒展于这片天地间。 
+　　云雾渐起，湖水和花的光带变得朦胧起来。恍惚间，一点一点的，竟然落雨了。更多的花纷扬到地上和水中，感觉那花也是天上落下。 
+　　夜晚，漫山遍野的馨香，将覆盖徐州的睡眠。 
+王剑冰，男，河北唐山人，专业作家，曾任《散文选刊》主编。本文2011年7月11日刊于《人民日报》。 
+附3： 
+历代咏徐诗词精选（32首，含散文1篇） 
+一、春秋至南北朝（5首） 
+1、徐人歌 
+                 佚名 
+延陵季子兮不忘故，脱千金之剑兮带丘墓。 
+春秋后期，吴国延陵季子出使晋国，途经徐国（今徐州地区），觉察到徐国国君喜欢他的宝剑，打算在完成使命后以剑相赠。而返回时国君已亡故，就将剑挂在他墓地的树上,徐人因此作歌。 
+3、楚辞·天问（节选） 
+                  屈原 
+彭铿斟雉，帝何飨？受寿永多，夫何久长？ 
+屈原（约前340-约前278），名平，字原，战国时期楚国诗人。 
+3、徐州牧箴 
+                   扬雄 
+海岱伊淮，东海是渚。徐州之土，邑于蕃宇。 
+大野既潴，有羽有蒙。孤桐蠙珠，泗沂攸同。 
+实列藩蔽，侯卫东方。民好农蚕，大野以康。 
+帝癸及辛，不祗不恪。沉湎于酒，而忘其东作。 
+天命汤武，勦绝其绪祚。降周任姜，镇于琅邪。 
+姜氏绝苗，田氏攸都。事由细微，不虑不图。 
+祸如丘山，本在萌芽。牧臣司徐，敢告仆夫。 
+扬雄（前53－18），字子云，蜀郡成都（今四川成都）人，西汉文学家。 
+4、彭城会诗 
+                     谢晦 
+先荡临淄秽，却清河洛尘。华阳有逸骥，桃林无伏轮。 
+谢晦（390－426），字宣明，会稽（今浙江绍兴）人，南朝刘宋时期大臣。 
+  5、彭城宫中直感岁暮 
+                    谢灵运 
+草草眷徂物，契契矜岁殚。楚艳起行戚，《吴趋》绝归欢。修带缓旧裳，素鬓改朱颜。晚暮悲独坐，鸣鶗歇春兰。 
+谢灵运（385－433），会稽（今浙江绍兴）人，南朝刘宋时期文学家。 
+二、隋唐时期（6首） 
+1.登戏马台作 
+               储光羲 
+君不见宋公仗钺诛燕后，英雄踊跃争趋走。 
+小会衣冠吕梁壑，大征甲卒碻磝口。 
+天门神武树元勋，九日茱萸飨六军。 
+泛泛楼船游极浦，摇摇歌吹动浮云。 
+居人满目市朝变，霸业犹存齐楚甸。 
+泗水南流桐柏川，沂山北走琅琊县。 
+沧海沉沉晨雾开，彭城烈烈秋风来。 
+少年自古未得意，日暮萧条登古台。 
+储光羲（约706－约763），润州延陵（今江苏金坛）人，唐朝诗人。 
+2、彭祖井 
+            皇甫冉 
+上公旌节在徐方，旧井莓苔近寝堂。 
+访古因知彭祖宅，得仙何必葛洪乡。 
+清虚不共春池竟，盥漱偏宜夏日长。 
+闻道延年如玉液，欲将调鼎献明光。 
+皇甫冉（约717-约770），字茂政，润州丹阳（今江苏丹阳）人，唐朝诗人。 
+3.雨中登沛县楼赠表兄郭少府 
+                        刘长卿 
+楚泽秋更远，云雷有时作。晚陂带残雨，白水昏漠漠。 
+伫立收烟氛，洗然静寥廓。卷帘高楼上，万里看日落。 
+为客频改弦，辞家尚如昨。故山今不见，此鸟那可讬。 
+小邑务常闲，吾兄宦何薄。高标青云器，独立沧江鹤。 
+惠爱原上情，殷勤丘中诺。何当遂良愿，归卧青山郭。 
+刘长卿（约726－约786），字文房，宣城（今安徽宣城）人，唐朝诗人。 
+   4.汴泗交流赠张仆射 
+          韩愈 
+汴泗交流郡城角，筑场千步平如削。 
+短垣三面缭逶迤，击鼓腾腾树赤旗。 
+新秋朝凉未见日，公早结束来何为？ 
+分曹决胜约前定，百马攒蹄近相映。 
+毬惊杖奋合且离，红牛缨绂黄金羁。 
+侧身转臂著马腹，霹雳应手神珠驰。 
+超遥散漫两闲暇，挥霍纷纭争变化。 
+发难得巧意气粗，欢声四合壮士呼。 
+此诚习战非为剧，岂若安坐行良图。 
+当今忠臣不可得，公马莫走须杀贼。 
+韩愈（768-824），字退之，河南河阳（今河南孟州）人，唐朝诗人。 
+5.燕子楼 
+       张仲素 
+       （一） 
+楼上残灯伴晓霜，独眠人起合欢床。 
+相思一夜情多少，地角天涯不是长。 
+       （二） 
+北邙松柏锁愁烟，燕子楼人思悄然。 
+自埋剑履歌尘散，红袖香消已十年。 
+        （三） 
+适看鸿雁岳阳回，又睹玄禽逼社来。 
+瑶瑟玉箫无意绪，任从蛛网任从灰。 
+张仲素（约769-约819），字绘之，符离（今安徽宿州）人，唐朝诗人。 
+6.题彭祖楼 
+            薛能 
+新晴天状湿融融，徐国滩声上下洪。 
+极目澄鲜无限景，入怀轻好可怜风。 
+身防潦倒师彭祖，妓拥登临愧谢公。 
+谁致此楼潜惠我，万家残照在河东。 
+薛能(约817-约880），字太拙，汾州（山西汾阳）人，唐朝诗人，曾任徐州节度使。 
+三、宋元时期（6首）    1.送赵谏议知徐州梅尧臣鹿车几辆马几匹，轸建朱幡骑彀弓。 雨过短亭云断续，莺啼高柳路西东。 
+吕梁水注千寻险，大泽龙归万古空。 
+莫问前朝张仆射，毬场细草绿蒙蒙。 
+梅尧臣（1002-1060），字圣俞，宣州宣城（今安徽宣城）人，北宋诗人。 
+2.彭城道中 
+        曾巩 
+百步洪声潦退初，白沙新岸凑舟车。 
+一时屠钓英雄尽，千载河山战伐余。 
+楚汉旧歌流俚耳，韩彭遗壁冠荒墟。 
+可怜马上纵横略，只在邳桥一卷书。 
+曾巩（1019-1083），字子固，建昌南丰（今江西南丰）人，北宋文学家。   
+ 3.登云龙山 
+           苏轼 
+醉中走上黄茅冈，满冈乱石如群羊。冈头醉倒石作床， 
+仰看白云天茫茫。歌声落谷秋风长，路人举首东南望， 
+ 拍手大笑使君狂。 
+ 4.陪子瞻游百步洪 
+          苏辙 
+城东泗水平如席，城头远山涵落日。 
+轻舟鸣橹自生风，渺渺江湖动颜色。 
+中洲过尽石纵横，南去清波头尽白。 
+岸边怪石如牛马，衔尾舳舻谁敢下？ 
+没人出没须臾间，却立沙头手足干。 
+客舟一叶久未上，吴牛回首良间关。 
+风波荡潏未可触，归来何事尝艰难？ 
+楼中吹角莫烟起，出城骑火催君还。 
+  苏辙（1039-1112），字子由，自号颍滨遗老，眉州眉山 
+（今四川眉山）人，北宋文学家。百步洪，又名徐州洪，在徐州东南二里。 
+5.别子瞻学士 
+          秦观 
+人生异趣各有求，系风捕影只怀忧。 
+我独不愿万户侯，惟愿一识苏徐州。 
+徐州英伟非人力，世有高名擅区域。 
+珠树三株讵可攀？玉海千寻真莫测。 
+一昨秋风动远情，便忆鲈鱼访洞庭。 
+芝兰不独庭中秀，松柏仍当雪后青。 
+故人持节过乡县，教以东来偿所愿。 
+天上麒麟昔漫闻，河东鸑鷟今才见。 
+不将俗物碍天真，北斗已南能几人? 
+ 八砖学士风标远，五马使君恩意新。 
+ 黄尘冥冥日月换，中有盈虚亦何算？ 
+ 据龟食蛤暂相从，请结后期游汗漫。 
+秦观（1049-1100），字少游，号淮海居士，扬州高邮人，北宋词人。 
+6.病后登快哉亭 
+       贺铸 
+经雨清蝉得意鸣，征尘见处见归程。 
+病来把酒不知厌，梦后倚楼无限情。 
+鸦带斜阳投古刹，草将野色入荒城。 
+故园又负黄昏约，但觉秋风发上生。 
+贺铸(1052-1125)，字方回，号庆湖遗老，卫州（今河南卫辉）人，北宋词人。 
+四、明清时期(7首） 
+1.次韵答九逵徐沛道中见赠 
+      文徵明 
+兴逐青山得得来，行追遗躅吊荒台。 
+高歌沛上风生鬓，把酒彭门月泻杯。 
+春色三分寒食过，壮游千里素怀开。 
+方舟幸自从公迈，不用怀乡首重回。 
+文徵明（1470-1559），原名壁，字徵明，号衡山居士，长洲（今江苏苏州）人，明朝画家、书法家。 
+2.自徐州至吕梁述水势大略     
+                         归有光 
+    黄河漫徐方，原野层波生。 万人化为鱼，凛然余孤城。 
+    仅见沮洳间，檐楹半颓倾。日月照蛟室，风波栖蜑氓。 
+    侵薄连群山，浩荡烟霞明。山回时复圆，盂盎涵光晶。 
+    忽然睹开豁，天末翠黛横。 此来顿觉异，日在江湖行。 
+    吕梁遂安流，泯泯无水声。 狼牙没深沉，一夜走长鲸。 
+    三洪坐失险，蛟龙不能争。 乃知房村间，尚未得泻倾。 
+    如人有疾病，腹坚中膨脝。 空役数万人，绩用何年成？ 
+归有光(1507-1571)，字熙甫，号震川等，苏州昆山人，明朝文学家。 
+3.经下邳 
+       袁宏道 
+诸儒坑尽一身余，始觉秦家网目疏。 
+枉把六经灰火底，桥边犹有未烧书。 
+袁宏道（1568-1610），字中郎，号石公，荆州公安（今湖北公安）人，明朝文学家。 
+4.和陈树滋徐州怀古 
+       沈德潜 
+沛丰千里莽纵横，楚汉纷纭此斗争。 
+将相侯王宁有种，英雄竖子孰成名。 
+山连芒砀云常合，水绕彭门浪不平。 
+戏马歌风总消歇，荒原烟雨遍春耕。 
+沈德潜（1673-1769），字碻士，号归愚，长洲（今江苏苏州）人，清朝诗人。 
+   5.戏马台吊宋武帝 
+        袁枚 
+身披衲袄博千场，万马登台剑有光。 
+一逐水仙归大海，三擒天子出咸阳。 
+白沙帽急金瓯小，野葛灯悬玉烛忙。 
+可惜雄心当暮齿，关东父老易沾裳。 
+袁枚（1716－1797），字子才，号简斋，钱塘（今浙江杭州）人，清朝诗人。宋武帝，名刘裕，字德舆，小名寄奴，祖籍彭城绥舆里，南朝刘宋开国皇帝。 
+6.徐州 
+         陶澍 
+青山两岸抱徐州，也比金陵枕石头。 
+霸气久随王偃尽，城名犹为老彭留。 
+关津有险当淮泗，乡里无情斗项刘。 
+不信河源天上落，女墙根下是黄流。 
+陶澍（1779-1839），字子霖，号云汀，湖南安化人，清朝政治家、文学家。 
+7.百字令·登黄楼有怀漱泉 
+                冯煦 
+断虹初霁，倚层楼，送尽南来征辙。不见长河千尺泻，只见惊沙吹雪。病叶欺蝉，虚檐舞蝠，夕照相明灭。高城凝伫，天涯 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">沙月岛别名沙屿岛、月亮岛，是一座婚恋主题公园。岛上景观以婚恋爱情为主线，贯穿诸多温馨浪漫的情感元素，全面考虑各年龄层的需要，分为伊甸之路、岁月情深、夕阳之约三个景区。 
+伊甸之路景区以岛内月亮湖为中心，月亮湖被红线桥、鹊桥两座景观桥划分成三片水面。南面狭窄处那座形如满月的单孔石拱桥，名叫红线桥；北面宽阔处，那座N字形亲水长桥，名叫鹊桥。两桥相望，别有一番情趣。岛东南角临水处有一座六角亭，名叫月老亭。月老主管人间婚嫁之事。相传唐朝杜陵书生韦固在宋城（今商丘）巧遇月下老人，月下老人为韦固牵红绳指明婚嫁对象，后来韦固果然应月老之语与相州刺史王泰之女结为连理。故事流传至今，使后人相信男女的结合乃月老牵起红绳加以撮合。岛上主要景点还有同心锁、许愿池、阳光草坪、玫瑰走廊雕塑、爱悦广场、爱情花屿等；特别值得一提的是，这里的座椅、路灯、垃圾桶等都设计成了戒指、爱心、情侣、红唇等景观小品，极具温馨浪漫的艺术气息。 
+岁月情深景区专为中年夫妇设计，主要景点有同心结、黄丝带、执子之手等，体现了平淡日子的温馨和美好。在同心结景点，中年夫妇可以祝福、可以祈祷、可以倾诉。黄丝带景点取自“但愿君心似我心”的寓意，让人触景生情，流连忘返。这个牵手雕塑叫“执子之手”，取自“执子之手，与子偕老”之意，不由得勾起我们内心深处那真挚而浓厚的温暖情愫。 
+夕阳之约地刻景观展现出一幅绝伦美妙的画卷，不仅使人陶醉在无限的美韵之中，心旷神怡。俗话说：最美不过夕阳红。老年人的爱情是金色的，黄昏下相伴的身影则是深情的见证，如同岁月的沉淀。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙月岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠近景区南入口广场，栽植了几十年树龄的高大法桐和榆树，地面配以不规则的自然石板，给人深入幽谷的感觉。在这个广场的北侧，民国时期遗存下来的两排13棵古龙柏挺拔苍劲，差不多都有上百年的树龄，让人们在历史的沧桑中感受现代风情。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古柏广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五斗瀑布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因天师岭景点叠石引水而成，整个叠石用了5000余吨的绵羊石，石、水是一刚一柔、一静一动，相映成趣。山下水中种植了野芦苇、旱伞草、美人蕉等水生植物，这些植物错落有致，充满了野趣。远处山腰间矗立的是张道陵像。铜像重13.5吨，高9.3米，混凝土基座高1.6米。张道陵是中国道教之鼻祖，东汉建武十年出生于徐州丰县的阿房村，7岁就熟读《道德经》、《洛书》、《河图》等道家经典，19岁设帐讲学，后任江州令。因见世风日下，他悟出沉浮仕途无益年命之理，张道陵决定退出宦海，以修道来拯救百姓。他在蜀汉之境设24治，为布化行道的区域，先后在青城山、龙虎山和巴蜀地区传教，创立了中国第一教道教，又称五斗米教。 
+传说东汉桓帝永寿元年九月九日，在四川赤城渠亭山中，上帝派遣使者持玉册，封张道陵为正一真人，他在飞升前授给长子衡斩邪二剑，叫他要驱邪诛妖，佐国安民，世世由一个子嗣来继承他教主的地位。嘱咐完毕，张道陵就和弟子王长、赵升三人一起升天而去，而他所创立的道教一直在民间传到今天，由于他规定入教者需交五斗米，因此也称“五斗米教”。这便是天师岭和“五斗瀑布”的由来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于珠山西路中段，三面环山，紧邻市区，交通便利。岛内拥有垂钓水面40亩、停车场2000平方米、休闲茶社1000余平方米、绿地30000平方米。垂钓鱼塘包括大小鲫鱼池各1个、混养池2个。其中，小鲫鱼池是标准的专业垂钓比赛场地。混养池两种，一种放养云龙湖特产的无公害鲤鱼、草鱼、鳊鱼等，另一种放养名贵鱼类。小岛吸引全国众多钓鱼爱好者来此垂钓，并可举行全国钓鱼锦标赛、区域性钓鱼联赛、城市与城市之间的对抗赛、联谊赛等，能同时容纳上千人垂钓与比赛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钓鱼岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水杉步道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好人园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创教路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天师广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百草坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤鸣台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤鸣台象征张道陵得道阶段。相传张道陵曾隐居在鹤鸣山上，山上有只石鹤，每次一叫就表示有得道的人来了。张道陵在此苦心修道，不久就听见神鹤的叫声。鹤鸣台西拥珠山，与音乐厅隔湖相望，聆听着来自音乐厅的歌声、乐器声，此景此声让人如痴如醉。景区内设有亲水平台、临水步道、混沌花园、无极雕塑等彰显道教文化的雕塑。其中无极雕塑、混沌花园乃是景点的点睛之笔，凸显景点主题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百草坛直径约50米，色彩夺目的台阶花坛中间是一个大型树池，栽植一棵高达8米的石楠，与下沉星宿广场形成阴阳。二十八星宿雕塑起到画龙点睛的作用，突出景点主题。周围栽植各色花灌木及各种开花地被，让游人有种置身于花海般的感觉。相传，张天师在鹤鸣山修道传教时，恰逢地方瘟疫肆虐。为拯救苍生于水火，天师研制出袪病健体的神秘草药配方，送于百姓，瘟疫得以袪除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天师广场象征张道陵的斗法阶段。相传八部鬼帅各领鬼兵共亿万数为害人间，他们带来各种瘟疫疾病、残害众生。张天师于是设下道坛，鸣钟叩磬，呼风唤雨指挥神兵和这些恶鬼大战。天师广场因此得名。广场呈半圆形，设有特色铺装、台阶花坛、观景错层平台等硬性设施。观景台与水上世界自然融为一体，伴着徐徐微风，云龙湖的美景尽收眼底。广场上的玄珠雕塑，表达着道家对于世界的认知及其深厚的哲学思想。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相传，张道陵除魔祛病，救民于水火，百姓都跑来追随他，张道陵就把他们组织起来，并且订律令劝他们努力行善，慢慢成立了道教团体，张道陵本人也就成了名副其实的道教祖师。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好人园是江苏省首家建成开放的以好人为主题的文化公园。广场长78米，最宽处47米、最窄的地方22米。以广场中轴线为中心是一组主题雕塑，广场周边则是一组先进道德典范人物雕塑。在广场入口、二层广场中央、顶层广场背崖面分别为名叫《爱心》、《美德柱》和《善举墙》的主题雕塑，正好组成广场中心视线轴。这是《爱心》雕塑，高3米，材质为不锈钢和花岗岩。雕塑由五个心形构成一朵盛开的鲜花，五颗爱心象征着广场周边五个区域的先进道德模范人物的品格如鲜花般绽放，默默无声但以积极昂扬的姿态传递着人间大爱。立于广场中央的这五根圆形花岗岩石柱，就是《美德柱》。分别代表“仁”“义”“礼”“智”“信”五德，以绘画风格浮雕形式包裹柱体，通过雕刻文字及画面阐释五种主题思想，彰显了徐州人“有情有义”的道德品格。这里是位于广场顶层的《善举墙》。《善举墙》长15米，最高处3米，全部为花岗岩材质，结合圆雕、深浮雕、浅浮雕等多重技巧，将思想表达和艺术融为一体。好人行好事为“善”，古人云：上善若水，善的最高境界就象水一样润泽万物，所以雕塑在主体结构上融入了水的图腾。我们看，在主体墙上刻有彰显主题的“存善心、积善行、养善性”九个大字。 
+广场周边的14位先进道德模范人物雕塑根据不同人物的先进事迹共划分为五个区域，分别为敬业奉献、见义勇为、助人为乐、孝老爱亲、诚实诚信。首批入选的先进道德模范人物共11位分别是：道德模范张广之、绿化荒山被誉为当代愚公的刘开田、忘我工作守望土地的渠立强、七获模范的掌家忠、一不怕苦二不怕死的王杰、不怕活脏不怕事小的李影、舍生忘死见义勇为的夏爱民、以小见大彰显力量的宋玮、六十四载孝婆百岁的张公兰、孝爱三母感动社会的张玲兴、一诺千金守墓终生的贺思群。其中8位采用青铜铸造，3位采用花岗岩雕刻。好人园雕塑以普通人先进事迹为材料反映当代社会发展的主旋律，用雕塑形式把社会上最美好的东西凝固在历史的时空里，潜移默化的影响激励人们去弘扬正气。 
+好人园建成后，我市每年将面向基层群众遴选2至3名徐州好人，为其在“好人园”内设立塑像，以此形式褒奖凡人善举、树立道德模范，通过生动展现徐州好人的先进事迹，大力弘扬道德风尚、广泛传递道德力量，用好人的精神引领社会主义核心价值体系建设，以好人的示范带动作用推动社会主义核心价值观深入人心、深入群众。2014年3月5日，市委、市政府在这里举办第二批3位“徐州好人”入园仪式。这3位“徐州好人”分别是：入朝参战中荣立一等功，获得朝鲜民主主义人民共和国一级战士荣誉勋章的战斗英雄张立春；全国优秀慈善工作者、创建残肢人康复中心“希望之家”，培养出7位残奥会冠军并荣登“中国好人榜”的已故助残模范张辅世；英勇牺牲的全国公安系统二级英雄模范，荣登“江苏好人榜”的徐州市道德模范黄升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总长度为1000多米，栽植有水杉5000多株，在这里可以尽情领略植物王国“活化石”的风采。水杉步道的面层材料采用绿色环保的塑木材料及以前常用的石材铺贴，讲求软硬结合，走在上面有不一样的感觉。由于水杉是落叶树种，在水杉的下面栽有四季常绿的万年青以保证冬季的时候仍然还有绿意，另外还栽有云南黄馨、迎春花等花灌木。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杉湖平台就像女士项链中的宝石，是整个水杉步道的亮点。杉湖平台的背景是水杉树，夏天的时候可以在这个平台上进行戏水，阵阵湖风吹过来，丝丝凉意沁人心脾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉水廊道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所谓沉水廊道，顾名思义是沉入水下的廊道，廊道总长度148米，其中北面60米，南面88米，整个廊道内湖水域面积在1.1万平方米，内湖湖水再通过先进的水净化系统不断循环净化处理。行走于沉水廊道，透过两侧的玻璃，可以看到各种鱼类嬉戏于水生植物之间。沉水廊道是目前国内最长最大最具现代风采的沉水廊道景观。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万福广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广场占地约3600平方米，绿化采用造型盆景与景石、草坪与模纹相结合，方正中透出飘逸，规则中透出灵秀。站在万福广场，远望南湖水街，若是在早晨湖面水雾比较重的时候，南湖水街若隐若现，更是别有一番风味。通过南入口广场，沿着蜿蜒的小园路一直往前，不经意间就会眼前一亮。几十年树龄的高大法桐和榆树，配以不规则自然面灰石板的地面，一切是那么的朴素简单。仰首间，珠山亭突然出现，斜靠在珠山亭的座椅上，闭眼沉思，一阵风轻轻吹过，树叶沙沙细语，仿佛在诉说那些久远的故事。在广场北侧，民国时期遗存下来的两排共13棵挺拔苍劲的古龙柏，几乎都有上百年的树龄，让人沉浸在历史的沧桑中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨湖景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨湖公园，坐落在徐州市西南风景秀丽的云龙湖畔，东接云龙山，西连韩山，南依云龙湖，北靠市民广场，三面青山叠翠，一湖波光浩渺。公园始建于1999年9月，2001年9月免费对外开放，2002年10月滨湖公园被水利部授予“国家水利风景区”称号。2005年 4月被评定为国家AAA级风景区。2009年3月滨湖公园东园进行景观改造，同年10月滨湖公园东园改造和市民广场、艺术馆、滨湖新天地四项工程（统称四合一工程）向市民隆重开放。2010年3月滨湖公园西园改造开工建设，2010年10月建成开放。 
+改造后的滨湖公园全长4.2公里，宽170米，占地近1000亩，主要景点有：月影风帆、内湖沙滩游泳场、滨湖新天地、如意湖、如意桥、彭祖寿石、儿童乐园、音乐厅、音乐厅广场、金石园等。生态景观有：闻香园、百花园、乐翔台、柳浪闻莺、云影清松、白羽芦港以及新增的32处形态各异、内涵丰富的情景雕塑等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐桥是一座紧贴着水面横卧着的一座音乐长桥，与水上音乐厅相隔百米，桥长165米。桥上装饰以音符为主题，桥梁栏杆柱采用亚光不锈钢，像一个钢琴琴键，形成一组完成的五线谱图案。五线谱组成了两首完整的歌曲，东侧是《咱们工人有力量》，西侧是《南泥湾》，均是徐州籍音乐家马可先生的代表作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐翔台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐翔台是一个敞开式的临水广场，木铺装上搭配盆景及景石，再现了古典江南园林的韵味。在乐翔台欣赏眼前的青山秀水，聆听着来自音乐厅的美妙乐声，真是如临仙境一般。一面是烟波浩渺的西湖风光，一面是碧柳如烟的绿荫长廊，其下点缀着几多椤木、石楠、红枫、三角枫、木芙蓉和芭蕉等名花异木。这里便是西湖北岸的柳浪闻莺。临水远眺，视野开阔，空气清新，令人心旷神怡。让人不由得想到“柳阴深霭玉壶清，碧浪摇空舞袖轻。 林外莺声啼不尽， 画船何处又吹笙”这样的名诗佳句。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童乐园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童乐园共24组儿童设施，分4个游乐区，投资350万，引进丹麦、荷兰、德国等地高档游乐设备，园内有冲浪、旋转、摇摆、轨道车等大中型游乐设施，是专为儿童提供的良好的游乐天地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于寿石广场的西侧，占地面积约2600平方米。以花为主题，能够满足不同季节城市市民赏花的需求。用不同的鲜花色块分隔游人的视角视距，构成了集观赏性、知识性、文化教育性为一体的展示空间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿石广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿石广场占地3100平方米，广场中间是高16米、宽8米、重约400吨的彭祖寿石。寿石采自徐州铜山东南油山。传说彭祖曾到油山采药，并在此石练功，汲取日月之精华，领悟长寿之秘诀，以800岁高龄成为世界上最长寿老人。寿石状如一位老人，其形酷似彭祖，正拱手西拜，虔诚而慈祥，稳健而精神，所以以“彭祖寿石”命名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市民广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市民广场是一个开放式的绿地公园，广场占地面积约23.5万平方米。市民广场以徐州文化坐标——徐州艺术馆为核心，将徐州五千年历史文化故事融汇于美术馆周围的生态景观中，利用植物、硬质材料、水、景观小品、声、光、电等多种造景元素，营造出景观多样的生态环境。其主要构造是由一湖、两轴、三场、四个主题园组成。这一湖，叫如意湖；两轴，则由贯穿广场东西、南北两条景观主体构成，分别命名为历史长河和文化长廊；三场，是指星辰广场、汉之源广场、时间之窗广场等三个广场；四个主题园分别是银杏园、紫薇园、玉兰园、梅园。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐州音乐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐厅位于云龙湖北岸大堤中段，正对二环西路。音乐厅包括音乐厅主体工程、室外演出广场、音乐厅广场喷泉三部分，总建筑面积13000多平方米，音乐厅可容纳观众960人，外型以徐州市市花——紫薇为创作原型，形如一朵绽放的紫薇花。音乐厅外形框架由八个巨大的钢结构焊接而成的紫薇花瓣组成，表面镶蓝色玻璃幕墙，并在幕墙的铝板部分装了LED灯和扫描灯，使音乐厅外形如同一个投影屏幕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐州艺术馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于八一大堤北侧的市民广场中部，是一座集美术品展览收藏、艺术交流、学术研究等多功能于一体的文化艺术展馆，总建筑面积23000多平方米。艺术馆项目方案由清华大学建筑设计研究院设计，定位为开放的城市客厅，双U型简洁高效的建筑形体，有利于艺术馆的功能布局。徐州艺术馆地面建筑四层，下沉式广场一层。其中，一楼设有两个常展厅、三个临展厅以及多功能厅、贵宾接待厅等，主要承担艺术展示、学术交流的功能；二楼为开放式的观景平台，可供市民小憩、饱览湖光山色；三楼为民间艺术品展示和销售区，主要展示的是三硬一软，及青铜器、陶瓷、玉器奇石和书画等，同时兼有展品交易的功能；四楼和地下一层主要承载艺术教育、艺术品交易、公共休闲和大型装置设计展示等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭城金石园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金石园是将金石艺术与园林艺术相结合的一种新型人文景观，园内设置了57块大型花岗岩金石篆刻作品，零零散散地矗立在花木丛中，作品展示的内容是历代名印和历代名人赞美徐州的诗句。方寸石印镌刻在皱柔圆润的花岗岩石上，它们隐于绿树旁，嵌在碧草间，其情其景堪称一绝。这块巨石，是这里的主要标志——彭城金石园百印壁。百印壁长12米、高2米，上面镌刻着“彭城金石园”五个大字，并刻有100枚名人、帝王印章。尤其值得一提的是，碑刻巨石的底部有一圈玻璃橱窗，里面展示着对应位置篆刻印章的译文可供游人对照，这对于人们进一步了解和欣赏篆刻艺术有很大帮助。大家看，前面这个由玻璃印章和铜印章组合而成的作品，是园区的一大亮点。玻璃印章作品高约2米、宽1米，中间镂空，上面有两块突出的铜质印章。铜印章呈多棱形，共12个立面，每个立面上均有一枚印章。金石篆刻家们把徐州两汉文化的精髓篆刻在巨石上，为云龙湖增添了浓烈的文化韵味。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万人游泳场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于大堤南侧，是目前国内最大的内湖游泳场，长1500米，宽100米，面积15万平方米，底部以水泥筑基，并设有深水区警戒灯和人造沙滩，潜水区为1米，水深按1%由北向南递增至警戒灯处，最深处为2米，可供数万人畅游其中。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6958,12 +8155,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I852"/>
+  <dimension ref="A1:I903"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A845" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A852" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A833" sqref="A833:E852"/>
+      <selection pane="bottomLeft" activeCell="G902" sqref="G902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26527,6 +27724,558 @@
         <v>1747</v>
       </c>
     </row>
+    <row r="853" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A853" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E853" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="I853" s="2" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F854" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="I854" s="2" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F855" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="I855" s="2" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F856" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G856" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I856" s="2" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F857" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G857" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I857" s="2" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F858" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G858" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="I858" s="2" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F859" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G859" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I859" s="2" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F860" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G860" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="I860" s="2" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F861" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G861" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="I861" s="2" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F862" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G862" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="I862" s="2" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F863" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G863" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I863" s="2" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F864" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G864" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I864" s="2" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="865" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F865" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G865" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="I865" s="2" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="866" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F866" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G866" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I866" s="2" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="867" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F867" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G867" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="I867" s="2" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="868" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F868" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G868" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="I868" s="2" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="869" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F869" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G869" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="I869" s="2" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="870" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F870" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G870" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I870" s="2" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="871" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F871" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G871" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="I871" s="2" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="872" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F872" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G872" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="I872" s="2" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="873" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F873" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G873" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="I873" s="2" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="874" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F874" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G874" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="I874" s="2" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="875" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F875" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G875" s="2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="I875" s="2" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="876" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F876" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G876" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="I876" s="2" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="877" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F877" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G877" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="I877" s="2" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="878" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F878" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="I878" s="2" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="879" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F879" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G879" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I879" s="2" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="880" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F880" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G880" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="I880" s="2" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="881" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F881" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G881" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I881" s="2" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="882" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F882" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G882" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I882" s="2" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="883" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F883" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G883" s="2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I883" s="2" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="884" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F884" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G884" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="I884" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="885" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F885" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G885" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I885" s="2" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="886" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F886" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G886" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="I886" s="2" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="887" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F887" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G887" s="2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I887" s="2" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="888" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F888" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G888" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="I888" s="2" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="889" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F889" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G889" s="2" t="s">
+        <v>1816</v>
+      </c>
+      <c r="I889" s="2" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="890" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F890" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G890" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="I890" s="2" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="891" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F891" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G891" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="I891" s="2" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="892" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F892" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G892" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="I892" s="2" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="893" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F893" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="I893" s="2" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="894" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F894" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G894" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="I894" s="2" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="895" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F895" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G895" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="I895" s="2" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="896" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F896" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G896" s="2" t="s">
+        <v>1835</v>
+      </c>
+      <c r="I896" s="2" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="897" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F897" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G897" s="2" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I897" s="2" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="898" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F898" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G898" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="I898" s="2" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="899" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F899" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G899" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="I899" s="2" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="900" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F900" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G900" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="I900" s="2" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="901" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F901" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G901" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="I901" s="2" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="902" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F902" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G902" s="2" t="s">
+        <v>1847</v>
+      </c>
+      <c r="I902" s="2" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="903" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F903" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G903" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I903" s="2" t="s">
+        <v>1850</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A563:WVQ609">
     <sortCondition descending="1" ref="F563:F609"/>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5876" uniqueCount="1851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6259" uniqueCount="1931">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7724,6 +7724,345 @@
     <t>位于大堤南侧，是目前国内最大的内湖游泳场，长1500米，宽100米，面积15万平方米，底部以水泥筑基，并设有深水区警戒灯和人造沙滩，潜水区为1米，水深按1%由北向南递增至警戒灯处，最深处为2米，可供数万人畅游其中。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>泉山景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐州泉山森林公园位于徐州市三环南路，景区面积2773亩，由五座山峰组成，东泉山海拔238米，为徐州市第一高山。景区内动植物资源非常丰富，具有生物多样性的显著特征，森林覆盖率达95%，能明显地反映本地区植物区系的过渡性。 
+作为省级自然保护区，徐州泉山森林公园自然景观和人文景观相互融合，具有“绿、奇、秀、幽、野”的特色，被徐州市民称作“徐州绿肺”、“天然氧吧”。牡丹园、桃园、红梅园、水杉林等29个植物专类园及全国最大的生态鸟园—鸟悦园分布其中，是徐州环城国家森林公园的核心景区，被确立为省级环保教育基地和徐州市科普教育基地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟悦园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟悦园坐落于泉山森林公园内，拥有世界各地珍奇鸟类百余种数千只，其中国家一级保护鸟类10余种，二级以上保护鸟类40余种。一条小溪穿园而过，丹顶鹤、天鹅、孔雀、锦鸡、鸳鸯、鸸鹋、火烈鸟等十几个鸟类观赏区分布在淙淙溪流旁，园中随处可见五颜六色的鸟儿，可听婉转动听的鸟鸣。罩网区采用散养的方式，游人可以亲自投喂鸟儿，与鸟儿零距离接触；网外区设有人鸟对话、鸟艺表演等互动表演项目。白天鹅、黑天鹅、东方白鹳、鸸鹋等鸟类连续在自然状态下成功孵化，为鸟悦园增添勃勃生机，进一步满足了游客游览观赏需求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银杏园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银杏是现存种子植物中最古老的孑遗植物，生长较慢，寿命极长。从栽种到结果要二十多年，四十年后才能大量结果，有“公种树而孙得食”的含义，因此又名“公孙树”。银杏树形高大，伟岸挺拔，被人们尊崇为圣树、神树，被科学家称为“活化石”，“植物界的熊猫”，是徐州市的市树，也是江苏省的省树。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群羊坡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群羊坡位于泉山公园西南部，漫山遍野的绵羊石在侧柏和湿地柏的掩映下，形状各异，惟妙惟肖，如同一群低头啃草或卧倒小憩的绵羊，由此得名群羊坡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐大本营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐大本营有体能挑战全套设施，既能锻炼胆量和意志，又能培养团队协作精神，是富于挑战的青少年朋友进行“森林有氧运动”的首选之地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果老洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果老洞位于西泉山半山腰，传说为张果老得道成仙之地。张果老生性淡薄名利，喜欢到处游历，过逍遥的生活。传说张果老在成仙之前，为挑一处山清水秀的风水宝地修炼成仙，他走遍了徐州72山后来到泉山，见此地山清水秀鸟语花香，尤其西山有一宽约10平方米，深约3米的下陷石洞，好似专门为他修炼准备的，于是落脚于此，张果老在泉山修炼成仙后，驾着五彩祥云离去，留下仙洞，让后人诉说着他的传奇故事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤营地处泉山景区的西南角。此处环境优美，设施齐全，露天烧烤别有风味。在优美的环境中，以DIY的方式体验森林野餐，自娱自乐，体验言不可传的妙趣，是同学聚会、老友小酌、家人团聚的绝佳去处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光广场是个下沉式广场，是一种新的空间形式。运用视觉艺术规律和各种艺术的、技术的手段，把绿化地带、喷泉、建筑小品和人工照明、音响等有机地结合起来，创造出富有魅力的空间艺术面貌，可举办森林音乐会、联欢晚会，是企事业单位进行宣传活动的首选之地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑草滑雪场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉山森林公园滑草滑雪场，是在景区自然起伏的山地上顺势建成的，是徐州地区第一家也是目前唯一一家滑草滑雪场。喜爱雪上运动的朋友不出徐州就可以体验驰骋冰雪的快乐了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉山主峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉山主峰是泉山最高峰东泉山，登临泉山主峰，可以眺望泉山风景，云龙山、云龙湖也一览无余，美丽的湖光山色尽收眼底。这里也是徐州市猕猴自然保护区。幸运的游客还可以看到野生猕猴在山间觅食游戏玩耍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说长江以北不长竹，但我园的竹子不但栽植成功，而且长势茂盛，已形成面积约80余亩的竹林，主要栽种毛竹、淡竹、苦竹、黄金碧玉竹等，是目前淮海经济区内竹类面积最大、品种最多、长势最好的竹林。为所有曾来徐展出的大熊猫提供了充足的新鲜美味食品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百寿园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百寿园因园内山石上刻有100余个不同字体的寿字而得名。园内一尊寿星像，鹤发童颜，手捧寿桃，似在恭祝大家家庭幸福健康长寿。园内小径由颜色不同形状各异的鹅卵石铺就，形成登山健康之路，深受广大游客特别是中老年朋友的喜爱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猕猴观赏区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景区丰富的自然资源优厚地招待了泉山猕猴，猕猴们在景区内自由穿梭。经过5年的自然繁育，已然形成健康稳定的猕猴群落。为方便观赏和投喂，景区建成“猕猴观赏区”，吸引猴群前来觅食嬉戏，使游客有更多机会观察到猕猴，并与猕猴近距离接触。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗日英雄纪念碑廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿着龙泉东湖，路左边的是抗日英雄纪念碑廊，它是为纪念抗日战争胜利60周年，缅怀英烈，弘扬爱国主义精神，由徐矿集团文联海外联谊会、泉山森林公园与都市晨报社联合筹建的。抗日英雄纪念碑廊由108块精美厚重的碑石组成，总长120米，内容共三部分，抗日英雄事迹是整个碑廊的主题，经徐州市委宣传部审核，60位抗日英雄入选。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水杉林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古典仿竹风格的龙泉桥，与湖边树林相映，令人心旷神怡。龙泉湖由东西两湖组成，西湖南边的一片树林叫水杉林，水杉喜性潮湿，而在我们泉山这片干旱的石灰岩土壤中生长就极为罕见。由于水杉树形优美，且不易生病虫害，所以这片树林成为许多游客的驻足点和游憩地，也是我们泉山森林公园的标志性景观之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牡丹园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牡丹属木本名贵花卉，花大色艳，香色俱佳，素有国色天香，花中之王的美称，被人们当作富贵吉祥，繁荣兴旺的象征。牡丹宜干不宜湿，耐寒不耐高温，喜阳但不喜欢晒。我园内的牡丹引自山东菏泽和河南洛阳，主要有葛巾紫、二乔、昆山夜光等品种，每年四月中下旬开花，已成为淮海经济区内最大的牡丹花观赏基地之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景观路左边的是桃花园，占地约50亩，主要栽种蟠桃、碧桃、水蜜桃等品种。桃花为落叶乔木，原产于中国中部及北部，栽培历史悠久，性喜阳光，耐寒耐旱。桃树的果实是人们非常喜爱的水果之一，桃核可以榨油，其枝、叶、果、根均可入药，桃木细腻坚硬，可供雕刻用。阳春三月，各色桃花竞相开放，惹得蜜蜂流连彩蝶飞舞，初夏六月，成熟的桃子尝上一口，甜透人心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小南湖景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小南湖景区，是云龙湖的有机组成部分，它位于云龙湖南岸，其水全部来自云龙湖，两者之水从桥下相通，但两湖之间又被一条道路和绿化带隔开，所以又可单称小南湖。小南湖水面面积0.96平方公里，湖中有岛，岛上亭台楼榭散布其中，竹林飒飒，小径通幽，散发着浓郁的“江南园林”韵味。景区将豪放的苏轼文化与秀丽的生态景观融为一体，蕴涵着丰厚历史文化底蕴的文化景观，让小南湖显得小巧而不失厚重。苏公岛和旁边的鸣鹤洲都是小南湖景区内两个人工堆土而成的小岛，建于2007年。两岛四面环水，中间通过廊桥相连。苏公岛、鸣鹤洲景观以东坡文化为主题，通过不同的园林绿化空间，来展示东坡文化。岛上亭台、楼阁掩映在林木中，形成幽林碧水、动静结合的景观特色。主要景观有东坡文苑、东坡足迹图、鹤鸣阁等，登岛游览，四周景观尽收眼底，让人恍若置身于江南水乡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云汇桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于湖南路中段，云汇桥寓意与云龙湖、云龙山相汇。桥中间分开，两头交汇，形成双拱桥。双桥相接，看上去如久别重逢的好友相拥相抱。桥东西两端，分南北各建有4个桥亭，桥亭底部与水面接触处四面呈弧形结构，倒映在水中，形成多重光影。此桥在设计上似借鉴了扬州瘦西湖五亭桥的结构特征。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙华桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙华桥横跨湖南路西端，长183米，形如长虹卧波，其造型与北京颐和园十七孔桥相似。一千多年前，中国赴印度取经第一人法显和尚远涉万里，历经千辛万苦，九死一生，带回珍贵的佛陀经论。法显浮槎跨海回到故国，并一度驻于徐州，并依照从印度带回的龙华寺图纸于珠山北麓修建龙华寺，宏扬法务，利益群生。故而此桥取名龙华桥。龙华桥桥面采用汉白玉饰面，桥上可通汽车，桥下为水上游览通道。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解忧桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于小南湖东部鹤鸣洲东面，为单孔拱桥。一孔映入湖中，犹如一轮明月。这座桥的名字源于西汉时期徐州第三代楚王刘戊之女刘解忧，作为汉家公主和亲远嫁乌孙国，为国家安宁和人民的幸福献出自己的青春，为此人们用解忧公主命名此桥以表示对她的纪念。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛月桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛月桥是一座廊桥，位于小南湖中部，东连鸣鹤洲，西接苏公岛，形如水榭，美似弯月，有“百米画廊”之称。长80米的长廊上共绘制了17幅画。沿着长廊从东向西依次为徐州的旧八景：黄楼赏月、阳春观荷、戏马秋风、奎山塔影、石狗渔歌、佛寺钟声、放鹤春晓、云龙山色，中间一幅为南湖景观，向西依次为徐州新八景：湖光山色、彭祖福寿、汉楚王陵、森林公园、龟山汉墓、古彭民居、遗珍博物、汉皇故里。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石瓮倚月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于小南湖鹤鸣洲北面湖心，石瓮是以新石器时代的红石陶瓮及徐州市出土的陶瓮为原型，结合两汉文化奔放、朴拙的特点设计而成。景墙和石瓮上均雕刻有汉代风格的吉祥文饰。石瓮置于三面景墙之中，其内部灯光通过其下方六个对称的圆形孔洞，投射到水面，与映在水中的月光交相辉映，产生奇幻的景观效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南湖水榭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北临风光秀丽的云龙湖，东望蜿蜒起伏的云龙山，景色怡人。南湖水街占地7.46公顷，建筑面积约22000平方米，由29座形态各异的独栋建筑组成。整个街区三面环水，湖水穿插而过，独特的景观特色造就了该街区的唯一性，是我市唯一一座旅游文化和美食文化相结合的街区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣鹤阁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣鹤阁是全景区的景观控制点和视线焦点。取意于苏轼《放鹤亭记》中曰：“山人有二鹤，甚驯而善飞，旦则望西山之缺而放焉。纵其所如，或立于陂田，或翔于云表荷风岛，暮则素东山而归。”通过广场和台阶的设置，将“鹤鸣阁”与“九皋苑”二者紧密地结合在一起，让人联想起鹤鸣放飞之情，与云龙山上东坡遗迹放鹤亭形成空间上的历史文化呼应。门前楹联为苏东坡《放鹤亭记》佳句“春夏之交草木际天，秋冬雪月千里一色”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷风岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷风岛因其三面环水，四季花香，以荷池景观为特色、以自然生态为主题，故名荷风岛。岛上建筑粉墙黛瓦，栗柱灰砖，亭廊花窗，处处体现苏式园林精致淡雅的特色。入口处有一座翘檐门楼，以其“清风袭袭，荷香阵阵”的意境，取名为“清风苑”。荷风岛上有众多袖珍景观，如云锦亭、冷香亭、映日亭、报雨轩、荷园和不染堂等。我们眼前这片具有江南园林特色的建筑群，就是荷园，荷风岛清风苑的主景。这座翘然耸立的小亭就是云锦亭，亭名取意于宋代词人李清照《一剪梅·离别》词句：“红藕香残玉簟秋。轻解罗裳，独上兰舟。云中谁寄锦书来？雁字回时，月满西楼。”表达鸿雁传情的意境。我们穿过连廊，就到了冷香亭。冷香亭，取意于李清照《醉花阴·重阳》中的“东篱把酒黄昏后，有暗香盈袖”一句。前面的报雨轩，取意于唐诗“柳絮池塘淡淡风，留得残荷听雨声”的佳句。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东坡足迹图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东坡足迹图是以“东坡足迹”为背景，以浮雕式铺装的形式，来表现苏公的足迹，让人们了解苏东坡的生平。 
+让我们吟诵着东坡先生的：“人生到处知何似，应似飞鸿踏雪泥。泥上偶然留指爪，鸿飞哪复计东西。老僧已死成新塔，坏壁无由见旧题。往日崎岖还记否，路长人困蹇驴嘶。”跟随他的足迹跨越川蜀长江，神游锦绣江南，在无尽的遐思中，去感知他贯穿始终的人生思考，去享用他留给后人的丰厚文化遗产……。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东坡文苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东坡文苑又叫小南湖苏公馆，位于苏公岛的西部，建于2007年，为本岛主景区。东坡文苑实际是东坡纪念馆，由展馆和碑廊等部分组成，通过展示有关苏轼的资料和文物，介绍一代大文豪苏东坡坎坷的一生和他在文学、书法、绘画等领域所取得的杰出艺术成就。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉王景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉王位于云龙湖西南，距徐州市区12.5公里。部分镇域处于云龙风景名胜区内。 
+境内山脉连绵，河流纵横，森林覆盖率达60%，有诸多自然和人文景观，是著名的“花果之乡”、“中国红玫瑰之乡”、“民间石刻艺术之乡”、“汉文化之乡”和“生态平衡之乡”，是江苏省百家名镇之一，曾荣获联合国“全球生态500佳”称号。汉王素有山水一色、民丰物阜之称，被喻为徐州后花园。 
+汉王的历史源远流长，文化底蕴深厚，这里出土的石刀、石斧、石凿、石祖，说明早在新石器时代就有人类的祖先在这里繁衍生息。这里还是两汉文化的发祥地之一，楚汉相争，高祖刘邦就是在这里拔剑得泉，重整旗鼓，成就一代帝业。这里出土的汉画像石、汉画像砖描述了当时广阔的生活画卷。农历四月初八是著名的汉王庙会。历史上许多名人志士、墨客骚人来汉王游赏。 
+一代文豪苏轼、苏辙兄弟曾游汉王，苏辙为高祖试剑石作铭，大气雄浑；明代徐州知府杨节仲为汉王庙府写了“门迎曲水龙蛇动，户对环山虎豹藏”的对联；死后葬于汉王的清代张竹坡评点《金瓶梅》，呕心沥血，为中国文学理论留下宝贵遗产……。聪明智慧的汉王人依靠当地丰富的大理石、竹叶石资源，加上精湛的石刻技艺，制造出的烟具、茶具、文具等石刻工艺品远近闻名，汉王石雕和根雕远近驰名，1999年被江苏省命名为“石雕之镇”。2000年被中国文化部命名为“中国石刻艺术之乡”。 
+汉王属山区丘陵地带，东、南面为丘陵区，西、北部为冲击平原并有小面积的采煤塌陷区，境内有大小山头136座，最高海拔244m，平原区标高在38-40m之间。汉王镇属北温带，亚湿润气候，四季分明。 
+汉王自然环境良好，生态旅游资源丰富。全镇森林覆盖率达60%，荒山绿化率达98%，大气质量达一级标准，地表水、地下水和土壤等各项生化指标均超过国家环保标准。在这里，十里葡萄长廊、千亩玫瑰园、千亩桃花园、万亩无公害蔬菜生产基地已经形成。雨花露水蜜桃、八斗杏、酥梨等果品在全国、省、市的果品评比中屡次获奖；优质草莓已形成规模。以优质无污染鲜果生产出来的绿色产品曾荣获《国际食品文化博览会金奖》 
+汉王山水风光秀丽迷人，人文历史景观俯拾皆是。群羊坡群石乱立、玉带河曲折逶迤、汉王水库波光鳞鳞、拔剑泉清澈可鉴、虎山生态园引人入胜，游人到此莫不流连忘返。 
+阳春三月，风和日丽，汉王便成了花的世界，登山眺望，处处桃花含娇，樱花点红，姹紫嫣红，芳菲满山。依靠自然生态环境形成的山水风光秀丽迷人，群羊坡群石乱立，风吹草低，如牧群羊，或坐或卧，或行或立，或低头汲食，或悠闲嬉戏，意境深远，令人心旷神怡。玉带河曲水逶迤，玉带湖波光粼粼，老龙潭清澈可鉴，三华山引人入胜，南山温泉也正在开发。游人至此，莫不流连忘返。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张伯英艺术馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张伯英艺术馆，位于三环路南，汉王镇望城村境内。艺术馆陈列有被誉为汉代绣像史的汉画像石、石碑、石刻民俗文物等1500余件，张氏及徐州籍书家的墨宝、张伯英塑像等。艺术馆别具匠心的石道、楼阁、山亭、大殿，处处显示出浓郁的艺术气息。 
+张伯英，谱名启让，字勺圃、少溥、蛰农，自号云龙山民、东涯老人，生于1871年，自幼受家风熏陶，苦习书法。庚子年间中举。1914年因才识过人，被陆军部次长、同窗好友徐树铮聘为陆军部秘书。第二次直奉战争后，段祺瑞担任北洋政府临时执政，伯英出任执政府副秘书长，后辞职，并以卖字为生。伯英书法以颜体入手，再学魏碑，尤精于《张玄墓志》，晚年学苏东坡，自创一体，朴实秀逸，圆满峻发。既宽博雄放，又凝重含蓄。其用笔方圆兼备，万豪齐力，挥洒自然，不泥于古，不媚于今。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉文化一条街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">汉文化一条街全长1.8公里，动迁范围1.2万平方米，征地拆迁费约800万元，工程建设费约4200万元，总投资预计为5000万元，我们建汉文化一条街建设项目，主要是想依托汉文化风情古镇，发展成为区域旅游服务中心、休闲度假胜地和宣传汉文化的基地。目前,已带动了汉王石刻、农家乐、休闲采摘等文化产业项目的发展。 
+镇区房屋是以明清的建筑风格为蓝本，融入了现代的建筑元素，每家每户门前利用原有的空间打造各具特色的景观小品,这样一路走下来,景景不同,动中有静,妙趣横生。建设了古钱币文化一条街、东坡广场、汉王传说的壁画、试剑石广场、百家姓广场、五福广场、中医名医堂等文化建筑工程，雕塑、书法、诗词相得益彰，彰显了文化特色，主干道沿街单位不仅实施了拆墙透绿工程，同时还进行了庭院绿化，形成了园林式单位和园林式小区。 
+镇区配套设施完备，完成了16.1公里镇区道路升级改造、26300平方米沿街建筑物穿衣戴帽仿古改造、1.2公里弱电下埋隐蔽和给排水工程、4100平方米的停车休闲广场、1500平方米的生产资料超市主体已完工，镇区农贸市场进入施工阶段。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉王水街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资1500万元建设的汉王水街，主要突出“汉”文化特征的休闲景观建设。依托规划后的拔剑泉大景区建成汉王水街，围绕一河（玉带河）两带（东岸休闲娱乐带、西岸汉风绿化带）三桥（平步青云、双桥映梦、彩虹飞渡）四段（丁塘渡口——入口迎宾、古镇新韵——龙潭水趣——玉河驿站）。通过对水、林、路、景观小品的综合协调，创造出具有浓郁乡土田园气息的特色生态河道形象。将玉带河生态河道景观融入到汉王古镇中。西岸绿化带四段，间或点缀主题雕塑、景观小品：汉王歌风——汉王刘邦手执酒觞，临风而立，高歌大风。背后林下，青瓦白墙，镂空景观墙，赫然铭记：大风起兮云飞扬，威加海内兮归故乡；纪信救主雕塑；邵大业策马游览拔剑泉雕塑；张竹坡点评金瓶梅雕塑……系列雕塑展现了汉王深厚的人文历史底蕴；葡萄、石榴、草莓、山楂等大型水果雕塑，展示了汉王独特的丰饶物产 …… 漫步林间，不用导游，自知汉王风物。看风景，览文化，颐养身心。因为有山有水、有花有果、有历史典故、还有人文胜迹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔剑泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据《铜山县志》记载，城西南二十里的丁塘山下有泉名拔剑泉，传说是刘邦曾于此处遇险。丁塘山下曾经有汉王庙，庙中有刘邦试剑石。宋代苏辙曾经跟随苏轼入庙观看试剑石，并且写了一篇《试剑石铭》。因而丁塘山下的拔剑泉比较有名。苏辙陪同兄长到徐州西郊拔剑泉，观赏了汉皇刘邦试剑石，写了《彭城汉高祖庙试剑石并序》，以纪其事。清代乾隆年间徐州知府邵大业曾题写《试剑泉》诗。 
+丁塘山在徐州市西南二十里。相传公元前201年春，刘邦被项羽打败，率残兵逃到丁塘山下，汉军人困马乏，饥渴难忍，而项羽追兵即将赶到，汉军陷于绝境，刘邦仰天长叹：天将灭我刘氏也！遂拔剑怒向地上岩石插去，一剑竟没入石中，刘邦拔剑时，一股泉水随剑涌出，同时他的战马以蹄扒地，竟也扒出了泉眼。军兵和马匹喝足了水，体力获得补充，刘邦和部下方才逃脱了被项羽消灭的命运。后人因而将此二泉取名为拔剑泉和马扒泉。 
+此泉水已存在两千多年，至今涌流不息，经有关部门多次对其进行测量，一昼夜涌出的水量达2592立方米，水温常年保持在摄氏16度。拔剑泉泉眼为菱形，犹如宝剑插地时遗留的痕迹。此水十分清冽，适于饮用。当地居民希望泉眼能多涌出一些水，遂将泉眼扩大，结果涌出的水量并未增多，一昼夜仍为2592立方米。后来泉眼四周砌起了井台，并在井口上镶了一个用一整块长方形青石雕成龙形花纹的井沿罩在井口上。马扒泉在拔剑泉北，泉眼犹如马扒地时遗留的痕迹，现在马扒泉被修成了泉池，面积相当于半个足球场大。两泉于汉王庙西南分为两支：一支向东北流经玉带河入云龙湖，一支向西流经虎山腰白山头入闸河，南流入濉水。 
+据拔剑泉北《大兴丁塘湖碑》记载：解放前该地低洼，时旱时涝，人民生活很苦，解放后修筑了汉王水库，又整修了马扒、拔剑二泉，根绝了水患，人民生活显著改善。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水上世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水上世界于1994年8月建成开放，是当时亚洲最大的淡水鱼展馆。2003年，又增加了大量的海水鱼种，建设了海洋珍奇标本馆和海狮表演馆，成为咸淡水鱼类以及野生水生动物的综合性展出和表演场所，也是省、市科普教育、科学研究专业基地。水族馆外形建筑长110米，宽24米，最高点26米，建筑面积2700平方米。整个建筑造型独具匠心，似鱼非鱼、似鲨非鲨，远远望去像长鲸遏浪击水，又似白豚憩卧碧波，从空中俯瞰又好像一艘游轮畅游湖中。水族馆作为徐州的标志性建筑之一，曾被制作成大型紫砂浮雕悬挂在北京人民大会堂中央厅“锦绣中华”的墙壁上。水族馆分为近海奇观、淡水生态、热带雨林、神秘文化、珍稀鱼类、海底隧道、互动多媒体、4D动感影院等八个主题展区共展示200多种10000余条珍稀名贵鱼类，其中有被称为“水中国宝”的中华鲟、扬子鳄、娃娃鱼、胭脂鱼、大鲨鱼、玳瑁、海龟、海狮等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋珍奇标本馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标本馆位于湖心岛南端。1997年2月开工，同年4月竣工，建筑面积360平方米，投资30余万元。展示了来自我国四大海域及西沙、南沙群岛和东南沿海及日本、韩国等海域的“鱼、虾、蟹、贝、龟、珊瑚、海兽”等七大类700余种、2000多件海洋珍奇生物标本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水族馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">水族馆于1994年8月建成开放，是当时亚洲最大的淡水鱼展馆。2003年，又增加了大量的海水鱼种，建设了海洋珍奇标本馆和海狮表演馆，成为咸淡水鱼类以及野生水生动物的综合性展出和表演场所，也是省、市科普教育、科学研究专业基地。 
+水族馆外形建筑长110米，宽24米，最高点26米，建筑面积2700平方米。整个建筑造型独具匠心，似鱼非鱼、似鲨非鲨，远远望去像长鲸遏浪击水，又似白豚憩卧碧波，从空中俯瞰又好像一艘游轮畅游湖中。水族馆作为徐州的标志性建筑之一，曾被制作成大型紫砂浮雕悬挂在北京人民大会堂中央厅“锦绣中华”的墙壁上。 
+水族馆分为近海奇观、淡水生态、热带雨林、神秘文化、珍稀鱼类、海底隧道、互动多媒体、4D动感影院等八个主题展区共展示200多种10000余条珍稀名贵鱼类，其中有被称为“水中国宝”的中华鲟、扬子鳄、娃娃鱼、胭脂鱼、大鲨鱼、玳瑁、海龟、海狮等。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋剧场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋剧场位于水上世界西南角，表演馆为一圆柱形建筑，建于2006年，同年4月完工，总投资约150万元，建筑面积500平方米，座位300个。馆内设置表演台、立面表演池、平面表演池。经过驯化的海洋动物可在表演池中表演，如海狮、海豹表演，“美人鱼”表演等。可同时容纳300名观众观看海洋动物表演。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑道索道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云龙山索滑道穿越于云龙山脉。索道长1200米，垂直高度88米，运行速度1米/秒，最大单向运输量450人/小时，单线自动循环。乘坐索道，湖光山色尽收眼底。滑道全长1000米，高差84.5米，宽3米，依山势起伏，随地形变化，安全舒适又富于刺激性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉画像石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉画像石艺术馆东依云龙山，西临云龙湖，依山面水，环境十分幽雅。艺术馆由旧馆和新馆两部分组成，占地25000平方米，建筑面积8000平方米。旧馆采用具有汉代建筑特征的建筑风格，1989年10月1日建成并对外开放接待观众。新馆建于2004年，风格倾向于现代建筑。大门是仿四川雅安的子母石阙形式采用青石材料雕刻而成的，馆名由著名国画大师李可染先生亲笔题写。这座艺术馆是一座以陈列、收藏、研究汉画像石为主的专题性博物馆。汉画像石是汉代石雕艺人雕刻在墓石、棺椁、祠堂石壁上的一种石刻装饰，形象生动地反映了汉代社会生活的若干侧面，是汉代文化最具代表性的艺术作品，是中华民族艺术宝库中璀璨的明珠。汉画像石与汉墓、汉兵马俑并称为“汉代三绝”，并以其独特的艺术风格、珍贵的历史价值与南京六朝石刻、苏州园林并称为“江苏三宝”。馆里还陈列有现代雕刻艺术家取材于汉画像石创作的彩色蜡像、泥塑，分别反映汉代宫廷歌舞升平及农工百姓耕作、渔猎的情景。目前,馆内藏品1400块,展出画像石600余块，是全国最大的汉画像石专题博物馆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果树盆景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果树盆艺园占地40余亩，1988年建成，为仿古式园林建筑。此园将中国盆景艺术与果树栽培技术紧密结合，融观姿、赏花、观果于一体，具有很高的艺术价值。徐州果树盆景在我国盆景艺术中独树一帜，被列为中国盆景一大流派，高级农艺师张尊中是其创始人。园名由原全国人大常委会副委员长彭冲题字。盆艺园中拥有各类果树盆景十余个树种一百多个品种，各类盆景万余盆。果树盆景高不盈尺，枝干虬曲，悬根露瓜，苍劲奇特，春华秋实，色泽艳丽，具有综合观赏价值。近年研制成功的冬红果，果实晶莹剔透，经冬不凋，艺术效果和规模均首屈一指。果树盆艺园先后接待了德、法、日、美、朝鲜、泰国、喀麦隆等国国际友人及港澳台同胞和国内游客十余万人次。中央电视台《人与自然》节目曾对其作了专题介绍。该园的果树盆景在全国盆景大赛中多次获奖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -8155,12 +8494,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I903"/>
+  <dimension ref="A1:I943"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A852" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A944" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G902" sqref="G902"/>
+      <selection pane="bottomLeft" activeCell="F944" sqref="F944"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27739,6 +28078,15 @@
       </c>
     </row>
     <row r="854" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A854" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E854" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F854" s="2" t="s">
         <v>1751</v>
       </c>
@@ -27747,6 +28095,15 @@
       </c>
     </row>
     <row r="855" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A855" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B855" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E855" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F855" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27755,6 +28112,15 @@
       </c>
     </row>
     <row r="856" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A856" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E856" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F856" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27766,6 +28132,15 @@
       </c>
     </row>
     <row r="857" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A857" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B857" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E857" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F857" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27777,6 +28152,15 @@
       </c>
     </row>
     <row r="858" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A858" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E858" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F858" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27788,6 +28172,15 @@
       </c>
     </row>
     <row r="859" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A859" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E859" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F859" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27799,6 +28192,15 @@
       </c>
     </row>
     <row r="860" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A860" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E860" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F860" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27810,6 +28212,15 @@
       </c>
     </row>
     <row r="861" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A861" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E861" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F861" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27821,6 +28232,15 @@
       </c>
     </row>
     <row r="862" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A862" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E862" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F862" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27832,6 +28252,15 @@
       </c>
     </row>
     <row r="863" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A863" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E863" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F863" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27843,6 +28272,15 @@
       </c>
     </row>
     <row r="864" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A864" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E864" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F864" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27853,7 +28291,16 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="865" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A865" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E865" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F865" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27864,7 +28311,16 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="866" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A866" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E866" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F866" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27875,7 +28331,16 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="867" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A867" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E867" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F867" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27886,7 +28351,16 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="868" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A868" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E868" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F868" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27897,7 +28371,16 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="869" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A869" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E869" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F869" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27908,7 +28391,16 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="870" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A870" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E870" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F870" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27919,7 +28411,16 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="871" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A871" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E871" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F871" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27930,7 +28431,16 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="872" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A872" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B872" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E872" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F872" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27941,7 +28451,16 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="873" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A873" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E873" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F873" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27952,7 +28471,16 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="874" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A874" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E874" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F874" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27963,7 +28491,16 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="875" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A875" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E875" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F875" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27974,7 +28511,16 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="876" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A876" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E876" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F876" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27985,7 +28531,16 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="877" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A877" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E877" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F877" s="2" t="s">
         <v>1753</v>
       </c>
@@ -27996,7 +28551,16 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="878" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A878" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E878" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F878" s="2" t="s">
         <v>1799</v>
       </c>
@@ -28004,7 +28568,16 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="879" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A879" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E879" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F879" s="2" t="s">
         <v>1799</v>
       </c>
@@ -28015,7 +28588,16 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="880" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A880" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E880" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F880" s="2" t="s">
         <v>1799</v>
       </c>
@@ -28026,7 +28608,16 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="881" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A881" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E881" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F881" s="2" t="s">
         <v>1799</v>
       </c>
@@ -28037,7 +28628,16 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="882" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A882" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E882" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F882" s="2" t="s">
         <v>1799</v>
       </c>
@@ -28048,7 +28648,16 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="883" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A883" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E883" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F883" s="2" t="s">
         <v>1799</v>
       </c>
@@ -28059,7 +28668,16 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="884" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A884" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E884" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F884" s="2" t="s">
         <v>1799</v>
       </c>
@@ -28070,7 +28688,16 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="885" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A885" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E885" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F885" s="2" t="s">
         <v>1799</v>
       </c>
@@ -28081,7 +28708,16 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="886" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A886" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E886" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F886" s="2" t="s">
         <v>1799</v>
       </c>
@@ -28092,7 +28728,16 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="887" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A887" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B887" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E887" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F887" s="2" t="s">
         <v>1799</v>
       </c>
@@ -28103,7 +28748,16 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="888" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A888" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E888" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F888" s="2" t="s">
         <v>1799</v>
       </c>
@@ -28114,7 +28768,16 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="889" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A889" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E889" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F889" s="2" t="s">
         <v>1799</v>
       </c>
@@ -28125,7 +28788,16 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="890" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A890" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E890" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F890" s="2" t="s">
         <v>1799</v>
       </c>
@@ -28136,7 +28808,16 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="891" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A891" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E891" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F891" s="2" t="s">
         <v>1799</v>
       </c>
@@ -28147,7 +28828,16 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="892" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A892" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E892" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F892" s="2" t="s">
         <v>1799</v>
       </c>
@@ -28158,7 +28848,16 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="893" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A893" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E893" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F893" s="2" t="s">
         <v>1829</v>
       </c>
@@ -28166,7 +28865,16 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="894" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A894" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E894" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F894" s="2" t="s">
         <v>1829</v>
       </c>
@@ -28177,7 +28885,16 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="895" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A895" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E895" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F895" s="2" t="s">
         <v>1829</v>
       </c>
@@ -28188,7 +28905,16 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="896" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A896" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E896" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F896" s="2" t="s">
         <v>1829</v>
       </c>
@@ -28199,7 +28925,16 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="897" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A897" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B897" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E897" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F897" s="2" t="s">
         <v>1829</v>
       </c>
@@ -28210,7 +28945,16 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="898" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A898" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B898" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E898" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F898" s="2" t="s">
         <v>1829</v>
       </c>
@@ -28221,7 +28965,16 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="899" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A899" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B899" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E899" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F899" s="2" t="s">
         <v>1829</v>
       </c>
@@ -28232,7 +28985,16 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="900" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A900" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B900" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E900" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F900" s="2" t="s">
         <v>1829</v>
       </c>
@@ -28243,7 +29005,16 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="901" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A901" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B901" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E901" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F901" s="2" t="s">
         <v>1829</v>
       </c>
@@ -28254,7 +29025,16 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="902" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A902" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B902" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E902" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F902" s="2" t="s">
         <v>1829</v>
       </c>
@@ -28265,7 +29045,16 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="903" spans="6:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A903" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B903" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E903" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F903" s="2" t="s">
         <v>1829</v>
       </c>
@@ -28274,6 +29063,785 @@
       </c>
       <c r="I903" s="2" t="s">
         <v>1850</v>
+      </c>
+    </row>
+    <row r="904" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A904" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B904" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E904" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F904" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I904" s="2" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="905" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A905" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E905" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F905" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G905" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="I905" s="2" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="906" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A906" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E906" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F906" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G906" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="I906" s="2" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="907" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A907" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E907" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F907" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G907" s="2" t="s">
+        <v>1857</v>
+      </c>
+      <c r="I907" s="2" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="908" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A908" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E908" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F908" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G908" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="I908" s="2" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="909" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A909" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E909" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F909" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G909" s="2" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I909" s="2" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="910" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A910" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E910" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F910" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G910" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="I910" s="2" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="911" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A911" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B911" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E911" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F911" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G911" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="I911" s="2" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="912" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A912" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B912" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E912" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F912" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G912" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="I912" s="2" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="913" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A913" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B913" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E913" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F913" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G913" s="2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I913" s="2" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A914" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B914" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E914" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F914" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G914" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I914" s="2" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="915" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A915" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B915" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E915" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F915" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G915" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="I915" s="2" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="916" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A916" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B916" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E916" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F916" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G916" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="I916" s="2" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A917" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B917" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E917" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F917" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G917" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I917" s="2" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A918" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B918" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E918" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F918" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G918" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="I918" s="2" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="919" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A919" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B919" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E919" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F919" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G919" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="I919" s="2" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="920" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A920" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B920" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E920" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F920" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G920" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I920" s="2" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="921" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A921" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B921" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E921" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F921" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="I921" s="2" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="922" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A922" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B922" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E922" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F922" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G922" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="I922" s="2" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="923" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A923" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B923" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E923" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F923" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G923" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="I923" s="2" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="924" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A924" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B924" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E924" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F924" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G924" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="I924" s="2" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="925" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A925" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B925" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E925" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F925" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G925" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I925" s="2" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="926" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A926" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B926" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E926" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F926" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G926" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I926" s="2" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A927" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B927" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E927" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F927" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G927" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="I927" s="2" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A928" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B928" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E928" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F928" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G928" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="I928" s="2" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A929" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B929" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E929" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F929" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G929" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="I929" s="2" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A930" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B930" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E930" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F930" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G930" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="I930" s="2" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A931" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B931" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E931" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F931" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G931" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="I931" s="2" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="932" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A932" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B932" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E932" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F932" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="I932" s="2" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A933" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B933" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E933" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F933" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G933" s="2" t="s">
+        <v>1909</v>
+      </c>
+      <c r="I933" s="2" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A934" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B934" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E934" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F934" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G934" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="I934" s="2" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A935" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B935" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E935" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F935" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G935" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="I935" s="2" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A936" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B936" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E936" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F936" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G936" s="2" t="s">
+        <v>1915</v>
+      </c>
+      <c r="I936" s="2" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A937" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B937" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E937" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F937" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="I937" s="2" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A938" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B938" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E938" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F938" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G938" s="2" t="s">
+        <v>1919</v>
+      </c>
+      <c r="I938" s="2" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A939" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B939" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E939" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F939" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G939" s="2" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I939" s="2" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A940" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B940" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E940" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F940" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G940" s="2" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I940" s="2" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A941" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B941" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E941" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F941" s="2" t="s">
+        <v>1925</v>
+      </c>
+      <c r="I941" s="2" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A942" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B942" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E942" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F942" s="2" t="s">
+        <v>1927</v>
+      </c>
+      <c r="I942" s="2" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="943" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A943" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B943" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E943" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F943" s="2" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I943" s="2" t="s">
+        <v>1930</v>
       </c>
     </row>
   </sheetData>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6259" uniqueCount="1931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6503" uniqueCount="2038">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8063,6 +8063,446 @@
     <t>果树盆艺园占地40余亩，1988年建成，为仿古式园林建筑。此园将中国盆景艺术与果树栽培技术紧密结合，融观姿、赏花、观果于一体，具有很高的艺术价值。徐州果树盆景在我国盆景艺术中独树一帜，被列为中国盆景一大流派，高级农艺师张尊中是其创始人。园名由原全国人大常委会副委员长彭冲题字。盆艺园中拥有各类果树盆景十余个树种一百多个品种，各类盆景万余盆。果树盆景高不盈尺，枝干虬曲，悬根露瓜，苍劲奇特，春华秋实，色泽艳丽，具有综合观赏价值。近年研制成功的冬红果，果实晶莹剔透，经冬不凋，艺术效果和规模均首屈一指。果树盆艺园先后接待了德、法、日、美、朝鲜、泰国、喀麦隆等国国际友人及港澳台同胞和国内游客十余万人次。中央电视台《人与自然》节目曾对其作了专题介绍。该园的果树盆景在全国盆景大赛中多次获奖。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>连云港市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海州区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁林路5号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花果山位于江苏省连云港市南云台山中麓。花果山景区是国家级云台山风景名胜区的核心景区、国家AAAAA级旅游景区[1]  、全国文明风景旅游区示范点[2]  、第二批国家重点风景名胜区、国家地质公园。先后荣获“全国文明风景旅游区示范点”、“中国特色生态文化旅游胜地”、“美丽中国十佳海洋旅游目的地”、“中国最值得外国人去的50个地方金奖”、“中国最美文化休闲旅游目的地”等多项荣誉称号。[3] 
+花果山野生植物资源十分丰富、计有植物种类1700余种，其中药物资源就有1190种，金镶玉竹、古银杏等都是省内罕见、国内少有的树种和水帘洞，栖身之、唐僧崖、古树名木，是江苏省重要的野生植物资源库，每年吸引了国内许多高校、科研单位、专家学者来此考察研究。[4] 
+花果山在唐宋时称苍梧山，亦称青峰顶，为云台山脉的主峰，是江苏省诸山的最高峰。 李白：“明日不归沉碧海，白云愁色满苍梧。”与苏轼：“郁郁苍梧海上山，蓬莱方丈有无间”，写的都是云台山。被誉为：“海内四大名灵”之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花果山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿育王塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大圣湖之滨屹立着一座千年古塔。它背依层峦叠嶂，面临千顷碧波，塔身亭亭，倒影历历，湖光山色，相映生辉。它就是海清寺阿育王塔，塔旁原有一座海清寺，是花果山主庙三元宫的下院，类似于今天的接待站。过去长途跋涉朝山进香的信徒，都要在这里先歇歇脚，再往山上攀登。
+海清寺阿育王塔，是苏北地区现存最高和最古老的一座宝塔。据建塔时嵌在塔内壁上的碑文记载，此地原先曾建过一座塔，在唐代时号称全国第二，可见此塔在我国的建塔史上有着重要的地位。阿育王塔自古就是云台山的一个主要景点，明代叫“古塔穿云”，清代叫“塔影团圆”。它的特点有五：一是历史古老；二是根深蒂固，经历过郯城1668年8.5级大地震的洗礼，至今不歪不斜；三是塔形壮丽，再经山光水色的映衫，相得益彰；四是既能看又能爬，游客有参与的机会；五是有动人的神话传说，倍增游兴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">花果山玉女峰茂盛的树林中，生活着300多只活泼可爱的猕猴。具有野性的猕猴在夏日的花果山上繁衍生息，与慕名前来的游客和谐共处，过着无忧无虑地生活，它们成为一道有趣的景观，也为花果山增添了灵气。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云山雾海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">神奇的平流雾犹如仙境，十分壮观，整个花果山在平流雾若隐若现宛如海市蜃楼，犹如仙境般迷人。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水帘洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">水帘洞是花果山上最有特色、最有代表性的景点。这是《西游记》中孙悟空的老家水帘洞的原型。早在《西游记》成书之前，水帘洞已名闻遐迩。在明顾乾的《云台三十六景》以及张朝瑞等人的游记和各类方志文献中已有详尽生动的描述。洞门前，有明嘉靖二十三年（1544年）海州知州王同的“高山流水”题刻，还有“神泉普润”、“灵泉”等勒石。正如《西游记》所写：“一派白虹起，千寻雷浪飞。······潺湲名瀑布，眞似挂帘帷”。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三元宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">三元宫处于花果山三元宫建筑群的中心，雕梁画栋，殿宇森罗。据载，它发迹于唐，重建于宋，敕赐和扩建于明，香火两万家，后又多次修葺于清。1938年遭日军轰炸，翌年日寇搜山时被焚。“文革”后，依明朝的建筑风格逐步修复，现已形成以海宁禅寺为主体的庙宇群。当今的山门和“敕赐护国三元宫”门额，是明代遗物。三元宫正门右面那棵古柏，是宋代留存。院内的两棵银杏树，都过一千一百年了。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花果山山门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">花果山山门是由四只石雕雄狮把守，这就充分体现了花果山的特点：山中无老虎，猴子称大王。花果山是孙猴子的老家，有了老虎，猴子们可就坐卧不宁了。
+大家可以看到，正门上首为孙悟空的头像，《西游记》中他可是取代了唐僧，成为吴承恩笔下的头号男主角，最终取得正果，被如来封为“斗战胜佛”。北门上首为唐僧师徒四人西方取经的浮雕，他们明知妖魔当道，千难万险，却一往无前，毫无畏惧。
+广场四周这些石猴，是花果山的迎宾猴，原数108只，暗寓36天罡、72地煞之数。谁知完工一数，却多出了一只。问施工单位是怎么回事，他们讲，有一只备用的石猴放在库房里，孤独难熬，夜里偷偷溜进了猴群，所以现在这里共有109只。
+山门背面的匾额上书写的“东胜神州”这四个字，是由中国书法协会代主席沈鹏先生题写。您还记得《西游记》中的描述吗？“东胜神州，海外有一国土，名曰傲来国。国近大海，海中有一座名山，唤为花果山……”，吴承恩在开篇就已经明确了花果山的地理位置和海中之岛这一特点。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎曙亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">据《云台补遗》记载，唐建“望日楼”，后倒塌。明万历年间，在原址建“海曙楼”。道光十三年（1833年），陶澍捐资重修，亲题“海曙楼”于门额，撰.并书联于门侧：“曙色正平分，听万籁无声，已觉人来天上；楼光开四面，看一轮初上，始知身在日边”。公元1986年，在海曙楼遗址，修建了“迎曙亭”，这是目前我国最大的全石结构的亭子。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“神”字王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">大石崖上有一个很大的“神”字，叫做神字王。字长39.4米，宽15.8米，深0.6米，是世界上最大的单体汉字摩崖石刻。1996年入选吉尼斯世界记录。“神”字王可远眺也可近观。
+花果山的一草一木，都因为一部《西游记》而充满神韵，从怪石园东部唐僧崖向南有一条石板路，通往眺望“神”字王的最佳方位——观神台，路旁边的崖壁上有若干名家书写的字体不一、大小各异、风韵不同的“神”字摩崖石刻，一路“神”味十足，叫做“神路”。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七十二洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">花果山上洞穴特多，总称“七十二洞”，乃是若干万年前的一次造山运动形成的奇观。除了海天洞，著名的还有二仙洞、万佛洞、朝阳洞、啸云洞、华严洞、莲花洞等。《西游记》第三回，描写花果山间的七十二洞妖魔，尽皆归顺猴王，并在花果山保卫战中充当先锋。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐僧崖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">唐僧崖，又叫“大佛崖”，是由片麻岩石风化而成的一堵高达数十米的峭壁陡崖。站在三元宫停车场东望，即可见唐僧和孙悟空师徒俩立在崖上的形象：唐僧两耳垂肩，佛眼微闭，背稍躬，好像正在肃目修行；右旁一天然石猴，似乎在与唐僧耳语。神采逼真，栩栩如生。走到近前，由于崖壁纹理复杂多彩，还可以看到许多奇景点缀其间，有师徒对话、舍身饲虎、独角鬼王等，所以有人又把它叫做“万佛崖”。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袖海苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">袖海苑位于景区海宁禅寺附近,该苑通过对中华传统文化和连云港特色文化的研究探索，不断增强连云港文化发展活力。袖海苑接待中心是景区重要接待场所和游客休闲游览点，曾接待过国家领导人及重要贵宾。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">由仙人桥沿竹节岭登山，岭上有349级的18组阶梯，叫做十八盘。
+十八盘为游人步行登山的要道。前人依山势坡陡、起伏程度之别，以板石铺砌，筑台阶十八组，每组三五级、七八级不等，相距远近各异，全长约半华里。游客在迂回石径中不断攀登前行，自有一番乐趣。
+如今，十八盘中古拙的板条石换成了水泥踏步，仍有许多心存怀古幽思的观光客喜欢在这里沐浴于古道遗风。第349级台阶以上，便是风门口，真乃一路风光一路情 。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南天门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">南天门在竹节岭之上、风门口之东，背倚峻岭，形势险要，居高临下，与玉皇阁、三元宫遥遥相对。在《西游记》中，南天门是玉皇大帝灵霄宝殿的外大门，孙悟空出入天庭，大闹天宫，皆是从南天门作为“突破口”的。
+南天门南边，还有一块八角形的青石台，传说是托塔李天王的点将台，当年十万天兵天将奉命下界来捉拿孙悟空，托塔李天王曾在这里布兵遣将。  
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花果山之秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">秋韵装点下的花果山，就是一幅红黄绿相间的丰硕秋景天然图，使人顿觉神清气爽。秋韵浓浓，气象万千。蜿蜒曲折的游道两侧长满郁郁葱葱的植物，高大的楠树、挺拔秀丽的美人松树、柔中带刚的金镶玉竹等，以不同的神话故事展现着各自的风姿。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">八戒石是由一组巨石组成的。我们可以看到老猪头戴僧帽，一只大耳朵紧贴腮边垂挂着，嘴巴伸得长长的噘在树丛里，不知是在啃树叶还是在偷吃果子。它鼻子微翘，眼睛眯缝着，又像似在睡觉。虽然是天然形成，但神形惟妙惟肖，栩栩如生，把老猪那贪吃好睡的性格描绘无遗，这很有可能就是吴承恩描写猪八戒的模特儿。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉女峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">玉女峰，海拔624.4米，江苏省最高峰。《云台补遗》云：“双峰耸立，东曰‘清风’，西曰‘玉女’，为云台主峰。”玉女是《西游记》所描绘的天宫里的人物，曾为情爱下凡；第三十回还说花果山“上连玉女洗头盆”。如今在山南东磊，可看到关于玉女洗头盆的遗迹和石刻。传说，云雾缥缈之际，花果山巓显现出玉女身姿，娉婷婀娜，妙曼神奇。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九龙桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">九龙桥是因为山上有九条山涧像九条舞动着的龙，从四面八方汇集于桥下而得名。那时候百姓都相信龙是神，一些香客就在此桥小憩一刻，来沾一点龙的寿气，再进山求佛，保全家万事平安，因此九龙桥又叫万寿桥。传说花果山上原来有十条龙，九条龙在山里面住着，为了防止外族侵犯，便派了一条本事最大的秃龙到东面的山头守卫。现在山东庄还有秃龙山，那龙山上还有两个对穿的山泉就是传说中的龙耳。我们可以在桥上往南望，那远处的村庄便是山东庄。
+九龙桥畔有一棵千年老银杏，粗大的枝桠已经挤进了桥身，桥上桥下布满树荫，给游客提供了休息纳凉的理想场所。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨香小径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">墨香小径是一处天然的艺术碑廊，融自然美与艺术美于一体，别具一格，堪为国内一绝。
+在一块块自然山石上，镌刻着当代书法名家的作品，因名“墨香小径”。踏入这条小径，便会为104块天然石上的书法瑰宝所陶醉。字因石愈显其秀，石因字更显其神。真草隶篆，形体各异；颜肌柳骨，风韵不同。启功、沈鹏、李苦禅、沙孟海、林散之、武中奇、范曾、舒同、李淑一、萧娴、李一氓、郭化若等位大师的真迹，为胜境锦上添花。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪石园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">千万年前，花果山经历了一次大的地壳运动，许多山峰崩裂，乱石滚到了山坡上。经过日晒夜露风霜雨雪的磨练，终于形成了许许多多的怪石，而令人称奇的是，这许多怪石又能和《西游记》神奇地联系起来。例如，头上打三下的猴子拜师，翻掌压住猴王的佛手，斗变试禅心的四圣佛像，伏渡通天河的千年老鼋，还有哮天犬、上山虎、白骨精、拜月兔等等。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大圣佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">大圣佛是在自然石的基础上，凿刻而成的孙大圣头像，供孙大圣的信仰者祭祀。孙悟空保护唐僧西天取回真经，功德圆满，被如来封为斗战胜佛，地位已远远高于观音菩萨。斗战胜佛，顾名思义是好斗善斗，而且是凡斗必胜。在人们心目中，孙悟空就是正义的象征，智慧的象征。每年台湾地区和东南亚各国，都有很多进香团到花果山来朝拜孙大圣。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉皇阁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">原为玉皇宫，石匾仍在。明万历十五年（1587年）之前，已是三元宫建筑群中最高的庙宇建筑。它与前殿、大殿、团圆宫一样，皆依山而建，在一条子午线上。1992年在原址建玉皇阁，是一座接近花果山极顶、高24米的三层六角亭阁，常被霞光云雾缠绕。立于玉皇宫上，可俯视水帘洞、三元宫、南天门、孔雀沟。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥镇洪流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">清康熙大帝，对云台山镇淮入海的气度，大为赞叹。于康熙三十年（1691年）下江南返京途中，特地派他的貼身太监五哥来云台山进庙上香，并将他手书的匾额“遥镇洪流”赐给三元宫。当时云台山尚未与大陆相连，还屹立于碧海之中。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛公碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">毛泽东同志博古通今，在1953年、1955年和1956年，曾经三次与江苏省、市领导人谈及花果山在江苏新海连市（1961年改称连云港市）。1958年，时任团中央总书记的胡耀邦来江苏视察，临行前，毛主席特意嘱咐他：“孙猴子的老家在新海连市云台山”，要他到花果山看看。后人便用毛主席的原话从其手迹集字，镌刻成如此气势雄伟的摩崖石刻。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑶池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">瑶池是古老神话中西王母的仙宫，孙悟空就是在这里大闹蟠桃宴，由此施展起他的浑身解数，演绎出惊天动地的《西游记》故事。瑶池畔有蟠桃园、金玛瑙板栗园、天宫酒会诸景。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多宝佛塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">据史书记载，多宝佛塔建于明代，但是，塔建成不久后倒塌。直到二十世纪八十年代，原塔基平台才重见天日。经开掘塔心石室，发现有鎏金铜像及大批古钱币。
+现今的塔仿南唐风格，于1995年重建。塔体石雕，实心，长柄铃型，高12.77米，九级八面。塔身周围有石雕佛像64尊，玲珑精致，栩栩如生，风韵各异，神采纷呈，是步游者必赏之景。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一线天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">八戒石的出口也就是耳朵缝，是花果山又一景点叫一线天。它由两块巨石交其首而离其身，可容十几人站立。在一线天中，仰首上望，天成一线。气势之大，石壁之峭，都是国内其他景区的一线天无法比拟的。人行其间，可看到上面露出的一线蓝天，白云匆匆流过，奇险奇趣。在一线天里钻洞，道路回环，处处相通，忽上忽下，忽隐忽现，只听人语声，不见人踪迹，盛夏如秋，凉风自来，暑气全消。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴承恩纪念馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">原为茶庵，过去专供游客休息品茶，后改为吴承恩纪念馆。馆内藏有吴承恩的一些生平资料，还有当今世界各地保存下来的《西游记》的各种版本，以及《西游记》研究专家和学者的著述，将几百年来一直没有定性的《西游记》中花果山的原型究竟在哪里的争论，画上了一个完美的句号。计划要将这里建成全国《西游记》研究应用中心，定期召开国际性研讨会。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞来石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">飞来石又叫观日峰。传说是孙悟空出生时炸裂的那一半石卵飞落于此。山下的朝阳镇，是毛泽东主席为《大社的优越性》写的按语所指的地方。远处闪闪发光的是一方方盐田，越过盐田便是万顷碧海。在这里，还能看到两个极致的景观： 云台铺海 、 海上日出。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠心泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">禅院的门前有一口惠心泉，惠心泉一井两眼，有珠联璧合、心心相印的意思。泉水甘甜，用惠心泉的泉水来冲泡花果山云雾茶，色汁绿润，清新味美，是花果山茶道中的双绝。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花果山石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">天然碑是花果山中最大的一块古代摩崖石刻，石刻上的内容是明朝海州知州唐伯元写的一篇《游青峰记》。因他率领邀览花果山的贡生中有一位名叫顾乾的，是《云台山志》、《云台三十六景诗》的作者，他恰好要赴京，唐伯元便写好了这篇游记送给他，并刻于“朝阳庵右”，即今天的天然碑上。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金镶玉竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">花果山金镶玉竹为竹中珍品，其珍奇处在那嫩黄色的竹竿上，于每节生枝叶处都天生成一道碧绿色的浅沟，位置节节交错。一眼望去，如根根金条上镶嵌着块块碧玉，清雅可爱，故古海州志中称其为“金镶碧嵌竹”。 
+花果山上的金镶玉竹分布较广，生长旺盛，以花果山最多，而紧靠三元宫的屏竹禅院一带尤为繁茂。因此，1993年6月，中国发行一套《竹子》特种邮票时，特将云台山金镶玉竹列于4枚中的第2枚。金镶玉竹邮票碑便也竖到了去屏竹禅院的路口，成了花果山特有一景。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风门亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">南天门之西下方，竹节岭之巅。南为磨盘顶，四周环以山路，其中隆起如磨盘状，故名。北为鸡嘴石、月牙石，两峰对峙，呈“凹”字形山势，犹如敞开的两扇门，东西山势相当开阔，乃聚风之处。山民称这儿叫“风门口”。
+1998年，花果山风景名胜区管理处因地制宜，在这“凹”字形的中心处建起“风门亭”，在碑文中引用民族英雄林则徐游览花果山时写下脍炙人口的诗句“半岭吞云竹树昏”，恰到好处。给游人到此休憩、观赏、品味，以增进怡情雅兴。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阳光下大片云海如飘荡的棉絮，上下翻涌，山峦被浩渺的云海淹没，汪洋一片，似海非海，把花果山的景色裹得忽隐忽现，宛若仙境，云海将这座《西游记》中描写的“仙山”装扮得格外迷人，让游客惊叹不已。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏竹禅院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">屏竹禅院因竹如屏而得名，是三元宫建筑群中最为清幽的处所。明代万历年间山阳人谢淳舍家开山时建造，为僧侣修行的地方。1938年日军搜山时被焚毁。1984年在原址上复建。整个禅院空间不大，却隐现出较多的古代园艺的营造法式，诸如房舍、亭台、月门、回廊、鱼池、古木和珍稀的金镶玉竹呼应，步换景移。可坐望亭，品香茶，看美景，令心神一清。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁林路6号</t>
+  </si>
+  <si>
+    <t>郁林路7号</t>
+  </si>
+  <si>
+    <t>郁林路8号</t>
+  </si>
+  <si>
+    <t>郁林路9号</t>
+  </si>
+  <si>
+    <t>郁林路10号</t>
+  </si>
+  <si>
+    <t>郁林路11号</t>
+  </si>
+  <si>
+    <t>郁林路12号</t>
+  </si>
+  <si>
+    <t>郁林路13号</t>
+  </si>
+  <si>
+    <t>郁林路14号</t>
+  </si>
+  <si>
+    <t>郁林路15号</t>
+  </si>
+  <si>
+    <t>郁林路16号</t>
+  </si>
+  <si>
+    <t>郁林路17号</t>
+  </si>
+  <si>
+    <t>郁林路18号</t>
+  </si>
+  <si>
+    <t>郁林路19号</t>
+  </si>
+  <si>
+    <t>郁林路20号</t>
+  </si>
+  <si>
+    <t>郁林路21号</t>
+  </si>
+  <si>
+    <t>郁林路22号</t>
+  </si>
+  <si>
+    <t>郁林路23号</t>
+  </si>
+  <si>
+    <t>郁林路24号</t>
+  </si>
+  <si>
+    <t>郁林路25号</t>
+  </si>
+  <si>
+    <t>郁林路26号</t>
+  </si>
+  <si>
+    <t>郁林路27号</t>
+  </si>
+  <si>
+    <t>郁林路28号</t>
+  </si>
+  <si>
+    <t>郁林路29号</t>
+  </si>
+  <si>
+    <t>郁林路30号</t>
+  </si>
+  <si>
+    <t>郁林路31号</t>
+  </si>
+  <si>
+    <t>郁林路32号</t>
+  </si>
+  <si>
+    <t>郁林路33号</t>
+  </si>
+  <si>
+    <t>郁林路34号</t>
+  </si>
+  <si>
+    <t>郁林路35号</t>
+  </si>
+  <si>
+    <t>郁林路36号</t>
+  </si>
+  <si>
+    <t>郁林路37号</t>
+  </si>
+  <si>
+    <t>郁林路38号</t>
+  </si>
+  <si>
+    <t>郁林路39号</t>
+  </si>
 </sst>
 </file>
 
@@ -8494,12 +8934,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I943"/>
+  <dimension ref="A1:I978"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A944" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A969" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F944" sqref="F944"/>
+      <selection pane="bottomLeft" activeCell="A944" sqref="A944:E978"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29844,6 +30284,808 @@
         <v>1930</v>
       </c>
     </row>
+    <row r="944" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A944" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B944" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C944" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D944" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E944" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="I944" s="2" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="945" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A945" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B945" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C945" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D945" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E945" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F945" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="I945" s="2" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="946" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A946" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B946" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C946" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D946" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E946" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F946" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="I946" s="2" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="947" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A947" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B947" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C947" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D947" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E947" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F947" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="I947" s="2" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="948" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A948" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B948" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C948" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D948" s="2" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E948" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F948" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="I948" s="2" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="949" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A949" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B949" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C949" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D949" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E949" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F949" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="I949" s="2" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="950" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A950" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B950" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C950" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D950" s="2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E950" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F950" s="2" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I950" s="2" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="951" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A951" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B951" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C951" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D951" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E951" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F951" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I951" s="2" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="952" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A952" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B952" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C952" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D952" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E952" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F952" s="2" t="s">
+        <v>1950</v>
+      </c>
+      <c r="I952" s="2" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="953" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A953" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B953" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C953" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D953" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E953" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F953" s="2" t="s">
+        <v>1952</v>
+      </c>
+      <c r="I953" s="2" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="954" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A954" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B954" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C954" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D954" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E954" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F954" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="I954" s="2" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="955" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A955" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B955" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C955" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D955" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E955" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F955" s="2" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I955" s="2" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A956" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B956" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C956" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D956" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E956" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F956" s="2" t="s">
+        <v>1958</v>
+      </c>
+      <c r="I956" s="2" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A957" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B957" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C957" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D957" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E957" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F957" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I957" s="2" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A958" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B958" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C958" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D958" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E958" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F958" s="2" t="s">
+        <v>1962</v>
+      </c>
+      <c r="I958" s="2" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A959" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B959" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C959" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D959" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E959" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F959" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="I959" s="2" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A960" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B960" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C960" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D960" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E960" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F960" s="2" t="s">
+        <v>1966</v>
+      </c>
+      <c r="I960" s="2" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A961" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B961" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C961" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D961" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E961" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F961" s="2" t="s">
+        <v>1968</v>
+      </c>
+      <c r="I961" s="2" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A962" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B962" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C962" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D962" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E962" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F962" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="I962" s="2" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A963" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B963" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C963" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D963" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E963" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F963" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I963" s="2" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="964" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A964" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B964" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C964" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D964" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E964" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F964" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="I964" s="2" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A965" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B965" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C965" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D965" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E965" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F965" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="I965" s="2" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="966" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A966" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B966" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C966" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D966" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E966" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F966" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="I966" s="2" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="967" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A967" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B967" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C967" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D967" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E967" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F967" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="I967" s="2" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="968" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A968" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B968" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C968" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D968" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E968" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F968" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="I968" s="2" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A969" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B969" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C969" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D969" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E969" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F969" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I969" s="2" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A970" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B970" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C970" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D970" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E970" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F970" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="I970" s="2" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="971" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A971" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B971" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C971" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D971" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E971" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F971" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="I971" s="2" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="972" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A972" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B972" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C972" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D972" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E972" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F972" s="2" t="s">
+        <v>1990</v>
+      </c>
+      <c r="I972" s="2" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="973" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A973" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B973" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C973" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D973" s="2" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E973" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F973" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="I973" s="2" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="974" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A974" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B974" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C974" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D974" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E974" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F974" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="I974" s="2" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="975" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A975" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B975" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C975" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D975" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E975" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F975" s="2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="I975" s="2" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="976" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A976" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B976" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C976" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D976" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E976" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F976" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="I976" s="2" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="977" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A977" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B977" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C977" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D977" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E977" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F977" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I977" s="2" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="978" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A978" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B978" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C978" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D978" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E978" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F978" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="I978" s="2" t="s">
+        <v>2003</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A563:WVQ609">
     <sortCondition descending="1" ref="F563:F609"/>

--- a/江苏/江苏景点收集.xlsx
+++ b/江苏/江苏景点收集.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6503" uniqueCount="2038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7128" uniqueCount="2222">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8503,6 +8503,745 @@
   <si>
     <t>郁林路39号</t>
   </si>
+  <si>
+    <t>常州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武进区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国春秋淹城旅游区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国春秋淹城旅游区（又称淹城，春秋淹城）位于常州市武进区中心城区，2010年被评定为国家4A级旅游景区，2015年通过国家5A级旅游景区资源与景观质量评定。淹城旅游区规划总面积7.6平方公里，分为5大区块：春秋淹城遗址、淹城春秋乐园、淹城野生动物世界、淹城传统商业街坊和淹城宝林禅寺。
+中国春秋淹城旅游区通过再现人文情景，全方位演绎春秋时代灿烂的历史文化，积极打造中国春秋文化品牌，形成融旅游、休闲、娱乐、科普、购物、餐饮于一体的旅游综合体。“明清看北京，隋唐看西安，春秋看淹城。”春秋淹城旅游区，正如一颗璀璨明珠在长三角地区熠熠生辉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淹城遗址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淹城遗址，距今约有2700年历史，是目前中国保存最为完整的春秋时期的地面城池遗址。它以悠久的历史、独特的形制、珍贵的文物和原生态的自然环境，引起国内外有识之士的关注和重视，被考古专家和旅行家称为“吴楚争霸的军事堡垒，冷兵器时代的城防标本”、“中国第一水城”、“世界城市建筑史上的一节缺链”。      淹城的三道城墙依地势蜿蜒逶迤，如巨龙盘桓；护城河水清波荡漾、游鱼如织；城内绿树成荫，花卉四季飘香。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三河三城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淹城形制奇特，由子城、子城河、内城、内城河、外城、外城河组成，呈三河三城套状。这种建筑形制在中国乃至世界的建筑史上都独一无二。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头墩、肚墩、脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说淹君有一公主名百灵，兰心蕙质，才貌双全。其驸马却是野心勃勃的留王之子。一日，驸马借百灵之名骗得后花园钥匙，盗走淹君的护国之宝——白玉龟。淹君得知后大发雷霆，不分青红皂白，处死百灵公主，并碎尸三段，分葬三处，即头墩、肚墩、脚墩。三墩在内城西侧，每墩高十余米，占地面积一万余平方米，由南而北排列，间距不等，上覆绿树浓荫。上世纪九十年代，发掘头墩考证，为吴俗大型积炭土墩墓葬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古城墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淹城有三道城墙，由里而外依次是子城墙、周长约500米；内城墙、周长约1500米；外城墙、周长约2500米。三道城墙现高3-6米，墙基宽32-42米，上宽8-13米。经考古发掘证实，城墙均系用开挖护城河之土堆筑而成，且为同一时期建造。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淹城神龟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民间传说淹城由神龟变化而来。大约三千年前，被周王朝讨伐的奄君率其臣民南逃，为汉水所阻。神龟背负奄国君臣驾云南飞。到今淹城所在地，神龟力竭而死，化作淹城。神龟由此成为淹国的镇国之宝。俯瞰淹城的形制和布局，与《洛书》神龟极为相似。而中国博大精深的《易经》正是由《河图》、《洛书》演化而成。形似神龟的淹城实为一块风水宝地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奄民故里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>935年，中央大学考古学者卫聚贤在地方人士陈志良等的陪同下作淹城访古，确认其为古代城池遗存。淹城经2700余年的沉寂，终于展现于世。此后的考古研究证明，淹城为目前中国保存最为完整且形制独特的春秋时期地面城池。2700年前，奄民就在这里凿河筑城，渔樵耕织，安居乐业。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹木井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1990年，江苏省淹城遗址考古队在子城内发掘出一口春秋时期的井。此井深7米，直径0.8米。井内发现一座高约1米的方形框架，其四角竖直径约10厘米的木桩，四边围以直径约2厘米的竹子编织的竹排，故谓之“竹木井”。据推测，此结构既能防塌、又能滤水，堪称奄民杰作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奄君殿遗址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据有关考古资料推测，紫罗城（子城）有20多米高，气势十分壮观。城中呈方形的一大地块筑有淹君殿，是淹君临朝理政的宫殿。在中国古代，“紫”色代表神秘和吉祥，所以，天界玉皇大帝的宫殿叫“紫微宫”，凡间皇帝的宫殿叫“紫禁城”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天下第一舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1958年初夏，淹城村民取泥积肥时，在此发现独木舟一条。舟中装有13件青铜器，其中包括三轮青铜盘（国家一级文物），若干几何纹印陶器和原始青瓷器。其后淹城又先后出土了3条独木舟。其中长11米和4.2米的两条独木舟分别收藏于中国历史博物馆和南京博物院，另有两条收藏于武进淹城博物馆。据考证，独木舟均用椴木烧烤凿成，印证了上古“刳木为舟”的制作方法。长11米的独木舟，迄今为我国发现的保存最完整、最古老的独木舟，有“天下第一舟”的美称。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙泉，又名龙海，“龙女戏水、玉龟造河”的传说源出于此。民谣曰：“龙泉之水东海来，万年不枯香甜美。滋润两岸万物生，全靠龙女白玉龟。”淹城三河自成水系，不通江湖，但1934年江南大旱，百河干涸，唯有龙泉之水汩汩涌出，清澈依旧，当地百姓靠此水度过了难关；传说与史事相互映证，淹城三河确有地下水系外通江湖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙武草庐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙武，春秋齐国（即今山东）人，春秋时期兵家的代表人物，史称孙子、孙武子，后人尊其为兵圣、百世兵家之师、东方兵学的鼻祖。所著《孙子兵法》一书，是世界上第一部军事著作，被誉为“兵学圣典”，是国际上最著名的兵学经典。据考古推论，淹城曾为吴越间的军事要塞。孙武助阖闾伐楚时，曾据于此，将其兵法运用于实战检验并加以修订。后人因此修缮了这个茅庐，并设立塑像，以示对他的敬仰和怀念。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳飞点将台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳飞（1103-1142），字鹏举，谥“武穆”，今河南安阳人。军事家、抗金名将。1130年3月，金军进攻常州。常州知州周杞派赵九龄至宜兴县请岳飞前来增援。在岳飞启程前，周杞已放弃了常州，紧随赵九龄到了宜兴。岳飞与周杞、赵九龄一起带兵北上，前后四战，夺回了常州。据传在北上途中，岳飞曾屯兵于淹城。此处的土台即为岳飞点将台遗址。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒹葭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景观取自《诗经·蒹葭》中“蒹葭苍苍，白露为霜，所谓伊人，在水一方”之意境。蒹葭即芦苇。传说百灵公主与留王子热恋期间，天天在此守望。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关雎井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景观取自《诗经·关雎》中“关关雎鸠，在河之洲。窈窕淑女，君子好逑。参差荇菜，左右流之”的意境。淹国的百灵公主与留国王子在此一见钟情，从此结下一段动人情缘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西施阁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内城河岸边的小楼叫“西施阁”，又叫“越情榭”。相传，越国美女西施，被献于吴王夫差。一天傍晚，西施独自来到河边，猛然间看到自己日思夜想的情郎越国大将范蠡，在对岸向她招手。碍于身份和责任，两人最终只得挥泪惜别。临别时，西施问范蠡，何日再来？范蠡答应每年的那一天来此相会。此后每年的这一天，西施按时前来；但范蠡却重任在肩，无法兑现承诺。直到公元前473年，越军占领吴国，范蠡跃马扬鞭来到淹城，在小阁楼与西施相会，两人随即登上淹城古渡，驾一叶轻舟，扬帆远去，有情人终成眷属。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九曲长廊&amp;钓鱼台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方的九曲长廊和钓鱼台是专供游客休闲赏景的地方。据当地人说：这里原有一座村庄，叫“田螺村”。村名的来历，还有一段类似田螺姑娘的传说。因这里的田螺肉质鲜嫩，村民都做起了田螺生意，过上了丰衣足食的生活，因此这里被改称为“田螺村”。直到今天，淹城田螺也是远近闻名，被称为“淹城三鲜”之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤驿站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城墙上的那排小木屋，是游客烧烤野餐的好地方。据史料记载，春秋时期，淹城有一渔夫叫专诸，长得身材高大，相貌奇特，既是打鱼高手，又有一手烤鱼技艺。那时，公子光一心想自立为王，于是找到专诸，利用吴王僚爱吃烤鱼的嗜好，藏剑于鱼腹之中，杀死了吴王僚。公子光登上王位，史称吴王阖闾。为表彰专诸刺僚有功，阖闾将专诸烤鱼的小木屋命名为“烤鱼坊”。古往今来，淹城人常在这里烧烤野餐，烤鱼的技艺也流传了下来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练兵场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这片开阔的场地，原是淹国屯兵筹粮的地方。广场中央两座方形的古建筑，叫“阙楼”，是古代供士兵放哨的哨楼。南宋抗金英雄岳飞曾在这里操练士兵，明朝始祖朱元璋曾在这里放马习骑（在史籍上有确切记载），抗倭名将唐荆川、戚继光，曾在这里传授阳湖拳。现在，这里是淹城举办大型活动的主要场地，著名歌唱家宋祖英等曾多次到这里登台演唱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸子百家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸子百家是对春秋战国时期各种学术派别的总称，诸子百家之流传中最为广泛的是儒家、道家、阴阳家、法家、名家、墨家、杂家、农家、小说家、纵横家。汉族在古代创造了灿烂的文化艺术，具有鲜明的特色。汉族有五千多年有文字可考的历史，文化典籍极其丰富。在春秋战国时期，各种思想学术流派的成就，与同期古希腊文明相辉映；以孔子、老子、墨子为代表的三大哲学体系，形成诸子百家争鸣的繁荣局面。至汉武帝时，推行"罢黜百家，独尊儒术"的政策，于是以孔子、孟子为代表的儒家思想成为正统，统治汉族思想与文化两千余年；同时，程度不同地影响其他少数民族，甚至影响到与中国相邻的国家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵横家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事政治外交活动的谋士。主要人物有苏秦（？～前284），洛阳人、张仪（？～前310），魏国人；“苏秦合纵（六国合拒秦），张仪连横（六国分事秦），南与北联合为纵、西与东联合为横”，故有纵横家之称。纵横家唇枪舌剑，对政治、外交谋略的研究，有一定贡献。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又称“道德家”， 创始人老子（李聃、李耳，字伯阳，约前570～？，楚国人）。庄子（庄周，约前369～前286，宋国人），继承发展了老子的思想，并称老、庄。道家学说以老庄自然天道观为主，主张以“柔”克“刚”，“无为而治”、“不尚贤、使民不争”，“绝圣弃智”，认为“夫礼者，忠信之薄而乱之首也”，与儒、墨学派明显对立。道家对古代中国的政治、思想、科技、文化、艺术等都有深刻影响，代表作有《老子》、《庄子》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“兼儒墨、合名家”，是综合百家学说的学派，反映国家统一，文化融合的趋势。代表人物卫国濮阳人吕不韦（？～前235），其主编的《吕氏春秋》（又称《吕览》）为代表作。“一字千金”、“奇货可居”成语，出于吕不韦故事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又称“辩者”，着重讨论“名”（概念）“实”（事实）之间的关系。主要代表人物惠施（约前370～约前310），宋国人；公孙龙（约前320～前250），赵国人。惠施主张“合同异”，认为一切差别、对立都是相对的，过分夸大事物的同一性；公孙龙提出“白马非马”、“离坚白”，着重于分析感觉概念、区别个别与一般、具体与抽象，过分强调事物的差异性。名家对古代逻辑学的发展有一定贡献。惠施著作已佚，公孙龙留有《公孙龙子》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家学派创始人墨子（名翟，约前468～前376），春秋战国之交的鲁国人。早年接受孔子儒学，后自创墨家，猛烈批判儒学，主张“兼爱”、“非攻”、“贵义”，对认识论、逻辑学以至几何学、力学、光学等，都有建树。墨家“摩顶放踵以利天下”，吃苦耐劳，为信仰能赴汤蹈火。其代表作《墨子》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注重农耕的学派。代表人物楚国人许行。认为贤者应该“与民并耕而食，饔飧（yūngsūn）而治”，反映农民尊重平等劳动的理想；他们研究、总结农业生产的技术经验。农家曾经具有乌托邦式的不凡魅力。《管子》、《孟子》、《吕氏春秋》保存了研究先秦农家的重要资料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦至汉初研究军事理论、从事军事活动的学派。分为兵权谋家、兵形势家、兵阴阳家、兵技巧家四类，显示中华军事科学的早期成果。主要代表人物有春秋的孙武、司马穰苴；战国的吴起、孙膑、尉缭；汉初的张良、韩信。今存兵家重要著作有《孙子兵法》、《司马法》、《吴子》、《孙膑兵法》、《六韬》、《尉缭子》等。“兵圣”孙武的《孙子兵法》，有“东方兵学鼻祖”之称。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个提出“小说”概念的是庄子。《汉书•艺文志》：“小说家者流，盖出于稗官，街谈巷语，道听途说者所造也。”西周“稗官”（小官）至民间“采风”，作为议政参考。“稗官”为“小说”或“小说家”的代称。小说从官方走向民间，成为一种文学样式，成熟于城市的发展和繁荣。西汉虞初有《虞初志·周说》943篇，已佚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治病救人的医家，代表者扁鹊，姓秦名越人，战国渤海人。《史记》、《战国策》均有他的传记和病案，奉他为中医药学的倡始者。扁鹊传为良医的尊称，“病入膏肓”、“讳疾忌医”成语出于其故事。《扁鹊内经》、《外经》已散佚；今存《难经》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴素的自然哲学家。最早出于传说中唐尧时执掌天文、历数和禨祥的官吏，到战国时成为提倡阴阳五行说的学派，代表人物邹衍。阴阳五行说具有唯物主义因素，但认为五行支配人类社会发展，提出“五德终始、转移”，论证社会的变革和王朝更替，就不科学了，有消极影响。邹衍的“大九洲说”，推测、想象世界格局，是一幅宏观地理构造的美丽蓝图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早期法家管仲（？～前645）、子产（？～前522）；中期法家李悝（前455～前395）、商鞅（约前390～前338）、慎到（约前395～约前315）、申不害（约前385～前337）；晚期法家韩非（约前280～前233）等。商鞅重“法”，申不害重“术”、慎到重“势”；韩非集法家学说之大成，成为法家总代表。法家主张“当时而立法，因事而制礼；礼法以时而定，制令各顺其宜”，提倡耕战政策。王朝更替，历来儒表法里，交互为用。法家代表作有《商君书》、《韩非子》等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儒家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇奉孔子学说的学派。代表人物有孔子（前551～前479）、孟子（约前372～前289）和荀子（约前313～前238）；主要学说为“祖述（师承）尧舜，宪章（效法）文武”，崇尚“礼乐”和“仁义”，提倡“忠恕”和不偏不倚、无过无不及的“中庸”之道，主张“德治”和“仁政”。儒学经典曾是封建统治者的最高教条，思想枷锁；但作为中国传统文化主体，对维护民族统一、社会稳定起过作用。《论语》、《孟子》、《荀子》是代表作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国春秋时期属青铜文化时代。祭台中心摆放着青铜文化的代表——鼎。鼎原本是古代的一种烹饪器具，后来逐渐成为一种重要祭祀礼器，是权利和地位的象征。在我国还有“九鼎之尊”、“问鼎中原”的说法。在祭台周围每天定时举行盛大的春秋祈福表演。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王狩猎区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《史记》有言，春秋时“四海迭兴，更为霸主，文、武所褒大封，皆威而服焉”。春秋是霸王的天下，在这一时期先后出现了齐桓公、晋文公、秦穆公、吴王夫差、越王勾践等霸主。霸王狩猎区里高大威武的霸王，策马驱驰，弯弓搭箭，将人带入惊心动魄的狩猎情境，回到遥远的春秋时代。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掩耳盗铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋时期有一个笨贼，他想要偷走富人家的一口钟。就在他试图用锤子把钟敲碎时，那口钟发出了很大的声音。于是，笨贼赶忙把自己的耳朵堵起来——以为自己听不见，别人也就听不见了。门下这个人演绎的就是“掩耳盗铃”的故事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高山流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“伯牙鼓琴遇知音”的故事，就发生在常州武进一个叫奔牛的地方。背靠假山，正在弹琴的是俞伯牙，而在一旁仔细聆听的是樵夫钟子期。子期死后，伯牙痛失知音，于是摔琴绝弦，从此不再弹琴。承载着两人深厚友谊的“高山流水”，后来被封为中国十大古曲之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滥竽充数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战国时，齐国的国君齐宣王非常喜欢听吹竽合奏，他手下有300个吹竽的乐师。不会吹竽的南郭先生，看准时机混进了这三百人的乐队之中，捧着不出声的竽装模作样。三年后，齐宣王去世，喜欢听独奏的齐湣王即位，南郭先生只好连夜逃出了皇宫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋版图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋版图以春秋时期各诸侯国国土边界为原型，清晰再现秦、楚、越、齐、赵等诸侯国国土版图。十二根高耸的图腾景观柱矗立于春秋版图周围，分别象征当时的儒、道、阴阳、法、名、墨、杂、农、小说、纵横、兵、医“十二大家”。古老的金文，遒劲的古木，令整个景观显示出恢弘雄浑的气势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市井商街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市井，指商肆集中的地方，《管子•小匡》曰:“处商必就市井。”街道上的几座石牌坊烘托古街风貌；所有商号全采用春秋文化元素命名。市井商街主要经营春秋淹城旅游区开发的春秋旅游特色纪念商品、常武地区特色产品。商街中段有一座坐东向西的古典戏台，一幕幕传统吴越地方戏曲（锡剧、越剧、评弹）在这里上演，以助广大戏迷游客之雅兴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市井商街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市井，指商肆集中的地方。《管子•小匡》曰:“处商必就市井。”淹城市井临水而建，三座石牌坊（功德坊、节孝坊、忠义坊）烘托出古街风貌。商街两侧的所有商号全采用春秋文化元素命名，主要经营春秋淹城旅游区开发的春秋旅游特色纪念商品、常武地区特色工艺产品，集休闲购物和文化体验于一体。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋小戏台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商街中段有一座坐东向西的古典戏台，一幕幕传统吴越地方戏曲（锡剧、越剧、评弹）在这里上演，以助广大戏迷游客之雅兴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百灵水世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百灵水世界以淹君女儿百灵公主冠名，依傍在富于传奇色彩的西施鉴桥南畔。8000余平方米的水域，建有极速大滑道、冲刺管道、浪板滑板等众多水上游乐项目，让游客体验无限刺激和凉爽。此外，热闹的水上派对也是百灵水世界的特色。
+　　水世界水上游乐区周围还设有超大型LED显示屏，既可以实时展示现场游客的真实互动，更可以对园区内舞台活动、晚会演艺进行实况转播，让游客在戏水畅玩的同时，还能欣赏到各种精彩节目，绽放夏日活力激情！
+　　水世界周边配套建有大型更衣棚，12小时持续供应热水，可供3000人次冲凉更衣，为每位游客提供方便卫生的服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极速大滑道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">趴在冲浪板上，从极限高空沿滑道向下俯冲，滑坡水浪直入水底最深处！当从顶端下滑时，那种失重、悬空、极速的感觉有着语言无法形容的快感和刺激，只有亲身体验才能了解。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水上派对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热闹的水上派对也是百灵水世界的特色。劲爆歌舞、比基尼美女联袂出击，更有精彩互动环节，让你在享受戏水欢乐之外，还将受到现场大屏幕邀约，加入我们的水上飙歌热舞，做一回真正的“潮人”！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造浪池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造浪池又称海啸池，造浪池有深水区和浅水区，浪高可达0.8－3米。在造浪池里泡着，或者在躺在水里闭目养神，都是非常轻松惬意的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪板滑板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓紧救生筏，随着风浪的大吼，在高空与高空之间开始无限的激荡吧，从高峰到谷底，这一刻涌动的水花仿佛滔天的巨浪，来回颠簸中，快乐欢笑喷涌不断！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺管道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">圆圆的管道像是通往未知水域的入口，迈步踏入，风驰电掣的速度让你瞬间失重，急速进入不可思议的全新水世界。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淹城水寨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淹城水寨又称淹城人家，造型独特的它是夏日玩水最清凉的戏水胜地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗址广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗址广场处在春秋乐园中心，向西可进入淹城遗址，向北通往游乐区域。广场中心在节庆期间，经常举办各类大型演艺活动，包括“星光噢嘶咔”、“新春灯会”、“宋祖英演唱会”、“花开四季演唱会”、“魏晨歌友会”、“张靓颖歌迷会”、“陶喆关诗敏歌迷会”、“第十届中国民间文艺山花奖”、“民间艺术表演奖（民间鼓舞鼓乐）展演”等等。这些演出既丰富了园区的游玩项目，分流了拥挤在游乐区的游客；也逐渐成为吸引游客前来游玩的乐园新品牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淹城传奇（4D影院）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看似假山堆叠，实则内有乾坤，高科技的“4D动感影院”就位于这里。由国际著名导演何平执导，将淹城内的实地拍摄与动漫技术相结合的4D动感电影《淹城传奇》在此上演，180度环幕立体高清技术将带给大家全方位的感官刺激和娱乐享受。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋大舞台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大气典雅的外观、华美绚丽的灯光、精彩纷呈的演出共同铸就了淹城的春秋大舞台。在节庆期间，这里经常举办各类大型演艺活动，包括“圣诞音乐会”、“星光噢嘶咔”等。这些演出丰富了园区的游玩项目，逐渐成为乐园的新亮点，树立起园区特色演艺新品牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷泉位于遗址广场的北部，与淹城传奇（4D影院）相对。每当开启，喷薄的水势、变幻的水形、晶莹的水滴，再加上五光十色的灯光，广场喷泉营造的梦幻之美总能让游客们流连不去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗址东门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋淹城遗址公园的东入口，持有春秋乐园门票的游客可以免费游玩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童天地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八卦迷旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童天地位于遗址广场西北侧。园区拥有春秋水战、泡泡球战场、小战船、弹跳塔、空中脚踏车等10个儿童游乐项目，娱乐性和互动性十分丰富。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐在八卦大转盘上，360度的旋转考验你是否有超人般的定力，疯狂转动会让你分不清方向，坚持到最后，你就会是最后的胜利者！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹跳塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伴随着上下的弹跳，带给每个人无限的惊心动魄。惊险的弹跳过程中，会让你手心直冒冷汗、心跳加速！有胆量就来挑战！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐小马车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">轻轻“驾”一声，神秘的小马车出发了，乘坐欢乐小马车开往神秘的国度，它将带我们周游列国，观看各国的景色。下一站更精彩，赶快来吧! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中脚踏车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施展脚踏魔力让五光十色的螺旋挥动，小小脚踏车在空中缓慢升降，孩子们可以随心所欲的翱翔，欢笑不断。一起来体验神奇脚踏车的魔力吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡泡球战场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小心！在这个战场里小心被五颜六色的泡泡球扔中哦，要用敏捷的身体去躲闪，并且要对敌人发起进攻，进来展开一场惊险万分的战争吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙武点将台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登上60米高的点将台，俯瞰淹城三城三河全貌，纵览全园景观，扮演一回春秋军事家孙武，登台阅兵，挥斥方遒!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小战船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘坐于小战船上，随着由缓至急的往复摆动，犹如身在惊涛巨浪的大海之中，孩子们，一起加入欢乐惊险的海上之旅，挑战心跳的感觉哦!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转杯派对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐在漂亮的青花瓷转杯中，伴随着欢快的音樂，将带你在天旋地转中进入梦一般的仙境。在转杯中可別忘了转动杯內的方向盤，自由地变换旋转的方向与速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋水战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华东首家环绕式真人水战项目——春秋水战！水战区域占地约2000平方米，由10艘古战船、眺望台、50门环绕式水炮、行进轨道、古战船残骸等组成。游客们可与“敌方”船只展开水战，互相射击，尖叫、躲闪、碰撞，纵情嬉戏笑闹，畅享冰爽夏日。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中漫步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“空中漫步”通过构造一个充满趣味的自然生态环境、集探险、运动、娱乐、教育于一身，让参与者在肢体平衡，自然探索，生存智慧，逻辑思维等方面得到全面的发展。同时，为了保障每一位游客的安全，淹城配备了安全背带和安全绳索，让您无压力零风险的畅游“天空之城”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九坊美食街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九坊美食街背靠鉴湖，紧邻春秋王宫，是园区餐饮美食的集中展示区，丰富的精致小吃、休闲简餐、美味烧烤以及淹城传统民间美食，带给游客与众不同的味蕾享受。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋九坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“九”在古代是多的意思，可见小吃种类之多。九坊建筑古韵悠然，网罗各地风味，有烟雨浸润的江南糯香，也有炭火烘焙的西北滋味，更有各色常州淹城特色茶食糕点……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自助烧烤营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现今大家喜爱的烧烤是个舶来品。不过“烧烤”这种烹饪方式在中国其实由来已久。古城烧烤，这样连贯古今、中西合璧的生活方式想必会风靡一时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋王宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋王宫，展示春秋时期皇家宫殿艺术。占地面积约为14500平方米，建筑面积5791平方米，再现春秋时期的宫廷生活场景。整个王宫由“一殿二宫”（即奄君殿、西施谜宫和编钟乐宫）组成。在奄君殿里，展示了数百件国宝级的商周及春秋战国文物（复制品），包括青铜剑、鼎、玉带钩等礼器、兵器；这些展品充分展示了中华民族悠久的历史文化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奄君殿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在奄君殿里，展示了数百件国宝级的商周及春秋战国文物（复制品）。青铜剑、鼎、玉带钩等礼器、兵器，充分展示了中华民族悠久的历史文化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西施谜宫（梦幻剧场）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西施谜宫是通过真人表演与幻影成像相结合打造的梦幻剧场，演绎西施与范蠡之间浪漫而凄美的爱情故事。虚实结合的幻影成像技术，让游客穿越时空，享受高科技带来的愉悦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编钟乐宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编钟乐宫主要展示春秋时期的青铜编钟、宫廷乐舞。在这里复原了一套被中外专家、学者称之为“稀世珍宝”的曾侯乙编钟。曾侯乙编钟是我国迄今发现数量最多、保存最好、音律最全、气势最宏伟的一套编钟。“乐舞”则是春秋时期诸侯朝仪的礼乐舞蹈。来到编钟乐宫，游客可以聆听古乐黄钟大吕的韵律，感受诸侯朝仪的庄严隆重，还可以观赏到糅合了“古代踢踏舞”、剑舞和优伶杂技的宫廷“乐舞”，过上一回春秋宫廷的“乐王”瘾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦鲤观赏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九曲桥，古朴别致，蜿蜒在鉴湖之上，连接起编钟乐宫和九坊。桥畔水中，万尾锦鲤悠游自得。它们颜色不同、花纹各异，悠闲游弋，不愧为“会游泳的艺术品”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋五霸山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“五霸”又作“五伯”，是指东周春秋时期相继成为霸主的五个诸侯，据《荀子·王霸》记载，这五霸分别为齐桓公、晋文公、楚庄王、吴王阖闾和越王勾践。用现代高科技手法打造，华东首个超惊悚历史类3D鬼屋——春秋五霸山，再现了春秋五霸齐、晋、楚、吴、越逐鹿争雄的酷烈场景，挑战您的胆量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁血冒险城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁血冒险城是乐园的大型游乐区，这里通过历史典故把春秋历史文化融入游乐设施，让游客身临其境，感受现代科技与传统文化相结合的欢乐刺激。集动感运动车、灾难仿真、特技表演于一体，大型室内仿真乘骑项目“铁血春秋”，使游客感受到古战场厮杀撼人魂魄的刺激！实地拍摄与动漫技术相结合，环幕立体呈现4D动感电影《淹城传奇》；反映“昭关漂流”惊险与刺激情境的具有亚洲领先技术水平的峡谷漂流；我国首台拥有自主知识产权，可升至近55米高空同时实现公转自转的空中观览飞行岛“孙武点将台”；还有中国原创、国内首家，可容纳百名游客悬浮于18米的空中体验春秋文化主题的空中飞行影院“梦回春秋”；国内第一台自主研发生产、提升高度达20米的“飞舟激浪”、挑战感官极限的“霹雳风火轮”、还有由过山车之母意大利赞培拉生产的全亚洲第一台卧式过山车“极速飞龙”……古老的春秋文化和现代高科技游乐设施在此得到了完美融合，成为乐园互动体验的核心区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞舟激浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劈波斩浪，刺激无比！乘坐飞舟顺着隧道激流飞滑而下，水花飞溅，惊险刺激，让你尽情体会“飞流直下三千尺”的无限快感！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂罗盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随着罗盘旋转升起，感受气势恢宏的沙场雄战。疯狂罗盘将完全颠覆你的方向感，时而起伏、时而旋转，给你运转乾坤的奇妙体验。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌舞升平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦回春秋，歌舞升平。骑马奔跑追逐触手可及的幸福，富有节奏的起伏中回味浪漫欢乐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极速飞龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲第一台卧式过山车，带给你历险般极速滑行体验：急转弯时强烈的旋风感受，重力加速作用下的高速俯冲，犹如蛟龙遨游广袤天空，在飞驰中领略赏心悦目的淹城美景，绝对是新鲜刺激的疯狂项目！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九龙问鼎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九龙问鼎，一个磨练春秋侠士坚韧身心的挑战场，它将带你送上50米的高空宝鼎，尽情享受高度与动感飞翔，让你的勇气与恐惧交锋，体验紧张和刺激的超快感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂野巅峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史无前例的三重旋转，彼此交叉的360度连续大回环，变幻莫测，惊险非凡，您将体验真正天旋地转的感觉，痛快释放你的速度与激情！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦回春秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穹幕电影《梦回春秋》让您身临其境，如雄鹰般掠过春秋时空，穿越时光隧道，领略春秋时期特定的历史风貌。震撼的现场视听效果，使画面宛如实境一般触手可及。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砰砰对抗（碰碰车）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最具震撼力的新型无天网碰碰车，供您在“战场”上驰骋纵横。驾驭碰碰车冲锋对抗，仿佛置身在烽火连天的战场之上。快来在碰撞中感受刺激，在尖叫中享受快乐！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霹雳风火轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐上传说中春秋时期特有的攻城器——震撼人心的大摆锤，公转自转中体验惊心动魄的极限之旅！绝对让你惊声尖叫，心惊肉跳！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水军训练营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体验春秋时期南方高超的水上军事演习，乘坐“转盘飞车”在汹涌奔腾的水上痛快作战！骁勇水军，即刻起航！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水上竞技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰碰车还不够爽？快来体验不一样的水上碰碰船吧！水上碰碰船简单又好玩，上船转动方向盘立刻开始一场水上大战，在碰撞中感受水战乐趣，尽情享受清凉刺激！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁血春秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型动感特技4D室内过山车体验项目，逼真再现古战场战鼓雷鸣，千军万马的恢弘场景。戴上4D眼镜，乘坐360旋转战车，令观众在体验娱乐，感受震撼中领略春秋军事文化的神奇魅力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴楚决战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">置身吴楚鏖战疆场，上下翻滚中感受惊心动魄的战争场面，挑战你的神经极限！ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春秋餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于乐园北部，春秋五霸山旁。提供便捷美味的中式简餐和饮料小吃，同时承揽园区内团队用餐服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昭关漂流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是以春秋时期大将伍子胥过昭关的故事为蓝本，经过加工演变而成的大型水上漂流项目，其总长度为国内人工漂流第一（400米）。游客在山洞峡谷中激流勇进、过关斩将，体验伍子胥亡楚奔吴、涉险过关的艰辛，曲折坎坷，惊心动魄！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游船码头1号点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淹城遗址三城三河的特殊形制赋予了这里得天独厚的水游淹城的条件。从这里登上竹筏，享受水波微澜的轻晃；沿着千年的水道，渐渐驶入古城遗址。阳光温和，水波潋滟，清新静谧里间或传来船娘婉转的歌声，这样的日子仿佛回到旧时光。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天际双雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要么选择飞上去、慢慢降下来，要么选择慢慢升上去、跳下来；全新的游戏，在急速的反复的升降中让你体验失重与超重的心跳刺激。双子跳楼机天际双雄，称霸蓝天的不二选择！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -8934,12 +9673,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I978"/>
+  <dimension ref="A1:I1069"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A969" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1060" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A944" sqref="A944:E978"/>
+      <selection pane="bottomLeft" activeCell="D1061" sqref="D1061"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31086,6 +31825,2063 @@
         <v>2003</v>
       </c>
     </row>
+    <row r="979" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A979" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B979" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C979" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E979" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="I979" s="2" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="980" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A980" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B980" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C980" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E980" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F980" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="I980" s="2" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="981" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A981" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B981" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C981" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E981" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F981" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G981" s="2" t="s">
+        <v>2044</v>
+      </c>
+      <c r="I981" s="2" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="982" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A982" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B982" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C982" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E982" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F982" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G982" s="2" t="s">
+        <v>2046</v>
+      </c>
+      <c r="I982" s="2" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="983" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A983" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B983" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C983" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E983" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F983" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G983" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="I983" s="2" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="984" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A984" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B984" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C984" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E984" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F984" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G984" s="2" t="s">
+        <v>2050</v>
+      </c>
+      <c r="I984" s="2" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="985" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A985" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B985" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C985" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E985" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F985" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G985" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="I985" s="2" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="986" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A986" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B986" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C986" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E986" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F986" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G986" s="2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I986" s="2" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="987" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A987" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B987" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C987" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E987" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F987" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G987" s="2" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I987" s="2" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="988" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A988" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B988" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C988" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E988" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F988" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G988" s="2" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I988" s="2" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="989" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A989" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B989" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C989" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E989" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F989" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G989" s="2" t="s">
+        <v>2060</v>
+      </c>
+      <c r="I989" s="2" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="990" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A990" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B990" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C990" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E990" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F990" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G990" s="2" t="s">
+        <v>2062</v>
+      </c>
+      <c r="I990" s="2" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="991" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A991" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B991" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C991" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E991" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F991" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G991" s="2" t="s">
+        <v>2064</v>
+      </c>
+      <c r="I991" s="2" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="992" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A992" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B992" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C992" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E992" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F992" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G992" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="I992" s="2" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="993" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A993" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B993" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C993" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E993" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F993" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G993" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="I993" s="2" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="994" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A994" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B994" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C994" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E994" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F994" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G994" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="I994" s="2" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="995" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A995" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B995" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C995" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E995" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F995" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G995" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="I995" s="2" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="996" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A996" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B996" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C996" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E996" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F996" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G996" s="2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="I996" s="2" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="997" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A997" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B997" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C997" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E997" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F997" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G997" s="2" t="s">
+        <v>2076</v>
+      </c>
+      <c r="I997" s="2" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A998" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B998" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C998" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E998" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F998" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I998" s="2" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A999" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B999" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C999" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E999" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F999" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G999" s="2" t="s">
+        <v>2080</v>
+      </c>
+      <c r="I999" s="2" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1000" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1000" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1000" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1000" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1000" s="2" t="s">
+        <v>2082</v>
+      </c>
+      <c r="I1000" s="2" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1001" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1001" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1001" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1001" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1001" s="2" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I1001" s="2" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1002" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1002" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1002" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1002" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1002" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1002" s="2" t="s">
+        <v>2086</v>
+      </c>
+      <c r="I1002" s="2" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1003" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1003" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1003" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1003" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1003" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1003" s="2" t="s">
+        <v>2088</v>
+      </c>
+      <c r="I1003" s="2" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1004" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1004" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1004" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1004" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1004" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1004" s="2" t="s">
+        <v>2090</v>
+      </c>
+      <c r="I1004" s="2" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1005" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1005" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1005" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1005" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1005" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1005" s="2" t="s">
+        <v>2092</v>
+      </c>
+      <c r="I1005" s="2" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1006" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1006" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1006" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1006" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1006" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1006" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="I1006" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1007" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1007" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1007" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1007" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1007" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1007" s="2" t="s">
+        <v>2096</v>
+      </c>
+      <c r="I1007" s="2" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1008" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1008" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1008" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1008" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1008" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1008" s="2" t="s">
+        <v>2098</v>
+      </c>
+      <c r="I1008" s="2" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1009" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1009" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1009" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1009" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1009" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1009" s="2" t="s">
+        <v>2100</v>
+      </c>
+      <c r="I1009" s="2" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1010" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1010" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1010" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1010" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1010" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1010" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="I1010" s="2" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1011" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1011" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1011" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1011" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1011" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1011" s="2" t="s">
+        <v>2104</v>
+      </c>
+      <c r="I1011" s="2" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1012" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1012" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1012" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1012" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1012" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1012" s="2" t="s">
+        <v>2106</v>
+      </c>
+      <c r="I1012" s="2" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1013" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1013" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1013" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1013" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1013" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1013" s="2" t="s">
+        <v>2108</v>
+      </c>
+      <c r="I1013" s="2" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1014" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1014" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1014" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1014" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1014" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1014" s="2" t="s">
+        <v>2110</v>
+      </c>
+      <c r="I1014" s="2" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1015" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1015" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1015" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1015" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1015" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1015" s="2" t="s">
+        <v>2112</v>
+      </c>
+      <c r="I1015" s="2" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1016" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1016" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1016" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1016" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1016" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G1016" s="2" t="s">
+        <v>2114</v>
+      </c>
+      <c r="I1016" s="2" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1017" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1017" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1017" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1017" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1017" s="2" t="s">
+        <v>2116</v>
+      </c>
+      <c r="I1017" s="2" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1018" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1018" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1018" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1018" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1018" s="2" t="s">
+        <v>2116</v>
+      </c>
+      <c r="G1018" s="2" t="s">
+        <v>2118</v>
+      </c>
+      <c r="I1018" s="2" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1019" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1019" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1019" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1019" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1019" s="2" t="s">
+        <v>2116</v>
+      </c>
+      <c r="G1019" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="I1019" s="2" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1020" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1020" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1020" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1020" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1020" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="I1020" s="2" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1021" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1021" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1021" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1021" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1021" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="G1021" s="2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I1021" s="2" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1022" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1022" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1022" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1022" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1022" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="G1022" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="I1022" s="2" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1023" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1023" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1023" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1023" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1023" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="G1023" s="2" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1023" s="2" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1024" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1024" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1024" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1024" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1024" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="G1024" s="2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="I1024" s="2" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1025" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1025" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1025" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1025" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1025" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="G1025" s="2" t="s">
+        <v>2132</v>
+      </c>
+      <c r="I1025" s="2" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1026" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1026" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1026" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1026" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1026" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="G1026" s="2" t="s">
+        <v>2134</v>
+      </c>
+      <c r="I1026" s="2" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1027" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1027" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1027" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1027" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1027" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="I1027" s="2" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1028" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1028" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1028" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1028" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1028" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="G1028" s="2" t="s">
+        <v>2138</v>
+      </c>
+      <c r="I1028" s="2" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1029" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1029" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1029" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1029" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1029" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="G1029" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="I1029" s="2" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1030" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1030" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1030" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1030" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1030" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="G1030" s="2" t="s">
+        <v>2142</v>
+      </c>
+      <c r="I1030" s="2" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1031" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1031" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1031" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1031" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1031" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="G1031" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="I1031" s="2" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1032" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1032" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1032" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1032" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1032" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="I1032" s="2" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1033" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1033" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1033" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1033" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1033" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G1033" s="2" t="s">
+        <v>2147</v>
+      </c>
+      <c r="I1033" s="2" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1034" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1034" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1034" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1034" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1034" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G1034" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="I1034" s="2" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1035" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1035" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1035" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1035" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1035" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G1035" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="I1035" s="2" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1036" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1036" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1036" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1036" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1036" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G1036" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="I1036" s="2" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1037" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1037" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1037" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1037" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1037" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G1037" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="I1037" s="2" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1038" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1038" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1038" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1038" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1038" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G1038" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="I1038" s="2" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1039" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1039" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1039" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1039" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1039" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G1039" s="2" t="s">
+        <v>2160</v>
+      </c>
+      <c r="I1039" s="2" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1040" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1040" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1040" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1040" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1040" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G1040" s="2" t="s">
+        <v>2162</v>
+      </c>
+      <c r="I1040" s="2" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1041" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1041" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1041" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1041" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1041" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G1041" s="2" t="s">
+        <v>2164</v>
+      </c>
+      <c r="I1041" s="2" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1042" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1042" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1042" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1042" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1042" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G1042" s="2" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I1042" s="2" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1043" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1043" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1043" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1043" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1043" s="2" t="s">
+        <v>2168</v>
+      </c>
+      <c r="I1043" s="2" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1044" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1044" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1044" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1044" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1044" s="2" t="s">
+        <v>2168</v>
+      </c>
+      <c r="G1044" s="2" t="s">
+        <v>2170</v>
+      </c>
+      <c r="I1044" s="2" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1045" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1045" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1045" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1045" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1045" s="2" t="s">
+        <v>2168</v>
+      </c>
+      <c r="G1045" s="2" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I1045" s="2" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1046" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1046" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1046" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1046" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1046" s="2" t="s">
+        <v>2174</v>
+      </c>
+      <c r="I1046" s="2" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1047" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1047" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1047" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1047" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1047" s="2" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G1047" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="I1047" s="2" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1048" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1048" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1048" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1048" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1048" s="2" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G1048" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="I1048" s="2" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1049" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1049" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1049" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1049" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1049" s="2" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G1049" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="I1049" s="2" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1050" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1050" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1050" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1050" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1050" s="2" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G1050" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="I1050" s="2" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1051" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1051" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1051" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1051" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1051" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="I1051" s="2" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1052" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1052" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1052" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1052" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1052" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I1052" s="2" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1053" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1053" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1053" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1053" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1053" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1053" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I1053" s="2" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1054" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1054" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1054" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1054" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1054" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1054" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="I1054" s="2" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1055" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1055" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1055" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1055" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1055" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1055" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="I1055" s="2" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1056" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1056" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1056" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1056" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1056" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1056" s="2" t="s">
+        <v>2194</v>
+      </c>
+      <c r="I1056" s="2" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1057" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1057" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1057" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1057" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1057" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1057" s="2" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I1057" s="2" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1058" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1058" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1058" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1058" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1058" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1058" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I1058" s="2" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1059" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1059" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1059" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1059" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1059" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1059" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="I1059" s="2" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1060" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1060" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1060" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1060" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1060" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1060" s="2" t="s">
+        <v>2202</v>
+      </c>
+      <c r="I1060" s="2" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1061" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1061" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1061" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1061" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1061" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1061" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="I1061" s="2" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1062" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1062" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1062" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1062" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1062" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1062" s="2" t="s">
+        <v>2206</v>
+      </c>
+      <c r="I1062" s="2" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1063" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1063" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1063" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1063" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1063" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1063" s="2" t="s">
+        <v>2208</v>
+      </c>
+      <c r="I1063" s="2" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1064" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1064" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1064" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1064" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1064" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1064" s="2" t="s">
+        <v>2210</v>
+      </c>
+      <c r="I1064" s="2" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1065" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1065" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1065" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1065" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1065" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1065" s="2" t="s">
+        <v>2212</v>
+      </c>
+      <c r="I1065" s="2" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1066" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1066" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1066" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1066" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1066" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1066" s="2" t="s">
+        <v>2214</v>
+      </c>
+      <c r="I1066" s="2" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1067" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1067" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1067" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1067" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1067" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1067" s="2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="I1067" s="2" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1068" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1068" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1068" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1068" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1068" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1068" s="2" t="s">
+        <v>2218</v>
+      </c>
+      <c r="I1068" s="2" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1069" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1069" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1069" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1069" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1069" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1069" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="I1069" s="2" t="s">
+        <v>2221</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A563:WVQ609">
     <sortCondition descending="1" ref="F563:F609"/>
